--- a/Scrapping_test/job.xlsx
+++ b/Scrapping_test/job.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,27 +397,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Back Office and Customer Support Agent</t>
+          <t>Մատուցող / Մատուցողուհիներ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Applebrie Limited</t>
+          <t>Sorriso Cafe Gelateria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2/19/2019</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Excellent command of the English language both written and spoken. Tech savvy and comfortable learning to use new software Experience with customer support Hard working can do attitude and not afraid to learn new things </t>
+          <t xml:space="preserve">Ոչ լրիվ աշխատանքային օր Ճկուն գրաֆիկ Ճանապարհածախս Համազգեստ Պաշտոնապես աշխատանքի հաշվառում Կարիերային առաջխաղացման հնարավորություն </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -427,34 +427,34 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>3/21/2019</t>
+          <t>4/1/2019</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Տնօրեն - Իրավաբան</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ՖԵՐԱԿՕ ՍՊԸ</t>
+          <t>Hydrocorporation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Project, Program Management</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>230000</t>
+          <t>350000</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">աշխատանքային ժամերը՝ 9,30:00-24:00 աշխատանքային գրաֆիկը՝ շաբաթական մեկ օր հանգիստ տարիքը՝ մինչև 40 տարեկան (արական սեռ) աշխատանքային փորձը տվյալ ոլորտում և տվյալ հաստիքում ՊԱՐՏԱԴԻՐ է </t>
+          <t xml:space="preserve">Բարձրագույն իրավաբանական կրթություն, Աշխատանքային փորձ կառավարման ոլորտում, Համակարգչային բազային գիտելիքներ (MC office), Լեզուների իմացությունը կդիտվի որպես առավելություն: </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -464,34 +464,34 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2/18/2019</t>
+          <t>4/1/2019</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Հաշվետար (օպերատոր)</t>
+          <t>SMM մասնագետ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SDM LLC</t>
+          <t>Տիկո Հոլդինգ ՍՊԸ</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Marketing, Advertising, PR</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2/18/2019</t>
+          <t>4/1/2019</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն կրթություն , ցանկալի է տնտեսագիտության ոլորտում աշխատանքային փորձ տվյալ ոլորտում համակարգչային գիտելիքներ/Excel-ի իմացություն/, ՀԾ վաճառքներ և ՀԾ Հաշվապահ ծրագրերի իմացություն ռուսերեն լեզվի իմացություն  </t>
+          <t xml:space="preserve">կրթությունը՝ բարձրագույն կրթություն մարքեթինգի, հանրային կապերի կամ հարակից որևէ ոլորտում (ցանկալի) աշխատանքային փորձը ցանկալի է  պարտադիր հմտություններ՝  ստեղծագործական և նորարարական մոտեցում աշխատանքին ցանկալի հմտություններ՝ գրաֆիկական դիզայնի ծրագրերի իմացություն (Photoshop, Corеl Draw և այլն) </t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -501,34 +501,29 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>2/26/2019</t>
+          <t>5/1/2019</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Պրեսելլեր</t>
+          <t>Night Shift Receptionist</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SDM LLC</t>
+          <t>Bass Boutique Hotel</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Tourism, Hospitality</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2/18/2019</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
+          <t>3/30/2019</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -538,93 +533,93 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>2/26/2019</t>
+          <t>4/29/2019</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Բիզնես խորհրդատու</t>
+          <t>Store Manager</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>INECOBANK CJSC</t>
+          <t>EGO Concept Store</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>3/29/2019</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">ֆինանսական հաշվետվությունների վերլուծություն Բանկային օրենսդրության իմացություն Բանկային գործի իմացություն </t>
+          <t xml:space="preserve">կոկիկ և ներկայանալի արտաքին գրագետ խոսք (անգլերեն և ռուսերեն լեզուների իմացությունը կդիտվի որպես առավելություն) համակարգչային տարրական գիտելիքներ բարձրագույն կամ միջին մասնագիտական կրթություն աշխատանքային փորձ սպասարկման ոլորտում հաճախորդների հետ բարեհամբույր հաղորդակցման ունակություն կարգապահություն, ազնվություն, ոչ կոնֆլիկտային բնավորություն ժպտալու և լավ տրամադրություն հաղորդելու պատրաստակամություն, նույնիսկ աշխատանքային օրվա վերջում </t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Gyumri</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>2/18/2019</t>
+          <t>4/29/2019</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Ֆինանսական խորհրդատու</t>
+          <t>Վաճառող - Խորհրդատու</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>INECOBANK CJSC</t>
+          <t>Տիկո Հոլդինգ ՍՊԸ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>100,000 + % վաճառքից</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բանկային գործի իմացություն (լավ) Բանկային օրենսդրության իմացություն (լավ) </t>
+          <t xml:space="preserve">Աշխատանքային փորձն ու դիմահարդարման հմտությունները ցանկալի են Նպատակասլացություն Պատասխանատվություն Հաղորդակցման հմտություններ Վաճառքի հմտություններ </t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Vanadzor</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>2/18/2019</t>
+          <t>3/29/2019</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Խորհրդատու - Վաճառողուհի</t>
+          <t>Վաճառող - Խորհրդատու</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ԿՈՆՏԵ ԷԼԵԳԱՆՏ ՍՊԸ</t>
+          <t>Gioielli Boutique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -634,12 +629,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2/18/2019</t>
+          <t>3/29/2019</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Հաճախորդների հետ բարեհամբույր հաղորդակցման ունակություն Ինքնուրույն և թիմում աշխատելու հմտություն Հայերեն, անգլերեն և ռուսերեն լեզուների իմացություն Աշխատանքի փորձը ցանկալի է </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն, Սպասարկման ոլորտում աշխատանքային փորձը ցանկալի է, Ռուսերեն և անգլերեն լեզուների իմացություն, Համակարգչային բազային գիտելիքներ, Հաղորդակցման և թիմային աշխատանքի հմտություններ, Ճշտապահություն և պատասխանատվության զգացում, Նոր գիտելիքների և հմտությունների ձեռք բերելու  ցանկություն: </t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -649,71 +644,71 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>3/20/2019</t>
+          <t>4/28/2019</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SMM, SEO մասնագետ</t>
+          <t>Ինժեներ - Նախագծող /Կոնստրուկտոր/</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Մոշն Թայմ</t>
+          <t>KMK LLC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Marketing, Advertising, PR</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Պայմանագրային՝ կախված հմտություններից և փորձից</t>
+          <t>3/29/2019</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">Սոցիալական կայք - էջերի վարման փորձառություն, կայքի օպտիմիզացիա և առաջխաղացում SEO գործիքների բազային իմացություն, ինչպիսին են Google Analytics, Google Adwords, Webmaster, HTML, CSS Facebook, Twitter, Instagram, Tumblr, Youtube, Pinterest, Linkedin, Google+ լավ իմացություն, Հայերեն, ռուսերեն,անգլերեն լեզվի գրավոր և բանավոր բարձր մակարդակ, սովորելու ցանկություն, մանրուքների նկատմամբ ուշադրություն, ճշտապահություն և ժամանակի արդյունավետ կառավարման ունակություն, սոցիալական ցանցերում և մեդիայում վիճակագրությունների վերլուծության մեթոդների իմացություն Մարքետինգային և գովազդային միջոցառումների իրականացում, վաճառքի ծավալների ընդլայման նպատակով Պորտֆոլիոյի առարկություն </t>
+          <t xml:space="preserve">բարձրագույն, թերի բարձրագույն, միջին մասնագիտական կրթություն վստահ PC օգտվող: AUTOCAD / SolidWorks գիտելիքները; ուշադրություն; ճշգրտություն; պատասխանատվություն; ճշտապահություն; ռուսաց լեզվի իմացություն, տեխնիկական անգլերենի իմացությունը ցանկալի է: </t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Moscow region, Klin city, Russia</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>2/15/2019</t>
+          <t>4/28/2019</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Փրկարար</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NewPlast CJSC</t>
+          <t>Վալենսիա ՀՁ ՍՊԸ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2/15/2019</t>
+          <t>3/29/2019</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն  Վաճառքի հմտությունների տիրապետում  Արական սեռի ներկայացուցիչ  Վարորդական վկայականի ու մեքենայի առկայությունը պարտադիր է  Հայերեն և ռուսերեն լեզուների իմացություն  Համակարգչային գիտելիքներ /Excel, Word/  Բարձր ինտելեկտի առկայություն, գրագիտություն  Վաճառքի աշխատանքային պարտադիր փորձ  Շինանյութի բնագավառում փորձը կդիտվի որպես առավելություն  </t>
+          <t xml:space="preserve">Սեռ՝ արական, իգական Պարտադիր լողալու կարողությամբ Տարիք՝ 18-35տ Բարձրագույն մասնագիտական կրթությունը ցանկալի է / լողի բաժին, ջրացատկ/ Ցանկալի է ունենալ լողորդի որակավորում՝ սերտիֆիկատ, դիպլոմ Ուշադրություն, զգոնություն ջրայգում հանգստացող հաճախորդների նկատմանբ </t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -723,34 +718,34 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>3/17/2019</t>
+          <t>4/5/2019</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SMM մասնագետ</t>
+          <t>Տեխնիկական Վերահսկողության Մասնագետ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Service Group</t>
+          <t>ARCON</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing, Advertising, PR</t>
+          <t>Production, Operations</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>150 000 ՀՀ դրամ</t>
+          <t>3/29/2019</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Առնվազն 1 տարվա աշխատանքային փորձ տվյալ ոլորտում Սոց. ցանցերի գերազանց տիրապետում՝ facebook, instagram, youtube, linkedin, tripadvisor Հայերեն, անգլերեն լեզուների իմացություն Կրեատիվություն, վերլուծողականություն, պատասխանատվության զգացում </t>
+          <t xml:space="preserve">1-3 տարվա արտադրության աշխատանքային փորձ, Ռուսաց լեզվի վարժ տիրապետում, Բարձրագույն կամ միջին մասնագիտական տեխնիկական կրթություն, MS Office- ի իմացություն, 1C- ի իմացությունը ողջունելի է, Ավտոմեքենայի առկայությունը ողջունելի է, Ծրագրերի կառավարման փորձ, Վերլուծական միտք, Պատասխանատվության զգացում, Հաստատակամություն, Ջանասիրություն, Բազմակողմանի աշխատանք վարելու ունակություն, Սթրեսակայունություն: </t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -760,34 +755,34 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>2/14/2019</t>
+          <t>4/28/2019</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Գրաֆիկ Դիզայներ</t>
+          <t>Անշարժ Գույքի Գործակալ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Մոշն Թայմ</t>
+          <t>Alex-R</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Art, Design</t>
+          <t>Real Estate</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2/14/2019</t>
+          <t>120000</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կրեատիվ և հետաքրքիր մտածողություն Ֆանտազիայի առկայություն Adobe Photoshop, Adobe Illustrator/Corel Draw և 3ds Max-ի պարտադիր իմացություն Թիմում աշխատելու կարողություն և պատրաստակամություն Լարված իրավիճակներում աշխատելու կարողություն Հստակ վերջնաժամկետների պայմաններում աշխատելու կարողություն և պատասխանատվություն </t>
+          <t xml:space="preserve">Մեքենա վարելու ունակություն, Համակարգչից վարժ օգտվելու ունակություն, Թիմային աշխատանքի հմտություններ, Հաճախորդների հետ շփման, արագ կողմնորոշման ունակություն, Բանակցային հմտություններ, Աշխատասիրություն, Բարձրագույն կրթությունը ցանկալի է։ </t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -797,34 +792,34 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>3/16/2019</t>
+          <t>3/28/2019</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Ավիատոմսերի ամրագրման և վաճառքի գործակալ</t>
+          <t>Պահեստապետ</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>«Սիբիր» ավիաընկերության ներկայացուցչություն</t>
+          <t>«Այ Թի Լոջիք» Տեք</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2/14/2019</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">կրթություն`բարձրագույն աշխատանքային փորձ`ցանկալի Սեռ` իգական Տարիք` մինչև 40 տ. պարտադիր հմտություններ` Amadeus ծրագրի իմացություն, ռուսերենի լավ և անգլերենի  (Intermediate) իմացություն, համակարգչային ծրագրերի լավ տիրապետում </t>
+          <t xml:space="preserve">վարորդական իրավունքի առկայություն, տոկունություն,  թիմում աշխատելու կարողություն: </t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -834,34 +829,34 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>3/16/2019</t>
+          <t>3/28/2019</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Միջոցառումների Մենեջեր</t>
+          <t>Վաճառողուհի / Գանձապահ / Բարիստա</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Service Group</t>
+          <t>Sorriso Cafe Gelateria</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Administrative, Clerical</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>սկսած 100 000 դրամից</t>
+          <t>Մրցակցային</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Աշխատանքային փորձ՝ ցանկալի է միջոցառումների կազմակերպման ոլորտում Գիտելիքներ ինտերնետի ոլորտում Կրեատիվ և ոչ ստանդարտ մտածողություն Աշխատասիրություն և պատասխատատվության զգացողություն </t>
+          <t xml:space="preserve">Ոչ լրիվ աշխատանքային օր Ճկուն գրաֆիկ Աշխատանքային փորձը պարտադիր չէ Ճանապարհածախս Համազգեստ Պաշտոնապես աշխատանքի հաշվառում Կարիերային առաջխաղացման հնարավորություն </t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -871,34 +866,34 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>2/13/2019</t>
+          <t>3/28/2019</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1C Ծրագրավորող</t>
+          <t>Ինտերիեր / Էքստերիերի 3D Դիզայներ</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ՋԻ ՍՈՖՏ</t>
+          <t>3D STUDIO</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Art, Design</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2/13/2019</t>
+          <t>Ըստ Պրոեկտի</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Առնվազն 1 տարվա աշխատանքային փորձ՝ 1C7, 1C8 լեզուներով OOP սկզբունքների ամբողջական ընկալում Ծրագրային ապահովման մշակման, թեստավորման և ներդրման ստանդարտների իմացություն SQL-ի իմացություն Թիմային աշխատանքի հմտություններ </t>
+          <t xml:space="preserve">Կրթությունը ՝ 3D Vizualizator and Designer,  աշխատանքային փորձ ՝ Պարտադիր, պարտադիր հմտություններ՝ 3Ds Max 2017(18), Corona․ 2 , Photoshope 2017 ծրագրերի գերազանց տիրապետում, ցանկալի հմտություններ՝ 3D Animaciya Interior and Exterior , Vertual Tour 360°: </t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -908,34 +903,34 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>3/15/2019</t>
+          <t>3/28/2019</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Դեղագետ - Վաճառողուհի</t>
+          <t>ՄՌ հավաքագրման մասնագետ /HR Recruiter/</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Medtechservice</t>
+          <t>Երեմյան Փրոջեքթս</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Medical, Health, Fitness, Beauty</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>3/28/2019</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">25-40 տարեկան /արական, իգական/ Բարձրագույն մասնագիտական կրթություն Աշխատանքային փորձը պարտադիր է Հաղորդակցման հմտություններ Գրագետ խոսք Ռուսերեն լեզվի իմացություն Այլ լեզուների իմացությունը կդիտվի որպես առավելություն Համակարգչային գիտելիքներ </t>
+          <t xml:space="preserve">Հավաքագրման փորձ՝ նվազագույնը 2 տարի,  Հարցազրույց վարելու հմտություն,  Անգլերենի իմացություն աշխատանքային մակարդակում,  Հաղորդակցման հմտություն,  Ուշադրություն և կենտրոնացում: </t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -945,34 +940,34 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>2/12/2019</t>
+          <t>4/6/2019</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>MICE / Tourism Manager</t>
+          <t>PHP Ծրագրավորող</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Go2Armenia.com</t>
+          <t>ՍՏՌ Արմենիա</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tourism, Hospitality</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Competitive, depending on previous experience</t>
+          <t>3/27/2019</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">HTML- ի եւ CSS- ի լավ իմացություն PHP-ի օգտագործմամբ WEB հավելվածներ մշակելու պրակտիկ փորձ, PHP-ի օգտագործմամբ համակարգերի օբյեկտաուղղորդված նախագծման եւ ծրագրավորման փորձ, PHP-ով ծրագրավորման շրջանակներում jQuery-PHP, JSON, XML եւ AJAX գրադարանների կիրառման միջոցով WEB հավելվածների մշակման փորձ PHP-ի կիրառմամբ (Laravel, Symfony) framework-ների միջոցով ծրագրավորման պրակտիկ փորձ ունենալը տալիս է լրացուցիչ բոնուսներ OOP-ի կիրառմամբ նախագծման և ծրագրավորման ոլորտում խորը գիտելիքներ PHPUnit- ի կիրառման հետ ունեցած աշխատանքային փորձը տալիս է լրացուցիչ բոնուսներ MySQL տվյալների կառավարման համակարգի խորը իմացություն՝ MySQL / PostgreSQL տվյալների կառավարման համակարգերի կիրառմամբ բազաների նախագծման պրակտիկ փորձ LINUX-ի վրա հիմնված օպերացիոն համակարգերի իմացություն, սերվերի վրա ծրագրային համակարգերի տեղակայման եւ սպասարկման ունակություն Google Map-ի տրամադրած միջոցների կիրառման միջոցով ծրագրային համակարգերի մշակման ունակություն PHP- ով համակարգերի մշակման առնվազն 3 տարվա աշխատանքային փորձ սեփական HTTP-API- ի ստեղծման եւ երրորդ կողմի API- ների ինտեգրման փորձ JS-ի կիրառմամբ (jQuery կամ այլ JS framework-ների) կլիենտային մասի ծրագրավորման փորձը կհամարվի էական առավելություն </t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -982,34 +977,34 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>2/12/2019</t>
+          <t>4/26/2019</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Sales Officer in Freight Forwarding company</t>
+          <t>Hardware Designer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>East West Logistics</t>
+          <t>OLYMP Engineering LLC</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Logistics, Transportation</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2/11/2019</t>
+          <t>150,000 to 400,000 AMD</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">at least 1 year of work experience in Sales and Marketing good knowledge of English good knowledge of Russian computer literacy experience in transportation is preferable knowledge of other foreign languages is preferable (Farsi, Turkish, Chinese, etc.) ability to work under pressure perfect communication skills team-work abilities analytical skills being responsible person </t>
+          <t xml:space="preserve">Bachelor's degree in Electronics Engineering or experience in a related field; Experience with PCB Schematics design software’s; Experience working with Altium Designer; Experience designing circuits operating at frequencies greater than 1 GHz; Ability to research and study technical documentation, schematics and datasheets; Demonstrated ability to work in a team environment; Excellent statistical data analysis and problem solving abilities; Basic knowledge in the area of electrical engineering; Knowledge of English language. </t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1019,34 +1014,34 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>3/13/2019</t>
+          <t>3/27/2019</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Assistant to General Director</t>
+          <t>Հաճախորդների սպասարկման աշխատակից</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Trans Alliance Ltd</t>
+          <t>8778 Հայաստան Տեղեկատու</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Logistics, Transportation</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2/11/2019</t>
+          <t>100000 - 120000</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">Higher education Technical education is mandatory Desirable to have an experience in transportation Good knowledge of Armenian, Russian and English languages Strong leadership and problem-solving skills Excellent knowledge of Microsoft Office Excellent communication and presentation skills Ability to work under pressure and within strict time frames Well-organized, responsible and result-oriented personality </t>
+          <t xml:space="preserve">CorelDrow, Photoshop ծրագրերի իմացությունը պարտադիր QuarkXpress, Adobe Illustrator ծրագերի իմացությամբ ռեզյումեները կդիտարկվեն առաջնային </t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1056,34 +1051,34 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>3/13/2019</t>
+          <t>3/27/2019</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>B2B Վաճառքի Մենեջեր</t>
+          <t>Իրավաբան</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>JSoft</t>
+          <t>AM GROUP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Legal, Insurance</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>60,000-500,000դր</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">պարտադիր աշխատանքային փորձ՝ տվյալ ոլորտում (նվազագույնը 2 տարի), ցանկալի է ՏՏ ոլորտում ծառայություն մատուցող ընկերություններում սառը զանգեր կատարելու փորձ վաճառքի ռազմավարության, պլանավորման և իրականացման փորձ կորպորատիվ հաճախորդների հետ աշխատելու փորձ մարքեթինգի և բանակցային տեխնիկաների իմացություն հաղորդակցվելու, ներկայացնելու և ազդեցություն գործադրելու հմտություններ լսելու և ներկայանալու գերազանց հմտություններ խոսակցական և գրավոր հաղորդակցման գերազանց հմտություններ ներկայանալի տեսք, հղկված խոսք անգլերեն և ռուսերեն լեզուների տիրապետում համակարգչային գրագիտություն (Google Docs փաթեթի իմացություն) բարձրագույն կրթությունը ցանկալի է </t>
+          <t xml:space="preserve">կրթություն՝ իրավաբան / իրավագետ աշխատանքային փորձը ցանկալի է պարտադիր հմտություններ ՝ համակարգչային գերազանց գիտելիքներ, տրամաբնության և հռետորական արվեստի տիրապետում ցանկալի հմտություններ` օտար լեզվի իմացություն </t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1093,34 +1088,34 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>2/11/2019</t>
+          <t>3/26/2019</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SMM մասնագետ</t>
+          <t>Senior Java Developer</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Figaro LLC</t>
+          <t>Catches</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Marketing, Advertising, PR</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>150000</t>
+          <t>3/26/2019</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթութուն Հայերեն, անգլերեն, ռուսերեն լեզուների իմացություն Կրեատիվություն Վերլուծողականություն Պատասխանատվություն Առնվազն մեկ տարվա փորձ տվյալ ոլորտում </t>
+          <t xml:space="preserve">Bachelor's degree in an IT-related field; At least 2 years of experience in Java development; Excellent knowledge of Java Core and OOP; At least 1 year of experience with Spring, Hibernate frameworks, JDBC and Restful API; Strong analytical skills; Advanced/ good level of English language; Knowledge of payment gateways is a big plus. </t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1130,34 +1125,34 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>2/10/2019</t>
+          <t>4/25/2019</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Senior React developer</t>
+          <t>Արտադրական պրոցեսների ավտոմատացման մասնագետ (АСУТП)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AKNA</t>
+          <t>Industrial Components LLC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2/9/2019</t>
+          <t>3/26/2019</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">տեխնիկական հարցերով խորհրդատվություն հանդիպումներ հաճախորդների հետ ապրանքների և բրենդերի առաջխաղացման նպատակով մասնակցություն դասընթացների և որակավորման բարձրացում նյութերի մշակում և պրեզենտացիաների պատրաստում նոր հաճախորդների ներգրավում </t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1167,19 +1162,19 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>3/11/2019</t>
+          <t>4/25/2019</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Վաճառողուհի - Գանձապահ - Բարիստա</t>
+          <t>Sales Consultant</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sorriso Cafe Gelateria</t>
+          <t>Թայմլես ՍՊԸ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1189,12 +1184,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>3/25/2019</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ոչ լրիվ աշխատանքային օր Ճկուն գրաֆիկ Աշխատանքային փորձը պարտադիր չէ Ճանապարհածախս Համազգեստ Պաշտոնապես աշխատանքի հաշվառում Կարիերային առաջխաղացման հնարավորություն </t>
+          <t xml:space="preserve">Higher education; Work experience in a relevant field is a plus; Fluency in Armenian, Russian and English languages; Good knowledge of MS Excel; knowledge of 1C is a plus; Understanding of the specific of premium product sales; Strong communication and negotiations skills; Highly responsible and attentive to details person; Ability to work under the time pressure. </t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1204,34 +1199,34 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>2/8/2019</t>
+          <t>4/2/2019</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Լայնաֆորմատ տպագրության հաստոցի աշխատակից</t>
+          <t>.NET / .NET Core Software Developers Full Time</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Մոշն Թայմ</t>
+          <t>Applebrie Limited</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Production, Operations</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>150.000-200.000</t>
+          <t>1,000,000</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Proven experience as full stack developer Experience working in an Agile Development environment Experience with building web applications/ software Top-notch programming skills and in-depth knowledge of modern code practices Ability to code in a few programming languages (back and front) including Angular, .NET et al. Experience working with web and Rest APIs Solid database experience with MS SQL A solid understanding of how web applications work including security, session management, and best development practices In-depth knowledge of programming for diverse operating systems, browsers and platforms using development tools Excellent understanding of software design and programming principles. A team player with excellent communication skills Analytical thinking and problem-solving capability Great attention to detail and time-management skills BSc/BA in computer science or relevant field Experience in DevOps and SaaS a plus </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1241,34 +1236,34 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>2/6/2019</t>
+          <t>3/25/2019</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Մարքեթինգի Մենեջեր</t>
+          <t>Գլխավոր հաշվապահի օգնական</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Մոշն Թայմ</t>
+          <t>ՍՏՌ Արմենիա</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Marketing, Advertising, PR</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2/6/2019</t>
+          <t>3/25/2019</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Բակալավրի աստիճան հաշվապահական հաշվառման, ֆինանսական կամ համապատասխան ոլորտներում 3-5 տարվա աշխատանքային փորձ ՀԾ հաշվապահ 7 ծրագրի իմացություն Հարկային օրենսդրության իմացություն Համակարգչային գիտելիքներ( Word, Excel, PowerPoint, Microsoft project կամ նմանատիպ այլ ծրագիր) Գերազանց վերլուծական հմտություններ Խնդիրների լուծման և որոշումներ կայացնելու խորը զարգացած հմտություններ Պլանավորման և կազմակերպչական հմտություններ, Համագործակցում/թիմային աշխատանք Գերազանց հայերեն, ռուսերեն լեզուների իմացություն, անգլերերենի իամցությունը ցանկալի </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1278,34 +1273,34 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>3/8/2019</t>
+          <t>4/24/2019</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Բանվոր - Առաքիչ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Մոշն Թայմ</t>
+          <t>ՅՈՒՆԻՓՈՒԼ ՍՊԸ</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>600.000</t>
+          <t>130,000 ՀՀդրամ+պարգևատրում</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">կրթություն - միջնակարգ աշխատանքային փորձ  պարտադիր հմտություններ - մեքենայի վարում B կարգ </t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1315,34 +1310,34 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>2/6/2019</t>
+          <t>3/22/2019</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Բժշկական Ներկայացուցիչ</t>
+          <t>Տեղեկատվական Կենտրոնի Աշխատակցուհի</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Pharm Trust LLC</t>
+          <t>ՄԵԾ ԱՆԻՎ</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Medical, Health, Fitness, Beauty</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2/6/2019</t>
+          <t>3/22/2019</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">տարիքը 25-40 տ. բարձրագույն կրթություն՝ բժշկական կամ դեղագիտական նմանատիպ աշխատանքային փորձ՝ առնվազն 2 տարի համակարգչային բազային ծրագրերի իմացություն՝ Word, Exсel, internet օտար լեզուների իմացություն. ռուսերեն՝ գերազանց, անգլերեն՝ բազային,խոսակցական վարորդական իրավունքի առկայություն և վարման փորձը ցանկալի է </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն, Հայերեն, ռուսերեն  և անգլերեն լեզուների գերազանց իմացություն,  Հաղորդակցման բարձր հմտություններ, Բարեհամբույր, Կոնֆլիկտային իրավիճակներում կողմնորոշվելու ունակություն, Համակարգչային գիտելիքներ, Photoshop կամ Corel Draw ծրագրերի պարտադիր իմացություն: </t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1352,34 +1347,34 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>3/8/2019</t>
+          <t>4/21/2019</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ապառիկ համագործակցության մասնագետ</t>
+          <t>Ներգնա Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>INECOBANK CJSC</t>
+          <t>Aquarius Travel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Tourism, Hospitality</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>3/22/2019</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Վաճառքի մեխանիզմների իմացություն (միջին) Բանկային գործի և բանկային օրենսդրության իմացություն (միջին) </t>
+          <t xml:space="preserve">Պարտադիր հմտություններ՝ լեզուների ԳԵՐԱԶԱՆՑ իմացություն Համակարգչային՝ Microsoft ծրագրերի գերազանց տիրապետում աշխատանքային փորձը պարտադիր չէ ցանկալի հմտություններ՝ ակտիվ, շփվող, արագ ըմբռնող, լավ հիշողություն </t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1389,34 +1384,34 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>2/6/2019</t>
+          <t>4/21/2019</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Նկարիչ - Էմալագործ</t>
+          <t>Շուկայի Զարգացման Պատասխանատու</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Kerbedanz</t>
+          <t>Ayvazyan &amp; Partners</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Art, Design</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>մրցակցային բարձր</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">աշխատանքային փորձը պարտադիր է </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն Առնվազն 2 տարվա աշխատանքային փորձ վաճառքի ոլորտում Հաղորդակցման և բանակցելու գերազանց հմտություններ MS Office փաթեթի լավ իմացություն,1C-ի իմացությունը կդիտվի որպես առավելություն Ճկունություն և սթրեսակայունություն Մեծ ծավալի տեղեկատվության հետ աշխատելու ունակություն Ինքնակատարելագուրծման մեծ ցանկություն և պատասխանատվություն </t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1426,34 +1421,34 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>2/5/2019</t>
+          <t>3/22/2019</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ներգնա Տուր Մենեջեր</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Aquarius Travel</t>
+          <t>Մոշն Թայմ</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Tourism, Hospitality</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2/5/2019</t>
+          <t>3/22/2019</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">Պարտադիր հմտություններ՝ լեզուների ԳԵՐԱԶԱՆՑ իմացություն Համակարգչային՝ Microsoft ծրագրերի գերազանց տիրապետում աշխատանքային փորձը պարտադիր չէ ցանկալի հմտություններ՝ ակտիվ, շփվող, արագ ըմբռնող, լավ հիշողություն </t>
+          <t xml:space="preserve">բարձրագույն կրթություն (ցանկալի է տնտեսագիտության ոլորտում) աշխատանքային փորձ առնվազն 1 տարի հայերեն գրագետ բանավոր և գրավոր խոսք, ռուսերենի և անգլերենի գերազանց իմացությունը կդիտվի որպես առավելություն համակարգչային գիտելիքներ - Microsoft Office, Microsoft Excel, Power Point մեծ ծավալի տեղեկատվության հետ աշխատելու ունակություն սթրեսակայունություն </t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1463,34 +1458,34 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>3/7/2019</t>
+          <t>4/21/2019</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Tour Manager</t>
+          <t>Մարքեթինգի Մենեջեր</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>7 Travel Armenia</t>
+          <t>Մոշն Թայմ</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Tourism, Hospitality</t>
+          <t>Marketing, Advertising, PR</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Competitive salary + % of sales</t>
+          <t>3/21/2019</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն մարքեթինգի կամ բիզնեսի կառավարման ոլորտում, Համապատասխան ոլորտում աշխատանքային փորձ, Սոցիալական կայք - էջերի վարման փորձառություն, կայքի օպտիմիզացիա և առաջխաղացում SEO գործիքների բազային իմացություն, ինչպիսին են Google Analytics, Google Adwords, Webmaster, HTML, CSS Facebook, Twitter, Instagram, Tumblr, Youtube, Pinterest, Linkedin, Google+ լավ իմացություն, Վաճառքների խթանման փորձ, Հաղորդակցության գերազանց հմտություններ, Նորարար և կրեատիվ մտածողություն, Վերլուծական մտածողություն, Նախագծերի կառավարման ունակություն, Թիմում աշխատելու հմտություններ, Հայերեն, անգլերեն և ռուսերեն լեզուների իմացություն, Microsoft Office ծրագրերի լավ իմացություն, Տպարանների, դիզայն ստուդիաների և աշխատանքի համար անհրաժեշտ նյութերի մատակարարների հետ աշխատելու փորձ: </t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1500,34 +1495,34 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>2/5/2019</t>
+          <t>4/20/2019</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Back-End Developer</t>
+          <t>Գրաֆիկ Դիզայներ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Concept Studio</t>
+          <t>Մոշն Թայմ</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Art, Design</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2/4/2019</t>
+          <t>3/21/2019</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bachelor's degree in Computer Science; Min. 1 years of experience Strong communication skills required (English is a plus) Hard-working with strong willingness to learn A strong knowledge of JS( jQuery) A strong knowledge of PHP(OOP), MySQL Experience with Laravel A good ability to troubleshoot functional and layout issues Knowing how to use Git knowledge of node.js is a plus </t>
+          <t xml:space="preserve">Կրեատիվ և հետաքրքիր մտածողություն Ֆանտազիայի առկայություն Adobe Photoshop, Adobe Illustrator/Corel Draw և 3ds Max-ի պարտադիր իմացություն Թիմում աշխատելու կարողություն և պատրաստակամություն Լարված իրավիճակներում աշխատելու կարողություն Հստակ վերջնաժամկետների պայմաններում աշխատելու կարողություն և պատասխանատվություն </t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -1537,34 +1532,34 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>3/6/2019</t>
+          <t>4/20/2019</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Graphic Designer</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Concept Studio</t>
+          <t>Mr. GYROS</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Art, Design</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2/1/2019</t>
+          <t>3/21/2019</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delivering on day-to-day execution of assigned projects. Create, manage, maintain and/or organize creative assets used by the graphics team. Concept and create great editorial layouts in a wide range of styles. Participate in ideation, creation, and delivery of: Brand, graphical elements, visual identity, stationary design elements, packaging </t>
+          <t xml:space="preserve">POS, ՀԴՄ-ի հետ աշխատելու կարողություն, Դրամական միջոցների հետ աշխատելու կարողություն, Հստակ ձեւակերպված պարզ խոսք (ռուսերեն, անգլերեն մինիմալ գիտելիքներ), Թիմային աշխատանքի ցանկություն եւ կարողություն, Արագ կողմնորոշվելու ունակություն, զարգացած ուշադրություն եւ հիշողություն, Պարտաճանաչություն, պատասխանատվության բարձր զգացում: </t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1574,56 +1569,56 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>3/3/2019</t>
+          <t>4/20/2019</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Front-End Developer</t>
+          <t>Տուրիզմի Մենեջեր</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Concept Studio</t>
+          <t>Maratuk LLC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Tourism, Hospitality</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2/1/2019</t>
+          <t>3/20/2019</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">JavaScript JQuery HTML CSS (SASS) Git </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն, Աշխատանքային փորձ տուրիզմի բնագավառում, Անգլերեն և ռուսերեն լեզուների վարժիմացություն, արաբերենի բավարար իմացություն, MS Office ծրագրերի իմացություն, Հաղորդակցվելու ունակություն, ճկունություն, Թիմային աշխատանք: </t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Դուբայ ԱՄԷ</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>3/3/2019</t>
+          <t>4/19/2019</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Brand Manager</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Sacvoyage store</t>
+          <t>ՍՏՌ Արմենիա</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1633,12 +1628,12 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>3/20/2019</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bachelor’s Degree in Marketing or related field Previous experience of managing a Brand including Merchandise Buying, Store Operations; A strong understanding and passion in following fashion trends  Proven ability to manage a retail budget, sales versus targets and high achievement of results against forecasts Strong people management, training and performance management skills Excellent communication and presentation skills  Fluent knowledge of English, Russian and Armenian  </t>
+          <t xml:space="preserve">աշխատանքային փորձը վաճառքի ոլորտում ցանկալի է լեզվական հմտություններ. հայերեն, ռուսերեն և անգլերեն լեզուների իմացություն, համկարգչային ծրագրերի տիրապետում (MS  office  Word, Excel) արդյունավետ թիմային աշխատանքի և ժամանակի կառավարման հմտություններ, կազմակերպչական, հաղորդակցման և բանակցությունների վարման հմտություններ,  կոնֆլիկտների և սթրեսային իրավիճակների կառավարման հմտություններ։ </t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1648,71 +1643,71 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>1/31/2019</t>
+          <t>4/19/2019</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Անգլերեն լեզվի դասավանդող (մասնագետներ)</t>
+          <t>Թիմ Լիդեր</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>IRC</t>
+          <t>Տիկո Հոլդինգ ՍՊԸ</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Education, Training, Instruction</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>1500-2500$</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն կրթույուն գերազանց անգլերենի իմացություն կարգապահություն արտասահմանյան կոլեկտիվներում շուտ ընդգրկվելու և երեխաների հետ աշխատելու հմտություններ </t>
+          <t xml:space="preserve">Աշխատանքային փորձը պարտադիր է, Ավտոմեքենայի առկայությունը պարտադիր է: </t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Չինաստանի Ժողովրդական Հանրապետություն</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>1/30/2019</t>
+          <t>3/20/2019</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Դեղագետ / Վաճառքի խորհրդատու</t>
+          <t>Բարմեն - Բարիստա</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ԷԼԴԵՔՍ ՓԲԸ</t>
+          <t>Sorriso Cafe Gelateria</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Medical, Health, Fitness, Beauty</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1/30/2019</t>
+          <t>200000</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Իգական սեռ Վաճառքի գերազանց հմտություն Բարձրագույն կրթություն (դեղագետ կամ ստոմատոլոգ) Ռուսերեն և անգլերեն լեզուների իմացություն Հաղորդակցվելու և մարդկանց հետ շփվելու ունակություն Ներկայացման գերազանց հմտություններ Համակարգչային գիտելիքներ (MS Office, Internet ) </t>
+          <t xml:space="preserve">Ոչ լրիվ աշխատանքային օր Ուսուցում Ճկուն գրաֆիկ Ճանապարհածախս Համազգեստ Պաշտոնապես աշխատանքի հաշվառում Կարիերային առաջխաղացման հնարավորություն </t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -1722,34 +1717,34 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>3/1/2019</t>
+          <t>3/20/2019</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Բժշկական Ներկայացուցիչ</t>
+          <t>Ռեստորանի Մենեջեր</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>MLN Pharm LLC</t>
+          <t>Yasaman Family LLC</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Medical, Health, Fitness, Beauty</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>1/30/2019</t>
+          <t>3/19/2019</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն դեղագործական / բժշկական կրթություն, Առնվազն 2 տարվա աշխատանքային փորձ, Հայերենի և ռուսերենի լավ իմացություն; անգլերենի իմացությունը կդիտարկվի որպես առավելություն, MS Office Suite- ի իմացություն (Word, Excel եւ Power Point), Թիմում աշխատելու ունակություն, Ճկունություն և սահմանափակ ժամանակի ընթացքում աշխատելու ունակություն, Գերազանց հաղորդակցման հմտություններ, Չափազանց կազմակերպված և բարձր մոտիվացված անձնավորություն, </t>
+          <t xml:space="preserve">Տարիք՝ 25-35, Բարձրագույն կրթությունը և աշխատանքային փորձը ռեստորանային ոլորտում կդիտվի որպես առավելություն, Ռուսերեն և անգլերեն լեզվի իմացությունը կդիտվի որպես առավելություն, Ղեկավարման փորձ՝ 1-3տ., Ներկայանալի տեսք, Հաղորդակցման ունակություն և բարդ իրավիճակներում մարդկանց հետ շփվելու կարողություն, Ուղղորդման ունակություն և կազմակերպչական հմտություններ, Պատասխանատվության զգացում և աշխատանքի նկատմամբ բարեխիղճ վերաբերմունք, Արագ կողմնորոշվելու, ինքնուրույն որոշումներ կայացնելու ունակություն, մտքի և վարքի ճկունություն, Ժպտերես, բարեհամբյուր: </t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -1759,34 +1754,34 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>3/1/2019</t>
+          <t>4/18/2019</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Հաշվետար / Հաշվապահ</t>
+          <t>Contact Center Specialist</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Մեգա Շին ՍՊԸ</t>
+          <t>DIGITAIN</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Սկսած 100000+ճանապարհածախս</t>
+          <t>3/19/2019</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ապրանքների և արտադրանքի մուտքագրում, ելքագրում </t>
+          <t xml:space="preserve">A natural communicator Confident and can-do, with a natural ability to deliver an excellent customer service Proficient in Armenian, Russian and English languages (written and verbal) With good knowledge of MS Office (Word, Excel) will be an asset Responsible Able to work under pressure </t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -1796,34 +1791,34 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>1/30/2019</t>
+          <t>4/18/2019</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Բուժքույր</t>
+          <t>Ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Սմարտդենտ ՍՊԸ</t>
+          <t>«ԲիԷսԹի» ՍՊԸ</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Medical, Health, Fitness, Beauty</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>1/29/2019</t>
+          <t>130000</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">կրթությունը՝ միջին մասնագիտական աշխատանքային փորձի առկայությունը կդիտվի որպես առավելություն թիմում աշխատելու կարողություն օտար լեզուների իմացություն </t>
+          <t xml:space="preserve">բարձրագույն կրթությունը`ցանկալի է տնտեսագիտական կամ տեխնիկական աշխատանքային փորձը պարտադիր է MS Office-ի լավ իմացություն Օտար լեզուների (ռուսերեն, անգլերեն) իմացությունը ցանկալի է Տարիքը՝ 25-45 տարեկան Սեռը՝ իգական  </t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -1833,34 +1828,34 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>2/28/2019</t>
+          <t>3/19/2019</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ֆինանսական վերահսկողության մասնագետ</t>
+          <t>Տուր Օպերատոր</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Globbing LLC</t>
+          <t>Best Tour</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Tourism, Hospitality</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>1/28/2019</t>
+          <t>90000</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bachelor’s degree in Economics or a relevant field Have excellent computation and accounting skills Knowledge of Microsoft Office package Basic knowledge of English, both written and spoken Ability to manage multiple projects Analytical and a problem solver Numerical competence High level of attention to detail and accuracy Ability to plan and organize tasks efficiently </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն Զբոսաշրջային ուղղությունների տիրապետում Տուրիստական փաթեթներ կազմելու և վաճառելու հմտություն Կազմակերպված, պատասխանատու, աշխատասեր Համակարգչային Գիտելիքներ Հայերենի, անգլերենի և ռուսերենի գերազանց իմացություն Գրագետ բանավոր և գրավոր խոսք Աշխատանքային փորձը ցանկալի է </t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -1870,34 +1865,34 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>2/27/2019</t>
+          <t>3/18/2019</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Գնումների բաժնի մենեջեր</t>
+          <t>Java Developer</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Tanger</t>
+          <t>Technology and Science Dynamics LLC</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Logistics, Transportation</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>200000 - 300000</t>
+          <t>3/18/2019</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">մինչև 45 տ ցանկալի է տնտեսագիտական կամ տեխնիկական ոլորտում բարձրագույն կրթության առկայություն հայերեն, ռուսերեն, անգլերեն լեզուների իմացություն MS office ծրագրի իմացություն մինիմում 3 տարվա համապատասխան աշխատանքային փորձ </t>
+          <t xml:space="preserve">An experience of at least 5+ years in the development of Java applications;  An experience of at least 5+ years with each of the following technologies: HTML, XML, CSS, JavaScript;  An experience of at least 5 years with: Vaadin;  An experience of at least 5+ years with each of the following technologies: Spring, Hibernate, SQL;  An experience of at least 5+ years with the following technology: Web Services with SOAP;  An experience of at least 5+ years with each of the following technologies: A continuous integration tool like Jenkins, Hudson, Maven, Subversion. </t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -1907,34 +1902,34 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>1/26/2019</t>
+          <t>4/17/2019</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t>Ինժեներ - Էլեկտրոնշիկ</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Մեծ Անիվ</t>
+          <t>NewPlast CJSC</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>1/24/2019</t>
+          <t>3/18/2019</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">աշխատանքային փորձը պարտադիր է աշխատանք կանխիկ դրամով MS Office փաթեթի, 1C ծրագրի (УТ), E-invoicing-ի լավ իմացություն շփման և հաճախորդների սպասարկման գերազանց հմտություններ նվիրվածություն աշխատանքին և ուշադրություն պատասխանատվության զգացում ազնիվ, կարգապահ, պարտաճանաչ </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն  Անգլերեն լեզվի իմացություն  Աշխատանքային փորձը համապատասխան ոլորտում պարտադիր է  Արագ կողմնորոշվելու, ճկուն և ճշգրիտ աշխատելու ունակություն  Մանրուքների նկատմամբ ուշադրություն, կարգապահություն և պատասխանատվության զգացում  Աշխատանքը համակարգելու ունակություն  Թիմում աշխատելու ունակություն  Ինֆորմացիայի ընկալման կարողություն  Մինիմալ հսկողության պայմաններում աշխատելու ունակություն  Պարտաճանաչություն, ճշտապահություն աշխատանքը անթերի իրականացնելու ունակություն </t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -1944,71 +1939,71 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>2/23/2019</t>
+          <t>4/22/2019</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Գլխավոր Ինժեներ</t>
+          <t>Մաքրության պատասխանատու</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ՄՈԵՖՖ  ԳՐՈՒՊ  ՍՊԸ</t>
+          <t>GIFT CITY</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>200.000 ՀՀ դրամ</t>
+          <t>100000</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն պոլիտեխնիկական կրթություն նվազագույնը 5 տարվա աշխատանքային փորձ՝  արտադրությունում պարտադիր հմտություններ՝ համակարգչային գիտելիքներ,ՀՀ օրենսդրության գերազանց տիրապետում ցանկալի հմտություններ՝ լեզուների իմացությունը կդիտվի առավելություն </t>
+          <t xml:space="preserve">աշխատանքային փորձ բարեխիղճ պատասխանատու պունկտուալ արագաշարժ աշխատասեր մաքրասեր ճշտախոս </t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Vagharshapat</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>1/24/2019</t>
+          <t>3/18/2019</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Marketing Intern</t>
+          <t>Գրասենյակի աշխատակից</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>JSoft</t>
+          <t>Արագած Ֆուդ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Internship</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Competitive</t>
+          <t>3/15/2019</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Current enrollment in an undergraduate course for Marketing, Communications or similar field Familiarity with social media platforms Good understanding of the marketing techniques Must have a passion for work and creativity  Graphic design and video making skills are desirable Multitasking abilities </t>
+          <t xml:space="preserve">աշխատանքային փորձը ցանկալի է համակարգչային գիտելիքներ ճշտապահ նպատակասլաց </t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2018,34 +2013,34 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>1/23/2019</t>
+          <t>4/14/2019</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Փաստաբան</t>
+          <t>Խորհրդատու - Վաճառող</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Իրավաբան ՍՊԸ</t>
+          <t>Lesona LLC</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Legal, Insurance</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>3/15/2019</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">աշխատանք քրեական գործերի հետ աշխատանք քաղաքացիական գործերի հետ </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն Սպասարկման ոլորտում աշխատանքային փորձ Ռուսերեն և անգլերեն լեզուների իմացություն Համակարգչային բազային գիտելիքներ Հաղորդակցման և թիմային աշխատանքի հմտություններ Ճշտապահություն և պատասխանատվության զգացում </t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2055,34 +2050,34 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>1/20/2019</t>
+          <t>4/14/2019</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Իրավաբան ՍՊԸ</t>
+          <t>Սեմուր ընդ Կո ՍՊԸ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Administrative, Clerical</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Սկսած 100 000 ՀՀ դրամից</t>
+          <t>3/14/2019</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն կրթություն (ցանկալի է իրավաբանական) Microsoft Office (Word, Excel) փաթեթի իմացություն աշխատանքային փորձը ցանկալի է օտար լեզվի իմացությունը ցանկալի է </t>
+          <t xml:space="preserve">բարձրագույն կրթություն (ցանկալի է մասնագիտական կամ տեխնիկական) աշխատանքային փորձ՝ առնվազն 1 տարի պարտադիր հմտություններ՝ հաշվային պլան, ՀԾ-հաշվապահ 7, Excel ցանկալի հմտություններ՝ e-Invoicing, Microsoft Office աշխատասիրություն, աշխատանքի նկատմամբ պատասխանատվություն, թիմում աշխատելու ունակություն </t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2092,34 +2087,34 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>1/20/2019</t>
+          <t>4/13/2019</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ինժեներ - Էլեկտրոնշիկ</t>
+          <t>Պրեսելլեր</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Medtechservice</t>
+          <t>ԷՍԴԻԷՄ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>1/16/2019</t>
+          <t>3/13/2019</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն տեխնիկական կրթություն աշխատանքային փորձը պարտադիր է համակարգչային խորացված գիտելիքները պարտադիր են </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն Աշխատանքային փորձը տվյալ ոլորտում պարտադիր է Մեքենայի առկայությունը պարտադիր է </t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -2129,34 +2124,34 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>2/22/2019</t>
+          <t>4/12/2019</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Թիմ Լիդեր</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>"Charlotte" cabaret</t>
+          <t>ԷՍԴԻԷՄ</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Entertainment</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>600000</t>
+          <t>3/13/2019</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t xml:space="preserve">Բարձրագույն կրթություն տնտեսագիտության ոլորտում, հայերեն և ռուսերեն լեզուների իմացություն, համակարգչի տիրապետում: աշխատանքային փորձը  պարտադիր է:  </t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -2166,7 +2161,779 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>1/12/2019</t>
+          <t>4/12/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Պիցցայի Մասնագետ</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>The LOFT</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>3/12/2019</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Պատրաստել պիցցաներ (տարբեր բաղադրիչներով) Պատրաստել կարկանդակներ (տարբեր միջուկներով ) Պատրաստել լանչեր (*քննարկման ենթակա) </t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>4/11/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Շուկայի Զարգացման Պատասխանատու</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Սիկոնե ՍՊԸ</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>200,000</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ապահովել ներկայացված ապրանքների ԱՌԱՋԱՏԱՐ ԴԻՐՔԵՐԸ Ներկայացնել և վաճառել ներկայացվող ապրանքները Պահպանել հին գործընկերների լոյալությունը, Ուսումնասիրել շուկան, գտնել նոր գործընկերներ, Հետևել խանութներում ապրանքների տեսակների առկայությանը, (դասավորվածությանը, գնապիտակների առկայուրյունն ու ճշտությանը), տեսանելիությանը </t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>3/11/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Գլխավոր Հաշվապահ</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Հայաստանի Աստվածաշնչային Ընկերություն</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Accounting, Finance, Banking</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>300,000՝ ներառյալ հարկերը</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">բարձրագույն կրթություն ՀԾ հաշվապահական ծրագիրի իմացություն անգլերենի և ռուսերենի լավ իմացություն </t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>3/11/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Գանձապահ / Ադմինիստրատոր</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Beer Academy</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>120000</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">լինել ժպտերես սովորել ռեստորանային ծրագիրը </t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>3/11/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Front-End Developer (Mid Level)</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Concept Studio</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Information Technologies</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3/11/2019</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Expert level skills in HTML, CSS and JavaScript Experience with React, other JavaScript frameworks is a bonus Experience working with CMSs Hands on experience with the following: SASS/SCSS GIT Experience with less or sass frameworks Experience in using Canvas or tweenMax is a plus Solid command of responsive layouts 2+ years of working in the tech industry Testing experience (a plus) Understanding of cross-browser compatibility issues and ways to work around them Zero intimidation of new technologies and ability to self-teach quickly yourself on the fly Ability to communicate positively and honestly Strong work ethic and reliability </t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>4/10/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Սննդամթերքի որակի և անվտանգության մասնագետ</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Ա/Ձ Իննա Կոջոյան</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Administrative, Clerical</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Պայմանագրային</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">բարձրագույն կրթություն` ցանկալի է բժշկական, գյուղատնտեսության, կենսաբանության ոլորտներում հայերեն լեզվի գերազանց, ռուսերեն և անգլերեն լեզուների լավ իմացություն համակարգչային գիտելիքներ (MS Office) աշխատանքային փորձը ցանկալի է պատասխանատվության բարձր զգացում հաղորդակցվելու գերազանց  ունակություն նոր գիտելիքներ և հմտություններ ձեռք բերելու մշտական ցանկություն </t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>3/7/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Վաճառքի մենեջեր</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Մեգա Շին ՍՊԸ</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>բարձր</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Հաղորդակցման գերազանց հմտություններ, կիրթ խոսելաոճ Պատասխանատու և պարտաճանաչ մոտեցում աշխատանքին Շինանյութի վաճառքների ոլորտում առնվազն 2 տարվա աշխատանքային փորձ Ռուսերեն լեզվի իմացությունը պարտադիր է </t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>3/6/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Լոգիստիկայի և Ներմուծման Մենեջեր</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Մեգա Շին ՍՊԸ</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Logistics, Transportation</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>120000+bonus</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ռուսերեն լեզվի գրավոր և բանավոր իմացությունը պարտադիր է Համակարգչից վարժ օգտվելը պարտադիր է Անգլերեն լեզվի իմացությունը ցանկալի է Աշխատանքային փորձը ներմուծման ոլորտում պարտադիր է </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>3/6/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Արտադրության Տնօրեն</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Մեգա Շին ՍՊԸ</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Production, Operations</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>120000+bonus</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Արտադրության կազմակերպման և ղեկավարման ոլորտում 3 տարվա փորձը պարտադիր է, շինանյութի ոլորտում՝ ցանկալի ինժեներական կրթությունը ցանկալի է մեխանիկայից, էլեկտրիկայից, հիդրավլիկայից մինիմալ գիտելիքներ </t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>3/6/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Բժշկական Ներկայացուցիչ</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>RECORDATI</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Medical, Health, Fitness, Beauty</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3/6/2019</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">բարձրագույն մասնագիտական կրթություն լեզուների իմացություն. հայերեն, ռուսերեն՝ գերազանց, անգլերենի իմացույթունը կդիտվի որպես  առավելություն համակարգչային գրագիտություն (MS office) թիմում աշխատելու ունակություն բանակցություններ վարելու ունակություն վարորդական իրավունք (մեքենա վարելու փորձը ցանկալի է) անձնային հատկություններ. շփվող, նպատակասլաց, նախաձեռնող, պատասխանատու աշխատանքային փորձը ցանկալի է  </t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>4/5/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Վաճառքի Մասնագետ</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ԻՆԳՈ ԱՐՄԵՆԻԱ ԱՓԲԸ</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3/6/2019</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Բարձրագույն կրթություն Վաճառքի հմտություններ Առաջնորդի հատկանիշներ MS Excel ծրագրի փայլուն իմացություն Առնվազն երեք լեզվի իմացություն (հայերեն, ռուսերեն և անգլերեն) Համակարգչային տեքստերի մուտքագրման ունակություն Սովորելու, արագ յուրացնելու ընդունակություն և պատրաստակամություն Նամակագրության էթիկայի հմտություններ </t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>4/5/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Pet Groomer</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Wejeco Pet Hotel</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Medical, Health, Fitness, Beauty</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3/5/2019</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Compassion: Dogs and cats often get stressed out in unfamiliar situations, and groomers need to understand this and treat them accordingly. Customer-Service: Groomers work with customers directly, and must be friendly and listen to their requests and needs. Attention to Detail: Groomers must pay attention to what they are doing so that the animals stay safe and the grooming comes out looking great. Stamina: Groomers are on their feet for long periods of time, sometimes hunched over animals during the grooming process. Fluency in English and Armenian, any additional languages is a plus Proven ability to follow instructions and learn new things Ability to work in a team environment </t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>4/4/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Կադրերի Բաժնի Վարիչ / Իրավաբան</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>ՀՀ ԳԱԱ Հայկենսատեխնոլոգիա ԳԱԿ ՊՈԱԿ</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Human Resources</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3/5/2019</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">կրթություն՝ բարձրագույն իրավաբանական աշխատանքային փորձ՝ պարտադիր պարտադիր հմտություններ՝ համակարգչային ծրագրեր, օտար լեզվուների իմացություն՝ ռուսերեն, անգլերեն </t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>4/4/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Էլեկտրոմեխանիկ</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>«Այ Թի Լոջիք» Տեք</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3/5/2019</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">30-45տ  ունենալ միջին մասնագիտական կրթություն ունենալ աշխատանքային փորձ ունենալ պատասխանատվության բարձր զգացում </t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>4/4/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Freight Broker</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Momentum</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Logistics, Transportation</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>3/4/2019</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fluent English is required Spanish is an asset Good listening and speaking skills in English (advanced level) Good communication skills Assidious and orderly personality </t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>4/3/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Մատուցող / Մատուցողուհի</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Figaro LLC</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Customer Support, Client Care</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>180000 և ավել</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">դիմավորել և ճանապարհել հյուրերին ու այցելուներին լինել ժպտերես հաճախորդամետ բարեհամբյուր նրբանկատ ուշադիր </t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>3/4/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Ավագ Խոհարար</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Figaro LLC</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>500000</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">կրթությունը ցանկալի է  աշխատանքային փորձը եվրոպական խոհանոցում պարտադիր է  </t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>3/4/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Գլխավոր Հաշվապահ</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Սիկոնե ՍՊԸ</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Accounting, Finance, Banking</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3/4/2019</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Արտոնագրված մասնագետ (պարտադիր), Բակալավրի աստիճան հաշվապահական հաշվառման, ֆինանսական կամ համապատասխան ոլորտներում, Առնվազն 5 տարվա աշխատանքային փորձ միջինում 2 միլիարդ շրջանառություն ունեցող ընկերությունում, Գրավոր հաշվետվությունների կազմման հմտություններ, 1С ծրագրի գերազանց իմացություն, Համակարգչային գիտելիքներ( ՀԾ, Word, Excel, PowerPoint, Microsoft project կամնմանատիպ այլ ծրագիր), Գերազանց վերլուծական հմտություններ, Խնդիրների լուծման և որոշումներ կայացնելու խորը զարգացած հմտություններ, Կառավարման հմտություններ, Պլանավորման և կազմակերպչական հմտություններ, Համագործակցում/թիմային աշխատանք, Գերազանց հայերեն, ռուսերեն լեզուների իմացություն, անգլերերենի իամցությունը` ցանկալի: </t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>4/3/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Վաճառքի Մասնագետ</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Narplast LLC</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>170000-200000</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Բարձրագույն կրթություն Աշխատանքային փորձ`որպես վաճառքի մասնագետ Հայերեն լեզվի կատարյալ իմացություն (ռուսերենի և անգլերենի իմացությունը ցանկալի է) Հաղորդակցվելու գերազանց ունակություն Համակարգչային գիտելիքներ` Word, Excel, 1C Ճկունություն և թիմում աշխատելու ունակություն </t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>2/26/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Շուկայի Զարգացման Պատասխանատու</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Մաստեր Գրուպ ՍՊԸ</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2/26/2019</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">բարձրագույն կրթություն աշխատանքային փորձը ցանկալի է հայերեն, ռուսերեն լեզվի գրագետ խոսք, անգլերենի  իմացությունը կդիտվի որպես առավելություն համակարգչային գիտելիքներ պատասխանատվության բարձր զգացում հաղորդակցվելու գերազանց  ունակություն </t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>4/2/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Technical Sales and Customer Support Agent</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Piconet</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Customer Support, Client Care</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>200.000</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>2/25/2019</t>
         </is>
       </c>
     </row>

--- a/Scrapping_test/job.xlsx
+++ b/Scrapping_test/job.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,20 +375,10 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>salary</t>
+          <t>location</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>location</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>closed_date</t>
         </is>
@@ -397,229 +387,174 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Մատուցող / Մատուցողուհիներ</t>
+          <t>Technical Sales and Customer Support Agent</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sorriso Cafe Gelateria</t>
+          <t>Piconet</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ոչ լրիվ աշխատանքային օր Ճկուն գրաֆիկ Ճանապարհածախս Համազգեստ Պաշտոնապես աշխատանքի հաշվառում Կարիերային առաջխաղացման հնարավորություն </t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>4/1/2019</t>
+          <t>4/29/2019</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Տնօրեն - Իրավաբան</t>
+          <t>Մատուցող / Մատուցողուհի</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hydrocorporation</t>
+          <t>Man bevrijing</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Project, Program Management</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>350000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն իրավաբանական կրթություն, Աշխատանքային փորձ կառավարման ոլորտում, Համակարգչային բազային գիտելիքներ (MC office), Լեզուների իմացությունը կդիտվի որպես առավելություն: </t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>4/1/2019</t>
+          <t>4/29/2019</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SMM մասնագետ</t>
+          <t>Վաճառողուհի Գանձապահ</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Տիկո Հոլդինգ ՍՊԸ</t>
+          <t>Laura Ashley</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing, Advertising, PR</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4/1/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t xml:space="preserve">կրթությունը՝ բարձրագույն կրթություն մարքեթինգի, հանրային կապերի կամ հարակից որևէ ոլորտում (ցանկալի) աշխատանքային փորձը ցանկալի է  պարտադիր հմտություններ՝  ստեղծագործական և նորարարական մոտեցում աշխատանքին ցանկալի հմտություններ՝ գրաֆիկական դիզայնի ծրագրերի իմացություն (Photoshop, Corеl Draw և այլն) </t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>5/1/2019</t>
+          <t>5/29/2019</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Night Shift Receptionist</t>
+          <t>Ավտոփականագործ</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bass Boutique Hotel</t>
+          <t>ՄԵԾ ԱՆԻՎ</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Tourism, Hospitality</t>
+          <t>Installation, Maintenance, Repair</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3/30/2019</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>4/29/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>5/29/2019</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Store Manager</t>
+          <t>Մենեջեր</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>EGO Concept Store</t>
+          <t>Solare LLC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>3/29/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">կոկիկ և ներկայանալի արտաքին գրագետ խոսք (անգլերեն և ռուսերեն լեզուների իմացությունը կդիտվի որպես առավելություն) համակարգչային տարրական գիտելիքներ բարձրագույն կամ միջին մասնագիտական կրթություն աշխատանքային փորձ սպասարկման ոլորտում հաճախորդների հետ բարեհամբույր հաղորդակցման ունակություն կարգապահություն, ազնվություն, ոչ կոնֆլիկտային բնավորություն ժպտալու և լավ տրամադրություն հաղորդելու պատրաստակամություն, նույնիսկ աշխատանքային օրվա վերջում </t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>4/29/2019</t>
+          <t>5/27/2019</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Վաճառող - Խորհրդատու</t>
+          <t>Գլխավոր Հաշվապահ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Տիկո Հոլդինգ ՍՊԸ</t>
+          <t>Solare LLC</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>100,000 + % վաճառքից</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Աշխատանքային փորձն ու դիմահարդարման հմտությունները ցանկալի են Նպատակասլացություն Պատասխանատվություն Հաղորդակցման հմտություններ Վաճառքի հմտություններ </t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>3/29/2019</t>
+          <t>5/27/2019</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Վաճառող - Խորհրդատու</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Gioielli Boutique</t>
+          <t>NewPlast CJSC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -629,34 +564,24 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>3/29/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն, Սպասարկման ոլորտում աշխատանքային փորձը ցանկալի է, Ռուսերեն և անգլերեն լեզուների իմացություն, Համակարգչային բազային գիտելիքներ, Հաղորդակցման և թիմային աշխատանքի հմտություններ, Ճշտապահություն և պատասխանատվության զգացում, Նոր գիտելիքների և հմտությունների ձեռք բերելու  ցանկություն: </t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>4/28/2019</t>
+          <t>5/27/2019</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ինժեներ - Նախագծող /Կոնստրուկտոր/</t>
+          <t>Ինժեներ  Էլեկտրոնշիկ</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>KMK LLC</t>
+          <t>NewPlast CJSC</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -666,293 +591,213 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3/29/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն, թերի բարձրագույն, միջին մասնագիտական կրթություն վստահ PC օգտվող: AUTOCAD / SolidWorks գիտելիքները; ուշադրություն; ճշգրտություն; պատասխանատվություն; ճշտապահություն; ռուսաց լեզվի իմացություն, տեխնիկական անգլերենի իմացությունը ցանկալի է: </t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Moscow region, Klin city, Russia</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>4/28/2019</t>
+          <t>5/27/2019</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Փրկարար</t>
+          <t>Վաճառող - Մատուցող</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Վալենսիա ՀՁ ՍՊԸ</t>
+          <t>Baguette &amp; Co</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>3/29/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Սեռ՝ արական, իգական Պարտադիր լողալու կարողությամբ Տարիք՝ 18-35տ Բարձրագույն մասնագիտական կրթությունը ցանկալի է / լողի բաժին, ջրացատկ/ Ցանկալի է ունենալ լողորդի որակավորում՝ սերտիֆիկատ, դիպլոմ Ուշադրություն, զգոնություն ջրայգում հանգստացող հաճախորդների նկատմանբ </t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>4/5/2019</t>
+          <t>5/26/2019</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Տեխնիկական Վերահսկողության Մասնագետ</t>
+          <t>Վաճառքի Բաժնի Աշխատակից</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ARCON</t>
+          <t>8778 Հայաստան Տեղեկատու</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Production, Operations</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3/29/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t xml:space="preserve">1-3 տարվա արտադրության աշխատանքային փորձ, Ռուսաց լեզվի վարժ տիրապետում, Բարձրագույն կամ միջին մասնագիտական տեխնիկական կրթություն, MS Office- ի իմացություն, 1C- ի իմացությունը ողջունելի է, Ավտոմեքենայի առկայությունը ողջունելի է, Ծրագրերի կառավարման փորձ, Վերլուծական միտք, Պատասխանատվության զգացում, Հաստատակամություն, Ջանասիրություն, Բազմակողմանի աշխատանք վարելու ունակություն, Սթրեսակայունություն: </t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>4/28/2019</t>
+          <t>4/26/2019</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Անշարժ Գույքի Գործակալ</t>
+          <t>Խորհրդատու Վաճառողուհի</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alex-R</t>
+          <t>ԿՈՆՏԵ ԷԼԵԳԱՆՏ ՍՊԸ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Real Estate</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Մեքենա վարելու ունակություն, Համակարգչից վարժ օգտվելու ունակություն, Թիմային աշխատանքի հմտություններ, Հաճախորդների հետ շփման, արագ կողմնորոշման ունակություն, Բանակցային հմտություններ, Աշխատասիրություն, Բարձրագույն կրթությունը ցանկալի է։ </t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>3/28/2019</t>
+          <t>5/26/2019</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Պահեստապետ</t>
+          <t>Վերապատրաստում և Աշխատանք</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>«Այ Թի Լոջիք» Տեք</t>
+          <t>INECOBANK CJSC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t xml:space="preserve">վարորդական իրավունքի առկայություն, տոկունություն,  թիմում աշխատելու կարողություն: </t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>3/28/2019</t>
+          <t>4/25/2019</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Վաճառողուհի / Գանձապահ / Բարիստա</t>
+          <t>Վարկային Մասնագետ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Sorriso Cafe Gelateria</t>
+          <t>«ՖԻՆՔԱ» ՈՒՎԿ ՓԲԸ</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>Ashtarak</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ոչ լրիվ աշխատանքային օր Ճկուն գրաֆիկ Աշխատանքային փորձը պարտադիր չէ Ճանապարհածախս Համազգեստ Պաշտոնապես աշխատանքի հաշվառում Կարիերային առաջխաղացման հնարավորություն </t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>3/28/2019</t>
+          <t>5/3/2019</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Ինտերիեր / Էքստերիերի 3D Դիզայներ</t>
+          <t>Business Development Manager</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>3D STUDIO</t>
+          <t>Invest In Network</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Art, Design</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Ըստ Պրոեկտի</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կրթությունը ՝ 3D Vizualizator and Designer,  աշխատանքային փորձ ՝ Պարտադիր, պարտադիր հմտություններ՝ 3Ds Max 2017(18), Corona․ 2 , Photoshope 2017 ծրագրերի գերազանց տիրապետում, ցանկալի հմտություններ՝ 3D Animaciya Interior and Exterior , Vertual Tour 360°: </t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>3/28/2019</t>
+          <t>4/25/2019</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ՄՌ հավաքագրման մասնագետ /HR Recruiter/</t>
+          <t>Store Manager</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Երեմյան Փրոջեքթս</t>
+          <t>EGO Concept Store</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>3/28/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Հավաքագրման փորձ՝ նվազագույնը 2 տարի,  Հարցազրույց վարելու հմտություն,  Անգլերենի իմացություն աշխատանքային մակարդակում,  Հաղորդակցման հմտություն,  Ուշադրություն և կենտրոնացում: </t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>4/6/2019</t>
+          <t>5/25/2019</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PHP Ծրագրավորող</t>
+          <t>Front-end Developer</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ՍՏՌ Արմենիա</t>
+          <t>Innova AM</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -962,168 +807,118 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>3/27/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t xml:space="preserve">HTML- ի եւ CSS- ի լավ իմացություն PHP-ի օգտագործմամբ WEB հավելվածներ մշակելու պրակտիկ փորձ, PHP-ի օգտագործմամբ համակարգերի օբյեկտաուղղորդված նախագծման եւ ծրագրավորման փորձ, PHP-ով ծրագրավորման շրջանակներում jQuery-PHP, JSON, XML եւ AJAX գրադարանների կիրառման միջոցով WEB հավելվածների մշակման փորձ PHP-ի կիրառմամբ (Laravel, Symfony) framework-ների միջոցով ծրագրավորման պրակտիկ փորձ ունենալը տալիս է լրացուցիչ բոնուսներ OOP-ի կիրառմամբ նախագծման և ծրագրավորման ոլորտում խորը գիտելիքներ PHPUnit- ի կիրառման հետ ունեցած աշխատանքային փորձը տալիս է լրացուցիչ բոնուսներ MySQL տվյալների կառավարման համակարգի խորը իմացություն՝ MySQL / PostgreSQL տվյալների կառավարման համակարգերի կիրառմամբ բազաների նախագծման պրակտիկ փորձ LINUX-ի վրա հիմնված օպերացիոն համակարգերի իմացություն, սերվերի վրա ծրագրային համակարգերի տեղակայման եւ սպասարկման ունակություն Google Map-ի տրամադրած միջոցների կիրառման միջոցով ծրագրային համակարգերի մշակման ունակություն PHP- ով համակարգերի մշակման առնվազն 3 տարվա աշխատանքային փորձ սեփական HTTP-API- ի ստեղծման եւ երրորդ կողմի API- ների ինտեգրման փորձ JS-ի կիրառմամբ (jQuery կամ այլ JS framework-ների) կլիենտային մասի ծրագրավորման փորձը կհամարվի էական առավելություն </t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>4/26/2019</t>
+          <t>5/25/2019</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hardware Designer</t>
+          <t>Թիմ Լիդեր</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>OLYMP Engineering LLC</t>
+          <t>ԷՍԴԻԷՄ</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>150,000 to 400,000 AMD</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t xml:space="preserve">Bachelor's degree in Electronics Engineering or experience in a related field; Experience with PCB Schematics design software’s; Experience working with Altium Designer; Experience designing circuits operating at frequencies greater than 1 GHz; Ability to research and study technical documentation, schematics and datasheets; Demonstrated ability to work in a team environment; Excellent statistical data analysis and problem solving abilities; Basic knowledge in the area of electrical engineering; Knowledge of English language. </t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>3/27/2019</t>
+          <t>5/25/2019</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Հաճախորդների սպասարկման աշխատակից</t>
+          <t>Պրեսելլեր</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>8778 Հայաստան Տեղեկատու</t>
+          <t>ԷՍԴԻԷՄ</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>100000 - 120000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t xml:space="preserve">CorelDrow, Photoshop ծրագրերի իմացությունը պարտադիր QuarkXpress, Adobe Illustrator ծրագերի իմացությամբ ռեզյումեները կդիտարկվեն առաջնային </t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>3/27/2019</t>
+          <t>5/25/2019</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Իրավաբան</t>
+          <t>Արտադրամասի Ղեկավար</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AM GROUP</t>
+          <t>IMEX GROUP Co. LTD</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Legal, Insurance</t>
+          <t>Production, Operations</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>60,000-500,000դր</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t xml:space="preserve">կրթություն՝ իրավաբան / իրավագետ աշխատանքային փորձը ցանկալի է պարտադիր հմտություններ ՝ համակարգչային գերազանց գիտելիքներ, տրամաբնության և հռետորական արվեստի տիրապետում ցանկալի հմտություններ` օտար լեզվի իմացություն </t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>3/26/2019</t>
+          <t>5/25/2019</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Senior Java Developer</t>
+          <t>Վաճառող</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Catches</t>
+          <t>Մաստեր Գրուպ ՍՊԸ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>3/26/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bachelor's degree in an IT-related field; At least 2 years of experience in Java development; Excellent knowledge of Java Core and OOP; At least 1 year of experience with Spring, Hibernate frameworks, JDBC and Restful API; Strong analytical skills; Advanced/ good level of English language; Knowledge of payment gateways is a big plus. </t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
         <is>
           <t>4/25/2019</t>
         </is>
@@ -1132,49 +927,39 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Արտադրական պրոցեսների ավտոմատացման մասնագետ (АСУТП)</t>
+          <t>Արտադրամասի Վարպետ</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Industrial Components LLC</t>
+          <t>IMEX GROUP Co. LTD</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Production, Operations</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>3/26/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t xml:space="preserve">տեխնիկական հարցերով խորհրդատվություն հանդիպումներ հաճախորդների հետ ապրանքների և բրենդերի առաջխաղացման նպատակով մասնակցություն դասընթացների և որակավորման բարձրացում նյութերի մշակում և պրեզենտացիաների պատրաստում նոր հաճախորդների ներգրավում </t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>4/25/2019</t>
+          <t>5/25/2019</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sales Consultant</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Թայմլես ՍՊԸ</t>
+          <t>Մեգա Շին ՍՊԸ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1184,71 +969,51 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>3/25/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t xml:space="preserve">Higher education; Work experience in a relevant field is a plus; Fluency in Armenian, Russian and English languages; Good knowledge of MS Excel; knowledge of 1C is a plus; Understanding of the specific of premium product sales; Strong communication and negotiations skills; Highly responsible and attentive to details person; Ability to work under the time pressure. </t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>4/2/2019</t>
+          <t>4/24/2019</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>.NET / .NET Core Software Developers Full Time</t>
+          <t>Տպագրատան Դիզայներ</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Applebrie Limited</t>
+          <t>Ayvazyan &amp; Partners</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Art, Design</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1,000,000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Proven experience as full stack developer Experience working in an Agile Development environment Experience with building web applications/ software Top-notch programming skills and in-depth knowledge of modern code practices Ability to code in a few programming languages (back and front) including Angular, .NET et al. Experience working with web and Rest APIs Solid database experience with MS SQL A solid understanding of how web applications work including security, session management, and best development practices In-depth knowledge of programming for diverse operating systems, browsers and platforms using development tools Excellent understanding of software design and programming principles. A team player with excellent communication skills Analytical thinking and problem-solving capability Great attention to detail and time-management skills BSc/BA in computer science or relevant field Experience in DevOps and SaaS a plus </t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>3/25/2019</t>
+          <t>5/23/2019</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Գլխավոր հաշվապահի օգնական</t>
+          <t>Խնդրահարույց Վարկերի Ավագ Մասնագետ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ՍՏՌ Արմենիա</t>
+          <t>«ԳԼՈԲԱԼ ԿՐԵԴԻՏ» ՈՒՎԿ ՓԲԸ</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1258,145 +1023,105 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3/25/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բակալավրի աստիճան հաշվապահական հաշվառման, ֆինանսական կամ համապատասխան ոլորտներում 3-5 տարվա աշխատանքային փորձ ՀԾ հաշվապահ 7 ծրագրի իմացություն Հարկային օրենսդրության իմացություն Համակարգչային գիտելիքներ( Word, Excel, PowerPoint, Microsoft project կամ նմանատիպ այլ ծրագիր) Գերազանց վերլուծական հմտություններ Խնդիրների լուծման և որոշումներ կայացնելու խորը զարգացած հմտություններ Պլանավորման և կազմակերպչական հմտություններ, Համագործակցում/թիմային աշխատանք Գերազանց հայերեն, ռուսերեն լեզուների իմացություն, անգլերերենի իամցությունը ցանկալի </t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>4/24/2019</t>
+          <t>4/23/2019</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Բանվոր - Առաքիչ</t>
+          <t>Beauty Salon Administrator</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ՅՈՒՆԻՓՈՒԼ ՍՊԸ</t>
+          <t>10 nails bar</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>130,000 ՀՀդրամ+պարգևատրում</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t xml:space="preserve">կրթություն - միջնակարգ աշխատանքային փորձ  պարտադիր հմտություններ - մեքենայի վարում B կարգ </t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>3/22/2019</t>
+          <t>5/23/2019</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Տեղեկատվական Կենտրոնի Աշխատակցուհի</t>
+          <t>DevOps Engineer</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ՄԵԾ ԱՆԻՎ</t>
+          <t>Innova AM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Administrative, Clerical</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>3/22/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն, Հայերեն, ռուսերեն  և անգլերեն լեզուների գերազանց իմացություն,  Հաղորդակցման բարձր հմտություններ, Բարեհամբույր, Կոնֆլիկտային իրավիճակներում կողմնորոշվելու ունակություն, Համակարգչային գիտելիքներ, Photoshop կամ Corel Draw ծրագրերի պարտադիր իմացություն: </t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>4/21/2019</t>
+          <t>4/23/2019</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ներգնա Տուր Մենեջեր</t>
+          <t>Բարիստա Մատուցող</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Aquarius Travel</t>
+          <t>Opera Suite Hotel</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Tourism, Hospitality</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>3/22/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t xml:space="preserve">Պարտադիր հմտություններ՝ լեզուների ԳԵՐԱԶԱՆՑ իմացություն Համակարգչային՝ Microsoft ծրագրերի գերազանց տիրապետում աշխատանքային փորձը պարտադիր չէ ցանկալի հմտություններ՝ ակտիվ, շփվող, արագ ըմբռնող, լավ հիշողություն </t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>4/21/2019</t>
+          <t>5/23/2019</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Ayvazyan &amp; Partners</t>
+          <t>Վանիթար</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1406,34 +1131,24 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>մրցակցային բարձր</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն Առնվազն 2 տարվա աշխատանքային փորձ վաճառքի ոլորտում Հաղորդակցման և բանակցելու գերազանց հմտություններ MS Office փաթեթի լավ իմացություն,1C-ի իմացությունը կդիտվի որպես առավելություն Ճկունություն և սթրեսակայունություն Մեծ ծավալի տեղեկատվության հետ աշխատելու ունակություն Ինքնակատարելագուրծման մեծ ցանկություն և պատասխանատվություն </t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>3/22/2019</t>
+          <t>5/23/2019</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>International Sales Manager</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Մոշն Թայմ</t>
+          <t>00194051</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1443,34 +1158,24 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>3/22/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն կրթություն (ցանկալի է տնտեսագիտության ոլորտում) աշխատանքային փորձ առնվազն 1 տարի հայերեն գրագետ բանավոր և գրավոր խոսք, ռուսերենի և անգլերենի գերազանց իմացությունը կդիտվի որպես առավելություն համակարգչային գիտելիքներ - Microsoft Office, Microsoft Excel, Power Point մեծ ծավալի տեղեկատվության հետ աշխատելու ունակություն սթրեսակայունություն </t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>4/21/2019</t>
+          <t>4/23/2019</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Մարքեթինգի Մենեջեր</t>
+          <t>Մարքեթինգի Մասնագետ</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Մոշն Թայմ</t>
+          <t>IMEX GROUP Co. LTD</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1480,737 +1185,537 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>3/21/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն մարքեթինգի կամ բիզնեսի կառավարման ոլորտում, Համապատասխան ոլորտում աշխատանքային փորձ, Սոցիալական կայք - էջերի վարման փորձառություն, կայքի օպտիմիզացիա և առաջխաղացում SEO գործիքների բազային իմացություն, ինչպիսին են Google Analytics, Google Adwords, Webmaster, HTML, CSS Facebook, Twitter, Instagram, Tumblr, Youtube, Pinterest, Linkedin, Google+ լավ իմացություն, Վաճառքների խթանման փորձ, Հաղորդակցության գերազանց հմտություններ, Նորարար և կրեատիվ մտածողություն, Վերլուծական մտածողություն, Նախագծերի կառավարման ունակություն, Թիմում աշխատելու հմտություններ, Հայերեն, անգլերեն և ռուսերեն լեզուների իմացություն, Microsoft Office ծրագրերի լավ իմացություն, Տպարանների, դիզայն ստուդիաների և աշխատանքի համար անհրաժեշտ նյութերի մատակարարների հետ աշխատելու փորձ: </t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>4/20/2019</t>
+          <t>5/23/2019</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Գրաֆիկ Դիզայներ</t>
+          <t>Մարքեթինգի Մասնագետ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Մոշն Թայմ</t>
+          <t>Lesona LLC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Art, Design</t>
+          <t>Marketing, Advertising, PR</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>3/21/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t xml:space="preserve">Կրեատիվ և հետաքրքիր մտածողություն Ֆանտազիայի առկայություն Adobe Photoshop, Adobe Illustrator/Corel Draw և 3ds Max-ի պարտադիր իմացություն Թիմում աշխատելու կարողություն և պատրաստակամություն Լարված իրավիճակներում աշխատելու կարողություն Հստակ վերջնաժամկետների պայմաններում աշխատելու կարողություն և պատասխանատվություն </t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>4/20/2019</t>
+          <t>5/23/2019</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Գանձապահ</t>
+          <t>Sales Manager</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Mr. GYROS</t>
+          <t>Bass Boutique Hotel</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>3/21/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t xml:space="preserve">POS, ՀԴՄ-ի հետ աշխատելու կարողություն, Դրամական միջոցների հետ աշխատելու կարողություն, Հստակ ձեւակերպված պարզ խոսք (ռուսերեն, անգլերեն մինիմալ գիտելիքներ), Թիմային աշխատանքի ցանկություն եւ կարողություն, Արագ կողմնորոշվելու ունակություն, զարգացած ուշադրություն եւ հիշողություն, Պարտաճանաչություն, պատասխանատվության բարձր զգացում: </t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>4/20/2019</t>
+          <t>4/22/2019</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Տուրիզմի Մենեջեր</t>
+          <t>Կորպորատիվ Վաճառքի Մասնագետ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Maratuk LLC</t>
+          <t>FNet</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Tourism, Hospitality</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>3/20/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն, Աշխատանքային փորձ տուրիզմի բնագավառում, Անգլերեն և ռուսերեն լեզուների վարժիմացություն, արաբերենի բավարար իմացություն, MS Office ծրագրերի իմացություն, Հաղորդակցվելու ունակություն, ճկունություն, Թիմային աշխատանք: </t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Դուբայ ԱՄԷ</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>4/19/2019</t>
+          <t>4/30/2019</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Մարքեթինգի Պատասխանատու</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ՍՏՌ Արմենիա</t>
+          <t>«Այ Թի Լոջիք» Տեք</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Marketing, Advertising, PR</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>3/20/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t xml:space="preserve">աշխատանքային փորձը վաճառքի ոլորտում ցանկալի է լեզվական հմտություններ. հայերեն, ռուսերեն և անգլերեն լեզուների իմացություն, համկարգչային ծրագրերի տիրապետում (MS  office  Word, Excel) արդյունավետ թիմային աշխատանքի և ժամանակի կառավարման հմտություններ, կազմակերպչական, հաղորդակցման և բանակցությունների վարման հմտություններ,  կոնֆլիկտների և սթրեսային իրավիճակների կառավարման հմտություններ։ </t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>4/19/2019</t>
+          <t>4/22/2019</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Թիմ Լիդեր</t>
+          <t>Խոհարար</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Տիկո Հոլդինգ ՍՊԸ</t>
+          <t>Mr. GYROS</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t xml:space="preserve">Աշխատանքային փորձը պարտադիր է, Ավտոմեքենայի առկայությունը պարտադիր է: </t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>3/20/2019</t>
+          <t>5/22/2019</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Բարմեն - Բարիստա</t>
+          <t>Վաճառքի Տնօրեն</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Sorriso Cafe Gelateria</t>
+          <t>Ayvazyan &amp; Partners</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Project, Program Management</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>200000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ոչ լրիվ աշխատանքային օր Ուսուցում Ճկուն գրաֆիկ Ճանապարհածախս Համազգեստ Պաշտոնապես աշխատանքի հաշվառում Կարիերային առաջխաղացման հնարավորություն </t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>3/20/2019</t>
+          <t>5/22/2019</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Ռեստորանի Մենեջեր</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Yasaman Family LLC</t>
+          <t>Ayvazyan &amp; Partners</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>3/19/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t xml:space="preserve">Տարիք՝ 25-35, Բարձրագույն կրթությունը և աշխատանքային փորձը ռեստորանային ոլորտում կդիտվի որպես առավելություն, Ռուսերեն և անգլերեն լեզվի իմացությունը կդիտվի որպես առավելություն, Ղեկավարման փորձ՝ 1-3տ., Ներկայանալի տեսք, Հաղորդակցման ունակություն և բարդ իրավիճակներում մարդկանց հետ շփվելու կարողություն, Ուղղորդման ունակություն և կազմակերպչական հմտություններ, Պատասխանատվության զգացում և աշխատանքի նկատմամբ բարեխիղճ վերաբերմունք, Արագ կողմնորոշվելու, ինքնուրույն որոշումներ կայացնելու ունակություն, մտքի և վարքի ճկունություն, Ժպտերես, բարեհամբյուր: </t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>4/18/2019</t>
+          <t>5/22/2019</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Contact Center Specialist</t>
+          <t>Տպագրիչ</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>DIGITAIN</t>
+          <t>Ayvazyan &amp; Partners</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Production, Operations</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>3/19/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t xml:space="preserve">A natural communicator Confident and can-do, with a natural ability to deliver an excellent customer service Proficient in Armenian, Russian and English languages (written and verbal) With good knowledge of MS Office (Word, Excel) will be an asset Responsible Able to work under pressure </t>
-        </is>
-      </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>4/18/2019</t>
+          <t>5/22/2019</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր</t>
+          <t>Ճարտարապետ - Դիզայներ</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>«ԲիԷսԹի» ՍՊԸ</t>
+          <t>Albedo Graphics LLC</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Administrative, Clerical</t>
+          <t>Art, Design</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>130000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն կրթությունը`ցանկալի է տնտեսագիտական կամ տեխնիկական աշխատանքային փորձը պարտադիր է MS Office-ի լավ իմացություն Օտար լեզուների (ռուսերեն, անգլերեն) իմացությունը ցանկալի է Տարիքը՝ 25-45 տարեկան Սեռը՝ իգական  </t>
-        </is>
-      </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>3/19/2019</t>
+          <t>4/20/2019</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Տուր Օպերատոր</t>
+          <t>Մատուցող / Մատուցողուհի</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Best Tour</t>
+          <t>“HMG“ ընկերություն</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Tourism, Hospitality</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>90000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն Զբոսաշրջային ուղղությունների տիրապետում Տուրիստական փաթեթներ կազմելու և վաճառելու հմտություն Կազմակերպված, պատասխանատու, աշխատասեր Համակարգչային Գիտելիքներ Հայերենի, անգլերենի և ռուսերենի գերազանց իմացություն Գրագետ բանավոր և գրավոր խոսք Աշխատանքային փորձը ցանկալի է </t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>3/18/2019</t>
+          <t>4/19/2019</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Java Developer</t>
+          <t>Վաճառքի Պատասխանատու</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Technology and Science Dynamics LLC</t>
+          <t>IMEX GROUP Co. LTD</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>3/18/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t xml:space="preserve">An experience of at least 5+ years in the development of Java applications;  An experience of at least 5+ years with each of the following technologies: HTML, XML, CSS, JavaScript;  An experience of at least 5 years with: Vaadin;  An experience of at least 5+ years with each of the following technologies: Spring, Hibernate, SQL;  An experience of at least 5+ years with the following technology: Web Services with SOAP;  An experience of at least 5+ years with each of the following technologies: A continuous integration tool like Jenkins, Hudson, Maven, Subversion. </t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>4/17/2019</t>
+          <t>5/19/2019</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ինժեներ - Էլեկտրոնշիկ</t>
+          <t>Սպասարկող Մենեջեր</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>NewPlast CJSC</t>
+          <t>IMEX GROUP Co. LTD</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3/18/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն  Անգլերեն լեզվի իմացություն  Աշխատանքային փորձը համապատասխան ոլորտում պարտադիր է  Արագ կողմնորոշվելու, ճկուն և ճշգրիտ աշխատելու ունակություն  Մանրուքների նկատմամբ ուշադրություն, կարգապահություն և պատասխանատվության զգացում  Աշխատանքը համակարգելու ունակություն  Թիմում աշխատելու ունակություն  Ինֆորմացիայի ընկալման կարողություն  Մինիմալ հսկողության պայմաններում աշխատելու ունակություն  Պարտաճանաչություն, ճշտապահություն աշխատանքը անթերի իրականացնելու ունակություն </t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>4/22/2019</t>
+          <t>5/19/2019</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Մաքրության պատասխանատու</t>
+          <t>1C համակարգի ծրագրավորող</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GIFT CITY</t>
+          <t>IMEX GROUP Co. LTD</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>100000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t xml:space="preserve">աշխատանքային փորձ բարեխիղճ պատասխանատու պունկտուալ արագաշարժ աշխատասեր մաքրասեր ճշտախոս </t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>3/18/2019</t>
+          <t>5/19/2019</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Գրասենյակի աշխատակից</t>
+          <t>Սերտիֆիկացման / Ստանդարտացման մասնագետ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Արագած Ֆուդ</t>
+          <t>Տոնուս - Լես</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Administrative, Clerical</t>
+          <t>Medical, Health, Fitness, Beauty</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>3/15/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t xml:space="preserve">աշխատանքային փորձը ցանկալի է համակարգչային գիտելիքներ ճշտապահ նպատակասլաց </t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>4/14/2019</t>
+          <t>5/18/2019</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Խորհրդատու - Վաճառող</t>
+          <t>Փաստաբան / Իրավաբան</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Lesona LLC</t>
+          <t>02538904</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Legal, Insurance</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>3/15/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն Սպասարկման ոլորտում աշխատանքային փորձ Ռուսերեն և անգլերեն լեզուների իմացություն Համակարգչային բազային գիտելիքներ Հաղորդակցման և թիմային աշխատանքի հմտություններ Ճշտապահություն և պատասխանատվության զգացում </t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>4/14/2019</t>
+          <t>4/18/2019</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Էլեկտրիկ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Սեմուր ընդ Կո ՍՊԸ</t>
+          <t>Մեգա Շին ՍՊԸ</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>3/14/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն կրթություն (ցանկալի է մասնագիտական կամ տեխնիկական) աշխատանքային փորձ՝ առնվազն 1 տարի պարտադիր հմտություններ՝ հաշվային պլան, ՀԾ-հաշվապահ 7, Excel ցանկալի հմտություններ՝ e-Invoicing, Microsoft Office աշխատասիրություն, աշխատանքի նկատմամբ պատասխանատվություն, թիմում աշխատելու ունակություն </t>
-        </is>
-      </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>4/13/2019</t>
+          <t>4/17/2019</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Պրեսելլեր</t>
+          <t>Վարորդ Առաքիչ</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ԷՍԴԻԷՄ</t>
+          <t>Մեգա Շին ՍՊԸ</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Logistics, Transportation</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>3/13/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն Աշխատանքային փորձը տվյալ ոլորտում պարտադիր է Մեքենայի առկայությունը պարտադիր է </t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>4/12/2019</t>
+          <t>4/17/2019</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Թիմ Լիդեր</t>
+          <t>Administrative Assistant</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ԷՍԴԻԷՄ</t>
+          <t>Innova AM</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>3/13/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն տնտեսագիտության ոլորտում, հայերեն և ռուսերեն լեզուների իմացություն, համակարգչի տիրապետում: աշխատանքային փորձը  պարտադիր է:  </t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>4/12/2019</t>
+          <t>4/17/2019</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Պիցցայի Մասնագետ</t>
+          <t>Technical Writer</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>The LOFT</t>
+          <t>Pay&amp;Go</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>3/12/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t xml:space="preserve">Պատրաստել պիցցաներ (տարբեր բաղադրիչներով) Պատրաստել կարկանդակներ (տարբեր միջուկներով ) Պատրաստել լանչեր (*քննարկման ենթակա) </t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>4/11/2019</t>
+          <t>5/16/2019</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t>Խորհրդատու Վաճառող</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Սիկոնե ՍՊԸ</t>
+          <t>Lesona LLC</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -2220,108 +1725,78 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>200,000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ապահովել ներկայացված ապրանքների ԱՌԱՋԱՏԱՐ ԴԻՐՔԵՐԸ Ներկայացնել և վաճառել ներկայացվող ապրանքները Պահպանել հին գործընկերների լոյալությունը, Ուսումնասիրել շուկան, գտնել նոր գործընկերներ, Հետևել խանութներում ապրանքների տեսակների առկայությանը, (դասավորվածությանը, գնապիտակների առկայուրյունն ու ճշտությանը), տեսանելիությանը </t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>3/11/2019</t>
+          <t>5/16/2019</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Գլխավոր Հաշվապահ</t>
+          <t>Մատուցող / Մատուցողուհի</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Հայաստանի Աստվածաշնչային Ընկերություն</t>
+          <t>Figaro LLC</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>300,000՝ ներառյալ հարկերը</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն կրթություն ՀԾ հաշվապահական ծրագիրի իմացություն անգլերենի և ռուսերենի լավ իմացություն </t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>3/11/2019</t>
+          <t>4/16/2019</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Գանձապահ / Ադմինիստրատոր</t>
+          <t>ՄՌԿ Օգնական</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Beer Academy</t>
+          <t>Mr. GYROS</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>120000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t xml:space="preserve">լինել ժպտերես սովորել ռեստորանային ծրագիրը </t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>3/11/2019</t>
+          <t>5/16/2019</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Front-End Developer (Mid Level)</t>
+          <t>Full Stack CTO</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Concept Studio</t>
+          <t>Raleigh &amp; Drake</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2331,108 +1806,78 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>3/11/2019</t>
+          <t>Los Angeles, CA</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t xml:space="preserve">Expert level skills in HTML, CSS and JavaScript Experience with React, other JavaScript frameworks is a bonus Experience working with CMSs Hands on experience with the following: SASS/SCSS GIT Experience with less or sass frameworks Experience in using Canvas or tweenMax is a plus Solid command of responsive layouts 2+ years of working in the tech industry Testing experience (a plus) Understanding of cross-browser compatibility issues and ways to work around them Zero intimidation of new technologies and ability to self-teach quickly yourself on the fly Ability to communicate positively and honestly Strong work ethic and reliability </t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>4/10/2019</t>
+          <t>4/15/2019</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Սննդամթերքի որակի և անվտանգության մասնագետ</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Ա/Ձ Իննա Կոջոյան</t>
+          <t>Pay&amp;Go</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Administrative, Clerical</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն կրթություն` ցանկալի է բժշկական, գյուղատնտեսության, կենսաբանության ոլորտներում հայերեն լեզվի գերազանց, ռուսերեն և անգլերեն լեզուների լավ իմացություն համակարգչային գիտելիքներ (MS Office) աշխատանքային փորձը ցանկալի է պատասխանատվության բարձր զգացում հաղորդակցվելու գերազանց  ունակություն նոր գիտելիքներ և հմտություններ ձեռք բերելու մշտական ցանկություն </t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>3/7/2019</t>
+          <t>5/15/2019</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Որակի Հսկողության Բաժնի Ղեկավար</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Մեգա Շին ՍՊԸ</t>
+          <t>«Գլորիա» Կարի Ֆաբրիկա</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Production, Operations</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>բարձր</t>
+          <t>Vanadzor</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t xml:space="preserve">Հաղորդակցման գերազանց հմտություններ, կիրթ խոսելաոճ Պատասխանատու և պարտաճանաչ մոտեցում աշխատանքին Շինանյութի վաճառքների ոլորտում առնվազն 2 տարվա աշխատանքային փորձ Ռուսերեն լեզվի իմացությունը պարտադիր է </t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>3/6/2019</t>
+          <t>4/12/2019</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Լոգիստիկայի և Ներմուծման Մենեջեր</t>
+          <t>Վարորդ</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Մեգա Շին ՍՊԸ</t>
+          <t>Brand Leader</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -2442,108 +1887,78 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>120000+bonus</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ռուսերեն լեզվի գրավոր և բանավոր իմացությունը պարտադիր է Համակարգչից վարժ օգտվելը պարտադիր է Անգլերեն լեզվի իմացությունը ցանկալի է Աշխատանքային փորձը ներմուծման ոլորտում պարտադիր է </t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>3/6/2019</t>
+          <t>4/12/2019</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Արտադրության Տնօրեն</t>
+          <t>Անձնական Վարորդ</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Մեգա Շին ՍՊԸ</t>
+          <t>Trapezza</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Production, Operations</t>
+          <t>Logistics, Transportation</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>120000+bonus</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t xml:space="preserve">Արտադրության կազմակերպման և ղեկավարման ոլորտում 3 տարվա փորձը պարտադիր է, շինանյութի ոլորտում՝ ցանկալի ինժեներական կրթությունը ցանկալի է մեխանիկայից, էլեկտրիկայից, հիդրավլիկայից մինիմալ գիտելիքներ </t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>3/6/2019</t>
+          <t>4/12/2019</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Բժշկական Ներկայացուցիչ</t>
+          <t>Խանութ - Սրահի Մենեջեր</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>RECORDATI</t>
+          <t>"Մաքուր Տուն" ՍՊԸ</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Medical, Health, Fitness, Beauty</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>3/6/2019</t>
+          <t>Abovyan</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն մասնագիտական կրթություն լեզուների իմացություն. հայերեն, ռուսերեն՝ գերազանց, անգլերենի իմացույթունը կդիտվի որպես  առավելություն համակարգչային գրագիտություն (MS office) թիմում աշխատելու ունակություն բանակցություններ վարելու ունակություն վարորդական իրավունք (մեքենա վարելու փորձը ցանկալի է) անձնային հատկություններ. շփվող, նպատակասլաց, նախաձեռնող, պատասխանատու աշխատանքային փորձը ցանկալի է  </t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>4/5/2019</t>
+          <t>5/12/2019</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Վաճառքի Մասնագետ</t>
+          <t>Ցանցի զարգացման մասնագետ</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ԻՆԳՈ ԱՐՄԵՆԻԱ ԱՓԲԸ</t>
+          <t>"Մաքուր Տուն" ՍՊԸ</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -2553,251 +1968,181 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>3/6/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն Վաճառքի հմտություններ Առաջնորդի հատկանիշներ MS Excel ծրագրի փայլուն իմացություն Առնվազն երեք լեզվի իմացություն (հայերեն, ռուսերեն և անգլերեն) Համակարգչային տեքստերի մուտքագրման ունակություն Սովորելու, արագ յուրացնելու ընդունակություն և պատրաստակամություն Նամակագրության էթիկայի հմտություններ </t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>4/5/2019</t>
+          <t>5/12/2019</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Pet Groomer</t>
+          <t>Խանութ - Սրահի Մենեջեր</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Wejeco Pet Hotel</t>
+          <t>"Մաքուր Տուն" ՍՊԸ</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Medical, Health, Fitness, Beauty</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>3/5/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Compassion: Dogs and cats often get stressed out in unfamiliar situations, and groomers need to understand this and treat them accordingly. Customer-Service: Groomers work with customers directly, and must be friendly and listen to their requests and needs. Attention to Detail: Groomers must pay attention to what they are doing so that the animals stay safe and the grooming comes out looking great. Stamina: Groomers are on their feet for long periods of time, sometimes hunched over animals during the grooming process. Fluency in English and Armenian, any additional languages is a plus Proven ability to follow instructions and learn new things Ability to work in a team environment </t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>4/4/2019</t>
+          <t>5/12/2019</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Կադրերի Բաժնի Վարիչ / Իրավաբան</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ՀՀ ԳԱԱ Հայկենսատեխնոլոգիա ԳԱԿ ՊՈԱԿ</t>
+          <t>Medtechservice LLC</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>3/5/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t xml:space="preserve">կրթություն՝ բարձրագույն իրավաբանական աշխատանքային փորձ՝ պարտադիր պարտադիր հմտություններ՝ համակարգչային ծրագրեր, օտար լեզվուների իմացություն՝ ռուսերեն, անգլերեն </t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>4/4/2019</t>
+          <t>5/12/2019</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Էլեկտրոմեխանիկ</t>
+          <t>Արտաքին Կապերի Մասնագետ</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>«Այ Թի Լոջիք» Տեք</t>
+          <t>Union of Communities of Armenia</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Marketing, Advertising, PR</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>3/5/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t xml:space="preserve">30-45տ  ունենալ միջին մասնագիտական կրթություն ունենալ աշխատանքային փորձ ունենալ պատասխանատվության բարձր զգացում </t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>4/4/2019</t>
+          <t>5/11/2019</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Freight Broker</t>
+          <t>B2B Sales Manager</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Momentum</t>
+          <t>Lanar Service LLC</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Logistics, Transportation</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>3/4/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fluent English is required Spanish is an asset Good listening and speaking skills in English (advanced level) Good communication skills Assidious and orderly personality </t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>4/3/2019</t>
+          <t>5/11/2019</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Մատուցող / Մատուցողուհի</t>
+          <t>Platform Administration Specialist</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Figaro LLC</t>
+          <t xml:space="preserve">SEF International UCO </t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>180000 և ավել</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t xml:space="preserve">դիմավորել և ճանապարհել հյուրերին ու այցելուներին լինել ժպտերես հաճախորդամետ բարեհամբյուր նրբանկատ ուշադիր </t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>3/4/2019</t>
+          <t>5/10/2019</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ավագ Խոհարար</t>
+          <t>Ծրագրերի և ֆոնդհայթայթման պատասխանատու</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Figaro LLC</t>
+          <t>Union of Communities of Armenia</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>500000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t xml:space="preserve">կրթությունը ցանկալի է  աշխատանքային փորձը եվրոպական խոհանոցում պարտադիր է  </t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>3/4/2019</t>
+          <t>5/10/2019</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Գլխավոր Հաշվապահ</t>
+          <t>Վաճառքի Բաժնի Տնօրեն</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -2807,39 +2152,29 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3/4/2019</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Արտոնագրված մասնագետ (պարտադիր), Բակալավրի աստիճան հաշվապահական հաշվառման, ֆինանսական կամ համապատասխան ոլորտներում, Առնվազն 5 տարվա աշխատանքային փորձ միջինում 2 միլիարդ շրջանառություն ունեցող ընկերությունում, Գրավոր հաշվետվությունների կազմման հմտություններ, 1С ծրագրի գերազանց իմացություն, Համակարգչային գիտելիքներ( ՀԾ, Word, Excel, PowerPoint, Microsoft project կամնմանատիպ այլ ծրագիր), Գերազանց վերլուծական հմտություններ, Խնդիրների լուծման և որոշումներ կայացնելու խորը զարգացած հմտություններ, Կառավարման հմտություններ, Պլանավորման և կազմակերպչական հմտություններ, Համագործակցում/թիմային աշխատանք, Գերազանց հայերեն, ռուսերեն լեզուների իմացություն, անգլերերենի իամցությունը` ցանկալի: </t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>4/3/2019</t>
+          <t>5/10/2019</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Վաճառքի Մասնագետ</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Narplast LLC</t>
+          <t>Տիկո Հոլդինգ ՍՊԸ</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -2849,91 +2184,228 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>170000-200000</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Բարձրագույն կրթություն Աշխատանքային փորձ`որպես վաճառքի մասնագետ Հայերեն լեզվի կատարյալ իմացություն (ռուսերենի և անգլերենի իմացությունը ցանկալի է) Հաղորդակցվելու գերազանց ունակություն Համակարգչային գիտելիքներ` Word, Excel, 1C Ճկունություն և թիմում աշխատելու ունակություն </t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>2/26/2019</t>
+          <t>5/10/2019</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t>Եռակցման մասնագետ / Специалист по сварке</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Մաստեր Գրուպ ՍՊԸ</t>
+          <t>GeoProMining Gold LLC</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2/26/2019</t>
+          <t>Vardenis</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t xml:space="preserve">բարձրագույն կրթություն աշխատանքային փորձը ցանկալի է հայերեն, ռուսերեն լեզվի գրագետ խոսք, անգլերենի  իմացությունը կդիտվի որպես առավելություն համակարգչային գիտելիքներ պատասխանատվության բարձր զգացում հաղորդակցվելու գերազանց  ունակություն </t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>4/2/2019</t>
+          <t>4/9/2019</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Technical Sales and Customer Support Agent</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Piconet</t>
+          <t>ՄԵԾ ԱՆԻՎ</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>200.000</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>2/25/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>5/9/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Շուկայի Զարգացման Պատասխանատու (Պրեսելլեր)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Brand Leader</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>4/9/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Վաճառող - Խորհրդատու</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Sacvoyage store</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>5/9/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Մատուցող / Մատուցողուհի</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Classic Burger</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>5/14/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Սանտեխնիկ</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Նոր Երևան</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>4/8/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Էներգետիկ</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Նոր Երևան</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Engineering</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>4/8/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ռեստորանի Աշխատակից</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>"FASTFOOD" KFC</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>4/8/2019</t>
         </is>
       </c>
     </row>

--- a/Scrapping_test/job.xlsx
+++ b/Scrapping_test/job.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E76"/>
+  <dimension ref="A1:F101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -375,10 +375,15 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>location</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>closed_date</t>
         </is>
@@ -387,390 +392,740 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Technical Sales and Customer Support Agent</t>
+          <t>Դեղագետ Դեղագործ</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Piconet</t>
+          <t xml:space="preserve">Վիտա Ֆարմ </t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Medical, Health, Fitness, Beauty</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Վիտա ֆարմ դեղատանը,որը գտնվում է Նոր Նորքի 8-րդ զանգվածում, պահանջվում է դեղագետ վաճառող-վաճառողուհի:_x000D_
+1.Հաճախորդների սպասարկում, խորհդատվություն_x000D_
+2.Դեղագետի պատշաճ աշխատանք       _x000D_
+Պահանջներ_x000D_
+21-40 տարեկան /արական, իգական/_x000D_
+Բարձրագույն կամ միջին մասնագիտական կրթություն_x000D_
+Աշխատանքային փորձը պարտադիր է_x000D_
+Հաղորդակցման հմտություններ_x000D_
+Գրագետ խոսք_x000D_
+Ռուսերեն լեզվի իմացություն_x000D_
+Այլ լեզուների իմացությունը կդիտվի որպես առավելություն_x000D_
+Համակարգչային գիտելիքներ_x000D_
+Հետաքրքրված թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+ _x000D_
+ _x000D_
+ _x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>4/29/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7/31/2019</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Մատուցող / Մատուցողուհի</t>
+          <t>Լոգիստ Մենեջեր</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Man bevrijing</t>
+          <t>ԳՄԳ Լոջիստիքս ՍՊԸ</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Logistics, Transportation</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+ԳՄԳ Լոջիստիքս ՍՊԸ-ին անհրաժեշտ են լոգիստ մենեջերներ աշխատանքային փորձով:_x000D_
+Պարտականություններ_x000D_
+Հաճախորդների ներգրավում զանգերի միջոցով_x000D_
+Բանակցությունների վարում_x000D_
+Պայմանագրերի և այլ անհրաժեշտ փաստաթղթերի պատրաստում_x000D_
+Աշխատանքային հմտություններ՝_x000D_
+Բարձրագույն կրթություն,_x000D_
+Կազմակերպչական հմտություններ,_x000D_
+MS office փաթեթի գիտելիքներ,_x000D_
+Ռուսերեն և անգլերեն լեզուների իմացությունը պարտադիր է_x000D_
+Տարբեր իրավիճակներում արագ կողմնորոշվելու ունակություն,_x000D_
+Մարդկանց հետ շփվելու հմտություններ։_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային օրեր և ժամեր. երկուշաբթի - ուրբաթ, 10:00 - 19:00:_x000D_
+Հետաքրքրված թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+_x000D_
+        </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4/29/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8/30/2019</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Վաճառողուհի Գանձապահ</t>
+          <t>Call Centre Agent</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Laura Ashley</t>
+          <t>Armada LLC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            TITLE: CALL CENTRE AGENT_x000D_
+DURATION: Long-term_x000D_
+JOB DESCRIPTION:Armada LLC is looking for highly responsible, experienced, motivatedand energetic Call Center agents, who can contribute by his/ her enthusiastic and creative work within our team._x000D_
+JOB RESPONSIBILITIES:_x000D_
+Communicate with people by answering telephone calls to provide information._x000D_
+Maintain and improve quality results by adhering to standards and guidelinespresented by company.._x000D_
+Accomplish monthly target related results as required._x000D_
+Responsible for computer equipment and office etiquette environment._x000D_
+Update job knowledge by attending training sessions and participating in educational opportunities._x000D_
+CALL CENTRE AGENT SKILLS:● Fluent English Verbal Communication● Telephone Skills, Listening Ability, Data Entry Skills, People Skills,● Customer Focus, Customer Service, Attention to Detail, Professional_x000D_
+REQUIRED QUALIFICATIONS:_x000D_
+Fluent English_x000D_
+Professional telephone manner_x000D_
+Capacity to work under time pressure_x000D_
+Ability to achieve target goal and strict deadlines in an effective manner_x000D_
+Analytical and strategic thinking_x000D_
+Ability to set priorities and quick decision-maker in complex cases_x000D_
+Compotator in using software systems_x000D_
+REMUNERATION/ SALARY: Highly competitive fixed salary + transportation + bonuses._x000D_
+WORKING HOURS: 7.00pm-3.00amWORKING SCHEDULE: Monday till Friday_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5/29/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7/31/2019</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Ավտոփականագործ</t>
+          <t>Վարորդ առաքիչի օգնական</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ՄԵԾ ԱՆԻՎ</t>
+          <t>Figaro LLC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Installation, Maintenance, Repair</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Սրճարանի սնունդի առաքիչին անհրաժեշտ է օգնական` սրճարանների սնունդը մասնաճյուղեր տեղափոխելու համար:_x000D_
+Պարտականություններ_x000D_
+ Մթերքի դասավորում և  տեղափոխում_x000D_
+Պահանջներ_x000D_
+Ֆիզիկապես առողջ և առույգ _x000D_
+Արագ կողմնորոշվող_x000D_
+Պատրաստակամ_x000D_
+Պարտաճանաչ_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային օրեր՝ ամեն օր 8:30-14:30 , կիրակի հանգստյան օր, հավելյալ ժամերի համար կտրվի հավելավճար:_x000D_
+Մենք՝_x000D_
+գրանցում ենք_x000D_
+ապահովում ենք անճար սնունդ_x000D_
+6 ամիս հետո տրամադրում ենք վճարովի արձակուրդ_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5/29/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7/30/2019</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Ներգնա Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Solare LLC</t>
+          <t>Aquarius Travel</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Tourism, Hospitality</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Աքվարիուս Թրավել տուրիստական գործակալությանը, որը գործում է Հայաստանում արդեն 23 տարի, անհրաժեշտ են ներգնա տուր մենջերներ՝ իտալերեն, իսպաներեն, անգլերեն, գերմաներեն, ֆրանսերեն լեզուներից որևէ երկուսի գերազանց իմացությամբ:_x000D_
+Պարտականություններ_x000D_
+Տուր փաթեթների կազմում _x000D_
+Ամենօրյա նամակագրություն համապատասխան շուկաների գործընկերների հետ_x000D_
+Տեղական գործընկերների հետ բանակցություններ_x000D_
+Թարգմանություններ և այլն_x000D_
+Պահանջներ_x000D_
+Պարտադիր հմտություններ՝ լեզուների ԳԵՐԱԶԱՆՑ իմացություն_x000D_
+Համակարգչային՝ Microsoft ծրագրերի գերազանց տիրապետում_x000D_
+աշխատանքային փորձը պարտադիր չէ_x000D_
+ցանկալի հմտություններ՝ ակտիվ, շփվող, արագ ըմբռնող, լավ հիշողություն_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային օրեր և ժամեր՝ երկուշաբթիից ուրբաթ 10:00-19:00, Շաբաթ՝ 11:00-15:00_x000D_
+        </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5/27/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8/29/2019</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Գլխավոր Հաշվապահ</t>
+          <t>Կորպորատիվ Վաճառքի Ներկայացուցիչ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Solare LLC</t>
+          <t>"Մեհրաբյան և որդիներ" ՍՊԸ</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+"Մեհրաբյան և որդիներ" ընկերությունը փնտրում է կորպորատիվ վաճառքի գծով ներկայացուցիչ:_x000D_
+Պարտականություններ_x000D_
+Կորպորատիվ վաճառքի գծով ներկայացուցիչը պատասխանատու է վաճառքի խթանման ու ընդլայնման, հաճախորդների հետ փոխշահավետ համագործակցության համար, _x000D_
+Այցելություն կազմակերպություններ և ապրանքների ներկայացում, _x000D_
+Բանակցությունների վարում և պայմանագրերի կնքում,_x000D_
+Հաշվետվությունների կազմում վաճառքների վերաբերյալ,_x000D_
+Պատասխանատվություն՝ վաճառքների պլանի կատարման և հետագա վերահսկման համար_x000D_
+Մրցակիցների հայտնաբերում, _x000D_
+Շուկայի վերլուծություն:_x000D_
+Պահանջներ_x000D_
+Բարձրագույն կրթություն, _x000D_
+Անձնական ավտոմեքենայի առկայություն,_x000D_
+2 տարվա աշխատանքային փորձ վաճառքների բնագավառում,_x000D_
+Նախաձեռնող և շփվող,_x000D_
+Թիմային աշխատող,_x000D_
+Ժամանակի կառավարման հմտություններ,_x000D_
+Հաճախորդներ ներգրավելու, բանակցելու հմտություններ,_x000D_
+Հաղորդակցման հմտություններ, ապրանքատեսականու ներկայացման կարողություններ:_x000D_
+Հավելյալ նշումներ_x000D_
+Դիմելու համար ուղարկել ռեզյումե:_x000D_
+        </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>5/27/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8/29/2019</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Նախահաշիվ կազմող</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NewPlast CJSC</t>
+          <t>"Մեհրաբյան և որդիներ" ՍՊԸ</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+"Մեհրաբյան և որդիներ" ընկերությունը փնտրում է բետոնապատման աշխատանքների նախահաշիվ կազմող:_x000D_
+Պահանջվող որակավորումներ`_x000D_
+Բարձրագույն կրթություն /ցանկալի է շինարարական ոլորտում/,_x000D_
+Առնվազն 2 տարվա աշխատանքային փորձ համապատասխան բնագավառում_x000D_
+Հաճախորդներ ներգրավելու, բանակցելու հմտություններ,_x000D_
+Հաղորդակցման հմտություններ, ապրանքատեսականու ներկայացման կարողություններ:_x000D_
+Պարտականություններ_x000D_
+Բետոնապատման աշխատանքների չափագրում՝ տրամադրված առաջադրանքի հիման վրա,_x000D_
+Կոմերցիոն առաջարկի կազմում,_x000D_
+Հաճախորդին առաջարկի ներկայացում և բանակցությունների վարում առաջարկի հաստատման գծով,_x000D_
+Առաջարկների ընթացքի հետևում,_x000D_
+Փաստաթղթաշրջանառության վարում:_x000D_
+Պահանջներ_x000D_
+Բարձրագույն կրթություն /ցանկալի է շինարարական ոլորտում/,_x000D_
+Առնվազն 2 տարվա աշխատանքային փորձ համապատասխան բնագավառում_x000D_
+Հաճախորդներ ներգրավելու, բանակցելու հմտություններ,_x000D_
+Հաղորդակցման հմտություններ, ապրանքատեսականու ներկայացման կարողություններ:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5/27/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8/29/2019</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Ինժեներ  Էլեկտրոնշիկ</t>
+          <t>Sales Lead</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NewPlast CJSC</t>
+          <t>inOne</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Description_x000D_
+inOne is looking for creative, hard-working, experienced SALES TEAM LEAD to join its enthusiastic and professional team._x000D_
+The team leader should work with the sales team and B2B partners to present and sell mobile services. Keep warm relationships and take the responsibility to support businesses related to provided services. Improve sales funnel and objections/handling scripts. _x000D_
+Responsibilities_x000D_
+Selling products and services using solid arguments to prospective customers_x000D_
+Perform cost-benefit and needs analysis of existing/potential customers to meet their needs_x000D_
+Establish, develop and maintain positive business and customer relationships_x000D_
+Work with interns to involve in sales processes_x000D_
+Achieve agreed upon sales targets and outcomes within schedule_x000D_
+Coordinate sales effort with team members and other departments_x000D_
+Requirements_x000D_
+BS/BA degree or equivalent_x000D_
+3+ years experience as a sales representative selling IT services_x000D_
+Knowledge of various sales techniques like SPIN, SNAP, etc..._x000D_
+Highly motivated and the target is driven with a proven track record in sales_x000D_
+Excellent selling, communication and negotiation skills_x000D_
+English and Russian languages_x000D_
+Prioritizing, time management and organizational skills_x000D_
+Experience in sales management systems like HubSpot, PipeDrive... is a plus_x000D_
+Additional Notes_x000D_
+Interested candidates are requested to send their CV to the mentioned email._x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>5/27/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8/3/2019</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Վաճառող - Մատուցող</t>
+          <t>Ներգնա և Արտագնա Տուր Մենեջեր</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Baguette &amp; Co</t>
+          <t>Կոնսիերժ Թրավել ԱՄ  ՍՊԸ</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Tourism, Hospitality</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Տուր փաթեթների մշակում_x000D_
+Հյուրերի ընդունելություն, հյուրընկալության և այլ ծառայությունների կազմակերպում_x000D_
+Հաճախորդների ներգրավում, սպասարկում, խորհրդատվություն_x000D_
+Գործընկերների հետ նամակագրություն_x000D_
+Հյուրանոցների ամրագրում_x000D_
+Հյուրերի տեղափոխման կազմակերպում (ավտոմեքենայով, ինքնաթիռով, նավով, գնացքով)_x000D_
+Տարբեր միջոցառումների տոմսերի ամրագրում_x000D_
+Նվերների և ծաղիկների առաքման կազմակերպում_x000D_
+Պահանջներ_x000D_
+MS Office, Adobe Photoshop ծրագրերի իմացություն_x000D_
+Գերազանց անգլերեն և ռուսերեն լեզուների իմացություն_x000D_
+Հայաստանի տեսարժան վայրերի լավ իմացություն_x000D_
+Գործընկերների հետ բանակցությունների վարման հմտություն_x000D_
+Հիմնական ուղղությունների գերազանց իմացություն_x000D_
+Թիմում աշխատելու ունակություն._x000D_
+Հաղորդակցվելու հմտություն_x000D_
+Պարտաճանաչության և պատասխանատավության մեծ զգացում_x000D_
+Աշխատանքային փորձը պարտադիր է ներգնա տուրիզմի ոլորտում_x000D_
+Սովորելու և ինքնազարգանալու ցանկություն:_x000D_
+Հավելյալ նշումներ_x000D_
+Երկուշաբթիից- կիրակի (շաբաթական 2 օր ազատ - ճշգրիտ օրերը կախված են շաբաթվա գրաֆիկից) Ժամը 10:00 -19:00_x000D_
+        </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5/26/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7/12/2019</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Վաճառքի Բաժնի Աշխատակից</t>
+          <t>3D Դիզայներ</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>8778 Հայաստան Տեղեկատու</t>
+          <t>Canapea Catering</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Art, Design</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Պահանջվում է  3D դիզայներ` հարսանյաց սրահների, հարսի սենյակի, տան ինտերիերի և էքստերիերի դիզայն մոդելավորող:_x000D_
+Պարտականություններ_x000D_
+Հարսանյաց սրահների, հարսի սենյակի, տան ինտերիերի և էքստերիերի դիզայն մոդելավորում_x000D_
+Մասնագետը մոդելները կազմելուն զուգընթաց պետք է ի կատար ածի իր իսկ մոդելավորած աշխատանքերը:_x000D_
+Պահանջներ_x000D_
+Մասնագիտական կրթություն_x000D_
+Աշխատանքային փորձ_x000D_
+Կազմակերպչական ձիրք_x000D_
+Ֆորսմաժորային իրավիճակներում արագ կողմնորոշվելու ունակություն_x000D_
+3ds Max, AutoCAD,Photoshop,Corel Draw, Adobe Illustrator ծրագրերի իմացություն_x000D_
+Թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4/26/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>8/16/2019</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Խորհրդատու Վաճառողուհի</t>
+          <t>Գրաֆիկ Դիզայներ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ԿՈՆՏԵ ԷԼԵԳԱՆՏ ՍՊԸ</t>
+          <t>Ռայթ Ինվեստ ՍՊԸ</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Art, Design</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            «Մոշն Թայմ» գովազդային ընկերությունը փնտրում է մոտիվացված անհատի՝ ընկերության դիզայներական թիմին միանալու համար:_x000D_
+ԱՇԽԱՏԱՆՔԱՅԻՆ ՊԱՐՏԱԿԱՆՈՒԹՅՈՒՆՆԵՐ_x000D_
+Հասկանալ հաճախորդի բիզնես պահանջները և մշակել դրանց համապատասխան դիզայներական կոնցեպտներ_x000D_
+Կատարել փոքր օնլայն հետազոտություններ և հավաքագրել համապատասխան նյութեր_x000D_
+Ցուցաբարել ստեղծագործական մոտեցում ՝ նոր գաղափարներ կյանքի կոչելու համար_x000D_
+Առաջարկել նորարարական օպտիմալ լուծումներ՝ հաշվի առնելով արժեքի և ժամանակի սահմանափակումները_x000D_
+Հետաքրքրվել և մշտապես թարմացնել գիտելիքները նոր մեդիայի ոլորտում առկա և առաջ եկող գործիքների, մասնավորապես՝ դիզայնի ծրագրերի վերաբերալ, ինչպիսին են Corel Draw, Illustrator, Photoshop, 3ds Max_x000D_
+Մշակել ինտերակտիվ դիզայներական լուծումներ_x000D_
+Աշխատել թիմում՝ լուսանկարիչների, բովանդակություն գրողների, այլ դիզայներների, վեբ-ծրագրավորողների, հաճախորդների հետ կապ պահպանող մասնագետների և մարքեթինգի մասնագետների հետ_x000D_
+ԱՆՀՐԱԺԵՇՏ ՈՐԱԿԱՎՈՐՈՒՄՆԵՐ_x000D_
+Կրեատիվ և հետաքրքիր մտածողություն_x000D_
+Ֆանտազիայի առկայություն_x000D_
+Adobe Photoshop, Adobe Illustrator/Corel Draw և 3ds Max-ի պարտադիր իմացություն_x000D_
+Թիմում աշխատելու կարողություն և պատրաստակամություն_x000D_
+Լարված իրավիճակներում աշխատելու կարողություն_x000D_
+Հստակ վերջնաժամկետների պայմաններում աշխատելու կարողություն և պատասխանատվություն_x000D_
+Համապատասխան անձինք կարող են ուղարկել ինքնակենսագրականը նշված էլ. հասցեին:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>5/26/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8/17/2019</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Վերապատրաստում և Աշխատանք</t>
+          <t>Ներգնա Տուրիզմի Մենեջեր</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INECOBANK CJSC</t>
+          <t>Happy Holidays</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Tourism, Hospitality</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            “Happy Holidays” տուրիսկան կազմակերպությանը անհրաժեշտ է ներգնա տուրիզմի մենեջեր։_x000D_
+Պարտադիր պամաններն են՝_x000D_
+Աշխատանքային փորձ տուրիստական ոլորտում _x000D_
+Ռուսերեն և անգլերեն լեզուների ազատ տիրապետում_x000D_
+Սովորելու և ինքնազարգանալու մեծ ցանկություն_x000D_
+Թիմում աշխատելու կարողություն_x000D_
+Պատասխանատվություն և արագ կողմնորոշվելու ունակություն_x000D_
+Կարևոր պայմանն է՝ ճանաչել և սիրել Հայաստանը_x000D_
+Աշխատանքային ժամեր՝ երկուշաբթի-ուրբաթ 10:00 - 19:00, շաբաթ 10։00-14։00:Սիրով կսպասենք մեր թիմում։_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե նշված էլ. հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4/25/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8/29/2019</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Վարկային Մասնագետ</t>
+          <t>Վաճառքի Ներկայացուցիչ</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>«ՖԻՆՔԱ» ՈՒՎԿ ՓԲԸ</t>
+          <t>Լյուբիմայա Պրիվիչկա</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Ashtarak</t>
+          <t xml:space="preserve">_x000D_
+            Վայրը՝ ՌԴ, Ուրալի դաշնային շրջան_x000D_
+Ոլորտը՝ սննդամթերքի արտադրություն_x000D_
+Մենք տրամադրում ենք._x000D_
+ավտոմեքենա_x000D_
+կացարան (սկզբնական շրջանում)_x000D_
+Աշխատավարձի պայմաններ_x000D_
+Աշխատանքը կրում է գործընկերային բնույթ և տալիս է ինքնուրույն եկամուտ ստեղծելու հնարավորթույուն 1 միլլիոն դրամի սահմաններում, իսկ սկզբնական շրջանում նվազագույն եկամուտը կազմում է 350,000 դրամ: _x000D_
+Նկարագրություն_x000D_
+Սննդամթերքի արտադրությամբ զբաղվող կազմակերպությունը աշխատանքի է հրավիրում մրցունակ և վստահելի վաճառքի գծով մասնագետի (van seller):_x000D_
+Պարտականություններ_x000D_
+տարիքը՝ 24 – 35_x000D_
+կրթությունը՝ բարձրագույն_x000D_
+մտածողությունը` մաթեմատիկական_x000D_
+աշխատանքային փորձը՝ առնվազն 1 տարի վաճառքի ոլորտում_x000D_
+ռուսերենի ազատ հաղորդակցման մակարդակ_x000D_
+բանակցային տեխնիկաների գիտելիքներ_x000D_
+հաղորդակցվելու, ներկայացնելու և ազդեցություն գործադրելու հմտություններ_x000D_
+ինքնուրույն աշխատելու ունակություն_x000D_
+վարորդական իրավունք _x000D_
+անձնային հատկություններ. ակտիվ, նպատակասլաց, համառ, աշխատասեր_x000D_
+Պահանջներ_x000D_
+Ներկայացնել, խթանել եւ վաճառել ապրանքատեսականին, խրախուսելով ներկա և ներգրավելով հեռանկարային հաճախորդներին,_x000D_
+Ստեղծել, զարգացնել եւ պահպանել դրական գործարար և հաճախորդների փոխհարաբերությունները,_x000D_
+Ապահովել հաճախորդների խնդիրների և բողոքների լուծումները`հնարավորինս բավարարելով նրանց պահանջները,_x000D_
+Վաճառքի ծավալների ավելացում,_x000D_
+Կցված առևտրային կետերի ծածկույթի արդյունավետ ապահովում,_x000D_
+Պահանջարկի բացահայտում,_x000D_
+Հաճախորդների հետ բանակցությունների վարում,_x000D_
+Մերչնդայզինգի իրականացում, որը ենթադրում է ոչ միայն ապրանքատեսականու դասավորություն, այլ նաև վաճառքի կետի ձևավորում՝ կազմակերպության չափանիշների համաձայն:_x000D_
+Հավելյալ նշումներ_x000D_
+Խնդրում ենք դիմեն միայն նկարագրությանը համապատասխանող թեկնածուները՝ ուղարկելով ռեզյումե նշված էլ. հասցեին:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>5/3/2019</t>
+          <t>Ռուսաստանի Դաշնություն</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8/31/2019</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Business Development Manager</t>
+          <t>Mobile QA Engineer</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Invest In Network</t>
+          <t>IUNetworks LLC</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Job Description: IUNetworks LLC is looking for a Mobile QA Engineer, who will have the primary responsibility to define test cases, develop test scripts, execute tests and report the tests results for Android and iOS mobile applications. Provide manual and automated test cases; work under general supervision; typically report to a QA Manager. A certain degree of creativity and self-motivation is required._x000D_
+Job Responsibilities:_x000D_
+Specific work elements of the job include but are not limited to:_x000D_
+Write test cases throughout the development lifecycle;_x000D_
+Plan, schedule and perform manual and automated software tests;_x000D_
+Work closely with software developers to perform early testing on components prior to integration builds;_x000D_
+Defect tracking and bug reporting. Required Qualifications:_x000D_
+BS or MS in computer science or related field;_x000D_
+Minimum 2 years of experience as QA Engineer;_x000D_
+Knowledge of Android and iOS platforms;_x000D_
+Experience with testing mobile applications_x000D_
+Ability to analyze product and project requirements, functional specifications, and technical documents to write and execute test cases and test scripts in accordance with predefined test plans;_x000D_
+Advanced knowledge of mobile development lifecycle, methodology and testing knowledge;_x000D_
+Solid knowledge of the quality assurance techniques, testing concepts, methodologies and tools;_x000D_
+Understanding of Network Protocols;_x000D_
+Knowledge of JIRA/Confluence is highly preferred;_x000D_
+Experience of working in Agile/Scrum environment is preferred;_x000D_
+Excellent analytical skills with the ability to investigate and research multiple sources;_x000D_
+Excellent interpersonal and oral/written communications skills;_x000D_
+Testing Tools: Broad experience using different testing tools;_x000D_
+Ability to adapt and learn quickly with any other testing tool;_x000D_
+Remuneration/ Salary: Competitive salary based on skills and experience; medical insurance, biannual company events, the perfect team of qualified professionals._x000D_
+Application Procedures: Please mention the name of the position you are applying for in the subject line of the letter._x000D_
+About Company: IUNetworks LLC is an Information Technology company that provides integrated solutions of hardware supply and software development. Founded in March 2008. IUNetworks applies practical innovation through services and solutions that deliver tangible results for both private sector and state organizations. Company services include application development and customization, hardware supply, hardware installation and configuration automation.www.iunetworks.am_x000D_
+        </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4/25/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8/29/2019</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Store Manager</t>
+          <t>Վաճառող Խորհրդատու</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>EGO Concept Store</t>
+          <t>Noyan Tapan Wine Shop</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -780,51 +1135,94 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Նոյան Տապան խմիչքների խանութին անհրաժեշտ է բարեհամբյուր աղջիկ՝ վաճառող-խորհրդատուի պաշտոնում:Լեզուների իմացությունը պարտադիր է:_x000D_
+Պարտականություններ_x000D_
+հաճախորդների բարեհամբյուր սպասարկում_x000D_
+տեսականու վարժ իմացություն և կիրթ ներկայացում_x000D_
+վաճառքի իրականացում_x000D_
+Պահանջներ_x000D_
+հայերեն, ռուսերեն, անգլերեն լեզուների հաղորդակցման մակարդակ_x000D_
+աշխատանքային փորձը ցանկալի է, բայց ոչ պարտադիր_x000D_
+պատասխանատու _x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային գրաֆիկ. 6-օրյա աշխատանքային շաբաթ, 1 օր հանգիստ, ժ. 10:00 - 21:00:Դիմելու համար խնդրում ենք ուղարկել ռեզյումե նշված էլ. հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>5/25/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8/29/2019</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Front-end Developer</t>
+          <t>Մատուցող / Մատուցողուհի</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Innova AM</t>
+          <t>Sorriso Cafe Gelateria</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Բարի գալուստ մեր թիմ_x000D_
+Sorriso սրճարանների ցանցը իր թիմը համալրելու նպատակով փնտրում է աշխույժ, ժպտերես, բարեհամբույր, անգլերեն և ռուսերեն լեզուների իմացությամբ, թիմում աշխատելու ունակությամբ երիտասարդ աշխատակիցներ:_x000D_
+Մասնաճյուղեր`_x000D_
+Sorriso Cafe Հյուսիսային պողոտա _x000D_
+նորաբաց Sorriso Cafe Կասկադ_x000D_
+Պայմաններ`_x000D_
+Ոչ լրիվ աշխատանքային օր_x000D_
+Ճկուն գրաֆիկ_x000D_
+Ճանապարհածախս_x000D_
+Համազգեստ_x000D_
+Պաշտոնապես աշխատանքի հաշվառում_x000D_
+Կարիերային առաջխաղացման հնարավորություն_x000D_
+Աշխատանքային փորձը պարտադիր չէ_x000D_
+Հավելյալ նշումներ_x000D_
+Հետաքրքրված թեկնածուները կարող են ուղարկել իրենց ինքնակենսագրականները՝ լուսանկարով։_x000D_
+ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար օրինակներից:_x000D_
+Հետևե՛ք հղմանը_x000D_
+ _x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>5/25/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7/29/2019</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Թիմ Լիդեր</t>
+          <t>Վաճառողուհի / Գանձապահ / Բարիստա</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ԷՍԴԻԷՄ</t>
+          <t>Sorriso Cafe Gelateria</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -834,186 +1232,331 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Sorriso -ի թիմը փնտրում է աշխույժ, ժպտերես, բարեհամբույր, անգլերեն և ռուսերեն լեզուների իմացությամբ, թիմում աշխատելու ունակությամբ երիտասարդ վաճառողուհի-գանձապահների:_x000D_
+Մասնաճյուղեր`_x000D_
+Sorriso Cafe Cascade_x000D_
+Sorriso Cafe North Avenue_x000D_
+Sorriso Dalma Garden Mall_x000D_
+Sorriso Yerevan Mall_x000D_
+Պայմաններ`_x000D_
+Ոչ լրիվ աշխատանքային օր_x000D_
+Ճկուն գրաֆիկ_x000D_
+Աշխատանքային փորձը պարտադիր չէ_x000D_
+Ճանապարհածախս_x000D_
+Համազգեստ_x000D_
+Պաշտոնապես աշխատանքի հաշվառում_x000D_
+Կարիերային առաջխաղացման հնարավորություն_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>5/25/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7/29/2019</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Պրեսելլեր</t>
+          <t>Գործարար և ներդրումային միջավայրի ձևավորմանն ուղղված քաղաքականություն մշակող մասնագետ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ԷՍԴԻԷՄ</t>
+          <t>ՀՀ էկոնոմիկայի նախարարություն</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Government, Non Commercial</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Պահանջվող որակավորում_x000D_
+• Բարձրագույն կրթություն._x000D_
+• Հարկային, մաքսային, քաղաքաշինության, ընկերությունների և իրավունքների պետական գրանցման, սնանկության, դատական, բաժնետիրական ու սահմանափակ պատասխանատվությամբ ընկերությունների մասին, մրցակցության և առևտրի ու ծառայություների օրենսդրության իմացություն._x000D_
+• Հանրային ծառայության առնվազն երկու տարվա ստաժ կամ չորս տարվա մասնագիտական աշխատանքային ստաժ կամ աշխատանքային պարտականությունների ոլորտներից մեկում չորս տարվա աշխատանքային ստաժ._x000D_
+• Համակարգչային գիտելիքներ (MS Office փաթեթ)_x000D_
+• Օտար լեզուների իմացություն._x000D_
+• Կառավարման հմտություններ:_x000D_
+Աշխատանքային պարտականությունների շրջանակը_x000D_
+• իրականացնել Հայաստանի Հանրապետությունում միջազգային մակարդակով մրցունակ գործարար և ներդրումային միջավայրի ձևավորմանն ուղղված քաղաքականության մշակման և դիտանցման աշխատանքները._x000D_
+• իրականացնել գործարար և ներդրումային միջավայրի բարելավմանն ուղղված միջոցառումների մշակմանն ու կիրարկմանն ուղղված աշխատանքներ._x000D_
+• իրականացնել գործարար միջավայրի բարելավմանը խոչընդոտող խնդիրների վերացման ուղղությամբ առաջարկների ներկայացմանն ուղղված աշխատանքներ._x000D_
+• իրականացնել «Գործարարությամբ զբաղվելը» վարկանիշային զեկույցով գնահատվող ոլորտների ուսումնասիրություն և առկա ընթացակարգերի պարզեցման ուղղությամբ ներկայացնում է առաջարկություններ._x000D_
+• իրականացնել գործարար համայնքի հետ հետադարձ կապի ապահովմանն ուղղված աշխատանքներ, մասնավորապես` իրավական ակտերի նախագծերի և բարեփոխումներին միտված առաջարկությունների քննարկումներ վերջինիս հետ._x000D_
+• իրականացնել գործարար ու ներդրումային միջավայրի բարելավման տեսանկյունից` հարկային և մաքսային ոլորտներում խնդիրների վերհանում, քաղաքականության մշակում և առաջարկությունների ներկայացում._x000D_
+• իրականացնել ՀՀ-ի գործարար միջավայրը կարգավորող օրենքների և այլ իրավական ակտերի նախագծերի մշակման աշխատանքները._x000D_
+• իրականացնում է ՀՀ տնտեսական մրցակցության պաշտպանության քաղաքականության մշակումը, տնտեսական մրցակցության զարգացմանը խոչընդոտող խնդիրների վերհանումը և դրանց լուծման ուղղությամբ առաջարկությունների ներկայացումը_x000D_
+• իրականացնում է կորպորատիվ կառավարման մշակույթի զարգացման ուղղությամբ առաջարկությունների մշակումը._x000D_
+• իրականացնում է ՀՀ-ում առևտրի և ծառայությունների ոլորտում գործարար և ներդրումային միջավայրի բարելավմանն ուղղված քաղաքականության մշակումը:_x000D_
+_x000D_
+        </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>5/25/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8/15/2019</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Արտադրամասի Ղեկավար</t>
+          <t>Գործարար և ներդրումային միջավայրի բարելավմանն ուղղված միջոցառումներ մշակող մասնագետ</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>IMEX GROUP Co. LTD</t>
+          <t>ՀՀ էկոնոմիկայի նախարարություն</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Production, Operations</t>
+          <t>Government, Non Commercial</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Պահանջվող որակավորում_x000D_
+• Բարձրագույն կրթություն տնտեսագիտություն (էկոնոմիկա) և կառավարում (մենեջմենթ) մասնագիտությունների գծով կամ իրավագիտություն մասնագիտությամբ._x000D_
+• Հարկային, մաքսային, քաղաքաշինության, ընկերությունների և սեփականության պետական գրանցման, սնանկության և դատական օրենսդրության իմացություն._x000D_
+• Հանրային ծառայության առնվազն մեկ տարվա ստաժ կամ երեք տարվա մասնագիտական աշխատանքային ստաժ կամ աշխատանքային պարտականությունների ոլորտներից մեկում երեք տարվա աշխատանքային ստաժ._x000D_
+• Համակարգչային գիտելիքներ (MS Office փաթեթ)_x000D_
+• Օտար լեզուների իմացություն:_x000D_
+Աշխատանքային պարտականությունների շրջանակը_x000D_
+• մասնակցում է Հայաստանի Հանրապետությունում միջազգային մակարդակով մրցունակ գործարար և ներդրումային միջավայրի ձևավորմանն ուղղված քաղաքականության մշակման և դիտանցման աշխատանքներին._x000D_
+• մասնակցում է գործարար և ներդրումային միջավայրի բարելավմանն ուղղված միջոցառումներ մշակման և իրականացման աշխատանքներին._x000D_
+• մասնակցում է գործարար միջավայրի բարելավմանը խոչընդոտող խնդիրների վերացման ուղղությամբ առաջարկություններ է ներկայացմանը._x000D_
+• մասնակցում է «Գործարարությամբ զբաղվելը» վարկանիշային զեկույցով գնահատվող ոլորտների ուսումնասիրության և առկա ընթացակարգերի պարզեցման ուղղությամբ առաջարկությունների ներկայացման աշխատանքներին._x000D_
+• մասնակցում է գործարար ու ներդրումային միջավայրի բարելավման տեսանկյունից` հարկային և մաքսային ոլորտներում խնդիրների վերհանման, քաղաքականության մշակման և առաջարկությունների ներկայացման գործընթացներին._x000D_
+• մասնակցում է ՀՀ-ի գործարար միջավայրը կարգավորող օրենքների և այլ իրավական ակտերի նախագծերի մշակման աշխատանքներին._x000D_
+• մասնակցում է ՀՀ էկոնոմիկայի նախարարության, ինչպես նաև այլ գերատեսչությունների կողմից մշակված ռազմավարական փաստաթղթերի նախագծերի քննարկման և առաջարկությունների ներկայացման գործընթացին:_x000D_
+_x000D_
+        </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>5/25/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8/15/2019</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Վաճառող</t>
+          <t>Արտադրամասի Աշխատակից</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Մաստեր Գրուպ ՍՊԸ</t>
+          <t>Մուլտի Սոլար ՍՊԸ</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Production, Operations</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Արևային վահանակների արտադրությամբ զբաղվող ընկերությունը փնտրում է արտադրամասի աշխատակիցներ:_x000D_
+Աշխատանքային գրաֆիկը` 5-օրյա: Աշխատանքը հերթափոխային է:_x000D_
+Անհրաժեշտ պահանջներ                                         _x000D_
+տարիքը` 20 - 40 տարեկան_x000D_
+սեռը` արական / իգական_x000D_
+պատասխանատու, ուշադիր_x000D_
+Աշխատանքային Պարտականություններ_x000D_
+Տարբեր սարքավորումների վրա կատարել արտադրական աշխատանք_x000D_
+Ընտրված աշխատակաիցներն անցնում են համապատասխան վերապատրաստում_x000D_
+Անցեք նշված լինքով, լրացրեք մեր հայտը: _x000D_
+Խնդրում ենք նամակի մեջ նշեք, թե որտեղից եք տեղեկացել հայտարարության մասին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>4/25/2019</t>
+          <t>Abovyan</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7/29/2019</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Արտադրամասի Վարպետ</t>
+          <t>Վաճառքի  Խորհրդատու</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>IMEX GROUP Co. LTD</t>
+          <t>BARSIS LLC</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Production, Operations</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+ԲԱՐՍԻՍ ՍՊ ընկերության &lt;&lt;ՄԵՐԻ&gt;&gt; պարֆումերիա խանութ սրահներին անհրաժեշտ են  վաճառքի  խորհրդատուներ:_x000D_
+Job responsibilities (optional)_x000D_
+ Հետևել ապրանքների պահանջվող քանակի առկայությանը_x000D_
+Օգնել  գնորդին ապրանքի ընտրության հարցում, խորհրդատվություն  տալ խանութում վաճառվող ապրանքների տեսականու, դրանց սպառողական հատկանիշների և առանձնահատկությունների վերաբերյալ_x000D_
+ Մասնակցել ապրանքների վաճառքի խթանմանը՝  ներկայացնելով նաև գովազդվող ապրանքները, տեղեկացնելով գործող զեղչային համակարգերի և ակցիաների մասին_x000D_
+Օգնել խանութի ղեկավարին կամ պահեստապետին ապրանքների ընդունման հարցում_x000D_
+Պատրաստել ապրանքները վաճառքի համար՝ բացում, հավաքում, կոմպլեկտավորում, տեղադրում_x000D_
+Հետևել գնապիտակների առկայությանը, նրանց ճիշտ դասավորվածությանը_x000D_
+Մասնակցել ընկերության կողմից կազմակերպված ուսուցողական դասընթացներին_x000D_
+Salary (optional)_x000D_
+Միջին ամսական 130-170 000 ՀՀ դրամ և ավելի_x000D_
+Required qualifications (optional) _x000D_
+Բարձրագույն կամ թերի-բարձրագույն կրթություն_x000D_
+Հայերենև ռուսերեն գերազանց իմացություն, անգլերեն լեզվի իմացությունը ցանկալի է_x000D_
+Աշխատանքային փորձ սպասարկման բնագավառում_x000D_
+Additional information (required)_x000D_
+Համապատասխան թեկնածուները կարող են ուղարկել ինքնակենսագրությունը /CV/  նշված  էլ. հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>5/25/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8/2/2019</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Մաքրուհի</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Մեգա Շին ՍՊԸ</t>
+          <t>Ծիրան Սուպերմարկետ</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Ծիրան սուպերմարկետը փնտրում է Մաքրուհի` սուպերմարկետում աշխատելու համար:_x000D_
+Նկարագրություն_x000D_
+ապահովել աշխատանքային տարածքների մաքրությունը_x000D_
+հետևել սահմանված սանիտարահիգիենիկ կանոններին_x000D_
+Պահանջներ_x000D_
+բարեխիղճ_x000D_
+պատասխանատու_x000D_
+արագաշարժ_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատաժամերը՝ 8 ժամյա աշխատանքային գրաֆիկ, շաբաթը մեկ օր հանգիստ:_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+ _x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>4/24/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7/23/2019</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Տպագրատան Դիզայներ</t>
+          <t>Շուկայի Զարգացման Պատասխանատու</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Ayvazyan &amp; Partners</t>
+          <t>VITE GROUP</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Art, Design</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Աշխատանքի ոլորտը՝ շինանյութի և տնտեսական ապրանքների մեծածախ և մանրածախ վաճառք:_x000D_
+Պարտականություններ_x000D_
+Իրականացնել պատվերների հավաքագրում և վաճառք_x000D_
+Պահանջներ_x000D_
+23-35 տարեկան_x000D_
+սեփական մեքենայի առկայություն_x000D_
+բարձրագույն կրթությունը պարտադիր է_x000D_
+աշխատանքային փորձը տվյալ ոլորտում պարտադիր է_x000D_
+աշխատավարձը ֆիքսված 50,000դր.+ վաճառքից տոկոսներ_x000D_
+Աշխատանքային օրերը՝ երկուշաբթի-շաբաթ, հանգստյան օր՝ կիրակի:_x000D_
+Դիմելու համար խնդրում ենք ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>5/23/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>7/29/2019</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Խնդրահարույց Վարկերի Ավագ Մասնագետ</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>«ԳԼՈԲԱԼ ԿՐԵԴԻՏ» ՈՒՎԿ ՓԲԸ</t>
+          <t>Dvin Music Hall</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1023,78 +1566,145 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Dvin Music Hall-ը աշխատանքի է հրավիրում հաշվապահի։_x000D_
+Աշխատանքային պարտականություններ՝_x000D_
+Իրականացնել կազմակերպության ներքին փաստացի հաշվառումը_x000D_
+Իրականացնել հաշվապահական հաշվառման համար տեղեկատվության մշակում, հավաքագրում և մուտքագրում_x000D_
+Իրականացնել ապրանքանյութական արժեքների, դրանց շարժի հետ կապված գործառնությունների արտացոլում հաշվապահական հաշվառման մեջ և մուտքագրում ծրագիր_x000D_
+Նյութածախսի հաշվարկ և ինքնարժեքի հսկում։_x000D_
+Պահանջվող որակավորումներ՝ _x000D_
+Բարձրագույն կրթություն՝ տնտեսագիտության, ֆինանսների կամ հաշվապահության ոլորտներում,_x000D_
+ՀԾ-Հաշվապահ համակարգի, MS Օffice և Trio Soft ծրագրերի իմացությունը կդիտվի որպես առավելություն_x000D_
+Առնվազն 2-3 տարվա աշխատանքային փորձի առկայություն հյուրանոցային կամ հանրային սննդի սպասարկման ոլորտներում_x000D_
+Հարկային օրենսդրության և հաշվապահական ստանդարտների իմացության բավարար մակարդակ,_x000D_
+Հայերեն և ռուսերեն լեզուների լավ իմացություն։_x000D_
+Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին` կցելով լուսանկար:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>4/23/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Beauty Salon Administrator</t>
+          <t>Ինժեներ՝ Solidworks ծրագրի իմացությամբ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10 nails bar</t>
+          <t>Open With</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Engineering</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Կազմակերպությունը աշխատանքի է հրավիրում Solidworks (sheet metal) ծրագրի իմացությամբ ինժեների:_x000D_
+Պարտականություններ_x000D_
+Նախագծում /թիթեղյա պրոֆիլային դետալներ, կոնստրուկցիաներ,_x000D_
+Տեխնիկական և կոնստրուկտորային փաստաթղթերի մշակում, համաձայնեցում և թողարկում (գծագրեր, սխեմաներ),_x000D_
+Արտադրական հրահանգների մշակում,_x000D_
+Արտադրության մեջ աշխատակազմի պատրաստում, արտադրության ողջ ընթացքում փոխհամագործակցում,_x000D_
+Արտադրական պրոցեսի վերլուծություն եւ անսարքությունների բացահայտում,_x000D_
+Փորձանմուշի հեղինակային վերահսկողություն և սերիական արտադրանքի կազմակերպում,_x000D_
+Հումքի, նյութի և սարքավորումների բաղադրիչ բազայի ընտրություն,_x000D_
+Տեխնիկական եւ կոմերցիոն հարցերի վերաբերյալ հաճախորդների հետ փոխգործակցություն,_x000D_
+Նախահաշիվների և բնութագրերի կազմում:  _x000D_
+Պահանջներ_x000D_
+Բարձրագույն մասնագիտական կրթությունը և աշխատանքային փորձը ցանկալի են:_x000D_
+Հետաքրքրված թեկնածուները կարող են ուղարկել ինքնակենսագրական նշված էլ. հասցեին:_x000D_
+ _x000D_
+ _x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>5/23/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7/29/2019</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>DevOps Engineer</t>
+          <t>Հավատարմագրման ոլորտի մասնագետ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Innova AM</t>
+          <t>ՀՀ էկոնոմիկայի նախարարություն</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Government, Non Commercial</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Պահանջվող որակավորումները_x000D_
+• Հավատարմագրման ոլորտի ՀՀ գործող օրենսդրության իմացություն (այդ թվում՝ նախընտրելի է ԵԱՏՄ և ԵՄ)_x000D_
+• Հավատարմագրման ոլորտին առնչվող միջազգային ԻՍՕ 17000 շարքի ստանդարտների իմացություն_x000D_
+• Հավատարմագրման կամ համապատասխանության գնահատման ոլորտում աշխատանքային փորձ_x000D_
+• Բարձրագույն կրթություն կառավարման, տեխնիկական, բնագիտական կամ հարակից այլ ոլորտներում_x000D_
+• Համակարգչային գիտելիքներ (MS Office փաթեթ)_x000D_
+• Օտար լեզուների իմացություն_x000D_
+• Կառավարման հմտություններ_x000D_
+Աշխատանքային պարտականությունների շրջանակը_x000D_
+• ԵԱՏՄ, ԵՄ, ՀՀ հավատարմագրման բնագավառում գործող իրավական ակտերի պարզաբանմանը, քննարկմանը մասնակցելու, ինչպես նաև նշված ոլորտում ծագած խնդիրներին լուծումներ տալու նպատակով համապատասխան քննարկումների կազմակերպում_x000D_
+• հավատարմագրման ոլորտում եռամսյակային հաշվետվությունների կազմում_x000D_
+• հավատարմագրման բնագավառում միջազգային համագործակցության աշխատանքներին և համատեղ զարգացման ծրագրերի ձևավորմանը մասնակցություն_x000D_
+• հավատարմագրման բնագավառի քաղաքականության կիրարկման գործընթացում մասնագիտացված կառույցների հետ համագործակցություն_x000D_
+• հավատարմագրման և համապատասխանության գնահատման ոլորտներին առնչվող գրությունների, հաշվետվությունների, վերլուծությունների պատրաստում_x000D_
+Հավելյալ նշումներ_x000D_
+Մասնակցության համար ինքնակենսագրությունը (CV) և ուղեկցող նամակը (Cover letter) ուղարկե՛ք էլ․ հասցեին՝ վերագրում նշելով accreditation բառը։_x000D_
+_x000D_
+        </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>4/23/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8/15/2019</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Բարիստա Մատուցող</t>
+          <t>Վաճառող Մատուցող</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Opera Suite Hotel</t>
+          <t>Baguette &amp; Co</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1104,12 +1714,34 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Baguette &amp; Co Ֆրանսիական հացի և հրուշակեղենի սրճարանը փնտրում է մատուցող/ուհի - վաճառող/ուհի:Աշխատանքային փորձը պարտադիր չէ:_x000D_
+Մեր արժեքներն են_x000D_
+Մենք հաճախորդամետ ենք_x000D_
+Մենք հարգում ենք միմյանց_x000D_
+Մենք ապահովում ենք կարիերայի աճ _x000D_
+Պահանջներ_x000D_
+18-35 տարեկան_x000D_
+Սեռը՝ արական, իգական_x000D_
+Լինել ժպտերես_x000D_
+Տարրական անգլերեն կամ ռուսերեն լեզուների իմացությունը ցանկալի է_x000D_
+Կիրթ խոսք և վարվելակերպ, ճկունություն_x000D_
+Աշխատանքային փորձը պարտադիր չէ_x000D_
+Մենք տրամադրում ենք նաև._x000D_
+Պաշտոնապես ձևակերպված աշխատանք _x000D_
+Անվճար սնունդ _x000D_
+Ռեզյումեներն ուղարկել հայերեն կամ ռուսերեն լեզուներով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5/23/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
         </is>
       </c>
     </row>
@@ -1121,7 +1753,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Վանիթար</t>
+          <t>ԷՍԴԻԷՄ</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1131,132 +1763,229 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            ԷսԴիԷմ ՍՊԸ-ին անհրաժեշտ է վաճառքի մենեջեր:Աշխատանքային պարտականություններ._x000D_
+Շուկայի զարգացում_x000D_
+Առկա վաճառքի պատվերների ընդունում և պոտենցիալ վաճառակետերի բացահայտում_x000D_
+Պայմանավորվածությունների ձեռքբերում վաճառակետերի հետ _x000D_
+Վաճառակետերում ապրանքի ու դարակաշարերի արտաքին տեսքի պահպանում_x000D_
+Պահանջներ._x000D_
+Բարձրագույն կրթություն_x000D_
+Աշխատանքային փորձը տվյալ ոլորտում պարտադիր է_x000D_
+Մեքենայի առկայությունը պարտադիր է_x000D_
+Հավելյալ նշումներ._x000D_
+Աշխատանքային ժամեր՝ երկուշաբթիից ուրբաթ, 09:00-18:00, շաբաթ՝ 09:00-13:00:_x000D_
+CV-ները խնդրում ենք ուղարկել միայն վերոհիշյալ պայմաններին համապատասխանելու դեպքում: _x000D_
+        </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>5/23/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>8/28/2019</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>International Sales Manager</t>
+          <t>Հացթուխ</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>00194051</t>
+          <t>Figaro LLC</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Սրճարանների ցանցին անհրաժեշտ է հացթուխ/տեխլոգ _x000D_
+Պարտականություններ_x000D_
+ Ապահովել հացամթերքի որակը և  տեսականին_x000D_
+ Հետևել մաքրությանը _x000D_
+ Առաջարկել նոր տեսականի _x000D_
+Պահանջներ_x000D_
+Տիրապետել եվրոպական հացի տեսականուն, _x000D_
+Կրոասանի իմացությունը կդիտվի որպես առավելություն _x000D_
+Հավելյալ նշումներ_x000D_
+6-օրյա աշխատանքային գրաֆիկ`23:00-8:00, ամեն օր, մեկ օր հանգստյան, տրանսպորտը տրամադրում ենք մենք։_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>4/23/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>7/27/2019</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Մարքեթինգի Մասնագետ</t>
+          <t>Վաճառողուհի</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>IMEX GROUP Co. LTD</t>
+          <t>GIFT CITY</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Marketing, Advertising, PR</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Խանութ-սրահին անհրաժեշտ է 25-35 տարեկան խորհրդատու-վաճառողուհի, ով պետք է լիովին տիրապետի խանութում վաճառվող ողջ տեսականուն և կարողանա մանրամասն ներկայացնել հաճախորդներին:_x000D_
+Պահանջվող հմտություններ և որակավորում`_x000D_
+Բարձրագույն կամ միջին մասնագիտական կրթություն_x000D_
+Աշխատանքային փորձ սպասարկման ոլորտում_x000D_
+Գրագետ և կիրթ խոսք (անգլերեն և ռուսերեն լեզուների իմացությունը կդիտվի որպես առավելություն)_x000D_
+Հեշտ հաղորդակցվելու հմտություն_x000D_
+Արագաշարժ_x000D_
+Տրամաբանող_x000D_
+Կարգապահ_x000D_
+Կոկիկ և ներկայանալի արտաքին_x000D_
+Աշխատանքային պարտականություններն են`_x000D_
+Ընդունել ապրանքները և ապահովել դրանց պատշաճ դասավորվածությունը սրահում_x000D_
+Գնապիտակների առկայության ստուգում_x000D_
+Հաճախորդների ներգրավում_x000D_
+Պատշաճ սպասարկում_x000D_
+Աշխատանքային ժամերն են` 9:00-19:00, ամսական 3 օր հանգիստ:_x000D_
+Համապատասխան թեկնածուները կարող են ուղարկել իրենց ինքնակենսագրականը` պարտադիր կցելով մեկ կամ երկու լուսանկար:_x000D_
+        </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>5/23/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>7/27/2019</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Մարքեթինգի Մասնագետ</t>
+          <t>Օպերատոր Վաճառող</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lesona LLC</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Marketing, Advertising, PR</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            "Սի Ընդ Էֆ Քո" ՍՊԸ-ն փնտրում է պատասխանատվության բարձր զգացումով, հաղորդակցվելու և շփման ունակություններ ունեցող մասնագետի՝ ընկերության մասնաճյուղում օպերատոր-վաճառողի թափուր հաստիքը համալրելու նպատակով:_x000D_
+Աշխատանքային պարտականություններն են._x000D_
+Պատվիրված ապրանքների համակարգչային ծրագրերի միջոցով պահեստից դուրսգրում;_x000D_
+Պատասխանատու լինել ապրանքների վաճառքի համար;_x000D_
+Գնապիտակների առկայության, նրանց ճիշտ դասավորվածության պահպանում;_x000D_
+Անհրաժեշտ փաստաթղթաշրջանառության վարում:_x000D_
+Պահանջներն են._x000D_
+Բարձրագույն կրթություն,_x000D_
+Հայերեն, ռուսերեն լեզուների իմացություն,_x000D_
+Համակարգչային ծրագրերից օգտվելու գիտելիքներ (MS Word, Excel),_x000D_
+1C և ՀԾ Վաճառատեղ ծրագրերի իմացությունը կդիտվի որպես առավելություն,_x000D_
+Միջանձնյա հարաբերություններ հաստատելու և պահպանելու ունակություն:_x000D_
+Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ. հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>5/23/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>8/25/2019</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Sales Manager</t>
+          <t>Գրասենյակի Մենեջեր</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Bass Boutique Hotel</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Կազմակերպությունը փնտրում է գրասենյակի մենեջերի, ով պատասխանատու կլինի ամենօրյա գրասենյակային գործառույթների և պատշաճ աշխատանքային միջավայրի կազմակերպման համար: _x000D_
+Աշխատանքային պարտականություններն են՝_x000D_
+Աշխատակազմին անհրաժեշտ տեղեկատվության տրամադրում,_x000D_
+Ընդունարանի հեռախոսազանգերի պատասխանում, նամակագրական կապի վարում, վերահասցեավորում ըստ ստորաբաժանումների,_x000D_
+Գրասենյակի փաստաթղթաշրջանառության կազմակերպում և վերահսկում,_x000D_
+Այլ ադմինիստրատիվ գործառույթների իրականացում ըստ պահանջի:_x000D_
+Պահանջվող հմտություններ՝_x000D_
+Բարձրագույն կրթություն, _x000D_
+Հայերեն, ռուսերեն և անգլերեն լեզուների լավ իմացություն _x000D_
+Համակարգչային գիտելիքներ /MS office/ _x000D_
+Հաղորդակցման հմտություններ_x000D_
+Պարտաճանաչ_x000D_
+Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ. հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>4/22/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>8/25/2019</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Կորպորատիվ Վաճառքի Մասնագետ</t>
+          <t>Վարորդ Առաքիչ</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>FNet</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1266,402 +1995,751 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Ընկերությունը փնտրում է վարորդ-առաքիչի, ով պատասխանատու է ընկերության Ford Transit և Mitsubishi Fuso մեքենայով ապրանքների ժամանակին վաճառակետեր առաքման համար: _x000D_
+Աշխատանքային պարտականություններ_x000D_
+Պահեստից ապրանքի ստացում, հաշվառում, մեքենայի մեջ տեղավորում_x000D_
+Նախատեսված վաճառակետեր առաքում_x000D_
+Պահանջվող որակավորում_x000D_
+B C վարորդական կարգ_x000D_
+Բեռնատար մեքենաներ վարելու փորձ_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4/30/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8/25/2019</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Մարքեթինգի Պատասխանատու</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>«Այ Թի Լոջիք» Տեք</t>
+          <t>Գուդջոբ ՍՊԸ</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Marketing, Advertising, PR</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Պարտականություններ_x000D_
+Վաճառքի ավելացմանն ուղղված աշխատանք_x000D_
+Վաճառքի գործընթացի կազմակերպում_x000D_
+Հաճախորդներին լիարժեք տեղեկատվության տրամադրում` ապրանքների վերաբերյալ_x000D_
+Որակյալ սպասարկում_x000D_
+Պահանջներ_x000D_
+25-40 տարեկան_x000D_
+Բարձրագույն կրթություն_x000D_
+Աշխատանքային փորձը պարտադիր է_x000D_
+Ազնվություն, պարտաճանաչություն_x000D_
+Ճկուն մտածելակերպ և արագ կողմնորոշում_x000D_
+Բարձր պատասխանատվության զգացում_x000D_
+Աշխատասիրություն_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային օրեր և ժամեր՝ լրիվ աշխատանքային օր:_x000D_
+ _x000D_
+ _x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>4/22/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7/26/2019</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Խոհարար</t>
+          <t>Համայնքների գյուղատնտեսական ռեսուրսների կառավարման և մրցունակության երկրորդ ծրագրի Ֆինանսական ղեկավար</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Mr. GYROS</t>
+          <t>ՀՀ էկոնոմիկայի նախարարություն</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+ՀՀ էկոնոմիկայի նախարարության Գյուղատնտեսության ծրագրերի իրականացման վարչությունը Համաշխարհային բանկի աջակցությամբ իրականացնում է Համայնքների Գյուղատնտեսական ռեսուրսների կառավարման և մրցունակության երկրորդ (ՀԳՌԿՄ 2-րդ) ծրագիրը:_x000D_
+Ծրագրի Ֆինանսների և հաշվապահական հաշվառման թիմը (ՖՀՀԹ) պատասխանատու է փաստաթղթերի մշակման համար, որոնք կապահովեն Գյուղատնտեսության ծրագրերի իրականացման վարչության (ԳԾԻՎ) բնականոն գործունեության համար ակտիվների, ծառայությունների և սարքավորումների պատշաճ ձեռքբերումը: ՖՀՀԹ-ը պատասխանատու է արդյունավետ ֆինանսական կառավարման համակարգի ստեղծման համար այս ծրագրի շրջանակներում, ներառյալ միջոցների տրամադրումը և Ծրագրի բաղադրիչների միջև համակարգման մեխանիզմի մշակումը:_x000D_
+Ծրագրի իրականացման աշխատանքների համար հայտարարվում է ծրագրի Ֆինանսական ղեկավարի մրցույթ:_x000D_
+Առաջադրանքի ընդհանուր նպատակն է աջակցել Ծրագրի իրականացմանը և օժանդակել CARMAC2 ծրագրին՝ ապահովելու Ծրագրի գործունեության անխափան աշխատանքը:_x000D_
+Պարտականություններ_x000D_
+1. Ծրագրի համար ֆինանսական կառավարման համակարգի ստեղծում և գործարկում,_x000D_
+2. Ապահովել նախագծերի հաշվառման և հաշիվների վարումը` համաձայն Ընդհանուր հաշվապահական հաշվառման սկզբունքներին և գործելակերպին, ինչպես նաև Հայաստանի Հանրապետության օրենսդրությանը,_x000D_
+3. Ապահովել ծրագրի բոլոր հաշիվների վարումը համաձայն Համաշխարհային բանկի համապատասխան ուղեցույցներին և կանոնակարգերին ,_x000D_
+4. Ծրագրի հաշվառման համակարգի շահագործման համար մշակել, պահպանել և թարմացնել գրավոր ընթացակարգեր (Ֆինանսական կառավարման ձեռնարկ)՝ պատասխանատու վերահսկման ընթացակարգերի համար:_x000D_
+5. Կառավարել Ծրագրի միջոցների տրամադրումը: Պատրաստել տրամադրման հայտերը համաձայն ՀԲ-ի և Ֆինանսների նախարարության (Գանձապետական) ընթացակարգերին,_x000D_
+6. Տնօրինել նախագծերի նշանակված հաշիվը, պատրաստել հատուկ պարտավորությունների վերաբերյալ դիմումներ, բացել, վերանայել վճարման հանձնարարականները և հաստատել հաստատված հաշիվներից կատարված վճարումները,_x000D_
+7. Ստուգել հատկացման տեղեկությունը ստորագրված պայմանագրերի և վարկային համաձայնագրերի միջև (հատկացման ժամանակցույց և հատկացման նամակ),_x000D_
+8. Պահպանել մատակարարի հաշիվները հաստատելու համար անհրաժեշտ փաստաթղթերի հավաքման, ստուգման և պատրաստման ընթացակարգերը: Ապահովել, որ բոլոր վճարումները կատարվեն ժամանակին և պայմանագրի պայմաններին և դրույթներին համապատասխան, ինչպես նաև ՀԲ ուղեցույցներին, կանոնակարգերին, իրավական համաձայնագրերին և այլ կիրառելի փաստաթղթերին համաձայն,_x000D_
+9. Վերահսկել ընթացակարգեր Ծրագրի հաշվապահական հաշվառման հաշտեցման համար,_x000D_
+10. Իրականացնել բանկի / գանձապետական հաշվեկշիռների ծրագրային հաշիվների պարբերական հաշտեցում, ինչպես նաեւ Համաշխարհային Բանկի Հաճախորդների Միացման համակարգի կանոնավոր հաշտեցում: Իրականացնել XDR-ի հերթական գնահատումը ծրագրի միջոցների չբաշխված բալանսի վերաբերյալ և տրամադրել ղեկավարությանը նորացված ֆինանսական տեղեկատվություն,_x000D_
+11. Հետևել Ֆինանսավորման հաստատությունների կողմից վճարումների կատարմանը և Կառավարության գործընկերների ներդրումներին,_x000D_
+12. Պատրաստել տարեկան բյուջե, իրականացնել ֆինանսական պլանավորում `գնումների մասնագետների հետ համատեղ: Պատասխանատու է Բյուջեի կատարման վերահսկողության,_x000D_
+13. Ապահովել, որ հաշվապահական հաշվառման համակարգը հուսալի է եռամսյակային ոչ աուդիտային ֆինանսական հաշվետությունների(IFRs) նախապատրաստման համար: Պատրաստել և ներկայացնել եռամսյակային հաշվետվությունները Համաշխարհային Բանկին՝ ժամանակին և իրավական համակարգերում նշված ձևով,_x000D_
+14. Սահմանել ֆինանսավորման աղբյուրներ CARMAC 2 վարչական և ենթածրագրային ծախսերի համար,_x000D_
+15. Պատասխանատու է CARMAC 2 Հաշվետվությունների աղյուսակի մշակման և թարմացման համար,_x000D_
+16. Կարգավորել CARMAC 2 ծրագրի ֆինանսական հաշվետվությունների աուդիտի հետ կապված բոլոր աշխատանքները: Նախապատրաստել նախագծի տարեկան ֆինանսական հաշվետվությունները աուդիտի ենթարկելու և համակարգել ծրագրի աուդիտորական համաձայնությունները, համագործակցել աուդիտորների հետ, ապահովել, որ բոլոր ծրագրային հաշիվները պահպանվեն համաձայն աուդիտի համար նախատեսված Համաշխարհային բանկի կարգավորումներին, Համաշխարհային Բանկի կողմից ընդունված անկախ աուդիտորների կողմից և Համաշխարհային Բանկի կողմից ընդունված տեղեկանքների հիման վրա,_x000D_
+17. Համակարգել Ծրագրի ֆինանսների և հաշվապահական հաշվառման թիմի առօրյա աշխատանքը,_x000D_
+18. Կառավարել և վերահսկել միջոցների պատշաճ բաշխումը՝ ենթածրագրային հաշվապահական հաշվառման միավորներով իրենց գործառնական ծախսերի համար,_x000D_
+19. Գնումների մասնագետի հետ սերտորեն համագործակցել գնման ընթացակարգերի և մրցույթի գնահատմանը պրակտիկայի/ մասնակցության վերաբերյալ, նախնական ուսումնասիրության պայմանագրերի ծախսերի ամփոփաթերթիկների պատրաստում և այլն: Ծրագրի վարչական պարտականությունների կատարում, քանի որ պահանջվում է, որ բոլոր պայմանագրային ֆայլերը և գնումների գործողությունները ամբողջական և ճշգրիտ արտացոլում են յուրաքանչյուր պայմանագրի ֆինասական վիճակը, իրականացնել հաշվապահական հաշվառման և ֆինանսական փաստաթղթերի ներկայացում և արխիվացում,_x000D_
+20. Աշխատել Համաշխարհային Բանկի առաքելություններին համաձայն` ծրագրի ֆինանսական միջոցների պարբերական վերահսկողությունը իրականցնելու նպատակով և պատշաճ կերպով անդրադառնալ առաջարկություններին և դիտարկումներին,_x000D_
+21. Շփվել հարկային, մաքսային և սոցիալական ապահովության գործակալությունների և Հայաստանի Հանրապետության այլ բյուջետային գործակալությունների հետ Ծրագրի իրականացման հետ կապված հարցերի վերաբերյալ:_x000D_
+Նշանակման մանրամասն Տեխնիկական առաջադրանքի (Լիազորությունների շրջանակի) հետ կարելի է ծանոթանալ հետևյալ հասցեով՝ https://bit.ly/2y4W8Fz_x000D_
+Պահանջներ_x000D_
+1. Բարձրագույն կրթություն ֆինանսների, հաշվապահության, կամ հարակից այլ ոլորտներում ,_x000D_
+2. Առնվազն հինգ տարվա աշխատանքային փորձ ֆինանսավորման կամ հաշվապահական շ ոլորտում, ՀԲ-ի կողմից ֆինանսավորվող զարգացման ծրագրերում աշխատելու փորձը կդիտարկվի որպես առավելություն,_x000D_
+3. 1C հաշվապահական ծրագրի օգտագործման գերազանց հմտություններ, ինչպես նաև Գանձապետական Սպառողական ծրագրի օգտագործման փորձ,_x000D_
+4. Միաժամանակ մի քանի առաջադրանքներ կատարելու և սեղմ ժամկետները պահպանելու կարողություն,_x000D_
+5. Հայերենի լեզվի գերազանց տիրապետում (գրավոր և բանավոր), անգլերենի՝ լավ իմացություն,_x000D_
+6. Հաղորդակցական, թիմային աշխատանքի և վերլուծական հմտություններ:_x000D_
+Հավելյալ նշումներ_x000D_
+Ծրագրի տևողությունը.Սկիզբը` 2019թ.-ի օգոստոս:Ավարտը` 2020 թ.մայիս, հնարավոր երկարաձգմամբ մինչև ծրագրի ավարտը:Դիմումների վերջնաժամկետը՝ 08.08.2019թ.:_x000D_
+Լրացուցիչ տեղեկություններ կարող են ձեռք բերվել ստորև նշված հասցեում, աշխատանքային օրերին, ժամը 10:00-ից մինչև 17:00:Հետաքրքրվածության հայտերը պետք ներկայացվեն մինչև 2019թ. օգոստոսի 8-ը ժամը 17:00-ը ստորև նշված հասցեով:Երևան, Մամիկոնյանց փող. 39Ա, 2-րդ հարկ:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>5/22/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8/8/2019</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Վաճառքի Տնօրեն</t>
+          <t>Առաքիչներ Ռեստորանում</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Ayvazyan &amp; Partners</t>
+          <t>Արտաշի մոտ</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Project, Program Management</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Փնտրում ենք առաքիչների սեփական մեքենաներով:_x000D_
+Պարտականություններ_x000D_
+առաքվող սննդի տեղափոխում  _x000D_
+գումարի ստացում _x000D_
+հաստիքից բխող այլ պարտականություններ_x000D_
+Պահանջներ_x000D_
+պարտադիր սեփական մեքենայի կամ այլ փոխադրամիջոցի առկայություն է հեծանիվ , մոպեդ և այլն_x000D_
+աշխատանքային փորձը ցանկալի է_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>5/22/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>7/26/2019</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Պրեսելեր</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ayvazyan &amp; Partners</t>
+          <t>Արփի Սոլար ՍՊԸ</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Երիտասարդ եք, ուզում եք աշխատել հեռանկարային ոլորտում, ստանալ արժեքավոր հմտություններ և գիտելիքներ, ունենալ կայուն եկամուտ, միևնույն ժամանակ ստանալ ավելին ձեր աշխատանքին համապատասխան, ապա դիմեք Արփի Սոլար թիմին միանալու հայտ_x000D_
+Պարտականություններ_x000D_
+Ընկերության ապրանքների ու ծառայությունների ներկայացում հեռանկարային հաճախորդներին_x000D_
+Պատվերների ընդունում և ձևակերպում_x000D_
+Հաճախորդների հետ հետադարձ կապի ապահովում_x000D_
+Պահանջներ_x000D_
+Պատասխանատու և պարտաճանաչ մոտեցում աշխատանքին_x000D_
+Հաղորդակցման բավարար հմտություններ_x000D_
+Արական սեռ_x000D_
+20-35 տարեկան_x000D_
+Հավելյալ նշումներ_x000D_
+Հարցազրույցն անցած թեկնածուները անցնում են եռօրյա անվճար վերապատրաստում, որից հետո կնքվում է աշխատանքային պայմանագիր։ Կարող են դիմել նաև աշխատանքային փորձ չունեցող անձինք նույնպես։ Կայուն աշխատավարձը երաշխավորված է։_x000D_
+Աշխատանքային օրեր և ժամեր. Երկուշաբթի-ուրբաթ, 09:00-18:00_x000D_
+ _x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>5/22/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7/26/2019</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Տպագրիչ</t>
+          <t>Պահեստի և առաքման բանվոր</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ayvazyan &amp; Partners</t>
+          <t>Արփի Սոլար ՍՊԸ</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Production, Operations</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Անհրաժեշտ են բանվորներ, որոնք առավոտյան պահեստից կբարձեն ապրանքը պահեստից և վարորդի հետ կուղևորվեն մարզեր առաքման նպատակով։ _x000D_
+Պարտականություններ_x000D_
+Պարտաճանաչ կատարել աշխատանքը_x000D_
+Կատարել պահեստապետի և վարորդի ցուցումները_x000D_
+Ցուցաբերել ազնիվ և սրտացավ մոտեցում գործին_x000D_
+Պահանջներ_x000D_
+Բավարար ֆիզիկական առողջություն /ապրանքները մաքուր են, թեթև, ամենածանր ապրանքը 30կգ/_x000D_
+Հավելյալ նշումներ_x000D_
+Հանգստյան օրը կիրակի, ժամերը 09։00 - 18։00_x000D_
+Գրանցված աշխատանք։_x000D_
+Ինքնակենսագրական չունենալու դեպքում գրել մի քանի տող ձեր մասին։_x000D_
+ _x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5/22/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>7/26/2019</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ճարտարապետ - Դիզայներ</t>
+          <t>Մարդկային ռեսուրսների կառավարման բաժնի ղեկավար</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Albedo Graphics LLC</t>
+          <t>Mr. GYROS</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Art, Design</t>
+          <t>Human Resources</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+ _x000D_
+Պարտականություններ_x000D_
+Իրականացնել նոր աշխատակիցների որոնում, հարցազրույցների անցկացում և գնահատում,_x000D_
+Օժանդակել և իրականացնել կազմակերպության կորպորատիվ մշակույթի զարգացման աշխատանքներ,_x000D_
+Իրականացնել կադրային գործավարություն. աշխատանքային պայմանագրերը և պայմանագրերին կից համաձայնագրերի, աշխատակիցների անձնական գործեր և այլ փաստաթղթերի կազմում,_x000D_
+Մասնագիտական գիտելիքների ստուգման համար անհրաժեշտ թեստերի մշակում և ներդրում_x000D_
+Ստացված ինքնակենսագրականների դիտարկում, նախնական ընտրություն_x000D_
+Հարցազրույցների անցկացում, հետագա ընթացքի ապահովում_x000D_
+Աշխատողների անձնական տվյալների ֆայլերի վարում_x000D_
+Թափուր աշխատատեղերի վերաբերյալ տեղեկատվության տարածում՝ կայքերի, սոց. մեդիայի, կադրային գործակալությունների միջոցով_x000D_
+Պահանջներ_x000D_
+Բարձրագույն կրթություն,_x000D_
+ՄՌԿ ոլորտում հաջողակ փորձի առկայություն,_x000D_
+Կադրերի համալրման նոր մեթոդների իմացություն,_x000D_
+Կազմակերպչական և վերլուծական հմտություններ,_x000D_
+Լավատեսություն, հաղորդակցման ճկուն հմտություններ_x000D_
+Նախաձեռնողականություն_x000D_
+Հավելյալ նշումներ_x000D_
+Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>4/20/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8/25/2019</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Մատուցող / Մատուցողուհի</t>
+          <t>Մաքրուհի</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>“HMG“ ընկերություն</t>
+          <t>GIFT CITY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Կազմակերպությունը փնտրում է մաքրության պատասխանատու՝ մինչև 35 տարեկան:_x000D_
+Աշխատանքային պարտականություններ_x000D_
+ապահովել աշխատանքային տարածքների մաքրությունը_x000D_
+հետևել սահմանված սանիտարահիգիենիկ կանոններին_x000D_
+Պահանջներ_x000D_
+աշխատանքային փորձ_x000D_
+բարեխիղճ_x000D_
+պատասխանատու_x000D_
+պունկտուալ_x000D_
+արագաշարժ_x000D_
+աշխատասեր_x000D_
+մաքրասեր_x000D_
+ճշտախոս_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային գրաֆիկ՝ ամեն օր ժ. 09:00 - 19:00, ամսական 2 օր հանգիստ:_x000D_
+Խնդրում ենք դիմեն միայն նշված անձնային որակներ ունեցող թեկնածուները:_x000D_
+Նշված աշխատավարձի չափը սկզբնական է:_x000D_
+Կարող եք ուղարկել ռեզյումե նշված էլ. փոստին կամ զանգահարել կազմակերպության էջում նշված հեռախոսահամարով:_x000D_
+ _x000D_
+ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար տարբերակներից:_x000D_
+Հետևե՛ք հղմանը_x000D_
+        </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>4/19/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>7/26/2019</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Վաճառքի Պատասխանատու</t>
+          <t>Ադմինիստրատոր (գիշերային հերթափոխ)</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>IMEX GROUP Co. LTD</t>
+          <t>Կապիտալ հյուրանոց</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Tourism, Hospitality</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Կազմակերպությունը փնտրում է գիշերային հերթափոխի ադմինիստրատոր:_x000D_
+Պարտականություններ_x000D_
+Կատարել ամրագրումներ սահմանված կարգով_x000D_
+Պատասխանել հյուրերին հետաքրքրող հարցերին_x000D_
+Ընդունել և ճանապարհել հյուրերին, ստանալ վճարումներ_x000D_
+Պահանջներ_x000D_
+կրթությունը՝ ցանկալի է բարձրագույն_x000D_
+աշխատանքային փորձը՝ ցանկալի է նույն ոլորտում_x000D_
+պարտադիր հմտություններ՝ համակարգչային ծրագրերի իմացություն ՝ MS Office, MS Word, Exel,_x000D_
+անգլերենի և ռուսերենի գերազանց իմացություն_x000D_
+ցանկալի հմտություններ՝ արագ կողմնորոշվելու կարողություն, պատասխանատվության բարձր զգացում_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքը օրը մեջ գրաֆիկով է, 18:00 - 09:00, աշխատանքային 15 օր:_x000D_
+        </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>5/19/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7/25/2019</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Սպասարկող Մենեջեր</t>
+          <t>Շուկայի Զարգացման Պատասխանատու (ռուսերենի գերազանց իմացությամբ)</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>IMEX GROUP Co. LTD</t>
+          <t>"Մեհրաբյան և որդիներ" ՍՊԸ</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Customer Support, Client Care</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+"Մեհրաբյան և որդիներ" ընկերությունը փնտրում է շուկայի զարգացման պատասխանատու ռուսերենի գերազանց իմացությամբ:_x000D_
+Աշխատանքային պարտականություններ՝_x000D_
+Վաճառակետերում պատվերների ժամանակին և ճիշտ ձևավորում, _x000D_
+Ապրանքների ներկայացվածության ստանդարտների ապահովում՝ տեղադրվածություն, դիրք, դասավորվածություն, գովազդային նյութերի առկայություն, նախընտրելի գներ _x000D_
+Պատասխանատվություն՝ վաճառքների պլանի կատարման համար, ապրանքային վարկերի տրամադրման և հետագա վերահսկման համար _x000D_
+Մրցակիցների հայտնաբերում:_x000D_
+Անհրաժեշտ հմտություններ՝_x000D_
+Բարձրագույն կրթություն, _x000D_
+Անձնական ավտոմեքենայի առկայություն,_x000D_
+2 տարվա աշխատանքային փորձ վաճառքների բնագավառում_x000D_
+Նախաձեռնող և շփվող, _x000D_
+Թիմային աշխատող, _x000D_
+Ժամանակի կառավարում, _x000D_
+Հաճախորդներ ներգրավելու, բանակցելու աշխատանքային փորձ, _x000D_
+Լեզվի ճկունություն, ապրանքատեսականու ներկայացման կարողություն:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5/19/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8/24/2019</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>1C համակարգի ծրագրավորող</t>
+          <t>Sales Intern</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>IMEX GROUP Co. LTD</t>
+          <t>Business Development Group</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Description_x000D_
+ATTENTION: No experience needed!_x000D_
+Hey! active and positive graduates with no experience, who are eager to start their career path in Sales or to gain some practical knowledge, we are looking for you._x000D_
+Business Development Group is starting a 1-month internship in the Sales department. Successfully completing this internship one of our interns will get a job offer to join our team of enthusiasts. If this sounds like you, send your updated CV to our e-mail address with a note of ''Sales Intern'' in the subject line until August 10._x000D_
+Responsibilities_x000D_
+Provide accurate, valid and complete information to clients by phone or e-mail_x000D_
+Build sustainable relationships and trust with customers through open and interactive communication_x000D_
+Keep records of customer interactions, process customer accounts, and file documents_x000D_
+Follow communication procedures, guidelines, and company policies_x000D_
+Requirements_x000D_
+Bachelor of University or yet a student_x000D_
+Excellent knowledge of Russian and English (written and verbal) _x000D_
+Excellent communication skill as a liaison with foreign partners_x000D_
+ _x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5/19/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>8/10/2019</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Սերտիֆիկացման / Ստանդարտացման մասնագետ</t>
+          <t>Մսամթերքի Տեխնոլոգ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Տոնուս - Լես</t>
+          <t>Կայուն զարգացման հայկական հիմնադրամ</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Medical, Health, Fitness, Beauty</t>
+          <t>Production, Operations</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Կայուն զարգացման հայկական հիմնադրամը իր կողմից իրականացվող ծրագրերի շրջանակում աշխատանքի է հրավիրում մսամթերքի տեխնոլոգի:_x000D_
+Պարտականություններ_x000D_
+Տաք/սառը, եփվող, ծխեցվող մսամթերքի, երշիկների և նրբերշիկների բաղադրատոմսերի կազմում, դրանց արտադրության կազմակերպում և վերահսկում,_x000D_
+Արդի տեխնիկատնտեսական հրահանգների օգտագործում,_x000D_
+Նոր տեխնոլոգիական գործընթացների և սարքավորումների ստեղծում և դրանց գիտագործնական խնդիրների լուծում,_x000D_
+Սանիտարահիգենիկ պայմանների ապահովում_x000D_
+Արտադրական բոլոր գործընթացների իրականացում ըստ սահմանված նորմերի_x000D_
+Պահանջներ_x000D_
+Աշխատանքային փորձ՝ 3 տարի, պարտադիր_x000D_
+Պատասխանատվություն, նվիրվածություն_x000D_
+Արտադրական ոլորտում աշխատելու պատրաստակամություն_x000D_
+Կոմերցիոն գաղտնիքի պահպանում_x000D_
+Հավելյալ նշումներ_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>5/18/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>8/24/2019</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Փաստաբան / Իրավաբան</t>
+          <t>Հաշվետար Օպերատոր</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>02538904</t>
+          <t>Սիսթեմիքս ՍՊԸ</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Legal, Insurance</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Կազմակերպությունը աշխատանքի է հրավիրում հաշվետար-օպերատոր:_x000D_
+Պարտականություններ_x000D_
+Կատարել ամենօրյա արտադրվող ապրանքների դուրսգրում_x000D_
+Ստացված ապրանքների մուտքագրում_x000D_
+E-invoicing ծրագրով հարկային հաշիվների դուրսգրում_x000D_
+Հաշիվ-ապրանքագրերի ներմուծում համակարգչային ծրագիր, համակարգում և արխիվացում_x000D_
+Այլ հաշվապահական պարտականությունների իրականացում_x000D_
+Պահանջներ_x000D_
+աշխատանքային փորձը ցանկալի է_x000D_
+MS office, EXcell-ի լավ իմացությունը պարտադիր է_x000D_
+այլ հմտություններ`Супермаг_x000D_
+մաթեմատիկական գիտելիքները պարտադիր են_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային օրեր և ժամեր`09.00-ից 18.00,հանգստյան օրը կիրակի:_x000D_
+        </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>4/18/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8/24/2019</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Էլեկտրիկ</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Մեգա Շին ՍՊԸ</t>
+          <t>Figaro LLC</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Գանձապահը իրականացնում է շատ կարևոր դեր մասնաճյուղում: Հիմնական պարտականությունն է կանխիկ կամ քարտային միջոցներով ստանալ հաշիվներ, անհրաժեշտության դեպքում տալիս է մանրը, առանձնացնում թեյավճարը: Բարևում և ցտեսություն է ասում հաճախորդներին:_x000D_
+Պարտականություններ_x000D_
+Թիմում աշխատելու կարողություն, ստրեսակայունություն_x000D_
+Ճկունություն_x000D_
+Գումարի հետ աշխատելու ուշադրություն_x000D_
+Սեռը՝ իգական_x000D_
+Կարող են դիմել նաև ուսանողներ_x000D_
+Պահանջներ_x000D_
+ Կարող են դիմել նաև ուսանողներ_x000D_
+ Սեռը՝ իգական_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային ժամերն են՝ 8:00-17:00, 17:00-1:00, մեկ օր հանգստյան օր Լրացուցիչ տեղեկություններ, _x000D_
+Մենք տրամադրում ենք վճարովի արձակուրդ_x000D_
+Անվճար տրանսպորտ_x000D_
+Աշխատանքային հագուստ_x000D_
+Սնունդ և ըմպելիք _x000D_
+How to apply_x000D_
+Հետաքրքրված թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>4/17/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7/25/2019</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Վարորդ Առաքիչ</t>
+          <t>Գանձապահ</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Մեգա Շին ՍՊԸ</t>
+          <t>Mr. GYROS</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Logistics, Transportation</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Պարտականություններ_x000D_
+Հաճախորդների ժպիտով եւ բարեհամբույր սպասարկում,_x000D_
+Հաճախորդներին մենյուի վերաբերյալ տեղեկատվության տրամադրում,_x000D_
+Հաճախորդների պատվերների ընդունում և գրանցում, կտրոնի տրամադրում,_x000D_
+Կանխիկ և անկանխիկ գումարի ընդունում,_x000D_
+Դրամարկղի և հարակից տարածքի մաքրության պահպանում:_x000D_
+Պահանջվող հմտություններ_x000D_
+POS, ՀԴՄ-ի հետ աշխատելու կարողություն,_x000D_
+Դրամական միջոցների հետ աշխատելու կարողություն,_x000D_
+Հստակ ձեւակերպված պարզ խոսք (ռուսերեն, անգլերեն մինիմալ գիտելիքներ),_x000D_
+Թիմային աշխատանքի ցանկություն եւ կարողություն,_x000D_
+Արագ կողմնորոշվելու ունակություն, զարգացած ուշադրություն եւ հիշողություն,_x000D_
+Պարտաճանաչություն, պատասխանատվության բարձր զգացում:_x000D_
+Դիմելու գործընթաց_x000D_
+Համապատասխան թեկնածուները կարող են ուղարկել ինքնակենսագրականը նշված էլ. հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>4/17/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>8/24/2019</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Administrative Assistant</t>
+          <t>«Գյուղատնտեսության ոլորտում քաղաքականության մոնիտորինգի և գնահատման կարողությունների զարգացման» ծրագրի ազգային ղեկավարի մրցույթ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Innova AM</t>
+          <t>ՀՀ էկոնոմիկայի նախարարություն</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1671,321 +2749,630 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+ՀՀ էկոնոմիկայի նախարարության գյուղատնտեսության ծրագրերի իրականացման վարչությունը Համաշխարհային բանկի աջակցությամբ իրականացնում է «Գյուղատնտեսության ոլորտում քաղաքականության մոնիտորինգի և գնահատման կարողությունների զարգացման» ծրագիրը:_x000D_
+Ծրագրի իրականացման աշխատանքների համար հայտարարվում է ծրագրի ազգային ղեկավարի մրցույթ՝ իրականացնելու ծրագրի կառավարումը ծրագրի կառավարման փաստաթղթերին համպատասխան:_x000D_
+Պարտականություններ_x000D_
+1. Ծրագրի ընդհանուր կառավարում և համակարգում` համագործակցելով Պատվիրատուի, Ծրագրի շահառուների, շահագրգիռ կողմերի և Համաշխարհային Բանկի հետ։_x000D_
+2. Ծրագրի արդյունավետ և ճկուն համակարգում` համաձայն Ծրագրի գործառնական ձեռնարկի, աշխատանքային պլանի, բյուջեի և գնումների ծրագրի։_x000D_
+3. Հաշվետվությունների նախապատրաստում և ներկայացում Պատվիրատուին;_x000D_
+4. Ծրագրի գործունեության մոնիթորինգ` թիրախների իրականացումն ապահովելու նպատակով, Ծրագրի վերջնական հաշվետվության պատրաստում և ներկայացում։_x000D_
+5. Հանդիպումների կազմակերպում Պատվիրատուի և շահագրգիռ կողմերի հետ։_x000D_
+6. Միջազգային և ազգային փորձագետների համար Գործունեության շրջանակի նախապատրաստում ըստ նախատեսված գնումների պլանի և ապահովել յուրաքանչյուր պաշտոնի համար որակյալ թեկնածուի ընտրության ապահովում։_x000D_
+7. Աշխատակիցների և փորձագետների գործունեության համակարգում` ապահովելով անհրաժեշտ աշխատանքների կատարումը։_x000D_
+8. Աջակցություն Գյուղատնտեսական ծրագրերի իրականացման վարչությանը Ծրագրի շրջանակներում մատակարարման և սպասարկման պայմանագրերի պատշաճ իրականացումն ապահովելու գործում, ներառյալ Ծրագրի փորձագետների աշխատանքի իրականացումը, տեղեկատվական համակարգերի, սարքավորումների և այլ գնված ապրանքների որակը և համապատասխանելիության ապահովումը, տվյալների վերլուծությունն ու փորձագետների առաջադրանքների մշակումը։_x000D_
+9. Ծրագրի մասին տեղեկատվության տարածում արտաքին շահառուներին։_x000D_
+10. Պատվիրատուի կողմից նախատեսված Ծրագրի իրականացմանը վերաբերող այլ պարտականությունների իրականացում:_x000D_
+Նշանակման մանրամասն Տեխնիկական առաջադրանքի (Լիազորությունների շրջանակի) հետ կարելի է ծանոթանալ հետևյալ հղումով՝ https://bit.ly/2y4W8Fz_x000D_
+Պահանջներ_x000D_
+Հիմնական որակավորումներ_x000D_
+1. Բարձրագույն կրթություն գյուղատնտեսության, կամ տնտեսագիտության կամ այլ հարակից ոլորտներում։_x000D_
+2. Գործընկերների մեծ շրջանակի հետ աշխատելու կարողություն։_x000D_
+3. Գյուղատնտեսության, գյուղի զարգացման կամ այլ հարակից ոլորտներում ծրագրերի կառավարման առնվազն 3 տարվա աշխատանքային փորձ։_x000D_
+4. Հայաստանի կառավարական կառույցների և ընթացակարգերի լավ իմացություն, կառավարությունում կամ կառավարության հետ աշխատելու առնվազն 3 տարվա աշխատանքային փորձ։_x000D_
+5. Հանրային կառավարման ոլորտում կամ այդ ոլորտի հետ աշխատանքային փորձ։_x000D_
+6. Հաշվետվություններ գրելու, վերլուծություններ և պրեզենտացիաներ կազմելու ունակություններ։_x000D_
+Ղեկավարման և հաղորդակցման ունակություններ_x000D_
+7. Հայերենի և անգլերենի գերազանց իմացություն։_x000D_
+8. Կարողությունների հզորացման, ծրագրերի իրականացման կամ քաղաքականության մշակման փորձը նախընտրելի է։_x000D_
+9. Տվյալների և տեղեկատվական համակարգերի բնագավառում փորձը նախընտրելի է։_x000D_
+Հավելյալ նշումներ_x000D_
+Ծրագրի տևողությունը.Սկիզբը` 2019թ.-ի օգոստոս:Ավարտը` 2020 թ.մայիս, հնարավոր երկարաձգմամբ:Դիմումների վերջնաժամկետը՝ 02.08.2019թ.:_x000D_
+Լրացուցիչ տեղեկություններ կարող են ձեռք բերվել ստորև նշված հասցեում, աշխատանքային օրերին, ժամը 10:00-ից մինչև 17:00:Հետաքրքրվածության հայտերը պետք ներկայացվեն մինչև 2019թ. օգոստոսի 2-ը, ժամը 17:00-ը ստորև նշված հասցեով՝ Երևան, Մամիկոնյանց փող. 39Ա, 2-րդ հարկ:_x000D_
+        </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4/17/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8/2/2019</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Technical Writer</t>
+          <t>«Գյուղատնտեսության ոլորտում քաղաքականության մոնիտորինգի և գնահատման կարողությունների զարգացման» ծրագրի ազգային քարտուղարի մրցույթ</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Pay&amp;Go</t>
+          <t>ՀՀ էկոնոմիկայի նախարարություն</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+ՀՀ էկոնոմիկայի նախարարության գյուղատնտեսության ծրագրերի իրականացման վարչությունը Համաշխարհային բանկի աջակցությամբ իրականացնում է «Գյուղատնտեսության ոլորտում քաղաքականության մոնիտորինգի և գնահատման կարողությունների զարգացման» ծրագիրը:_x000D_
+Ծրագրի իրականացման աշխատանքների համար հայտարարվում է ծրագրի ազգային քարտուղարի մրցույթ՝ աջակցելու ծրագրի իրականացմանը և աջակցելու ծրագրի ազգային ղեկավարին ապահովել գործընթացների սահուն ընթացքը:_x000D_
+Պարտականություններ_x000D_
+1. Աջակցել ծրագրի ազգային ղեկավարին իր պարտականությունների կատարմանը, ներառյալ բյուջեի նախագծումը, ֆինանսական հսկողությունն ու հաշվառումը։_x000D_
+2. Կառավարել ծրագրի գրասենյակը և աշխատանքների պատշաճ ապահովումը։_x000D_
+3. Աջակցել մասնագետներին հանդիպումների և թարգմանությունների կազմակերպման գործընթացում։_x000D_
+4. Հանդիպումների ընթացքում ապահովել թարգմանություն, երբ մասնագիտական թարգմանություն առկա չէ։_x000D_
+5. Աջակցել ծրագրային միջոցառումների պլանավորմանը, իրականացմանը և տեղեկատվության տարածմանը։_x000D_
+6. Աջակցել Ծրագրի ղեկավար կոմիտեի հանդիպումների և այլ հանդիպումների նախապատրաստմանը, արձանագրությունների և շրջաբերականների կազմմանը։_x000D_
+7. Ծրագրի ազգային ղեկավարի հանձնարարությամբ՝ կատարել Ծրագրի իրականացմանը վերաբերող այլ պարտականություններ:_x000D_
+Տեխնիկական առաջադրանքին (Լիազորությունների շրջանակին) մանրամասն կարելի է ծանոթանալ հետևյալ հղումով՝ https://bit.ly/2y4W8Fz_x000D_
+Պահանջներ_x000D_
+1. Գյուղատնտեսության, տնտեսագիտության, հանրային կառավարան կամ հարակից այլ ոլորտներում բարձրագույն կրթություն։_x000D_
+2. Անգլերենի և հայերենի գերազանց իմացություն։_x000D_
+3. Հաղորդակցման և կազմակերպչական լավ հմտություններ, այդ թվում՝ տարբեր երկրներից փորձագետների հետ աշխատելու ունակություն։_x000D_
+4. ՀՀ պետական կառույցների և ընթացակարգերի լավ իմացություն, պետական կառույցներում կամ կառույցների հետ առնվազն 1 տարվա աշխատանքային փորձ։_x000D_
+Ցանկալի որակավորում՝ միջազգային կազմակերպությունների կողմից ֆինանսավորվող ծրագրերի աշխատանքային փորձ, հանրային կառավարման բնագավառում աշխատանքային փորձ:_x000D_
+Հավելյալ նշումներ_x000D_
+Ծրագրի տևողությունը.Սկիզբը` 2019թ.-ի օգոստոս:Ավարտը` 2020 թ.մայիս, հնարավոր երկարաձգմամբ:Դիմումների վերջնաժամկետը՝ 02.08.2019թ.:_x000D_
+Լրացուցիչ տեղեկություններ կարող են ձեռք բերվել ստորև նշված հասցեում, աշխատանքային օրերին, ժամը 10:00-ից մինչև 17:00:Հետաքրքրվածության հայտերը պետք է ներկայացվեն մինչև 2019թ. օգոստոսի 2-ը, ժամը 17:00-ը ստորև նշված հասցեով՝ Երևան, Մամիկոնյանց փող. 39Ա, 2-րդ հարկ:_x000D_
+        </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>5/16/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>8/2/2019</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Խորհրդատու Վաճառող</t>
+          <t>Խոհարար Գիրոս Պատրաստող</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Lesona LLC</t>
+          <t>Mr. GYROS</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Մր. Գիրոս կազմակերպությունը աշխատանքի է հրավիրում Խոհարարների:_x000D_
+Պարտականություններ_x000D_
+Ընդունել հաճախորդների պատվերները  _x000D_
+Բարեհամբյուր սպասարկել հաճախորդներին  _x000D_
+Պատրաստել մենյուի մեջ առկա սննդատեսակները _x000D_
+Կատարել թիմային աշխատանքից բխող այլ գործառույթներ_x000D_
+Պահանջներ_x000D_
+Պարտաճանաչություն, մաքրասիրություն_x000D_
+Թիմում աշխատելու կարողություն_x000D_
+Միջանձնային հաղորդակցման բարձր հմտություններ_x000D_
+Ժամանակը գրագետ կառավարելու հմտություն_x000D_
+Աշխատանքի ընթացքում առաջացած խնդիրներին արագ և ամբողջական լուծում տալու կարողություն_x000D_
+Ինքնատիրապետման և էմոցիոնալ զսպվածության բարձր մակարդակ_x000D_
+Դիմելու կարգը_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար օրինակներից:_x000D_
+Հետևե՛ք հղմանը_x000D_
+_x000D_
+        </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>5/16/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>8/23/2019</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Մատուցող / Մատուցողուհի</t>
+          <t>Հոսքագծի Մասնագետ</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Figaro LLC</t>
+          <t>Էկոֆորմ ՍՊԸ</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Production, Operations</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Էկոֆորմ ընկերությունը փնտրում է պլաստիկ արտադրության հոսքագծի և պոլիէթիլեն արտադրության հոսքագծի մասնագետներ (օպերատորներ):_x000D_
+Պարտականություններ_x000D_
+Հիմնական գործառույթն է հետևել ավտոմատ մեքենաների արտադրանքի ընթացքին, արտադրվող շշերի ընթացքին, նրա որակին և քանակին_x000D_
+Պահանջվում է շահագործել և անհրաժեշտության դեպքում վերանորոգել հոսքագծերը_x000D_
+Տարբեր մեքենասարքավորումնների արտադրության գործընթացի գիտելիքներ_x000D_
+Պահանջներ_x000D_
+Աշխատանքային փորձ_x000D_
+Գիտելիքներ արտադրության գործընթացի վերաբերյալ_x000D_
+Հավելյալ նշումներ_x000D_
+Դուք կարող եք դիմել այս աշխատանքին` ուղարկելով Ձեր ռեզյումեն նշված էլ. փոստին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>4/16/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>8/22/2019</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ՄՌԿ Օգնական</t>
+          <t>Շուկայի զարգացման պատասխանատու</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Mr. GYROS</t>
+          <t>Ayvazyan &amp; Partners</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Human Resources</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Ayvazyan &amp; Partners-ի գործընկեր կազմակերպությունն աշխատանքի է հրավիրում շուկայի զարգացման պատասխանատուի։_x000D_
+Պարտականություններ_x000D_
+Այցելություններ առկա վաճառքի կետեր_x000D_
+Նոր հաճախորդների ներգրավում_x000D_
+Հաճախորդների հետ գործարար հարաբերությունների հաստատում և պահպանում_x000D_
+Ապրանքի ներկայացում վաճառքի կետերում_x000D_
+Վաճառքի կետերում պատշաճ տեսականու առկայության ապահովում_x000D_
+Վաճառքի կետերում դասավորվածության կազմակերպում և վերահսկում_x000D_
+Վաճառքի կետերում սառանարային և այլ օժանդակ գույքի ապահովում_x000D_
+Վաճառքի կետերում գովազդային նյութերի պատշաճ առկայության ապահովում_x000D_
+Վաճառքի արդյունքների վերլուծություն և հաշվետվությունների ներկայացում_x000D_
+Հաճախորդներից պատվերների ընդունում_x000D_
+Առաքիչի աշխատանքի արդյունավետ իրականացման վերահսկում_x000D_
+Առաքիչների հաշվարկների անցկացման ընթացակարգի իրականացման վերահսկում_x000D_
+Պահանջներ_x000D_
+Բարձրագույն տնտեսագիտական կրթություն_x000D_
+1 տարվա աշխատանքային փորձը վաճառքի ոլորտում պարտադիր է_x000D_
+Հաղորդակցման և բանակցելու հմտություններ_x000D_
+Պատասխանատվության և ազնվության բարձր զգացում_x000D_
+Թիմային աշխատանքի պատրաստակամություն_x000D_
+Համակարգչային ծրագրերի իմացություն (MS office)_x000D_
+Անձնական մեքենայի առկայությունը պարտադիր է_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>5/16/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>7/23/2019</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Full Stack CTO</t>
+          <t>Հեռախոսային կենտրոնի (call center) մասնագետ</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Raleigh &amp; Drake</t>
+          <t>Ayvazyan &amp; Partners</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Los Angeles, CA</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Ayvazyan &amp; Partners-ի գործընկեր կազմակերպությունն աշխատանքի է հրավիրում հեռախոսային կենտրոնի (call center) մասնագետի։_x000D_
+Պարտականություններ_x000D_
+Մուտքային և ելքային զանգերի ընդունում_x000D_
+Հաճախորդների հարցումներին համապատասխան անհրաժեշտ տեղեկատվության տրամադրում _x000D_
+Պոտենցիալ հաճախորդների բազայի հավաքագրում և թիրախավորում CRM  համակարգում_x000D_
+Հեռախոսազանգերի միջոցով պրոդուկտի/ ծառայության վաճառք_x000D_
+Զանգեր առկա հաճախորդներին՝ հավելյալ ծառայության/ պրոդուկտի վաճառք իրականացնելու նպատակով,_x000D_
+Հաճախորդներին նվեր քարտերի, զեղչերի մասին տեղեկացում_x000D_
+Կոմերցիոն առաջարկների կազմում_x000D_
+Հետվաճառքային սպասարկման ապահովում_x000D_
+Պահանջներ_x000D_
+Բարձրագույն կրթություն_x000D_
+Վերջին 3 տարվա ընթացքում առնվազն 6 ամսվա վաճառքի և հաճախորդների սպասարկման (նաև հեռախոսային) աշխատանքային փորձ_x000D_
+Հաղորդակցման գերազանց հմտություններ (գրավոր և բանավոր)_x000D_
+Հայերենի՝ գերազանց,  ռուսերենի և անգլերնի լավ իմացություն_x000D_
+MS Office ծրագրի իմացություն,_x000D_
+CRM համակարգի իմացությունը կդիտվի որպես առավելություն_x000D_
+Թիմային աշխատանքի հմտություններ_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>4/15/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>8/22/2019</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>.NET Developer</t>
+          <t>Մատուցող Մատուցողուհի</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Pay&amp;Go</t>
+          <t>Արտաշի մոտ</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Փնտրում ենք ակտիվ և աշխատասեր աշխատակիցների: _x000D_
+Պարտականություններ_x000D_
+ Հյուրերի սպասարկում_x000D_
+Պահանջներ_x000D_
+լեզուների իմացությունը ցանկալի է_x000D_
+աշխատանքային փորձ ցանկալի է_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>5/15/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7/23/2019</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Որակի Հսկողության Բաժնի Ղեկավար</t>
+          <t>Medical Representative</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>«Գլորիա» Կարի Ֆաբրիկա</t>
+          <t>BIOMEDICA</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Production, Operations</t>
+          <t>Medical, Health, Fitness, Beauty</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Vanadzor</t>
+          <t xml:space="preserve">_x000D_
+            A well-known international pharmaceutical company is looking for an experienced Medical Representative in Armenia._x000D_
+Responsibilities:_x000D_
+Ensure the promotion of the company's products and promote maximum sales in the territory entrusted;_x000D_
+Visits to doctors, pharmacy workers;_x000D_
+Maintain a database of customers on its territory, categorizing them in accordance with the rules adopted by the company;_x000D_
+Perform current and urgent reporting;_x000D_
+Participate in promotional events organized by the company;_x000D_
+To fulfill the established sales plan in Armenia;_x000D_
+Requirements:_x000D_
+Experience as a medical representative in pharmaceutical companies for at least 3 years;_x000D_
+Higher education (medical / pharmaceutical is an advantage);Confident MS Office;_x000D_
+Result orientation, team approach to work, customer orientation, sales skills;_x000D_
+Negotiation and presentation skills._x000D_
+Interested candidates are requested to send their resume to the mentioned email._x000D_
+Attention: Send your CVs in English or Russian._x000D_
+        </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>4/12/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>8/22/2019</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Վարորդ</t>
+          <t>Վաճառող Գանձապահ</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Brand Leader</t>
+          <t>Wearmind</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Logistics, Transportation</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Վաճառող-խորհրդատու/գանձապահը պատասխանատու է սրահների վաճառքների ավելացման համար՝ հաճախորդներին տրամադրելով առաջարկվող ապրանքատեսականու մասին մանրամասն ինֆորմացիա։ Նա պետք է վերահսկի պահեստի մնացորդը, սրահի արտաքին տեսքը, դասավորվածությունը և մաքրությունը, կրի պատասխանատվություն դրամարկղի շարժի և ծրագրային գործողությունների համար։_x000D_
+Պարտականություններ_x000D_
+Դիմավորել հաճախորդներին, գրագետ սպասարկել  _x000D_
+Սրահի դասավորվածության ապահովում, դարակաշարերի մաքրում _x000D_
+Ապրանքատեսակների լիարժեք իմացություն _x000D_
+Հաճախորդներին ճշգրիտ տեղեկատվության և խորհրդատվության տրամադրում _x000D_
+Հետևել ապրանքների պահանջվող քանակի առկայությանը, _x000D_
+Մասնակցել ապրանքների վաճառքի խթանմանը՝ ներկայացնելով նաև գովազդվող ապրանքները, տեղեկացնելով գործող զեղչային համակարգերի և ակցիաների մասին։ _x000D_
+Հետևել ապրանքների պահանջվող քանակի առկայությանը _x000D_
+Օգնել գնորդին ապրանքի ընտրության հարցում, խորհրդատվություն տալ խանութում վաճառվող ապրանքների տեսականու, դրանց սպառողական հատկանիշների և առանձնահատկությունների վերաբերյալ _x000D_
+Օգնել սրահի պատասխանատուին ապրանքների ընդունման հարցում _x000D_
+Հետևել գնապիտակների առկայությանը, նրանց ճիշտ դասավորվածությանը _x000D_
+Մասնակցել ընկերության կողմից կազմակերպված ուսուցողական դասընթացներին _x000D_
+Գումարային միջոցների գործընթացների իրականացում, անհրաժեշտ փաստաթղթերի վարում, ծրագրային գործողությունների իրականացում _x000D_
+Լուծել հաճախորդների հետ առաջացած խնդիրները: _x000D_
+Պահանջներ_x000D_
+Իգական_x000D_
+Վաճառքի/սպասարկման ոլորտում աշխատանքային փորձը կդիտվի որպես առավելություն _x000D_
+Գրագետ բանավոր խոսք (հայերեն) _x000D_
+Օտար լեզուների (անգլերեն, ռուսերեն) իմացությունը ցանկալի է _x000D_
+Վաճառքի/սպասարկման ոլորտում թրեյնինգների մասնակցությունը կդիտվի որպես առավելություն _x000D_
+Վաճառքի հիմնական սկզբունքների իմացություն։ _x000D_
+Ակտիվ վաճառքի հմտություններ _x000D_
+Սպասարկման և բանակցությունների վարման հմտություններ _x000D_
+Հաղորդակցվելու և կոնֆլիկտային իրավիճակներում մարդկանց հետ շփվելու ունակություն _x000D_
+Արդյունքների վրա կողմնորոշվող _x000D_
+Թիմում աշխատելու ունակություն _x000D_
+Ճշգրտության և պատասխանատվության հմտություններ _x000D_
+Նախաձեռնողականություն _x000D_
+Սովորելու պատրաստակամություն _x000D_
+1C ծրագրի իմացությունը կդիտվի որպես առավելություն_x000D_
+Հավելյալ նշումներ_x000D_
+Ընկերությունը  ներկայացնում է Աշխարհում առաջատար ներքնազգեստի բրենդ, զբաղվում է ներքնազգեստի ֆրանչայզինգային վաճառքով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4/12/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>7/22/2019</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Անձնական Վարորդ</t>
+          <t>Senior Software Engineer</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Trapezza</t>
+          <t>Intellcores LLC</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Logistics, Transportation</t>
+          <t>Information Technologies</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Description: design, implementation and testing Server-side java applications._x000D_
+Job responsibilities: _x000D_
+Java server software development in a team spanning several time-zones;_x000D_
+Participate in all cycles of software design and development;_x000D_
+Perform unit and automated test case development;_x000D_
+Ensure deliverables meet requirements and specifications for functionality, performance, and reliability;_x000D_
+Work in a scrum project framework._x000D_
+Required qualifications: _x000D_
+BS/MS in Information Systems/ Software Engineering/ Computer Science or a related field;_x000D_
+7+ years of software development experience;_x000D_
+5+ years of Java development experience;_x000D_
+Experience of working in a team;_x000D_
+Fluency in the English language both written and spoken;_x000D_
+Working knowledge of JDBC, SQL, Maven, Unit Testing;_x000D_
+Knowledge of Linux is a plus;_x000D_
+Knowledge of Python is a plus;_x000D_
+Knowledge of C++ is a plus._x000D_
+Interested candidates are requested to send their CV to the mentioned email._x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4/12/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>8/21/2019</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Խանութ - Սրահի Մենեջեր</t>
+          <t>Վարորդ Առաքիչ</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>"Մաքուր Տուն" ՍՊԸ</t>
+          <t>Figaro LLC</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Restaurants, Food Services</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Abovyan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Սրճարանների ցանցին անհրաժեշտ է վարորդ առաքիչ` վարորդական B,C իրավունքով:_x000D_
+Պարտականություններ_x000D_
+մթերքի տեղափոխում սրճարաններին _x000D_
+փաստաթղթերի տեղափոխում _x000D_
+Պահանջներ_x000D_
+կրթություն- վարորդական _x000D_
+աշխատանքային փորձ- վարորդ _x000D_
+պարտադիր հմտություններ՝ աշխատանքի ճիշտ կազմակերպում _x000D_
+համբերություն _x000D_
+Հավելյալ նշումներ_x000D_
+6օրյա աշխատանքային գրաֆիկ, աշխատանքային ժամերը՝ 7:00-17:00_x000D_
+Մենք տրամադրում ենք ._x000D_
+Մեքենան՝ իր բոլոր ծախսերով_x000D_
+Անվճար սնունդ_x000D_
+Վճարովի արձակուրդ _x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5/12/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7/21/2019</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Ցանցի զարգացման մասնագետ</t>
+          <t>Հաճախորդների սպասարկման աշխատակից</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>"Մաքուր Տուն" ՍՊԸ</t>
+          <t>8778 Հայաստան Տեղեկատու</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Customer Support, Client Care</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Պարտականություններ._x000D_
+Համագործակցող կազմակերպություններ սպասարկում` կայքում նկարների, ապրանքանիշերի հատուկ առաջարկների տեղադրում_x000D_
+Ֆեյսբուքյան էջի վարում_x000D_
+Ապրանքանիշերի հարցում, մշակում և տեղադրում կայքում, գրքում, շտեմարանում_x000D_
+Տեղեկագրքի նյութերի պատրաստում` ապրանքանիշերի, գովազդների տպագրական ֆորմատի բերում_x000D_
+Նամակների ցրման նյութերի հարցում, մշակում և տարածում համապատասխան ծրագրերով_x000D_
+Կազմակերպության էլ հասցեների հարցում և տեղադրում շտեմարանում և նամակների ցրման ծրագրերում_x000D_
+Տեղեկագրքի  դիզայն և էջադրում_x000D_
+Գովազդային նյութերի պատրաստում_x000D_
+Շտեմարանի հետ կապված այլ աշխատանքներ_x000D_
+Տարեկան  մինիմում  2 անգամ  հաճախորդների  հետ շփում`  հիշեցնելով ծառայություններից  օգտվելու կանոները, բացատրել նամակների ցրման կարեվորությունը և կայքից օգտվելու կանոնները_x000D_
+Հարցման դեպքում տալ կայքից օգտվելու խորհրդատվություն հեռախոսով_x000D_
+Հսկել և հաստատել հաճախորդների կողմից կայքում կատարված մուտքերը_x000D_
+Աշխատողը պարտավորվում է կատարել նաև ղեկավարի  կողմից տրված այլ հանձնարարություններ_x000D_
+Պահանջներ._x000D_
+CorelDrow, Photoshop ծրագրերի իմացությունը պարտադիր_x000D_
+QuarkXpress, Adobe Illustrator ծրագերի իմացությամբ ռեզյումեները կդիտարկվեն առաջնային_x000D_
+Ռեզյումեներն ուղարկել նշված էլ հասցեին _x000D_
+Վերնագրում նշել աշխատանքի վերնագիրը_x000D_
+        </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5/12/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7/20/2019</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Խանութ - Սրահի Մենեջեր</t>
+          <t>Վաճառքի Բաժնի Աշխատակից</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>"Մաքուր Տուն" ՍՊԸ</t>
+          <t>8778 Հայաստան Տեղեկատու</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1995,159 +3382,314 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Աշխատանքի ենք հրավիրում վաճառքի մասնագետների:_x000D_
+Պարտականություններ._x000D_
+1. Ծառայությունների ներկայացում տարբեր կազմակերպություններին` այցի և զանգերի միջոցով_x000D_
+2. Կազմակերպությունների ներգրավում տարբեր փաթեթներով_x000D_
+3. Պայմանագրերի կնքում_x000D_
+4. Տվյալների ճշտում_x000D_
+5. Կազմակերպության վաճառքի քանակը և որակը բարձրացնող այլ աշխատանքներ_x000D_
+8. Հաշվետվությունների կազմում ըստ ղեկավարի պահանջի_x000D_
+ՊԱՀԱՆՋՆԵՐ _x000D_
+բարձրագույն կրթություն (բակալավր)_x000D_
+թիմում աշխատելու ունակություն_x000D_
+ոչ կոնֆլիկտային բնավորություն_x000D_
+սթրեսակայուն _x000D_
+չեն հիասթափվում դժվարություններից_x000D_
+կարող են օրական 1-2 հանդիպում անցկացնել  քաղաքի տարբեր մասերում_x000D_
+նախաձեռնող են  և պրպտող_x000D_
+բարետես /դրեսս կոդի պահպանմամբ/_x000D_
+երիտասարդ / մեզ համար 40 տարեկանն էլ է երիտասարդ _x000D_
+վազվզող, ակտիվ _x000D_
+Վարձատրությունը` կախված վաճառքի տիրապետման հմտություններից` 88000-250000 ՀՀ դրամ։ Գոյություն ունեն աշխատանքային նորմեր: _x000D_
+Աշխատակիցները գրանցվում են, բոլոր հարկերը պահվում են:_x000D_
+Ռեզյումեները ուղարկել էլ. հասցեի՝ նկարով, վերնագրում նշելով աշխատատեղի անվանումը: Ուղարկել նաև անձնական ֆեյսբուքյան էջի հղումը։ _x000D_
+        </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>5/12/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>7/20/2019</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Օպերատոր</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Medtechservice LLC</t>
+          <t>Jasmine Home</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Տնտեսական հանրախանութում Օպերատորի աշխատանք:_x000D_
+Պարտականություններ_x000D_
+1C ծրագրով ապրանքների մուտք ելք _x000D_
+Պատվերների հավաքագրում _x000D_
+Բոլոր ապրանքներին և արժեքներին վարժ տիրապետում _x000D_
+Այլ պարտականություններ_x000D_
+Պահանջներ_x000D_
+կրթություն. բարձրագույն (ցանկալի)_x000D_
+աշխատանքային փորձ պարտադիր _x000D_
+պարտադիր հմտություններ. 1C ծրագրով աշխատանքային փորձ_x000D_
+ցանկալի հմտություններ. լեզուների իմացություն _x000D_
+Հավելյալ նշումներ_x000D_
+Դիմելու համար ուղարկել ռեզյումե նշված էլ. հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>5/12/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>7/20/2019</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Արտաքին Կապերի Մասնագետ</t>
+          <t>1C Օպերատոր</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Union of Communities of Armenia</t>
+          <t>"Մաքուր Տուն" ՍՊԸ</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Marketing, Advertising, PR</t>
+          <t>Administrative, Clerical</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+«Մաքուր Տուն» ընկերությանն անհրաժեշտ է երիտասարդ, ակտիվ, պատասխանատվության բարձր զգացումով Օպերատոր:_x000D_
+Պարտականություններ_x000D_
+Պատվերների մուտք-ելք_x000D_
+Պատվերների հավաքագրում_x000D_
+Համագործակցություն մատակարարների հետ_x000D_
+Պահանջներ_x000D_
+1C իմացություն_x000D_
+MS office փաթեթի իմացություն_x000D_
+Արագ կողմնորոշվելու ունակություն_x000D_
+Թիմում արդյունավետ աշխատելու կարողությունր_x000D_
+Հավելյալ նշումներ_x000D_
+Դիմելու համար ուղարկել ինքնակենսագրություն:CV-ի ֆայլը անվանեք ձեր անուն և ազգանունով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>5/11/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>8/19/2019</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>B2B Sales Manager</t>
+          <t>Import Manager</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Lanar Service LLC</t>
+          <t>Դեկորա-Գրուպ ՍՊԸ</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Logistics, Transportation</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Description_x000D_
+Address: 88/8 Araratyan st., Yerevan, Armenia_x000D_
+Working schedule: Monday-Saturday from 9.00 to 18.30_x000D_
+Responsibilities_x000D_
+Develop a strategic purchase policy;_x000D_
+Plan, organize, implement and control purchase activities;_x000D_
+Responsible for internal and external market research and monitoring;_x000D_
+Finding and negotiating with potential partners;_x000D_
+Provide support to organize the purchase and carry on negotiations;_x000D_
+Conduct follow-ups with partners;_x000D_
+Maintain records of goods ordered and received;_x000D_
+Analyze market and delivery systems in order to assess present and future material availability;_x000D_
+Implement work with corporate partners;_x000D_
+Import Documents Preparation when requested by partners;_x000D_
+Tracking of incoming shipments;_x000D_
+Be in touch with the shops of the company and to track and follow up the sales process and be aware of needs;_x000D_
+Presentation of the Company during different events and exhibitions:_x000D_
+Requirements_x000D_
+At least 1 years of experience in a relevant field;_x000D_
+Knowledge of supply chain management;_x000D_
+Excellent knowledge of Armenian, English and Russian languages, both spoken and written;_x000D_
+Computer proficiency in MS Office (Word, Excel, PowerPoint) and 1C processing;_x000D_
+Knowledge of tax legislation will be a plus;_x000D_
+Analytical thinking;_x000D_
+Communication etiquette (written and oral)_x000D_
+Ability to make quick decisions;_x000D_
+Excellent communication and presentation skills;_x000D_
+Ability to work under pressure and within strict time frames;_x000D_
+Team player;_x000D_
+High sense of integrity and results-oriented personality._x000D_
+APPLICATION PROCEDURE:_x000D_
+All interested and qualified candidates are encouraged to send their CVs._x000D_
+Only Word or PDF files accepted_x000D_
+Only Unicode fonts accepted. Ex. Sylfaen is a Unicode font_x000D_
+Name your CV file with your first &amp; second name or initials._x000D_
+We will kindly ask you not to forget the cover letter (not motivation)._x000D_
+</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5/11/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>7/20/2019</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Platform Administration Specialist</t>
+          <t>Խորհրդատու Վաճառող</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t xml:space="preserve">SEF International UCO </t>
+          <t>Lesona LLC</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Information Technologies</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագիր._x000D_
+«Hermitage» խանութ-սրահը փնտրում է խորհրդատու-վաճառող:_x000D_
+Աշխատանքային պարտականություններ._x000D_
+Հաճախորդների սպասարկում_x000D_
+Հաճախորդներին վաճառվող տեսականու վերաբերյալ խորհրդատվության տրամադրում_x000D_
+Վաճառքի իրականացում_x000D_
+Պահանջներ._x000D_
+Բարձրագույն կրթություն_x000D_
+Սպասարկման ոլորտում աշխատանքային փորձ_x000D_
+Ռուսերեն և անգլերեն լեզուների իմացություն_x000D_
+Համակարգչային բազային գիտելիքներ_x000D_
+Հաղորդակցման և թիմային աշխատանքի հմտություններ_x000D_
+Ճշտապահություն և պատասխանատվության զգացում_x000D_
+Դիմելու կարգը._x000D_
+Համապատասխան թեկնածուները կարող են դիմել՝ կցելով 3x4 չափի 1 լուսանկար: _x000D_
+        </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5/10/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>8/18/2019</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ծրագրերի և ֆոնդհայթայթման պատասխանատու</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Union of Communities of Armenia</t>
+          <t>Նարսան ՍՊԸ</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Administrative, Clerical</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Նարսան ՍՊ ընկրությանը շտապ անհրաժեշտ է հաշվապահներ:_x000D_
+Պարտականություններ_x000D_
+Հաշվապահի ընդհանուր պարտականությունների իրականացում _x000D_
+Բանկային հաշիվների կառավարում _x000D_
+Հաշվետվությունների կազմում, հաշիվ/ապրանքագրերի դուրս գրում, ՀԾ ծրագիր ներմուծում, ձևակերպում _x000D_
+Ներմուծված ապրանքների փաստաթղթերի մուտքագրում և ձևակերպում ՀԾ ծրագիր _x000D_
+Հաշվապահությանն առնչվող փաստաթղթերի վարում _x000D_
+Գլխավոր հաշվապահի այլ հանձնարարությունների կատարում  _x000D_
+Պահանջներ_x000D_
+Բարձրագույն տեխնիկական կամ տնտեսագիտական կրթություն _x000D_
+Աշխատանքային փորձը պարտադիր է _x000D_
+Համակարգչային գրագիտություն և էլեկտրոնային դիմումների հետ աշխատելու փորձ _x000D_
+Գրավոր և բանավոր հաղորդակցվելու, առաջնորդելու և թիմային աշխատանք կազմակերպելու ունակությունները ցանկալի են _x000D_
+Սեղմ ժամկետների շրջանակներում աշխատելու, կառավարելու, կազմակերպելու և որոշումներ կայացնելու, ինչպես նաև ինքնուրույն աշխատելու ունակություն _x000D_
+Հայկական հաշվապահական ծրագրերի հմուտ իմացություն , համակարգչային MS office(Excel) ծրագրերի փաթեթի տիրապետում_x000D_
+Հավելյալ նշումներ_x000D_
+Վեցօրյա աշխատանքային գրաֆիկ։ Կիրակի օրերը և ամսեկան 1 կամ 2 շաբաթ օր հանգիստ։ Ժամերը 9:00-18:00:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>5/10/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>7/19/2019</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Վաճառքի Բաժնի Տնօրեն</t>
+          <t>Procurement Specialist</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Սիկոնե ՍՊԸ</t>
+          <t>AAB Construction</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -2157,105 +3699,195 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Description_x000D_
+AAB Construction  is looking for a Procurement specialist_x000D_
+Responsibilities_x000D_
+Compare prices among various vendors in order to analyze prices and make beneficial decisions for the company;_x000D_
+Process purchase requests and orders within the company and with the suppliers; Establish and negotiate contract terms and conditions, and maintain supplier relationships; _x000D_
+Negotiates with contractors on price, mode of shipping, and delivery time; Ensures that products are delivered in a timely manner and that the quality of the goods received is satisfactory;_x000D_
+Work with external stakeholders to determine procurement needs;_x000D_
+Assist in the development of specifications for special equipment to be purchased; _x000D_
+Monitor the contract performance, including warranty and damages; _x000D_
+Carry on negotiations for signing new agreements with suppliers;_x000D_
+Perform other job-related tasks._x000D_
+Requirements_x000D_
+Higher education in Economics or technical science is preferable; _x000D_
+At least 1 year of proven working experience as a procurement specialist; _x000D_
+Excellent time-management skills;_x000D_
+Ability to manage multiple tasks and meet the deadlines; _x000D_
+Result-oriented person;_x000D_
+Strong negotiation skills;_x000D_
+A clear understanding of road construction equipment types and spare parts will be_x000D_
+considered as an advantage;_x000D_
+Strong knowledge of MS Office; _x000D_
+Excellent knowledge of Armenian, English and Russian languages._x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>5/10/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8/18/2019</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Տիկո Հոլդինգ ՍՊԸ</t>
+          <t>AAB Construction</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Accounting, Finance, Banking</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+AAB Construction ընկերությանն անհրաժեշտ է պատասխանատու և կազմակերպված հաշվետար:_x000D_
+Պարտականություններ_x000D_
+E-invoicing ծրագրով հարկային հաշիվների դուրսգրում _x000D_
+Հաշիվ-ապրանքագրերի ներմուծում համակարգչային ծրագիր, համակարգում և արխիվացում _x000D_
+ՀԾ ծրագրով մուտքերի և ելքերի հետևում_x000D_
+Այլ հաշվապահական պարտականությունների իրականացում:_x000D_
+Պահանջներ_x000D_
+բարձրագույն կրթություն_x000D_
+աշխատանքային փորձը ցանկալի է_x000D_
+MS office, EXcell-ի լավ իմացությունը պարտադիր է_x000D_
+ՀԾ-Հաշվապահ ծրագրի, e-invoicing ծրագրերի իմացությունը կդիտվի որպես առավելություն _x000D_
+Հավելյալ նշումներ_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե նշված էլ. հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>5/10/2019</t>
+          <t>Abovyan</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>8/18/2019</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Եռակցման մասնագետ / Специалист по сварке</t>
+          <t>Շինարարական Աշխատանքների Ղեկավար</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GeoProMining Gold LLC</t>
+          <t>AAB Construction</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Construction</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Vardenis</t>
+          <t xml:space="preserve">_x000D_
+            AAB Construction-ընկերությունը փնտրում է շինարարական աշխատանքների կազմակերպման ղեկավար (Աշխղեկ)_x000D_
+Հիմնական պահանջներ․_x000D_
+Բարձրագույն տեխնիկական կրթություն_x000D_
+Աշխատանքային փորձը հատկապես ճանապարհաշինարարության ոլորտում ցանկալի է_x000D_
+Կազմակերպչական, ղեկավարման հմտություններ և փորձ_x000D_
+Արագ կողմնորորշվելու և որոշումներ կայացնելու ունակություն_x000D_
+Գործողումների մեկնելու պատրաստակամություն_x000D_
+Պատասխանատվության բարձր զգացում_x000D_
+Հայերեն և ռուսերեն լեզուների լավ իմացություն, անգլերենիիմացությունը կդիտվի որպես առավելություն_x000D_
+Վարորդական իրավունքի և մեքենայի առկայությունը պարտադիր է։_x000D_
+Հիմնական պարտականություններ._x000D_
+Ընկերության տեղամասերում շինարարական աշխատանքների կազմակերպում, վերահսկում, ընդհանուր գործունեության ղեկավարում _x000D_
+Անձնակազմի կառավարում, պարտականությունների բաշխում_x000D_
+Կատարված աշխատանքների հաշվառում և վարում, տեխնիկական փաստաթղթերի ձևակերպում_x000D_
+Անմիջական ղեկավարի կողմից այլ հանձնարարականների կատարում:_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>4/9/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8/18/2019</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Պահեստապետ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ՄԵԾ ԱՆԻՎ</t>
+          <t>AAB Construction</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Accounting, Finance, Banking</t>
+          <t>Other</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Եթե դուք փնտրում եք կայուն աշխատանք, ապա այս հնարավորությունը Ձեզ համար է:AAB Construction ընկերությանն անհրաժեշտ է պատասխանատու և կազմակերպված պահեստապետ ընկերության տեղամասերում աշխատելու համար: _x000D_
+Պարտականություններ_x000D_
+ Ընկերության տեղամասերում առկա պահեստի գործունեության հետևում_x000D_
+ Ապրանքների մուտք֊ելք֊ի հետևում և տվյալների ներմուծում ՀԾ ծրագիր_x000D_
+ Պատվերների հայտագրում և հետևում ձեռքբերման ընթացքին:_x000D_
+Պահանջներ_x000D_
+բարձրագույն կրթություն_x000D_
+աշխատանքային փորձը համապատասխան ոլորտում ցանկալի է_x000D_
+MS Օffice-ի իմացություն_x000D_
+ՀԾ ծրագրի իմացությունը կդիտվի որպես առավելություն:_x000D_
+Հավելյալ նշումներ_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5/9/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>8/18/2019</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու (Պրեսելլեր)</t>
+          <t>Վաճառող</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Brand Leader</t>
+          <t>Ֆուտուրա</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -2265,147 +3897,1536 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Կահույքի աքսեսուարների վաճառքով զբաղվող խանութին անհրաժեշտ են վաճառող(ուհի)ներ՝ լամինատի և աքսեսուարի բաժիններում աշխատելու համար։ _x000D_
+Պարտականություններ_x000D_
+Հաճախորդների ներգրավում ու պատշաճ սպասարկում_x000D_
+Ապրանքների ներկայացում և խորհրդատվություն_x000D_
+Վաճառքի իրականացում_x000D_
+տեսականու վարժ իմացություն և կիրթ ներկայացում_x000D_
+Պահանջներ_x000D_
+կրթություն_x000D_
+Աշխատանքային փորձ համապատասխան ոլորտում_x000D_
+Գրագետ և կիրթ խոսք (անգլերեն և ռուսերեն լեզուների իմացությունը կդիտվի որպես առավելություն)_x000D_
+Հեշտ հաղորդակցվելու հմտություն_x000D_
+Կարգապահ_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային օրերը՝ երկուշաբթի-շաբաթ, ժամերը՝ 9.30-19.00։_x000D_
+Համապատասխան անձինք ինքնակենսագրականները (CV) ուղարկեն էլ. հասցեին, կամ զանգահարեն կազմակերպության էջում նշված հեռախոսահամարով:_x000D_
+        </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>4/9/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7/19/2019</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Վաճառող - Խորհրդատու</t>
+          <t>Director</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Sacvoyage store</t>
+          <t>Goody's Burger House</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Sales, Business Development</t>
+          <t>Project, Program Management</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Duration: Long term_x000D_
+Start Date: ASAP_x000D_
+JOB DESCRIPTION_x000D_
+We are seeking a dynamic Director to join our team. This unique individual must possess excellent communication skills in customer relations, be flexible in targeting new business and exceed established goals for their market segment.  _x000D_
+• Enforcing business strategies_x000D_
+• Developing company objectives_x000D_
+• Overseeing senior management staff_x000D_
+•  Coordinating with department heads_x000D_
+• Attending meetings_x000D_
+• Reporting to the board of directors or members_x000D_
+• Facilitating audits_x000D_
+• Ensuring the business is compliant with industry regulations_x000D_
+•  Managing the companies investments, stocks and other financial products and services_x000D_
+• Improving productivity levels_x000D_
+JOB RESPONSIBILITIES:_x000D_
+Develop and execute the company’s business strategies in order to attain the goals of the business_x000D_
+Prepare and implement comprehensive business plans to facilitate achievement by planning cost-effective operations and market development activities_x000D_
+Communicate and maintain trust relationships with shareholders, business partners and authorities_x000D_
+Oversee the company’s financial performance, investments, and other business ventures_x000D_
+Analyze problematic situations and occurrences and provide solutions to ensure company survival and growth_x000D_
+REQUIRED QUALIFICATIONS:_x000D_
+Experience in a restaurant segment is a must._x000D_
+Advanced written and oral communication skills (Armenian, Russian and English) are obligatory._x000D_
+Diploma or Degree in Hospitality/Tourism Management/Service would be an asset;_x000D_
+Computer literate with knowledge of a variety of computer software applications;_x000D_
+Excellent organizational and time management skills, with the ability to set priorities;_x000D_
+Applicants must be able to communicate information and ideas clearly. They must be able to work in a fast-paced environment and be able to handle everyday situations quickly and effectively;_x000D_
+An entrepreneurial spirit is a definite asset._x000D_
+</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5/9/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>8/18/2019</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Մատուցող / Մատուցողուհի</t>
+          <t>Վաճառող Խորհրդատու</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Classic Burger</t>
+          <t>Sacvoyage store</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Restaurants, Food Services</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Սակվոյաժ խանութ-սրահին անհրաժեշտ է փորձառու Վաճառող-խորհրդատու, որը պատասխանատու կլինի պայուսակների և կաշվե աքսեսոաւրների ներկայացման և վաճառքի համար:_x000D_
+Հիմնական պարտականությունները`_x000D_
+Ներկայացնել և վաճառել ապրանքները հաճախորդներին_x000D_
+Տրամադրել անհրաժեշտ խորհրդատվություն ապրանքների վերաբերյալ_x000D_
+Ապահովել հաճախորդների բարձրակարգ սպասարկում_x000D_
+Պահանջվող հմտությունները`_x000D_
+Բարձրագույն կրթություն_x000D_
+Աշխատանքային փորձի առկայություն (առնվազն 1 տարի)_x000D_
+Հայերեն, ռուսերեն և անգլերեն լեզուների գերազանց իմացություն_x000D_
+Հազորդակցվելու և թիմային աշխատանքի հմտություններ_x000D_
+Դիմելու համար խնդրում ենք ուղարկել Ռեզյումեն և Նկարը նշված էլ. հասցեին:_x000D_
+        </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5/14/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>8/16/2019</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Սանտեխնիկ</t>
+          <t>Ցանցի Զարգացման Մասնագետ</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Նոր Երևան</t>
+          <t>"Մաքուր Տուն" ՍՊԸ</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+«Մաքուր Տուն» ՍՊԸ անհրաժեշտ է երիտասարդ, ակտիվ, պատասխանատվության բարձր զգացումով Ցանցի զարգացման մասնագետ:_x000D_
+Պարտականություններ_x000D_
+Փնտրել խանութ-սրահների համար նախատեսվող տարածքներ, ուսումնասիրել և ձեռք բերել պայմանավորվածություն,_x000D_
+Մասնակցել խանութ-սրահների բացման աշխատանքներին,_x000D_
+Լուծել գրասենյակում և խանութ-սրահներում առաջացած տնտեսական խնդիրները, _x000D_
+Կազմակերպել վերանորոգման, էլեկտրականության կամ ջրատար համակարգի հետ կապված անսարգությունների կարգավորման աշխատանքները,_x000D_
+Կատարել անհրաժեշտ գնումներ։_x000D_
+Պահանջներ_x000D_
+Պատրաստակամ և պարտաճանաչ անձնավորություն,_x000D_
+Հաղորդակցման գերազանց հմտություններ,_x000D_
+Թիմում արդյունավետ աշխատելու կարողություն,_x000D_
+Ավտոմեքենայի առկայություն:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>4/8/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>8/16/2019</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Էներգետիկ</t>
+          <t>Վաճառող Խորհրդատու</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Նոր Երևան</t>
+          <t>Gioielli Boutique</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Engineering</t>
+          <t>Sales, Business Development</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t xml:space="preserve">_x000D_
+            Նորաբաց Gioielli Boutique խանութ-սրահին անհրաժեշտ է վաճառող-խորհրդատու (արական, իգական):_x000D_
+Աշխատանքային պարտականություններ`_x000D_
+Հաճախորդների սպասարկում և վաճառքի իրականացում,_x000D_
+Վաճառվող տեսականու վերաբերյալ խորհրդատվության տրամադրում հաճախորդներին,_x000D_
+Աշխատանք դրամարկղի հետ,_x000D_
+Օգնել կողմնորոշվել, խթանել վաճառքը,_x000D_
+Բարեհամբյուր սպասարկում:_x000D_
+Պահանջվող հմտություններ`_x000D_
+Բարձրագույն կրթություն,_x000D_
+Սպասարկման ոլորտում աշխատանքային փորձը ցանկալի է,_x000D_
+Ռուսերեն և անգլերեն լեզուների իմացություն,_x000D_
+Համակարգչային բազային գիտելիքներ,_x000D_
+Հաղորդակցման և թիմային աշխատանքի հմտություններ,_x000D_
+Ճշտապահություն և պատասխանատվության զգացում,_x000D_
+Նոր գիտելիքների և հմտությունների ձեռք բերելու  ցանկություն:_x000D_
+Հավելյան նշումներ _x000D_
+Աշխատանքային օրեր, ժամեր՝ 6-օրյա, ժ. 11:00 - 20:00:_x000D_
+Հասցե՝ Բաղրամյան 2:_x000D_
+Համապատասխան թեկնածուները կարող են ուղարկել իրենց CV- ն և լուսանկարը (պարտադիր) նշված էլեկտրոնային հասցեին:_x000D_
+ _x000D_
+        </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>4/8/2019</t>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8/16/2019</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Ռեստորանի Աշխատակից</t>
+          <t>Վաճառող Խորհրդատու</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>"FASTFOOD" KFC</t>
+          <t>Դեկորա-Գրուպ ՍՊԸ</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Դեկորա-Գրուպ ՍՊԸ ներկայացնում է Decora, Domus, Duson, Teka, Kuppersbusch խանութների ցանցը,Խանութը աշխատում է ամեն օր։ Աշխատանքային ժամեր՝ երկուշաբթիից շաբաթ՝ 9։30:00-19։00, կիրակի՝ 10։30-18:30_x000D_
+Աշխատանքային պարտականությունները_x000D_
+Օգնել գնորդին ապրանքի ընտրության հարցում, խորհրդատվություն տալ խանութում վաճառվող ապրանքների տեսականու, դրանց սպառողական հատկանիշների և առանձնահատկությունների վերաբերյալ,_x000D_
+Յուրաքանչյուր հաճախորդի հարցումներին տալ օպտիմալ լուծումներ,_x000D_
+Ցուցադրել ապրանքագիտություն, ծրագրային, վաճառքի և հաճախորդների սպասարկման գերազանց իմացություն,_x000D_
+Հետևել ապրանքների պահանջվող քանակի առկայությանը,_x000D_
+Մասնակցել ապրանքների վաճառքի խթանմանը՝ ներկայացնելով նաև գովազդվող ապրանքները, տեղեկացնելով գործող զեղչային համակարգերի մասին։_x000D_
+Օգնել խանութի ղեկավարին կամ պահեստապետին ապրանքների ընդունման և ցուցադրման հարցում,_x000D_
+Պատրաստել ապրանքները վաճառքի համար՝ բացում, հավաքում, կոմպլեկտավորում, տեղադրում,_x000D_
+Հետևել գնապիտակների առկայությանը, նրանց ճիշտ դասավորվածությանը,_x000D_
+Մասնակցել ընկերության կողմից կազմակերպված ուսուցողական դասընթացներին և ատեստացիաներին,_x000D_
+Անձնական հաջողություններով կիսվել գործընկերների հետ,_x000D_
+Պահպանել ընկերության չափանիշները և համապատասխանել ընկերության կողմից որդեգրված արժեքային համակարգը ։_x000D_
+Պահանջվող որակավորումները_x000D_
+Բարձրագույն կրթություն,_x000D_
+Աշխատանքային փորձը տվյալ կամ նման ոլորտներում կդիտվի որպես առավելություն,_x000D_
+Ռուսերենի և Անգլերենի իմացությունը կդիտվի որպես առավելություն,_x000D_
+Ճշտապահություն, ազնվություն, ոչ կոնֆլիկտային բնավորություն,_x000D_
+Համակարգչային գիտելիքներ (1C ծրագրի իմացությունը կդիտվի որպես առավելություն)_x000D_
+Հայերեն, անգլերեն և ռուսերեն լեզուների իմացություն,_x000D_
+Սովորելու ցանկություն,_x000D_
+Վերջնաժամկետներին հետևելու ունակություն_x000D_
+Պատասխանատվության զգացում և որոշումներ կայացնելու ունակություն,_x000D_
+Բարեվարքություն (integrity) և ազնվություն,_x000D_
+Թիմում աշխատելու ունակություն:_x000D_
+Դիմելու ընթացակարգը_x000D_
+Բոլոր հետաքրքրված և պահանջներին համապատասխանող թեկնածուները խրախուսվում են ուղարկել իրենց ինքնակենսագրականը (CV)  էլ․ հասցեին:_x000D_
+CV-ն պետք է լինի Word կամ PDF ֆորմատով_x000D_
+Միայն Unicod ֆոնտով հավաքված տեքստը կընդունվի։ Օրինակ Sylfaen_x000D_
+CV-ի ֆայլը անվանեք ձեր անուն և ազգանունով_x000D_
+Կխնդրեինք չմոռանալ ուղեկցող նամակը (ոչ մոտիվացիոն)_x000D_
+ _x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>8/16/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Հաշվետար</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>C&amp;F Co LLC</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Accounting, Finance, Banking</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Սի Ընդ Էֆ Քո ՍՊԸ-ին անհրաժեշտ է ազնիվ, պատասխանատվության բարձ զգացումով հաշվետար (իգական սեռի) :_x000D_
+Աշխատանքային գրաֆիկ` 09:00-14:00_x000D_
+Հիմնական պարտականությունները_x000D_
+Հաշվապահական փաստաթղթերի կազմում և փաստաթղթաշրջանառության վարում_x000D_
+Հաշիվ-ապրանքագրերի ներմուծում համակարգչային ծրագիր, համակարգում և արխիվացում_x000D_
+E-invoicing ծրագրով հարկային հաշիվների դուրսգրում_x000D_
+Այլ հաշվապահական պարտականությունների իրականացում_x000D_
+Պահանջվող հմտություններ_x000D_
+Բարձրագույն կրթություն՝ տնտեսագիտության, ֆինանսների կամ հաշվապահության ոլորտներում_x000D_
+ՀԾ-Հաշվապահ ծրագրի, 1C, e-invoicing ծրագրերի իմացությունը կդիտվի որպես առավելություն_x000D_
+Համակարգչային ծրագրերի գերազանց իմացություն (MS office)_x000D_
+Հայերենի և ռուսերենի լավ իմացություն_x000D_
+Պատասխանատու և պարտաճանաչ մոտեցում աշխատանքին_x000D_
+Պլանավորման և ժամանակի կառավարման հմտություններ_x000D_
+Հետաքրքրված թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8/16/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Պահեստի Աշխատակից</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>GIFT CITY</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Փնտրում ենք 20-30 տարեկան տղաներ, որոնք կլինեն՝_x000D_
+խելացի_x000D_
+կազմակերպված _x000D_
+.... նոր վերանորոգված պահեստում աշխատելու համար:_x000D_
+Պարտականություններ._x000D_
+պահեստի դասավորություն_x000D_
+պատվերների կատարում_x000D_
+պահեստի մաքրության հանդեպ հետևողականություն_x000D_
+Աշխատավրձի բարձրացումը կախված է աշխատանքի որակից և աշխատասիրությունից (մինչև 200000) :_x000D_
+Աշխատանքային ժամերն են 9:00 - 19:00/19:30:_x000D_
+Կարող եք ուղարկել CV նշված էլ. հասցեին:_x000D_
+Այլ մանրամասների համար զանգահարել կազմակերպության էջում նշված հեռախոսահամարով:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>7/17/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Վաճառողուհի</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>GIFT CITY</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Խանութ-սրահին անհրաժեշտ է 25-35 տարեկան, իգական սեռի խորհրդատու-վաճառողուհի, ով պետք է լիովին տեղեկացված լինի խանութում վաճառվող ողջ տեսականուց, կարողանա մանրամասն ներկայացնել հաճախորդներին:_x000D_
+Պահանջվող հմտություններ և որակավորում`_x000D_
+Բարձրագույն կամ միջին մասնագիտական կրթություն_x000D_
+Աշխատանքային փորձ սպասարկման ոլորտում_x000D_
+Գրագետ և կիրթ խոսք (անգլերեն և ռուսերեն լեզուների իմացությունը կդիտվի որպես առավելություն)_x000D_
+Հեշտ հաղորդակցվելու հմտություն_x000D_
+Արագաշարժ_x000D_
+Տրամաբանող_x000D_
+Կարգապահ_x000D_
+Կոկիկ և ներկայանալի արտաքին_x000D_
+Աշխատանքի պարտականություններն են`_x000D_
+Ընդունել ապրանքները և ապահովել դրանց պատշաճ դասավորվածությունը սրահում_x000D_
+Գնապիտակների առկայության ստուգում_x000D_
+Հաճախորդների ներգրավում ու պատշաճ սպասարկում_x000D_
+Աշխատանքային ժամերն են` 9:00-19:00, ամսեկան երեք օր հանգիստ:_x000D_
+Համապատասխան թեկնածուները կարող են իրենց ինքնակենսագրականներն ուղարկել նշված էլ. հասցեին` պարտադիր կցելով մեկ կամ երկու լուսանկար:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>7/17/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Գրասենյակի պատասխանատու</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Կայուն զարգացման հայկական հիմնադրամ</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Administrative, Clerical</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Աշխատանքի ենք հրավիրում գրասենյակի պատասխանատու:_x000D_
+Պարտականություններ_x000D_
+Հանդիպումների կազմակերպում_x000D_
+Պաշտոնական նամակագրության վարում_x000D_
+Հաշվետվությունների պատրաստում_x000D_
+Գրասենյակի փաստաթղթաշրջանառության կազմակերպում և վերահսկում_x000D_
+Ադմինիստրատիվ գործառույթների իրականացում ըստ պահանջի_x000D_
+Սոցիալական մեդիա էջերի մշակում և թարմացում_x000D_
+Դրամաշնորհային հնարավորությունների ուսումնասիրություն_x000D_
+Դրամաշնորհային փաթեթի կազմում_x000D_
+Ծրագրային առաջարկների նախագծում_x000D_
+Պահանջներ_x000D_
+Բարձրագույն կրթություն_x000D_
+Դրամաշնորհային ծրագրեր գրելու կարողություն_x000D_
+Անգլերենի գերազանց իմացություն_x000D_
+MS Office-ի իմացություն_x000D_
+Հաղորդակցման հմտություններ_x000D_
+Պարտաճանաչություն և պատասխանատվության բարձր զգացում_x000D_
+Թիմի հետ աշխատելու պատրաստակամություն_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային օրեր և ժամեր՝ եկուշաբթիից ուրբաթ, ժ 9:00-18:00:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>8/16/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Բարիստա</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Coffee House Company</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>Restaurants, Food Services</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>Yerevan</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>4/8/2019</t>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Փնտրում ենք ուրախ և ժպտերես 18-25 տարեկան աղջիկների մեր թիմը համալրելու նպատակով։ Աշխատանքային փորձը պարտադիր չէ։ Աշխատելով մեզ մոտ դուք հնարավորություն եք ստանում`_x000D_
+Ստանալ բարիստաի մասնագիտություն_x000D_
+Դառնալ մասնագետ սպասակման ոլորտում_x000D_
+Լինել Երևանում սուրճի վաճառքի ամենամեծ և ամենաարագ զարգացող ցանցի մի մասիկը_x000D_
+Ամեն օր շբվել հարյուրավոր հաճախորդնեի հետ ու ժպիտ պարգևել նրանց_x000D_
+ԵՎ այս ամենի հետ մեկտեղ ստանալ բարձր աշխատավարձ_x000D_
+Աշխատանքային ժամերն ու պայմանները`_x000D_
+10։00-17։00- 3000 դրամ+ թեյավճարներ մոտ 3000 դրամ_x000D_
+17։00-00։00-4000 դրամ+ թեյավճարներ մոտ 4000 դրամ_x000D_
+Մեր հասցեներն են `_x000D_
+Աբովյան 18/3_x000D_
+Սայաթ Նովա 8_x000D_
+Թումանյան 35_x000D_
+Տերյան 72_x000D_
+Ալեք Մանուկյան 15ա_x000D_
+Նաբանդյան 128_x000D_
+Չարենց 10_x000D_
+Հովսեփ Էմին 126_x000D_
+Աշխատանքային ժամերը հարմար չեն ուսանողներին։ _x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե լուսանկարով։_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>7/16/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Regional Cartographer (map maker)</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Yandex</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Description_x000D_
+Yandex uses the services of partner companies in certain projects, and we try to help our partners advertise the job. One of our partners is currently working on a mapping project in Armenia. This company is looking for candidates who are proficient users of maps services with deep analytical skills and excellent knowledge of different regions of Armenia, and who are prepared to contact state and municipal authorities and communicate with users of the Yandex Map Editor service._x000D_
+Responsibilities_x000D_
+check maps and compare Yandex maps with competitors’ products;_x000D_
+monitor regional news in order to get information about new construction of real estate and infrastructure facilities, redesign of roadways and road traffic schemes, renamed objects, and other changes;_x000D_
+process feedback from users;_x000D_
+work in the online map editor;_x000D_
+moderate corrections submitted by users and respond to them in a special editors interface;_x000D_
+clarify information on the ground if necessary;_x000D_
+clarify information with government authorities if necessary._x000D_
+Requirements_x000D_
+specific knowledge of processes in mapping services;_x000D_
+perfect written and spoken Armenian language;_x000D_
+spoken Russian or English;_x000D_
+ability to complete a considerable volume of content work._x000D_
+Additioal Notes_x000D_
+full-time remote work;_x000D_
+use your own equepment for work;_x000D_
+you must be ready to perfom the home task before the first stage of the interview._x000D_
+ Please send your CV in English or Russian._x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>8/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Procurement Logistics Manager</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Egnaro</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Logistics, Transportation</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Description_x000D_
+Freight Dispatching Company is looking for highly motivated individuals to join our team and become a dispatching hero. If you have a close to native English language skills, check out this amazing job opportunity from a promising company that operates with the USA (working hours from 16:00 till 01:00 )._x000D_
+Responsibilities_x000D_
+Maintain daily calls with US-based cargo agencies_x000D_
+Conduct an ongoing search process within our software to find a desirable deal_x000D_
+Establish long-lasting and trusted relationship with partners_x000D_
+Negotiate regarding prices to get desired deal_x000D_
+Work with big attention to details provided on both ends_x000D_
+Be responsible for the deal accomplishment from the beginning till the last stage_x000D_
+Requirements_x000D_
+Bachelor's degree;_x000D_
+Advanced knowledge of English language (close to native)_x000D_
+Knowledge of Spanish language will be considered as a plus;_x000D_
+Strong communication and negotiation skills_x000D_
+</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Խոհանոցի աշխատակից</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Pizza Hut</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Խոհանոցում անհրաժեշտ են աշխատակիցներ._x000D_
+Պիցցա պատրաստող,_x000D_
+Աղցան պատրաստող,_x000D_
+Պաստա պատրաստող ,_x000D_
+Խորտկեղեն պատրաստող :_x000D_
+Պարտականություններ_x000D_
+Պատրաստել բոլոր ուտեստները միայն հաստատված ստանդարտներով_x000D_
+Խստագույնս հետևել բոլոր սանիտարահիգիենիկ կանոններին_x000D_
+Մշտապես հետևել մատուցվող սննդի որակին_x000D_
+Կատարել անմիջական ղեկավարի կողմից տրված հանձնարարականները_x000D_
+Պահանջներ_x000D_
+Բարձրագույն կրթությունը կդիտվի որպես առավելություն_x000D_
+Աշխատանքային փորձը կդիտվի որպես առավելություն_x000D_
+Թիմում աշխատելու ունակություն և գործընկերների նկատմամբ հոգատարություն_x000D_
+Պատասխանատվության բարձր զգացում_x000D_
+Հավելյալ նշումներ_x000D_
+Հետաքրքրված թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>7/16/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Executive Assistant</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>A.Alikhanyan National Scientific Laboratory (Yerevan Physics Institute) Foundation</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Administrative, Clerical</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            The Company is seeking for an assistant (preferably female), who will be helping the line manager. The candidate should have higher education, experience in working with legal and financial documents, have excellent knowledge of English and Armenian is a must, good knowledge of Russian preferred. The candidate should be very attentive, responsible, able to multitask, should have computer literacy. _x000D_
+Job responsibilities include:_x000D_
+Composing letters, agreements, invoices, other documents, and their multilingual translation_x000D_
+Welcoming guests_x000D_
+Making presentations_x000D_
+Correspondence /mails and phone calls/_x000D_
+Scheduling meetings_x000D_
+Other tasks by the line manager_x000D_
+The interested candidates are welcome to send their CVs with a photo to the mentioned email._x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>8/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Պահեստապետ</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>L'Oreal Professional Armenia</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Ընկերությանն անհրաժեշտ է պատասխանատու և կազմակերպված պահեստապետ:_x000D_
+Պարտականություններ_x000D_
+պատվերների հավաքում_x000D_
+պահեստի դասավորում_x000D_
+ապրանքների ընդունում / բաց թողում_x000D_
+պահեստային կարգապահության ապահովում_x000D_
+Պահանջներ_x000D_
+30 տ. և բարձր_x000D_
+աշխատանքային փորձը ցանկալի է_x000D_
+թիմում աշխատելու կարողություն_x000D_
+արագաշարժություն_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային գրաֆիկը` 10:00 - 16:00:_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7/16/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Խոհարար</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>CAFE CENTRAL</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Ռեստորանը աշխատանքի է հրավիրում խոհարար-նախապատրաստող, ով պետք է աշխատի սառը ուտեստների պատրաստման մեջ:_x000D_
+Պարտականություններ_x000D_
+հիմնական աշխատանքը աղցանների տեսականու հետ_x000D_
+սառը ուտեստների պատրաստում` ռեստորանի ստանդարտներին համապատասխան_x000D_
+կայուն որակի ապահովում _x000D_
+Պահանջներ_x000D_
+20-35 տ. / արական_x000D_
+համապատասխան կրթությունը ցանկալի է_x000D_
+աշխատանքային փորձը ցանկալի է և կդիտարկվի որպես առավելություն_x000D_
+շփվող_x000D_
+պարտաճանաչ_x000D_
+պատասխանատու_x000D_
+կոկիկ_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային գրաֆիկը` 8-10 ժամ, 6-օրյա աշխատանքային շաբաթ,1 հանգստյան օր:_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+Եթե ռեզյումե և էլ.փոստով դիմելու հնարավորություն չունեք, կարող եք զանգահարել կազմակերպության էջում նշված հեռախոսահամարով:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>8/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Բարմեն</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Buffalo Grill Bar</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն _x000D_
+Buffalo գրիլ բարին անհրաժեշտ է կենսուրախ և բանիմաց բարմեն, ով պատրաստ է աշխատել հյուրերի և անձնակազմի հետ, սովորել նորը և պահպանել ներքին կանոնակարգը:_x000D_
+Պարտականություններ_x000D_
+Կազմակերպել բարի աշխատանքը, անսխալ և ժամանակին կատարել պատվերները _x000D_
+Տիրապետել կոկտեյլի պատրաստման տեխնոլոգիային՝ պահպանելով կոկտեյլի արտաքին տեսքն ու սահմանված չափաբաժինը_x000D_
+Ընդունել ալկոհոլային և ոչ ալկոհոլային խմիչքների, սուրճի և թեյի պատվերները _x000D_
+Պահանջներ_x000D_
+աշխատանքային փորձը ռեստորանային ոլորտում պարտադիր է _x000D_
+լեզուների իմացությունը պարտադիր է /անգլ. ռուս. հայ. և այլ /_x000D_
+հյուրերի հետ շփման փորձ_x000D_
+նորարարական մոտեցում և նորը սովորելու ցանկություն_x000D_
+հնարամտություն կոնֆլիկտային իրավիճակներում_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատավարձը ամսական երկու անգամ՝ կանխիկ կամ փոխանցումով_x000D_
+Աշխատանքը ամենօրյա է` շաբաթական 1 օր հանգստով:_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե նկարով կամ դիմել նամակի միջոցով:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>7/16/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Sales Consultant</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>TST LLC</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Job description:_x000D_
+TST LLC, which has been fully supplying the HoReCa sector for more than 10 years, is seeking a friendly Consultant-seller to work at "COMPLEX-BAR YEREVAN" shop-showroom._x000D_
+Required qualifications:_x000D_
+Computer literacy; knowledge of Excel, Word, and the Internet research skills;_x000D_
+Fluency in Russian and Armenian languages (knowledge of the English language will be considered as a plus);_x000D_
+Good oral and written communication skills;_x000D_
+Flexibility and ability to work in a team;_x000D_
+Advanced communication and interpersonal skills to communicate with customers;_x000D_
+Work experience in restaurant, cafe, hotel field (HoReCa) will be considered as a plus._x000D_
+Salary: Negotiable, based on previous work experience and skills._x000D_
+Additional information: To apply for this position, please send your CV with a photo in PDF format (Armenian or Russian languages) to the mentioned email.You can also find a phone number on the page of our company._x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>8/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Խոհարար</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Figaro LLC</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Ֆիգարո Ռեստորանների ցանցին անհրաժեշտ են փորձառու խոհարարներ՝ խալոդնիկ/ գարյաչնիկ աշխատելու համար _x000D_
+Պարտականություններ_x000D_
+եվրոպական խոհանոցի իմացություն կամ _x000D_
+հայկական խոհանոցի իմացություն  _x000D_
+Պահանջներ_x000D_
+Աշխատանքային փորձը պարտադիր է_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքը հերթափոխային է, մեկ օր հանգստյան օր։ Աշխատավարձը վճարվում է ամսական երկու անգամ։ _x000D_
+Մենք տրամադրում ենք_x000D_
+Գիշերային տաքսի _x000D_
+Անվճար սնունդ _x000D_
+Աշխատանքային հագուստ_x000D_
+Վճարովի արձակուրդ _x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+ _x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>7/16/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Մատուցող Մատուցողուհի</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Figaro LLC</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Սեգաֆրեդո, Սքուեր Ուան սրճարանների ցանցին անհրաժեշտ են կենսուրախ, երիտասարդ և լեզուների իմացությամբ ակտիվ երիտասարդներ մատուցողի աշխատանքի համար։_x000D_
+Պարտականություններ_x000D_
+Լինել ակտիվ և ժպտերես  _x000D_
+Արագ կողմնորոշվելու կարողություն _x000D_
+Սթրեսակայուն _x000D_
+Համբերատար _x000D_
+Պահանջներ_x000D_
+անգլերեն ռուսերեն լեզուների մինիմալ իմացություն _x000D_
+աշխատանքային փորձը պարտադիր չէ_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքը հերթափոխային է, 2օր հանգստյան օր։_x000D_
+Մենք տրամադրում ենք անվճար տրանսպորտ, սնունդ, վճարովի արձակուրդ:_x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>7/16/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Վաճառքի Մենեջեր</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Կռուտոյ Օկեռ</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Sales, Business Development</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Պահանջվող աշխատանքային փորձը `1-3 տարի_x000D_
+Լրիվ դրույքով, լրիվ օր_x000D_
+Պարտականություններ_x000D_
+Van selling_x000D_
+Շուկայի զարգացում_x000D_
+Հաճախորդների բազայի ստեղծում և զարգացում_x000D_
+Դեբիտորական պարտքերի վերահսկում_x000D_
+Պահանջներ_x000D_
+Աշխատանքային փորձ 1-3 տարի, ցանկալի է նմանատիպ պաշտոնում_x000D_
+Վարորդական վկայական («B» կատեգորիա)_x000D_
+5 տարվա վարորդական փորձ_x000D_
+Անհրաժեշտության դեպքում աշխատակիցը կանցնի վերապատրաստում։_x000D_
+Աշխատավարձին կգումարվեն բոնուսներ կատարված վաճառքից։Ընկերությունը փոխհատուցում է վառելիքի ծախսերը։_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>7/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Project Head Assistant / Secretary</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Hhoonj</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Administrative, Clerical</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Description_x000D_
+Are you inquisitive and self-driven? Are you curious, eager to learn and improve? If the answer is yes then we’d like to hear from you._x000D_
+Responsibilities_x000D_
+Ensure the company's documentation and correspondence._x000D_
+Collect and refine the documents received from the relevant sections and submit them to the Project Head._x000D_
+Prepare documentation for official documents (Visa, permits, info for contracts, etc.)._x000D_
+Overseeing the implementation of the recommendations given by the Project Head._x000D_
+Planning Project Head Agenda._x000D_
+Answering phone calls._x000D_
+Meet guests._x000D_
+Fulfillment of other assignments given by the Project Head._x000D_
+Requirements_x000D_
+University degree_x000D_
+Excellent knowledge of English, Russian and Armenian languages_x000D_
+Professional experience in an administrative function is a plus_x000D_
+Proven strong communication skills_x000D_
+Proactive approach and ability to work independently_x000D_
+Proficiency in using MS Office_x000D_
+Additional Notes_x000D_
+Candidates meeting the above requirements may submit their CVs with photo. _x000D_
+A newly-established (startup) company is looking for a good-looking, with professional skills, up to 35 years old female assistant._x000D_
+Work schedule: five-day_x000D_
+Working hours: 09.00 - 18.00_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>7/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Օնլայն Խանութի Կոնսուլտանտ</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Mananafruit</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Customer Support, Client Care</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Ինտերնետ - խանութը, որն ունի լայն գործունեություն Ռուսաստանում և այլ երկրներում, փնտրում է վաճառքի կոնսուլտանտներ:_x000D_
+Աշխատանքը հեռակա է (կոնսուլտանտը կարող է աշխատել ցանկացած վայրից, երկրից ու քաղաքից):_x000D_
+Պարտականություններ_x000D_
+պաշտոնական կայքում անմիջական ներգրավվածություն և աշխատանք _x000D_
+պատասխանել զանգերին և հետադարձ կապ պահպանել հաճախորդների հետ_x000D_
+հավաքագրել և գրանցել պատվերներ_x000D_
+վարել տրանսպորտային բեռնափոխադրումների հետ կապված փաստաթղթաշրջանառություն_x000D_
+Պահանջներ_x000D_
+իգական_x000D_
+լեզուների տիրապետում. ռուսերեն` վարժ, անգլերեն`հաղորդակցման մակարդակ_x000D_
+հաճախորդամետ_x000D_
+գրագետ խոսք_x000D_
+ճկուն միտք_x000D_
+աշխատանքային փորձը ցանկալի է_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային գրաֆիկը ճկուն է: Մանրամասները կքննարկվեն հարցազրույցի ժամանակ:_x000D_
+Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+Նաև կարող եք դիմել նամակի միջոցով, ներառելով տվյալներ Ձեր մասին և կոնտակտային հեռախոսահամար:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>7/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Front-end Developer</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Innova AM</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Information Technologies</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            If you are a front end developer who enjoys coding in JavaScript then read on._x000D_
+We are looking for a junior to mid-level front end developer who will be responsible for the development of the 'client-side' of our web applications. The successful candidate should be able to translate our company needs into functional and appealing web applications._x000D_
+Responsibilities_x000D_
+Collaborate with back-end developers and web designers to develop web applications according to the wireframes and designs_x000D_
+Evaluate and adopt new front end technologies_x000D_
+Requirements_x000D_
+At least 1 year of front end development experience_x000D_
+Understanding of client-server architecture_x000D_
+Experience with HTML5, CSS 3, LESS, SASS_x000D_
+Experience with Front end frameworks (Knockout, React, Angular)_x000D_
+Experience with consuming RESTfull services_x000D_
+Familiarity with browser testing and debugging_x000D_
+Experience with server-side technologies such as ASP.NET MVC would be a plus_x000D_
+BSc degree in Computer Science or relevant field (nice to have)_x000D_
+Experience with JavaScript prototyping, asynchronous API calls, promises would be a plus_x000D_
+Understanding of ES6+ additions to Javascript and their relationship to pre-ES6 concepts would be a plus_x000D_
+NotesWorking schedule 10:00 - 19:00, Monday - Friday_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>8/14/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>System Administrator</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Innova AM</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Information Technologies</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            We are looking for a System Administrator to maintain, upgrade and manage our software, hardware, and networks._x000D_
+The successful candidate should be able to diagnose and resolve problems quickly. Should have the patience to communicate with a variety of interdisciplinary teams and users.The goal will be to ensure that our technology infrastructureruns smoothly and efficiently._x000D_
+Responsibilities_x000D_
+Install and configure software and hardware_x000D_
+Manage network servers and technology tools_x000D_
+Set up accounts and workstations_x000D_
+Monitor performance and maintain systems according to requirements_x000D_
+Troubleshoot issues and outages_x000D_
+Ensure security through access controls, backups, and firewalls_x000D_
+Upgrade systems with new releases and models_x000D_
+Develop expertise to train staff on new technologies_x000D_
+Build an internal wiki with technical documentation, manuals, and IT policies_x000D_
+Requirements_x000D_
+Knowledge of system security systems and data backup, recovery_x000D_
+Ability to create scripts in Bash, Ruby, Perl, Python or similar scripting language _x000D_
+Experience with PostgreSQL_x000D_
+Familiarity with Linux/Unix systems_x000D_
+Familiarity with Jenkins, Docker, RabbitMQ_x000D_
+BSc/Ba in Information Technology, Computer Science or arelated discipline_x000D_
+Experience as a System Administrator, Network Administrator or similar role would be a plus_x000D_
+Working Schedule_x000D_
+10:00 - 19:00, Monday - Friday_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>8/14/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Բեռնափոխադրումների Բաժնի Մենեջեր</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>ՍՊԱՅԿԱ ՍՊԸ</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Logistics, Transportation</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Բեռնափոխադրումների բաժնում իրականացնել տրանսպորտային մենեջերի աշխատանքը:_x000D_
+Պարտականություններ_x000D_
+Միջազգային բեռնափոխադրումներ իրկանացնելու նպատակով գտնել նոր հաճախորդներ, կնքել պայմանագրեր, աշխատել հաճախորդների տվյալների բազայի հետ;_x000D_
+Կազմել և ձևակերպել բեռնափոխադրման իրականացման համար անհրաժեշտ բոլոր փաստաթղթերը:_x000D_
+Պահանջներ_x000D_
+Բարձրագույն կրթություն կառավարման կամ վաճառքի բնագավառում_x000D_
+Համակարգչի իմացություն (MS Office)_x000D_
+Ռուսաց լեզվի գերազանց իմացություն /այլ օտար լեզվի իմացությունը կդիտվի որպես առավելություն/_x000D_
+Աշխատանքային փորձը տրանսպորտի կամ բեռնափոխադրումների ոլորտում կդիտվի որպես առավելություն_x000D_
+Արագ կողմնորոշվելու և ինքնուրույն որոշումներ կայացնելու ունակություն_x000D_
+Բանակցություններ վարելու հմտություններ_x000D_
+Թիմում աշխատելու ունակություն_x000D_
+Պատասխանատվության բարձր զգացում_x000D_
+Հավելյալ նշումներ_x000D_
+Հետաքրքրված թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>7/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Մատուցող Մատուցողուհի</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Pizza Hut</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Կազմակերպությունը՝ մրցակցային աշխատավարձով, աշխատանքի է հրավիրում մատուցող / մատուցողուհիների:_x000D_
+Պարտականություններ_x000D_
+Ողջունել այցելուներին_x000D_
+Ներկայացնել մենյուն_x000D_
+Ընդունել պատվերներ_x000D_
+Կատարել անմիջական ղեկավարի կողմից տրված հանձնարարականներ_x000D_
+Պահանջներ_x000D_
+կրթություն_x000D_
+աշխատանքային փորձը պարտադիր չէ_x000D_
+բարետես արտաքին_x000D_
+լեզուների իմացություն_x000D_
+հաճախորդների բարեհամբյուր սպասակում_x000D_
+Հավելյալ նշումներ_x000D_
+Դիմելու համար ուղարկել ռեզյումե նշված էլ. հասցեին կամ դիմել նամակի միջոցով:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7/15/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Տեխնոլոգ</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ATP</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Production, Operations</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Նկարագրություն_x000D_
+Ընկերությանն անհրաժեշտ է  հրուշակեղենի արտադրության տեխնոլոգիական և լաբորատոր  գործընթացներն իրականացնող  տեխնոլոգ:_x000D_
+Պարտականություններ_x000D_
+Իրականացնում է նոր արտադրատեսակների մշակում, տեխնոլոգիական քարտերի կազմում, _x000D_
+Իրականացնում է հրուշակեղենի արտադրության ֆիզիկա-քիմիական փորձարկումներ,_x000D_
+Համակարգում է արտադրական լաբորատորիայում իրականացվող աշխատանքները:_x000D_
+Պահանջներ_x000D_
+Բարձրագույն մասնագիտական կրթություն (սննդամթերքի տեխնոլոգիա, քիմիկ, ինժեներ-քիմիկ, տեխնոլոգ, դեղագետ),_x000D_
+Աշխատանքային փորձ՝ հրուշակեղենի արտադրությունում,_x000D_
+Թողարկվող արտադրանքի համտես կազմակերպելու և իրականացնելու փորձ,_x000D_
+Սննդամթերքի անվտանգության ստանդարտների և որակի ապահովման նորմերի իմացություն,_x000D_
+Հայերեն, ռուսերեն և անգլերեն (տեխնիկական) լեզուների իմացությոուն: _x000D_
+Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>8/14/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Հերթափոխի կառավարիչ (Shift manager)</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Աչաջուր Բնական Սնունդ ՍՊԸ</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Restaurants, Food Services</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Աչաջուր սրճարանի թիմը ընդլայնելու համար հարկավոր են երիտասարդ հերթափոխի կառավարչներ:_x000D_
+Պարտականություններ_x000D_
+Ընդունել կանխիկ և անկանխիկ վճարումներ_x000D_
+Հաճախորդների սպասարկում_x000D_
+Իրականացնել, հետևել սրճարանի փաստաշրջանառությանը_x000D_
+Հետևել սրճարանի աշխատակիցների պարտականությունների ճշտգրիտ կատարմանը_x000D_
+Պահանջներ_x000D_
+աշխատանքային փորձը պարտադիր չէ_x000D_
+պարտադիր հմտություններ․ աշխույժ, ժպտերես, գրագետ, թիմում աշխատելու կարողություն_x000D_
+Անգլերեն և ռուսերեն լեզուների բանավոր իմացությունը կարևոր է_x000D_
+Հավելյալ նշումներ_x000D_
+Աշխատանքային գրաֆիկը՝ շաբաթական 2 հանգստյան օր:Աշխատանքային ժամերը. առաջին հերթափոխ՝ 08։00-16։30, երկրորդ հերթափոխ՝ 16։00-24։00։ Երկրորդ հերթափոխի աշխատակիցներին տրամադրվում է տաքսի։_x000D_
+Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրականները (CV) լուսանկարով վերոնշյալ էլեկտրոնային հասցեով։_x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8/14/2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>DevOps Engineer</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Innova AM</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Information Technologies</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">_x000D_
+            Job briefWe are looking for a DevOps Engineer to join our team._x000D_
+Responsibilities_x000D_
+Maintain the existing Linux server and networking infrastructure;_x000D_
+Automate infrastructure provisioning and code deployment;_x000D_
+Automate monitoring and incident detection;_x000D_
+Deploy updates and fixes;_x000D_
+Provide Level 2 technical support;_x000D_
+Develop scripts to automate visualization;Design procedures for system troubleshooting and maintenance._x000D_
+Requirements_x000D_
+BSc in Computer Science, Engineering or relevant field;_x000D_
+Experience working in Linux/Unix environments;_x000D_
+Understanding of networking;_x000D_
+Experience with databases such as PostgreSQL;_x000D_
+Experience with monitoring tools;_x000D_
+Programming skills in Bash, Python, Ruby or Perl; skills in other scripting languages are desired;_x000D_
+Willingness to work flexible hours at times, based on needs, including on-call rotation;_x000D_
+Problem-solving attitude;_x000D_
+Team spirit._x000D_
+Qualified and interested candidates are welcomed to send their CV in English to the mentioned email._x000D_
+        </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7/15/2019</t>
         </is>
       </c>
     </row>

--- a/Scrapping_test/job.xlsx
+++ b/Scrapping_test/job.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -397,17 +397,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Պիտակավորող (դեղերի պահեստում)</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ԷՍԴԻԷՄ</t>
+          <t>Richter-Lambron CO LTD</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          ԷսԴիԷմ ՍՊԸ-ին անհրաժեշտ է վաճառքի մենեջեր:Աշխատանքային պարտականություններ.  Շուկայի զարգացում  Առկա վաճառքի պատվերների ընդունում և պոտենցիալ վաճառակետերի բացահայտում  Պայմանավորվածությունների ձեռքբերում վաճառակետերի հետ   Վաճառակետերում ապրանքի ու դարակաշարերի արտաքին տեսքի պահպանում  Պահանջներ.  Բարձրագույն կրթություն  Աշխատանքային փորձը տվյալ ոլորտում պարտադիր է  Մեքենայի առկայությունը պարտադիր է  Հավելյալ նշումներ.  Աշխատանքային ժամեր՝ երկուշաբթիից ուրբաթ, 09:00-18:00, շաբաթ՝ 09:00-13:00:  CV-ները խնդրում ենք ուղարկել միայն վերոհիշյալ պայմաններին համապատասխանելու դեպքում:                       </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունը աշխատանքի է հրավիրում անձանց, ովքեր պետք է աշխատեն դեղերի պահեստում:  Պարտականություններ մուտքագրում պիտակավորում արկղների տեղադրում  պատվերների հավաքագրում Պահանջներ 20-46 տ. (արական սեռ) թիմային աշխատանք ռուսերենի հաղորդակցման մակարդակի իմացություն  Հավելյալ նշումներ Աշխատանքային օրեր և ժամեր. 09:00-18:00, մեկ ժամ ընդմիջում: Շաբաթ օրը 09:00-15:00, կիրակի` հանգստյան օր: Աշխատավարձը՝ մեկ ամիս հետո 85,000 դրամ + բոնուս: Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով: </t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -417,29 +417,29 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>7/31/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>85,000 + բոնուս</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Թիմ Լիդեր</t>
+          <t>Մատուցող Մատուցողուհի</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ԷՍԴԻԷՄ</t>
+          <t>THE KOND HOUSE</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  ԷսԴիԷմ ՍՊԸ-ին անհրաժեշտ է մինչև 40 տարեկան շուկայի զարգացման պատասխանատուների խմբի ղեկավար` թիմ լիդեր։   Պարտականություններ  Վարել կոմերցիոն բանակցություններ համագործակցող գործընկերների հետ, իրականացնել խանութներում ապրանքների վաճառքի ուսումնասիրություն  պարզել գնորդների պահանջարկը իրացվող ապրանքի նկատմամբ և համապատասխանաբար իրացնել պահանջվող տեսականին  կատարել առաջարկություններ  նախաձեռնություններ խթանելով առևտրի աճի բարձրացմանը և բարելավմանը  ձեռք բերել նոր գործընկերներ  կազմակերպել և հետևել թիմի աշխատանքներին  Գործուղվել մարզեր  Պահանջվող որակավորում  Բարձրագույն կրթություն տնտեսագիտության ոլորտում  հայերեն և ռուսերեն լեզուների իմացություն  համակարգչի տիրապետում  աշխատանքային փորձը  պարտադիր է:  Հավելյալ նշումներ  Խնդրում ենք ուղարկեք ձեր ռեզյումեները հայերեն լեզվով:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Անհրաժեշտ է ակտիվ, ժպտերես, պրոֆեսյոնալ մատուցող/մատուցողուհիներ «Կոնդի Տանը» աշխատելու համար։ «Կոնդի Տան» առաջին հարկը իրենից ներկայացնում է փաբ/ակումբ, երկրորդ հարկը մասնագիտացված կոկտել բար է, երորդ հարկը գրիլ բար է, որը այժմ ձմեռային այգի է։  Աշխատանքը լինելու է բազմապրոֆիլ, բարդ, բայց հաճելի։  Աշխատանքային փորձի պակասի դեպքում, կարող եք սկսել ձեր գործունեությունը որպես օգնական։  Պարտականություններ դիմավորել հյուրերին ներկայացնել առկա խնիչքներն և ուտելիքները շփվել խոհարարի և բարմենի հետ, ծանոթ լինել բարում առկա նորույթներին Պահանջներ հոգատարություն հաճախորդի հանդեպ ակտիվություն ուտեստների և խմիչքների աշխարհի մասին տարրական գիտելիքներ սեր դեպի հյուրընկալություն Հավելյալ նշումներ  Հետաքրքրված թեկնածուները կարող են դիմել` ուղարկելով ռեզյումե նշված էլ. հասցեին կամ դիմել նամակի միջոցով:   </t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -449,61 +449,61 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7/31/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>5000 - 20,000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Հացթուխ</t>
+          <t>Event Manager</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Brand Leader</t>
+          <t>Santafe Cafe &amp; Pahest33 Bar-Restaurant</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Բոնուս սուպերմարկետների ցանցի Աբովյան քաղաքում գտնվող սուպերմարկետի փռին անհրաժեշտ են հացթուխներ։  Պահանջներ  Աշխատասիրություն, մաքրասիրություն  Ժամանակի արդյունավետ տնօրինման հմտություն   Պատասխանատվության զգացում  Թիմում աշխատելու ունակություն  Տարածքի բնակիչ  ԲԱՐՁՐ ԱՇԽԱՏԱՎԱՐՁԸ ԵՐԱՇԽԱՎՈՐՎՈՒՄ Է։  Հասցե՝   Աշխատանքը Աբովյան քաղաքում է։  Աշխատանքային ժամեր` 05:00-17:00  Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:  Եթե ռեզյումեի կամ էլ.փոստով դիմելու հնարավորություն չունեք, կարող եք զանգահարել կազմակերպության էջում նշված հեռախոսահամարով:                      </t>
+          <t xml:space="preserve"> Description We are looking for an event manager who also has SMM basic skills and a "can-do" attitude to assist our organization in hosting events that enhance our organization's image, improve client loyalty, and enhance our brand-to-client experience. Your creativity, organizational skills, and vision will assist our organization in amplifying brand visibility, enhancing client and employee relations, and improve our organization's growth through events that effectively communicate business strategy and brand personality. The ideal candidate for this role should demonstrate exceptional organizational abilities, superb interpersonal skills, multi-tasking skills, and excellent time-management. The noteworthy Event Manager should reinforce client-to-business relations, improve the organization's image, and effectively deliver on event objectives. Responsibilities Brainstorming and implementing event plans and concepts from start to finish according to requirements, target audience and objectives Conduct budget planning of the event Collaboration with sponsors and partners to organize events  Lead promotional activities for the event Coordinate and manage the creation of all digital content such as, blogs, press releases and podcasts, infographics, videos etc. Maintain and manage all our social media channels Managing branding and communication Analyze the event’s success and prepare reports Requirements Additional information Creative enthusiast with work experience for 2 years in this role, Degree in Public Relations, Communications, or Hospitality. Communication and marketing skills. Project management skills Excellent knowledge of Armenian and English; Good writing &amp; editing skills (photo/video/text); Very reliable, responsible, detail-oriented with good multitasking and organizational skills. Solid knowledge of website analytics tools Additional Notes We care for people we work with and offer yearly target bonuses and training opportunities. All eligible candidates are welcomed to submit their CVs, mentioning the position title “Event Manager” in the subject line. In the body of your email please tell us in a few sentences the most interesting about your skills and professional experience additionally. It’s important for us to understand your resolve, to know your creative vision. We thank you for your time. Our team will review all applications; however, only shortlisted candidates will be invited to an interview. </t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Abovyan</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>140,000-160,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Accountant</t>
+          <t>Թերմոպլաստ սարքավորման օպերատոր-կարգաբերող</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Galaxy Group of Companies</t>
+          <t>Արիդես ՍՊԸ</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Galaxy Group of Companies is looking for a professional Accountant to join the team  Responsibilities  Manage all accounting operations, prepare and maintain accounting documents  Execute financial transactions and control document accounting    Prepare synthetic and analytical accounting records  Prepare standard accounting reports, including balance sheet, profit and loss statements, payroll and tax reports  Keep track of accounting documents    Conduct work with banks, state and local governing bodies and partner organizations  Perform day-to-day accounting activities  Follow the changes in accounting and tax legislation and ensure accounting requirements in accordance with the current legislation  Requirements  University degree in Finance, Economics, Accounting or a related field   Proven working experience as an Accountant  Knowledge of Microsoft Office, especially Excel  Analytical skills  Good knowledge of English language  Ability to meet deadlines   Ability to work independently  Self-motivated, detail-oriented and organized person  Additional Notes  Candidates who meet the above-mentioned requirements are kindly asked to submit their resume.  Galaxy Group of Company is grateful to all interested applicants, however, only short-listed candidates will be invited to an interview.                      </t>
+          <t xml:space="preserve"> Նկարագրություն Արիդես ընկերությունը փնտրում է թերմոպլաստ սարքավորման (թվային ղեկավարմամբ) օպերատոր-կարգաբերողի, ով կհամապատասխանի ստորև նշված որակավորմանն ու պահանջներին։  Պարտականություններ Ապահովել հումքի և պատրաստի արտադրանքի ամենօրյա հաշվառումը և ընթացիկ   աշխատանքների վերահսկողությունը. Իրականացնել տեխնիկական հսկողություն թերմոպլաստ սարքավորման աշխատանքի նկատմամբ. Հետևել արտադրական պատվերների հերթականությանը և ծավալներին. Պահանջներ Բարձրագույն տեխնիկական կրթություն Առնվազն 3 տարվա աշխատանքային փորձ թերմոպլասների ոլորտում Աշխատանքի կազմակերպման, պլանավորման և գերակայությունների սահմանման հմտություններ  Որոշումների կայացման հմտություններ Կազմակերպչական հմտություններ Թիմային աշխատանքի կարողություն, Խիստ կարգապահություն և պատասխանատվության բարձր զգացում  Դիմելու կարգը Բոլոր հետաքրքրված անձինք կարող են իրենց ինքնակենսագրությունն ու մոտիվացիոն նամակն ուղարկել նշված էլ․ հասցեին։ Դիմումների վերջնաժամկետն է Հունվարի 7։  </t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7/11/2020</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -525,17 +525,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Փորձաքննող ինժեներ 2</t>
+          <t>Արտադրության էլեկտրիկ–մեխանիկ</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Հայաստանի Տարածքային Զարգացման Հիմնադրամ</t>
+          <t>Արիդես ՍՊԸ</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Հայաստանի տարածքային զարգացման հիմնադրամն իր ծրագրերի իրականացման համար փնտրում է փորձաքննող ինժեներ։  Պարտականություններ  ծրագրերի սոցիալական, տեխնիկական և տնտեսական ոլորտների գնահատում, առաջնորդվելով ՀՏԶՀ-ի չափանիշներով  ծրագրերի փորձաքննության և իրականացման համար անհրաժեշտ փաստաթղթերի առկայության ապահովում և ուսումնասիրություն  նախագծա-նախահաշվային փաստաթղթերի վերլուծություն և գնահատում  համագործակցություն ծրագրերի իրականացման կոմիտեների և տեղական իշխանությունների հետ  փորձաքննության հաշվետվությունների պատրաստում  շինարարության ընթացքում նախագծերի և աշխատանքների ծավալների փոփոխության վերաբերյալ առաջարկների ուսումնասիրություն և գնահատում  ծրագրերի բաժնի պետի, Փորձաքննության և վերլուծության խմբի ղեկավարի, Վերահսկման խմբի ղեկավարի հանձնարարությամբ այլ գործառույթներ:  Պահանջներ  Ճարտարապետի կամ Շինարար-ճարտարագետի  բարձրագույն կրթություն   Նախագծման, շինարարության և շինարարության վերահսկման բնագավառում առնվազն 5 տարվա աշխատանքային փորձ,  Համակարգչային գիտելիքներ (MS OFFICE, AutoCAD)  Լեզուների իմացություն՝ հայերենի գերազանց իմացություն,  անգլերեն և ռուսերեն լեզուների իմացություն  Հավելյալ նշումներ  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Նկարագրություն Արիդես ընկերությունը փնտրում է ինժեներ-նախագծողի, ով կհամապատասխանի ստորև նշված որակավորմանն ու պահանջներին։  Պարտականություններ Կատարել արտադրական հաստոցների, սարքավորումների տեխնիկական սպասարկում, արատորոշշում, նորոգում, Կոմպրեսորային կայանի, այլ օժանդակ սարքավորումների շահագործում, տեխնիկական սպասարկում, արատորոշշում, նորոգում, Էլեկտրամատակարարման համակարգի շահագործում, սպասարկում, ըստ անհրաժեշտության՝ ձևափոխում, Այլ մասնագիտական աշխատանքներ՝ ըստ անհրաժեշտության։ Պահանջներ Աշխատանքային փորձ, Բարձրագույն տեխնիկական կրթություն, Պատասխանատվության զգացողություն, Թիմային աշխատանքի կարողություն, Սեփական աշխատանքի և ժամանակի կառավարման հմտություն։ Դիմելու կարգը  Բոլոր հետաքրքրված անձինք կարող են իրենց ինքնակենսագրությունն ու մոտիվացիոն նամակն ուղարկել նշված էլ․ հասցեին։ Դիմումների վերջնաժամկետն է Հունվարի 7։   </t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -545,7 +545,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7/30/2020</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -557,17 +557,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Փորձաքննող ինժեներ 1</t>
+          <t>Ճարտարագետ</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Հայաստանի Տարածքային Զարգացման Հիմնադրամ</t>
+          <t>Արիդես ՍՊԸ</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Հայաստանի տարածքային զարգացման հիմնադրամն իր ծրագրերի իրականացման համար փնտրում է փորձաքննող ինժեներ:  Պարտականություններ  Ծրագրերի սոցիալական, տեխնիկական և տնտեսական ոլորտների գնահատում, առաջնորդվելով ՀՏԶՀ-ի չափանիշներով։  Ենթածրագրի իրականացման համար բոլոր անհրաժեշտ փաստաթղթերի առկայության ապահովում և ուսումնասիրություն:  Համագործակցություն ծրագրերի իրականացման կոմիտեների և տեղական իշխանությունների հետ։  Փորձաքննության հաշվետվությունների պատրաստում։  Նախագծային կազմակերպության հետ համատեղ, յուրաքանչյուր ենթածրագրի նախագծային առաջադրանքի պատրաստում:  Նախագծային աշխատանքների ընթացքի վերահսկում, ըստ փուլերի:  ՀՏԶՀ-ի Ծրագրերի իրականացման բաժնին փոխանցվող ծրագրերի ընդունում, թղթակցության վարում եւ դասակարգում։  Հաստատված ծրագրերի եւ պայմանագրային փոփոխությունների ներկայացումը ՀՏԶՀ-ի Խորհրդին։  ՀՏԶՀ-ի ստորաբաժանումների միջև փաստաթղթային գործավարության վարում։  Ծրագրերի բաժին մուտքագրվող փաստաթղթերի եւ նամակների գործավարություն։  Ծրագրերի իրականացման բաժնի պետի հանձնարարությամբ բաժնի գործունեության վերաբերյալ հաշվետվությունների համար անհրաժեշտ նյութերի պատրաստում։  ՀՏԶՀ-ի փաստաթղթերի արխիվացման գործընթացի կազմակերպում և իրականացում։  Տեխնիկական փաստաթղթերի թարգմանություններ։  Ծրագրերի բաժնի պետի, Փորձաքննության և վերլուծության խմբի ղեկավարի, Վերահսկման խմբի ղեկավարի հանձնարարությամբ այլ գործառույթներ:  Պահանջներ  Ճարտարապետի կամ Շինարար-ճարտարագետի  բարձրագույն կրթություն   Քաղաքաշինության բնագավառում թղթակցության վարման փորձառություն  Համակարգչային գիտելիքներ (MS OFFICE, AutoCAD)  Լեզուների իմացություն՝ հայերենի,  անգլերենի գերազանց իմացություն  Հավելյալ նշումներ  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Նկարագրություն Արիդես ընկերությունն աշխատանքի է հրավիրում էլեկտրոնային սարքերի նախագծման և միկրոկոնտրոլերների ու միկրոպրոցեսորների ծրագրային ապահովումների մշակման ոլորտներում մասնագիտացած ճարտարագետի: Պարտականություններ իրականացնել էլեկտրոնիկա, էլեկտրոնային սարքերի նախագծում, էլեկտրոնային սարքերի հավաքում՝ զոդում և կարգավորում, Էլեկտրոնային սխեմայի նախագծում և հավաքում իրականացնել էլեկտրոնային սարքերի նախագծման և միկրոկոնտրոլերների ու միկրոպրոցեսորների ծրագրային ապահովումների մշակում Պահանջներ Կրթությունը՝ բարձրագույն տեխնիկական Աշխատանքային փորձը՝ ցանկալի է: միկրոկոնտրոլերներ ու միկրոպրոցեսորներ (PIC, Atmel կամ այլ տիպերի), նրանց ծրագրային ապահովումների մշակում, այդ ծրագրային ապահովումների մշակման ծրագրային միջոցների և գործիքների տիրապետում ծրագրային լեզուներ՝ C, ասեմբլեր՝ միկրոկոնտրոլերների ու միկրոպրոցեսորների, մասնավորապես` PIC, Atmel կամ այլ տիպերի  հետազոտական աշխատանքների իրականացման հմտություններ: Դիմելու կարգը Բոլոր հետաքրքրված անձինք կարող են իրենց ինքնակենսագրությունն ու մոտիվացիոն նամակն ուղարկել նշված էլ․ հասցեին։ Դիմումների վերջնաժամկետն է Հունվարի 7։   </t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -577,7 +577,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>7/30/2020</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -589,17 +589,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Վաճառողուհի Խորհրդատու</t>
+          <t>Ինժեներ-նախագծող</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>mobo.am</t>
+          <t>Արիդես ՍՊԸ</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Բջջային հեռախոսների, պլանշետների, նոութբուքերի և աքսեսուարների խանութ սրահը աշխատանքի է հրավիրում խորհրդատու վաճառողուհու։  Հասցե՝ Հյուսիսային պող․12   Պարտականություններ  Հաճախորդների սպասարկում և վաճառքի իրականացում  Բարեհամբույր սպասարկում  Պահանջներ  Օտար լեզուների իմացություն (ռուսերեն,անգլերեն)  Աշխատանքային փորձը տվյալ ոլորտում ցանկալի է  Տարիքը՝ 20 - 35տ  Հավելյալ նշումներ  Աշխատանքային ժամեր՝ 16։00 - 23։00։  Հետաքրքրված թեկնածուները կարող են դիմել` ուղարկելով ռեզյումե նշված էլ. հասցեին կամ դիմել նամակի միջոցով:  Եթե ռեզյումեի կամ էլ.փոստով դիմելու հնարավորություն չունեք, կարող եք զանգահարել կազմակերպության էջում նշված հեռախոսահամարով:                         </t>
+          <t xml:space="preserve"> Նկարագրություն Արիդես ընկերությունը փնտրում է ինժեներ-նախագծողի, ով կհամապատասխանի ստորև նշված որակավորմանն ու պահանջներին։  Պարտականություններ Արտադրատեսակների նախագծում  Արտադրատեսակների աշխատանքային գծագրերի մշակում  Արտադրած դետալների և արտադրանքի ու նրանց գծագրերի հետ համապատասխանության ստուգում   Արկղերի/փաթեթավորման համար անհրաժեշտ գծագրի կազմում/պարամետրերի տրամադրում  Տեխնիկական փաստաթղթերի կազմում   Արտադրանքի բարելավման և կատարելագործման ուղղությամբ գործողությունների նախաձեռնում  Պահանջներ Բարձրագույն տեխնիկական կրթություն  Մասնագիտական աշխատանքային փորձ AutoCad, Solid works ծրագրերի իմացություն  Գերազանց վերլուծական հմտություններ, հաղորդակցման հմտություններ  Խնդիրների լուծման և որոշումներ կայացնելու խորը զարգացած հմտություններ  Համակարգչային գրագիտություն  MS Office փաթեթի տիրապետում,   Հայերեն և ռուսերեն լեզուների գրավոր և բանավոր տիրապետում  Տրամաբանելու, տարբեր իրավիճակներում կողմնորոշվելու ունա­կու­թյուն  Աշխատանքի պլանավորման, Կազմակերպչական և գերակայությունների սահմանման հմտություններ  Խիստ կարգապահություն և պատասխանատվության բարձր զգացում  Արդյունքների ստացման նպատակասլացություն  Համագործակցում/թիմային աշխատանք  Դիմելու կարգը Բոլոր հետաքրքրված անձինք կարող են իրենց ինքնակենսագրությունն ու մոտիվացիոն նամակն ուղարկել նշված էլ․ հասցեին։ Դիմումների վերջնաժամկետն է Հունվարի 7։  </t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7/30/2020</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -621,17 +621,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Գլխավոր Հաշվապահ</t>
+          <t>Senior .Net Developer</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>"Հիմա" ՈւՎԿ ՍՊԸ</t>
+          <t>Pay&amp;Go</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Գլխավոր հաշվապահի հիմնական գործառույթն է՝ ապահովել Կազմակերպության հաշվապահական հաշվառման վարումը, ապահովել հաշվապահական գրանցումների և ֆինանսական հաշվետվությունների պատրաստումը և ներկայացումը՝ Հաշվապահական հաշվառման միջազգային ստանդարտներին, ՀՀ օրենսդրությանը և ֆինանսավորող կազմակերպության պահանջներին համապատասխան։  Պարտականություններ  Իրականացնել ընթացիկ հաշվապահական աշխատանքների կազմակերպում և համակարգում;  Կազմակերպել հաշվապահական հաշվառման վարումը ՀՀ օրենսդրությանը, ՀՀՄՍ պահանջներին և կազմակերպության ներքին իրավական ակտերին համապատասխան;  Վերահսկել Ֆինանսական գործարքները, դրանց փաստաթղթավորումը, գրանցումը հաշվապահական հաշվառման համակարգում,  ՀՀ օրենսդրությամբ սահամանված կարգով և ժամկետներում ստուգել, ամփոփել և ներկայացնել ֆինանսական, ՀՀ ԿԲ ներկայացվող, հարկային և այլ պետական մարմիններին տրվող հաշվետվությունները;  Ապահովել գործարքների/ գործառնությունների հաշվապահական հաշվառման հաշիվներում ժամանակին արտացոլումը,  դրանց ֆինանսական և հարկային ժամանակավոր տարբերությունների հաշվարկումը;  Ապահովել գործարքներից/ գործառնություններից, քաղաքացիաիրավական պայմանագրերից, ծառայությունների մատուցման և այլ պայմանագրերից բխող հարկային (և այլ պարտադիր վճարների) պարտավորությունների հաշվարկների կատարումը;  Ստուգել մատակարարների հետ կնքվելիք գնման և այլ տիպային պայմանագրերի նախագծերում հարկերին առնչվող դրույթների և հաշվարկների համապատասխանությունը;  Կանխատեսել և վերահսկել միջազգային պայմանագրերից ծագող պարտավորությունները, ապահովել կրկնակի հարկման դրույթների պատշաճ կիրարկում գործող միջազգային պայմանագրերի և կրկնակի հարկման բացառման համաձայնագրերի շրջանակներում;  Պարբերաբար հետևել ՀՀ հարկային հարաբերությունները կարգավորող օրենքների և այլ իրավական ակտերի դրույթների փոփոխություններին և լրացումներին, ընդունվող պաշտոնական պարզաբանումներին, ապահովել դրանց ժամանակին և ճշգրիտ կիրարկումը «Հիմա» ՈւՎԿ-ի կողմից իրականացվող գործարքներում/ գործառնություններում;  Ապահովել հարկային և ֆինանսական վերլուծությունների, հարկային պլանավորման իրականացումը;  Ներկայացնել առաջարկություններ ցանկացած գործարքից առաջացող հարկային և այլ պարտավորությունների հետ կապված օպտիմալ լուծումների վերաբերյալ;  Աջակցել արտաքին աուդիտն իրականացնող կազմակերպության աշխատակիցներին ստուգման ընթացքում ծագած խնդիրների և հարցադրումների վերաբերյալ, տրամադրել անհրաժեշտ փաստաթղթեր;  Կատարել բոլոր պարտականությունները և իրականացնել այն բոլոր լիազորությունները, որոնք սահմանված են “Սահմանափակ պատասխանատվությամբ ընկերությունների մասին” ՀՀ օրենքով և այլ իրավական ակտերով, Ընկերության կանոնադրությամբ, ներքին կանոնակարգով, Պայմանագրով և Ընկերության Մասնակիցների ընդհանուր ժողովի որոշմամբ;  Պահանջներ  Բարձրագույն կրթություն տնտեսագիտության, ֆինանսների, հաշվապահության ոլորտներում.  Ֆինանսական / բանկային համակարգում առնվազն 4 տարվա համապատասխան աշխատանքային փորձ;  MS Office- ի աշխատանքային գիտելիքներ, Excel- ի գերազանց տիրապետում;  ՀԾ ծրագրի իմացություն;  Հարկային և բանկային օրենսդրության իմացություն;  Աշխատանքային և քաղաքացիական օրենսդրության իմացություն  ACCA- ի հիմնարար մակարդակը ցանկալի է.  Հայաստանի Կենտրոնական բանկի գլխավոր հաշվապահի վկայականը պարտադիր է.  ռուսերեն և անգլերեն լեզուների իմացությունը պարտադիր է.  Սեղմ ժամկետներում առաջադրանքների կատարման ունակություն.  Բիզնեսի էթիկայի իմացություն:  Հավելյալ նշումներ  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> We are looking for a high potential Senior .NET Developer to join our growing team. This position requires someone who enjoys working both independently and within a team environment. They should be passionate about learning and taking ownership to grow their role within the team. What We Look For: Design, develop, and maintain complex C# solutions using MVVM, jQuery, AJAX, XML, JavaScript, and REST Services Perform a level of database querying and data manipulation language (DML) Develop loosely coupled object-oriented solutions that are highly testable, modularized, and reusable Develop solutions that leverage existing enterprise frameworks, align with the overall enterprise architecture and vision, and are compliant with the established coding standards and other engineering principles Understand the business requirements and applies solutions that align with the long-term strategies and enterprise architecture goals Identifies, assesses, and manages risks to ensure successful achievement of sprint deliverables Required Experience: Solid expertise in C# and .NET Expertise in Visual Studio 2017+ Solid Experience in writing complex SQL queries and stored procedures on MS SQL Server Excellent interpersonal and organizational skills, ability to handle diverse situations, multiple projects and rapidly changing priorities. Self-motivated; works well both independently and collaboratively Preferred Qualifications: 5+ years of software development Experience with service-oriented architecture (SOA), Web Services, and REST protocols Familiarity with loosely coupled enterprise applications Familiarity with AJAX, MVVM, design patterns, and modern architectural trends Experience with Entity Framework Familiarity with Team Foundation Server and build management Interested and matching candidates are requested to send their CVs to the mentioned email. </t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -641,7 +641,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>7/1/2020</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -653,17 +653,17 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Մարքեթոլոգ</t>
+          <t>.NET Developer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ԿՈՄՖՈՐՏ Ռ ԵՎ Վ</t>
+          <t>Pay&amp;Go</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Ոլորտը՝ շինանյութի ներկրում և վաճառք  Պարտականությունները՝  Իրականացնել շուկայի ընդհանուր հետազոտություններ, առկա պահանջարկի և մրցակիցների առաջարկների մասին մասնավոր հետազոտություններ:  Մշակել ռազմավարություն՝ ուղղված շուկայում ընկերության մասնաբաժինը մեծացնելուն:  Ստեղծել և մշակել հաճախորդների բազա:  Ներկայացնել հաճախորդների հետ հարաբերությունների արդյունավետ կառավարման ծրագրեր:  Ընտրել և ներդնել ապրանքների իրացումը խթանող արդյունավետ համակարգեր, հետևել գործընթացի իրականացմանը (CRM կամ այլ համակարգերի միջոցով) :  Հետևել վաճառքի ընթացքին և կատարել համապատասխան եզրահանգումներ՝ վաճառքի ծավալները մեծացնելու վերաբերյալ:  Կատարել հիմնավոր առաջարկություններ խանութ-սրահներում ներկայացվող ապրանքների վաճառքը մեծացնելու և ընկերության մրցունակությունը շուկայում ավելացնելու վերաբերյալ:  Պահանջվող հմտությունները՝  Տիրապետել՝  մարքեթինգի հիմունքներին,  վերլուծական հմտություներին,  վերլուծական մտածողությանը,  վաճառքի գործընթացին հետևելու և համապատասխան եզրահանգում կատարելու հմտություներին,  վաճառքի ծավալները մեծացնելու կարողությանը  գնորդների մասին ամբողջական տեղեկատվություն հավաքագրելու կարողությանը և տեսանելի հեռանկարին ուղղված՝ գործնական հարաբերությունները զարգացնելու կարողությանը,  տվյալների և վաճառքի գործընթացի արդյունավետ կառավարման ժամանակակից գործիքների կարողությանը,  արդյունավետ հաղորդակցման հմտություններին  նորարար և կրեատիվ մտածողությանը:  Պահանջվող որակավորում  բարձրագույն տնտեսագիտական կրթություն մարքեթինգի կամ բիզնեսի կառավարման ոլորտում,  աշխատանքային փորձ՝ շինանյութի մանրամեծածախ առևտրի ոլորտում /3 տարի և ավելի/,  ռուսերեն և անգլերեն լեզուների լավ իմացություն,  հաշվապահական 1C ծրագրի իմացություն,  պարտաճանաչ, աշխատասեր, եռանդուն, նպատակասլաց:  Տարիքը՝ 27- 47տ:  Ներկայացնել բնութագրեր վերջին 2 աշխատավայրերից:  Աշխատանքային ժամերը - երկ-ուրբ՝ 9:00-18:00, շաբ՝ 9:00-13:00, հանգստյան օրը՝ կիրակի:  Ինքնակենսագրականները ուղղարկել /հայերեն կամ ռուսերեն, լուսանկարով/ էլ փոստին:                      </t>
+          <t xml:space="preserve"> We are looking for a high potential .NET Developer to join our growing team. This position requires someone who enjoys working both independently and within a team environment. They should be passionate about learning and taking ownership to grow their role within the team. What We Look For: Design, develop, and maintain complex C# solutions using MVVM, jQuery, AJAX, XML, JavaScript, and REST Services Perform a level of database querying and data manipulation language (DML) Develop loosely coupled object-oriented solutions that are highly testable, modularized, and reusable Develop solutions that leverage existing enterprise frameworks, align with the overall enterprise architecture and vision, and are compliant with the established coding standards and other engineering principles Understand the business requirements and applies solutions that align with the long-term strategies and enterprise architecture goals Identifies, assesses, and manages risks to ensure successful achievement of sprint deliverables Required Experience: Expertise with C# and .NET Expertise in Visual Studio 2017+ Experience in writing SQL queries and stored procedures of moderate complexity on SQL Server Excellent interpersonal and organizational skills, ability to handle diverse situations, multiple projects and rapidly changing priorities. Self-motivated; works well both independently and collaboratively Preferred Qualifications: 2+ years of software development Experience with service-oriented architecture (SOA), Web Services, and REST protocols Familiarity with loosely coupled enterprise applications Familiarity with AJAX, MVVM, design patterns, and modern architectural trends Experience with Entity Framework Familiarity with Team Foundation Server and build management Proficient in Microsoft Office tools such as Word, Excel, Visio, and Outlook Interested and matching candidates are requested to send their CVs to the mentioned email. </t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -673,29 +673,29 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Խորհրդատու Վաճառող</t>
+          <t>Logistics Manager</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ԿՈՄՖՈՐՏ Ռ ԵՎ Վ</t>
+          <t>DD Trans LLC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կերամիկական սալիկների, սանտեխնիկայի և այլ շինարարական նյութերի վաճառքով զբաղվող ընկերությանն անհրաժեշտ են խորհրդատու-վաճառողներ:  Պարտականությունները՝  գնորդներին ներկայացնել նոր, միմյանց փոխարինող, ինչպես նաև համարժեք տեսականու ապրանքներ,  ստուգել ապրանքների անվանումները, տեսականին, գինը,  ապահովել պահանջվող քանակի առկայությունը,  տրամադրել խորհրդատվություն՝ վաճառվող ապրանքների տեսականու, դրանց սպառողական հատկանիշների և առանձնահատկությունների վերաբերյալ,  ստուգել գնապիտակների առկայությունը և ապահովել դրանց ճիշտ դասավորվածությունը,  ներկայացնել գործող զեղչային համակարգերը և ակցիաների մասին տեղեկատվություն տրամադրել,խթանել ապրանքների վաճառքը,  մասնակցել նոր ստացված ցուցանմուշների ընդունման, տեսակավորման, ցուցափեղկերի դասավորման և այլ աշխատանքների:  Հմտությունները՝  ապրանքներիի ծագման, տեսակների, առանձնահատկությունների լիարժեք իմացություն,  ապրանքների որակական տարբերության իմացություն և բացատրություն,  հաճախորդի հետ արդյունավետ հաղորդակցման հմտություններ՝ սպասարկման ճկունություն,  հաճախորդի սպասելիքները գերազանցելու և վստահություն ներշնչելու կարողություն,  առևտրի բարձր ցուցանիշների ապահովում,  խնդիրներ լուծելու ունակություն,  լարված միջավայրում դինամիկ և արդյունավետ աշխատելու կարողություն:  Պահանջվող որակավորում  բարձրագույն կրթություն,  տարիքը՝ 25-40տ,  աշխատանքային փորձը (2 տարի) շինանյութի վաճառքի ոլորտում պարտադիր է,  ռուսերեն լեզվի իմացությունը ցանկալի է:  Աշխատավարձը՝  Սահմանված աշխատավարձ + վաճառքից ստացված բոնուսներ:  Աշխատանքային ժամերը՝ 10:00-19:00 և հանգստյան օր:  Ինքնակենսագրականները (CV-ը հայերեն, լուսանկարով) ուղարկել էլ. հասցեին:  Այն ինքնակենսագրականները, որոնք չեն համապատասխանի նշված պահանջներին՝ չեն ուսումնասիրվելու:                             </t>
+          <t xml:space="preserve"> Description DD Trans LLC offers a full range of freight forwarding and integrated logistics services. Our team contains very responsible specialists who have many years of experience in the field of international shipment. Working with us you will have the opportunity to grow as a professional in the industry of freight forwarding and transportation. Responsibilities Process cargo transportation requests Be in charge of full transportation process (from the order placing until final destination delivery) Inform clients on cargo tracking details during transit Communicate with European exporters Perform other job-related duties as assigned Requirements Higher education (must have) Experience in freight forwarding and transportation with European companies and transport companies (must have) Fluent in Armenian, Russian and English languages (must have) High sense of responsibility and punctuality Ability to work under pressure; ability to analyze and prepare reports Excellent organizational and decision-making skills Teamwork and time management skills High efficiency of work Excellent computer skills: MS Office and Internet; Additional Notes Working schedule: 09:00 - 18:00 (Mon - Fry) </t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -705,29 +705,29 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>130,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Գլխավոր հաշվապահի տեղակալ</t>
+          <t>Վաճառող Գանձապահ</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ԿՈՄՖՈՐՏ Ռ ԵՎ Վ</t>
+          <t>ՍՊԱՅԿԱ ՍՊԸ</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Ոլորտ՝ շինանյութի ներմուծում, մանրամեծածախ առևտուր  Պարտականություններ  Գլխավոր հաշվապահի բացակայության ընթացքում լիարժեք իրականացնել գլխավոր հաշվապահի պարտականությունները՝  ընկերության հաշվապահության վարման վերահսկում և կարգավորում, հաշվապահական հաշվառման քաղաքականության կազմակերպում ,,Հաշվապահական Հաշվառման մասին,,  ՀՀ օրենքին համապատասխան,  անալիտիկ և սինթետիկ հաշվառման իրականացում,  հաշվապահական հաշվառման հավետովությունների արդյունավետ վարման ապահովում,  ստացվող հիմնական միջոցների, ապրանքանյութական արժեքների և դրամական միջոցների հաշվառման ապահովում, դրանց շարժի հետ կապված գործառնությունների ժամանակին արտացլումը հաշվապահական հաշվառման հաշԻվներում,  աշխատավարձի հաշվարկ և այլ գործառույթներ:   Պահանջները  Ծրագրի իմացություն – 1C (գերազանց)  Կրթությունը – բարձրագույն, համապատասխան  Տարիքը՝ 30-45տ  Աշխատանքային փորձը՝ 3տ (մասնագիտական, միևնույն ընկերությունում):  Հավելյալ նշումներ  Աշխատանքային ժամերը - երկ-ուրբ՝ 9:00-18:00, շաբ՝ 9:00-13:00, հանգստյան օրը՝ կիրակի:  Ինքնակենսագրականները ուղղարկել /հայերեն, լուսանկարով/ նշված էլ․ փոստին։                         </t>
+          <t xml:space="preserve"> Նկարագրություն Նորաբաց Ոզնի միրգ-բանջարեղենի խանութների ցանցին անհրաժեշտ է  վաճառող-գանձապահ: Պարտականություններ  Կատարել հաճախորդների սպասարկում, վաճառք Հաճախորդներին ներկայացնել  ապրանքի տեսականին, տալ խորհրդատվություն Վաճառքի ձևակերպում, դրամարկղի վարում Պահանջներ Համակարգչի իմացություն /ՀԾ առևտուր/ Վաճառքի ոլորտում  աշխատանքային փորձը ցանկալի է  Հաճախորդների հետ հաղորդակցվելու ունակություն Բարեկիրթ, կարգապահ Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:    </t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -737,39 +737,39 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>200,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Վաճառող Մատուցող</t>
+          <t>Շուկայի զարգացման պատասխանատու (Տավուշի մարզ)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Baguette &amp; Co</t>
+          <t>Premier Foods LLC</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Baguette &amp; Co Ֆրանսիական հացի և հրուշակեղենի սրճարանը փնտրում է մատուցող/ուհի - վաճառող/ուհի:Աշխատանքային փորձը պարտադիր չէ:  Մեր արժեքներն են  Մենք հաճախորդամետ ենք  Մենք հարգում ենք միմյանց  Մենք ապահովում ենք կարիերայի աճ   Պահանջներ  18-35 տարեկան  Սեռը՝ արական, իգական  Լինել ժպտերես  Տարրական անգլերեն կամ ռուսերեն լեզուների իմացությունը ցանկալի է  Կիրթ խոսք և վարվելակերպ, ճկունություն  Աշխատանքային փորձը պարտադիր չէ  Մենք տրամադրում ենք նաև.  Պաշտոնապես ձևակերպված աշխատանք   Անվճար սնունդ   Ռեզյումեներն ուղարկել հայերեն կամ ռուսերեն լեզուներով:                      </t>
+          <t xml:space="preserve"> “Պրեմիեր Ֆուդս” ընկերությունը փնտրում է ակտիվ և պատասխանատվության բարձր զգացումով շուկայի զարգացման պատասխանատուներ Տավուշի մարզում: Պարտականություններ՝ Նոր հաճախորդների ներգրավում, Վաճառակետերում ապրանքի ներկայացում և պատվերների ընդունում, Հաճախորդների հետ գործարար հարաբերությունների հաստատում և պահպանում, Վաճառակետերում ամբողջ տեսականու առկայության վերահսկում և ապրանքի դասավորվածության ապահովում, Վաճառակետերում գովազդային նյութերի արդյունավետ օգտագործում, Պատվերների մատակարարման արդյունավետ իրականացման վերահսկում: Պահանջներ՝ Համապատասխան աշխատանքային փորձը և վաճառքի հմտությունների տիրապետումը ցանկալի է, Հաղորդակցման գերազանց հմտություններ, Արագ կոմնորոշվելու, հաշվարկներ կատարելու կարողություն, Հաճախորդներ ներգրավելու, բանակցելու աշխատանքային փորձ, Անձնական մեքենայի առկայությունը պարտադիր է: Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Ijevan</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>7/29/2020</t>
+          <t>1/6/2021</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -781,17 +781,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Վաճառող Խորհրդատու</t>
+          <t>Վաճառքի Խորհրդատու</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Domus</t>
+          <t>Rouge Beaute LLC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Դեկորա-Գրուպ ՍՊԸ ներկայացնում է Decora, Domus, Duson, Teka, Kuppersbusch խանութների ցանցը:  Աշխատանքային պարտականությունները  Օգնել գնորդին ապրանքի ընտրության հարցում, խորհրդատվություն տալ խանութում վաճառվող ապրանքների տեսականու, դրանց սպառողական հատկանիշների և առանձնահատկությունների վերաբերյալ,  Յուրաքանչյուր հաճախորդի հարցումներին տալ օպտիմալ լուծումներ,  Ցուցադրել ապրանքագիտություն, ծրագրային, վաճառքի և հաճախորդների սպասարկման գերազանց իմացություն,  Հետևել ապրանքների պահանջվող քանակի առկայությանը,  Մասնակցել ապրանքների վաճառքի խթանմանը՝ ներկայացնելով նաև գովազդվող ապրանքները, տեղեկացնելով գործող զեղչային համակարգերի մասին։  Օգնել խանութի ղեկավարին կամ պահեստապետին ապրանքների ընդունման և ցուցադրման հարցում,  Պատրաստել ապրանքները վաճառքի համար՝ բացում, հավաքում, կոմպլեկտավորում, տեղադրում,  Հետևել գնապիտակների առկայությանը, նրանց ճիշտ դասավորվածությանը,  Մասնակցել ընկերության կողմից կազմակերպված ուսուցողական դասընթացներին և ատեստացիաներին,  Անձնական հաջողություններով կիսվել գործընկերների հետ,  Պահպանել ընկերության չափանիշները և համապատասխանել ընկերության կողմից որդեգրված արժեքային համակարգը ։  Պահանջվող որակավորումները  Բարձրագույն կրթություն,  Աշխատանքային փորձը տվյալ կամ նման ոլորտներում կդիտվի որպես առավելություն,  Ճշտապահություն, ազնվություն, ոչ կոնֆլիկտային բնավորություն,  Համակարգչային գիտելիքներ (1C ծրագրի իմացությունը կդիտվի որպես առավելություն)  Հայերեն, անգլերեն և ռուսերեն լեզուների իմացություն,  Սովորելու ցանկություն,  Վերջնաժամկետներին հետևելու ունակություն  Պատասխանատվության զգացում և որոշումներ կայացնելու ունակություն,  Բարեվարքություն (integrity) և ազնվություն,  Թիմում աշխատելու ունակություն:  Հավելյալ նշումներ  Խանութը աշխատում է ամեն օր։ Աշխատանքային ժամեր՝ երկուշաբթիից շաբաթ՝ 9։30:00-19։00, կիրակի՝ 10։30-18:30:  ԴԻՄԵԼՈՒ ԸՆԹԱՑԱԿԱՐԳ  Բոլոր հետաքրքրված թեկնածուները կարող են ուղարկել իրենց CV-ն նշված էլ․ հասցեին։  CV-ն պետք է լինի Word կամ PDF ֆորմատով  Միայն Unicode ֆոնտով հավաքված տեքստը կընդունվի։ Օրինակ Sylfaen  CV-ի ֆայլը անվանեք ձեր անուն և ազգանունով  Ռեզյումեն անհրաժեշտ է ուղարկել Ձեր էլ հասցեից  Կխնդրեինք չմոռանալ ուղեկցող նամակը (ոչ մոտիվացիոն)։                         </t>
+          <t xml:space="preserve"> Նկարագրություն «ROUGE BOUTE» ՍՊԸ-ին անհրաժեշտ են վաճառքի խորհրդատուներ:  Պարտականություններ Հաճախորդներին առաջարկել և ցուցադրել ապրանքներ,   Հետևել սրահում ապրանքների ժամանակին համալրմանը, ճիշտ դասավորվածությանը և մաքրությանը  Հավատարիմ լինել կազմակերպության վարած քաղաքականությանը և  ենթարկվել սահմանված ընթացակարգերին  Պահանջներ Բարձրագույն կրթություն ցանկալի է  Աշխատանքային փորձը վաճառքի ոլորտում ցանկալի է  Արդյունավետ հաղորդակցման հմտություններ հաճախորդների, գ ործընկերների և ղեկավարության հետ   Օտար լեզուների իմացությունը ցանկալի է  Թիմում և անհատապես աշխատելու կարողություն  Պատասխանատվության բարձր զգացում  Հավելյալ նշումներ Համապատասխան անձինք կարող են իրենց ինքնակենսագրականը` լուսանկարով, ուղարկել նշված էլեկտրոնային հասցեին։  </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>7/9/2020</t>
+          <t>1/5/2021</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -813,49 +813,49 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Խոհանոցի աշխատակից</t>
+          <t>Անվտանգության Աշխատակից</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Pizza Hut</t>
+          <t>Alpha Force Security</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Անհրաժեշտ են 20-40 տարեկան արական և իգական սեռի ներկայացուցիչներ Պիցցա Հաթի  մասնաճյուղում որպես խոհարար աշխատելու համար:  Պարտականություններ   Աշխատել հաստատագրված ստանդարտներով   Խստագույնս հետևել բոլոր սանիտարահիգիենիկ կանոններին   Խստագույնս հետևել մատուցվող սննդի որակին   Կատարել անմիջական ղեկավարի կողմից տրված հանձնարարականները  Պահանջներ  Աշխատանքային փորձը կդիտվի որպես առավելություն  Թիմում աշխատելու ունակություն և գործընկերների նկատմամբ հոգատարություն  Պատասխանատվության բարձր զգացում  Հավելյալ նշումներ  Հետաքրքրված թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին կամ դիմել նամակի միջոցով:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Պահանջվում է անվտանգության աշխատակից Պարտականություններ  Հանձնարարության համապատասխան աշխատանքների կատարում.  Անվտանգության ապահովում.  Պահպանել Կազմակերպության գույքը և ապահովել անվտանգ միջավայր Կազմակերպության աշխատակիցների և այցելուների համար.  Վերահսկել Կազմակերպության բոլոր մուտքերն ու ելքերը, ինչպես աշխատանքային, այնպես էլ ոչ աշխատանքային ժամերին.  Վերահսկել աշխատակիցների, այցելուների ելումուտը, կատարել գրանցումներ.  Վերահսկել շենքի կայանատեղին.  Կատարել անվտանգության պաշտոնից բխող այլ պարտականություններ:  Պահանջներ Սեռը՝ արական, Իգական Տարիքը՝ 22-60 տ.  Անվտանգության պաշտոններում կամ զինված ուժերում/ոստիկանությունում աշխատելու փորձ Ֆիզիկական լավ վիճակ, սպորտալյն պատրաստվածություն, առողջ ապրելակերպ, ցանկալի է առանց վնասակար սովորությունների  Շփման հմտություններ  Արագ կողմնորոշվելու ունակություն  Հանձնարարությունների անթերի կատարում, հրահանգներին հետևելու պատրաստակամություն - Ստրեսակայուն, լարված պայմաններում աշխատելու կարողություն  Բծախնդրություն, ճշտապահություն  Սահմանված ժամկետներում աշխատանքը կատարելու կարողություն , ծանրաբեռնված գրաֆիկով աշխատելու պատրաստակամություն  Անվտանգության օրենքների և տեխնիկական անվտանգության կանոնների ընդհանուր իմացություն - Հիմնական անվտանգության խնդիրները/պատահարները նկատելու և ուղղելու կարողություն, ինչպես նաև դրանց մասին անմիջապես զեկուցելու կարողություն  Վարորդական իրավունքի առկայություն  Ավտոմեքենա վարելու փորձը ցանկալի է  Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Հայաստանի տարբեր քաղաքներում.</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>1/4/2021</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>90,000-150,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Տնօրենի Օգնական</t>
+          <t>Վաճառքի բաժնի օպերատոր</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Timeter</t>
+          <t>Ice House</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Պարտականություններ  Հեռախոսազանգերի, Էլեկտրոնային փոստի կառավարում,  Հյուրերի և այցելուների հյուրասիրության կազմակերպում,Հյուրասիրությունների համար գնումների, գրասենյակային տեխնիկայի և պարագաների ձեռքբերմանև սպասարկման կազմակերպում,  Տնօրինության ուղղակի հանձնարարությունների կատարում և կազմակերպում։  Պահանջներ  Բարետես արտաքին  Գրասենյակային կամ հարակից աշխատանքային փորձառություն,  Հայերեն, ռուսերեն և անգլերենի վարժ տիրապետում  Համակարգչային գիտելիքներ (Office, Web, Mail),Ժամանակի կառավարման հմտություն, պատասխանատվության բարձր զգացում,  Հաղորդակցման հմտություններ  Գրագետ խոսք  Պարտաճանաչություն, արագագործություն և մարդկանց հետ շփման կարողություն՝ ինչպեսառերես, այնպես էլ հեռախոսով/նամակագրությամբ:  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունը աշխատանքի է հրավիրում իգական սեռի վաճառքի բաժնի օպերատորի: Պարտականություններ պատվերների համակարգում, գործընկերների մնացորդների ստուգում, պահեստային հաշվառում, ծրագրային գործառնությունների կարգավորում, գործընկերների աշխատանքային ցանկացած փաստաթղթի ճշգրիտ ապահովում: Պահանջներ Իգական սեռի Հայկական ծրագրեր` հաշվապահ, վաճառքի կառավարում - ծրագրերի իմացություն, excel-ի իմացություն/բանաձևերի տեղադրում/- ցանկանի է միջին կամ ավելի մակարդակի, արագ կողմնորոշվելու ունակություն, ճկունություն, աշխատանքային ճկունություն, թիմում աշխատելու ունակություն,  ստրեսակայունություն: Հավելյալ նշումներ Աշխատանքային օրեր և ժամեր. Երկուշաբթի-ուրբաթ` 08:30-18:00, Շաբաթ` 08:30-15:00: </t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -870,34 +870,34 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>200,000 դր - 400,000 դր</t>
+          <t>80,000</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Պանրի Տեխնոլոգ</t>
+          <t>Վարորդ (սեփական մեքենայով)</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Բերդ Կաթնամթերք</t>
+          <t>Ucom</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն   Բակտերիոլոգիական, քիմիական, ֆիզիկական և տնտեսագիտական սկզբունքների կիրառմամբ կաթի, պանրի և այլ կաթնամթերքի արտադրության, պահպանման և օգտագործման նոր և կատարելագործված մեթոդներ մշակում, ընդունված նորմերին համապատասխան կաթի վերամշակման գործընթացի իրականացում և վերահսկում, պաստերիզացման գործընթացի ճշգրիտ իրականացում:  Պարտականություններ  Պանրի արտադրության գործընթացի կառավարում:  Պանրի արտադրության կազմակերպում:  Ներկայացված հումքի հաշվառում:  Կաթի դասակարգում համաձայն կաթի որակի. Համապատասխան գիտելիք՝ որոշելու դրա պիտանելիությունը արտադրանքի համար, լաբորատոր հետազոտությունների և օրգանոլեպտիկների հիման վրա:  Կաթի նորմալիզացիայի ճշգրիտ հաշվարկում և իրականացում:  Տեխնոլոգիական ճշգրտության պահպանման և սարքավորումների պատշաճ աշխատանքի վերահսկում:  Թերի և անորակ արտադրանքի պատճառների վերլուծություն և կանխում:  Տեխնոլոգիական ստանդարտների, հրահանգների, մատյանների և այլ տեխնիկական փաստաթղթերի մշակում:  Արտադրանքի որակի վերահսկողության գործընթացի իրականացում:  Լոգարանների, պանրի արտադրության մեջ խցանման և պանրի վերամշակման վերահսկողություն:  Տեխնոլոգիական կորուստները նվազեցնելու գործընթացի մշակմում:  Մասնագիտական խորհրդատվության տրամադրում նոր ներդրվող պանրատեսակների արտադրության տեխնոլոգիական հարցերի վերաբերյալ:  Պահանջներ  Կրթություն համապատասխան ոլորտում:  Կաթի և պանրի կազմի ու ֆիզիկաքիմիական հատկությունների իմացություն:  Պանրի արտադրության տեխնոլոգիայի իմացություն  և փորձ (առնվազն 3 տարի):  Պանրի հնարավոր թերությունների և դրանց կանխարգելման մեթոդաբանության իմացություն:  Օգտագործվող հումքի և պանրի որակական պահանջների ճշգրիտ իմացություն:  Հավելյալ նշումներ  Հետաքրքրված թեկնածուները կարող են իրենց ինքնակենսագրականներն ուղարկել  էլ. հասցեին: Հարցազրույցի կհրավիրվեն միայն ընտրված թեկնածուները:  Հայտերի ներկայացման վերջնաժամկետ ՝ 2020 թվականի հուլիսի 10-ը։  ԸՆԿԵՐՈՒԹՅԱՆ ՄԱՍԻՆ:  2014 թվականին Տավուշի մազրի Բերդ քաղաքում հիմնադրված պանրի արտադրամասը սպառողներին է ներկայանում բարձրորակ, թարմ և էկոլոգիապես մաքուր արտադրանքով: Արտադրանքի հիմնական բաղադրիչ կաթը մթերվում է Տավուշի մարզի բարձրադիր գոտիներում արածող կենդանիներից, ալպյան մարգագետիններից, ինչի շնորհիվ արտադրանքն առանձնանում է իր հիանալի համային հատկանիշներով: 2018թ.-ին մշակվել է Բերդ Կաթնամթերք ապրանքանիշը, որով և արտադրանքը ներկայանում է շուկայում:Սոցիալական ուղղվածություն ունեցող Բերդ Կաթնամթերքը խթանում է սահմանամերձ Տավուշի և Գեղարքունիքի մարզերի ֆերմերային տնեսություններին՝ մշտապես համագործակցելով ավելի քան 150 կաթ մատակարարողների հետ:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ucom ընկերությունը փնտրում է մոտիվացված և եռանդուն վարորդի՝ սեփական Սեդան (թափքը ունիվերսալ) մակնիշի մեքենայով` Սյունիքի մարզում աշխատելու համար: Պարտականություններ Տրանսպորտային միջոցի վարում, Համապատասխան հաշվետվությունների ներկայացում՝ ընկերությունում հաստատված ներքին իրավական ակտերի համաձայն: Պահանջներ Միջնակարգ կրթություն, Աշխատանքային փորձ, Հայերեն և ռուսերեն լեզուների իմացություն, Ամրագրված տրանսպորտային միջոցի վարման վարորդական իրավունք՝ համապատասխան կարգերով: Հավելյալ նշումներ Ներկայացված պահանջներին համապատասխանող  թեկնածուները կարող են ուղարկել իրենց CV-ները նշված էլ. հասցեին։ </t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Ճամբարակ</t>
+          <t>Kapan</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>7/10/2020</t>
+          <t>1/3/2021</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -909,17 +909,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Chief Finance Officer</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Բերդ Կաթնամթերք</t>
+          <t>Galaxy Group of Companies</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Վաճառքի մենեջերն  աջակցում է շուկայի զարգացմանը, համակարգում և կոորդինացնում է վաճառքի թիմի աշխատանքը: Մշակում է կատարվող վաճառքի քաղաքականությունն ու վերահսկումը:  Պարտականություններ  Վաճառքի  մենեջերի պարտականությունները ներառում են վաճառքի բաժնի ընդհանուր համակարգումը, մասնավորապես՝  Ընկերության առևտրային գործունեության կազմակերպում, փոխգործակցություն ընկերության այլ ֆունկցիոնալ գերատեսչությունների հետ (գնումների բաժին, պահեստներ, առաքման բաժին և այլն):  Վաճառքի բաժնի ռազմավարական նպատակների և ծրագրերի մշակում:  Ամսական, եռամսյակային և տարեկան վաճառքի պլանավորման մշակում:  Վաճառքի արդյունքների վերաբերյալ հաշվետվության կազմում:  Գովազդային և շուկայավարման գործողությունների մշակում, կազմակերպում և համակարգում:  Ապրանքների վաճառքի պայմանագրերի կնքում: Ընկերության հաճախորդների համար առևտրայի պայմանագրերի հաստատում:  Վաճառքի բաժնի գործունեությունը կարգավորող փաստաթղթերի մշակում և իրականացում (ներառյալ անձնակազմը, աշխատանքի նկարագրությունները, աշխատանքային  ընթացակարգերը, վարձատրության մասին կանոնակարգը, աշխատողների հավաստագրման կանոնակարգը և այլն):  Իրացման ցանցի բարելավմանն ուղղված միջոցառումների մշակում և իրականացում, հաճախորդներին ապրանքների առաքման պատշաճ կազմակերպում, տրանսպորտային ծախսերի կրճատում, արտադրանքի ավելցուկային մնացորդների նվազեցուն:  Մասնակցություն գնագոյացման քաղաքականության ձևավորմանը և տեսականու մատրիցայի ձևավորմանը:  Հաճախորդների հետ  բանակցությունների վարում:  Հաճախորդների և հայտերի բաշխում վաճառքի մենեջերների միջև:  Պահանջներ  Բարձրագույն կրթություն տնտեսագիտության, բիզնեսի կառավարման, պետական ​​կառավարման, սոցիալական գիտությունների կամ հարակից առարկաներում:  Համապատասխան փորձ և ձեռքբերումներ՝ ծրագրերի և (կամ) շուկայի զարգացման կամ եկամտի և զբաղվածության վրա հիմնված ծրագրերի իրականացման, կառավարման և վերանայման մեջ:  Հարակից ոլորտներում աշխատանքային փորձ;  Ծրագրի կառավարման հմտություններ, բանակցություններ վարելու հմտություններ:  Հետազոտական ​​և վերլուծական հմտություններ ՝ գործնական ուղղվածությամբ,  Արագ կողմնորոշվելու ունակություն, խնդիրների լուծման հմտություններ,  Պատասխանատվության զգացում, թիմում արդյունավետ աշխատելու ունակություն:  Հաղորդակցման գերազանց հմտություն:  Գրավոր և բանավոր ռուսերեն  և անգլերեն լեզուների իմացություն;  Համակարգչային գրագիտություն ՝ Microsoft Office- ի ծրագրերով աշխատելու գործնական փորձով:  ՀՀ մարզեր ճանապարհորդելու հնարավորություն (ժամանակի առնվազն 50%):  Վարորդի վկայականի առկայություն:  ԴԻՄՈՒՄԻ ԸՆԴՈՒՆՄԱՆ ԿԱՐԳ`  Հետաքրքրված թեկնածուները կարող են իրենց ինքնակենսագրականներն ուղարկել: Հարցազրույցի կհրավիրվեն միայն ընտրված թեկնածուները:  Հայտերի ներկայացման վերջնաժամկետ ՝ 2020 թվականի հուլիսի 10-ը։  ԸՆԿԵՐՈՒԹՅԱՆ ՄԱՍԻՆ:  2014 թվականին Տավուշի մազրի Բերդ քաղաքում հիմնադրված պանրի արտադրամասը սպառողներին է ներկայանում բարձրորակ, թարմ և էկոլոգիապես մաքուր արտադրանքով: Արտադրանքի հիմնական բաղադրիչ կաթը մթերվում է Տավուշի մարզի բարձրադիր գոտիներում արածող կենդանիներից, ալպյան մարգագետիններից, ինչի շնորհիվ արտադրանքն առանձնանում է իր հիանալի համային հատկանիշներով: 2018թ.-ին մշակվել է Բերդ Կաթնամթերք ապրանքանիշը, որով և արտադրանքը ներկայանում է շուկայում:Սոցիալական ուղղվածություն ունեցող Բերդ Կաթնամթերքը խթանում է սահմանամերձ Տավուշի և Գեղարքունիքի մարզերի ֆերմերային տնեսություններին՝ մշտապես համագործակցելով ավելի քան 150 կաթ մատակարարողների հետ:                         </t>
+          <t xml:space="preserve"> Description Galaxy Group of Companies invites to apply for the position of Chief Finance Officer. Responsibilities Developing and managing financial systems/models; Undertaking strategic analysis and assisting with strategic planning of the Company; Tracking the company's financial status and performance to identify areas for potential improvement; Informing the Top management on the financial situation of the company and further development trends as well as on results of the financial operations; Managing and coordinating investment planning, providing pre and post-analysis and issuing recommendations; Responsible for the implementation of the financial policy of the company, as well as for overseeing both finance and accounting operations; Analyzing profitability based on detailed cost structures; Preparing forecasts and budget /business planning/ vs. actual analysis; Reviewing financial data and prepare monthly and annual reports; Supervising staff in both finance and accounting departments. Requirements Not less than 3 years of job experience in managerial positions in finance and accounting; Master’s Degree or equivalent in Economics/Accounting/Finance; Knowledge of Accountancy and Financial business processes and reporting standards, RA Tax Legislation, IFRS; Participation in construction projects preferred; Budgeting and budget management skills; Strong analytical skills; Strong managerial skills; Excellent written and verbal communication skills of Armenian and English, Russian is a plus; Conflict, stress and time management; Ability to achieve results and meet strict deadlines in an effective manner; Detail and result-oriented. Additional notes։ Interested candidates are kindly invited to send their resumes not later than December 25, 2020. Galaxy Group of Company is grateful to all interested applicants, but only shortlisted candidates will be invited for the interview. </t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -929,7 +929,7 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7/10/2020</t>
+          <t>12/25/2020</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -941,17 +941,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Փաստաբան</t>
+          <t>Գնումների մասնագետ</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ՄԻՊ ԻՀԿ</t>
+          <t>«Արաքս Թռչնաֆաբրիկա» ՓԲԸ</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությունը աշխատանքի/համագործակցության է հրավիրում որակավորված փաստաբանների` Վարչական ու քաղաքացիաիրավական բնագավառում աշխատանքային փորձով։  Պարտականություններ  1. ՀՀ դատարաններում և այլ պետական մարմիններում ներկայացուցչություն2. Հայցադիմումների և միջնորդությունների կազմում3. Դիմումների, հարցումների և պայմանագրերի կազմում  Պահանջներ  բարձրագույն (փաստաբանական դպրոց) կրթություն  աշխատանքային փորձը ցանկալի է  համակարգչային գիտելիքները պարտադիր է  լեզուների իմացությունը ցանկալի  Հավելյալ նշումներ  Աշխ. Ժամերը 10:00-18:00, շաբաթ և կիրակի հանգստյան օրեր։  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                          </t>
+          <t xml:space="preserve"> Նկարագրություն Ընկերությանն անհրաժեշտ է գնումների մասնագետ: Պարտականություններ Մատակարարների շուկայի վերլուծություն և մոնիթորինգ  Անհրաժեշտ ընկերությունների հետ կապերի հաստատում և պահպանում ինչպես տեղական, այնպես էլ միջազգային շուկայում  Անհրաժեշտ ապրանքների գնման պահանջների և առաջարկների մշակում  Ապրանքների պատվերների կազմակերպում  Պահանջներ Բարձրագույն կրթություն  Համապատասխան ոլորտում աշխատանքային փորձ  Վերլուծական մտածողություն  Արագ ընկալելու և կողմնորորշվելու կարողություն  Պատասխանատվության բարձր զգացում  Թիմում աշխատելու կարողություն  Համակարգչային գիտելիքներ՝ Word, Excel (1C ծրագրի իմացությունն կդիտվի որպես առավելություն)  Ռուսերեն և անգլերեն լեզուների գերազանց իմացություն: Հավելյալ նշումներ 5-օրյա աշխատանքային գրաֆիկ /շաբաթ, կիրակի հանգիստ/ Աշխատանքի վայրը՝ ք.Երևան, Շիրակի 43: </t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -961,29 +961,29 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/30/2020</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Կահույքի Չափագրող / Դիզայներ</t>
+          <t>Հաշվետար</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Եվրոշին ՍՊԸ</t>
+          <t>«Արաքս Թռչնաֆաբրիկա» ՓԲԸ</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագիր՝  Չժանգոտվող պողպատե և լամինատե կահույքի, ապրանքների արտադրությամբ զբաղվող կազմակերպությունը փնտրում է մասնագետներ:  Պահանջներ՝  Մասնագիտական ծրագրերի իմացություն ( AutoCad, ArchiCad, կամ այլ նախագծման ծրագրեր),  Մասնագիտական բարձր հմտություններ և գիտելիքներ,  Պատասխանատվության զգացում,  Ճշտապահություն, արագագործություն,  Առնվազն 1 տարվա աշխատանքային փորձ:  Պարտականություններ՝  Կահույքի տեղադրման տարածքի չափագրում  Կահույքի նախագծում համապատասխան ծրագրերով  Նոր լուծումների առաջարկում  Ապրանքատեսականու և առաջարկվող ծառայությունների վերաբերյալ խորհրդատվության տրամադրում հաճախորդներին  Աշխատանքային գծագրերի պատրաստում  Համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ. հասցեին:                         </t>
+          <t xml:space="preserve"> Նկարագրություն «Արաքս Թռչնաֆաբրիկա» ՓԲԸ-ն փնտրում է հաշվետարների: Պարտականություններ Կազմակերպության վաճառքների հետ կապված հարկային հաշիվների, հաշվարկային փաստաթղթերի ստեղծում, ձևակերպում ծրագրային բազաներում, իր աշխատանքի հետ կապված հաշվետվությունների ներկայացում անհրաժեշտ ստորաբաժանումներին  Դեբիտոր գործընկերների, առաքիչների պարտքերի վերահսկում, ճշտում, ինֆորմացիայի տրամադրում  Անհրաժեշտության դեպքում աջակցում կամ փոխարինում թիմակիցներին  Անմիջական ղեկավարի կողմից տրված հանձնարարությունները կատարել ճիշտ ժամկետներում  Պահանջներ Ստրեսակայունություն, մարդկանց հետ շփվելու կարողություն, արագ կողմնորոշվելու ունակություն  Մասնագիտական կրթությունը և աշխատանքային փորձը կդիտվի որպես առավելություն  MS Excel, MS Word ծրագրերին տիրապետում, 1C 7.7, 1C 8.2 և E-invoicing ծրագրերի իմացություն  Հաշվապահական հաշվառումը կանոնակարգող հիմնական օրենսդրության իմացություն  Հավելյալ նշումներ 6 -օրյա աշխատանքային գրաֆիկ, աշխատանքային ժամերը 07.00-15.00: Հասցե՝ ք.Երևան, Շիրակի 43: </t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -993,7 +993,7 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>7/26/2020</t>
+          <t>12/30/2020</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
@@ -1005,17 +1005,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Առաքիչ</t>
+          <t>Պրոեկտ մենեջեր</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ՋԻ Պեպսի-Կոլա Բոթլեր ՍՊԸ</t>
+          <t>Link Tour</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «ՋԻ Պեպսի-Կոլա Բոթլեր» Ընկերությանն անհրաժեշտ են առաքիչներ:  Պարտականություններ  Ստուգել բեռի և փաստաթղթերի համապատասխանությունը,  Կատարել օրվա երթուղին ըստ առաքման ցուցակի,  Ապահով տեղափոխել արտադրանքը և գույքը,  Առաքել արտադրանքը վաճառակետ, կազմակերպել բեռնաթափումը, ստանալ գումար,  Ստուգել ստորագրության և կնիքի պարտադիր առկայությունը փաստաթղթերի վրա, և այլն:  Պահանջներ  Բարձրագույն կամ միջնակարգ կրթություն  Աշխատանքային փորձը, որպես առաքիչ ցանկալի է,  Բեռնատար մեքենա վարելու առնվազն 3 տարվա փորձ,  BC կարգի վարորդական իրավունքի առկայություն:  Հավելյալ նշումներ  Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:                      </t>
+          <t xml:space="preserve"> Նկարագրություն «Լինկ Տուր» կազմակերպությունը փնտրում է փորձառու պրոեկտ մենեջերի: Պարտականություններ Պլանավորման և կազմակերպման աշխատանքների իրականացում, Նախագծերի իրականացման ընթացքի վերահսկողություն Իրականացնել իր պաշտոնից և մասնագիտությունից բխող այլ գործառույթներ Պահանջներ Բարձրագույն կրթություն Աշխատանքային փորձ տվյալ ոլորտում Անգլերենի գերազանց իմացություն Պատասխանատվության բարձր զգացում Հավելյալ նշումներ Ռեզյումեներն ուղարկել լուսանկարով: </t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1025,29 +1025,29 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>7/25/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>500,000</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Զանգերի կենտրոնի մասնագետ</t>
+          <t>Վաճառքի խորհրդատու</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AnyTime</t>
+          <t>Շինարարական ՍՊԸ</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Հրավիրում ենք զանգերի կենտրոնի մասնագետների՝ /իգական սեռ/ առաքման բաժնում աշխատելու համար:  Պարտականություններ  Պատվերների ընդունում և գրանցում համակարգում  Պատվերների անսխալ մուտքագրում  Պատասխանել հեռախոսազանգերին  Պահանջներ  Աշխատանքային փորձը ցանկալի է  Համակարգչային գիտելիքներ  Երևան քաղաքի փողոցների իմացություն  Ռուսերեն /անգլերեն լեզուների բանավոր իմացություն  Գրագետ հաղորդակցման և արագ սովորելու ունակություն  Թիմային աշխատանքին արագ հարմարվելու ունակություն  Հավելյալ նշումներ  Լրիվ աշխատանքային դրույք։  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:   Եթե ռեզյումեի կամ էլ.փոստով դիմելու հնարավորություն չունեք, կարող եք զանգահարել կազմակերպության էջում նշված հեռախոսահամարով:                         </t>
+          <t xml:space="preserve"> Նկարագրություն Խանութ-սրահում ներկայացված տեսականու վերաբերյալ ինֆորմացիայի լիարժեք տիրապետում և հաճախորդներին խորհրդատվության տրամադրում Պարտականություններ Հաճախորդների սպասարկում և վաճառքի իրականացում Օգնել հաճախորդին կողմնորոշվել, խթանել վաճառքը Բարեհամբույր սպասարկում Թիմային աշխատելու կարողություն Պահանջներ Բարձրագույն կրթություն Սպասարկման ոլորտում աշխատանքային փորձ Ճշտապահություն և պատասխանատվության զգացում Ռուսերենի և անգլերենի իմացությունը կդիտվի առավելություն  Հաղորդակցման և թիմային աշխատանքի հմտություններ Համակարգչային բազայի գիտելիքներ Հավելյալ նշումներ Աշխատանքային օրեր՝ Վեցօրյա Աշխատանքային ժամեր՝   09:00-19:00 Սեռ՝ արական Բնակության վայր՝ պարտադիր Երևան քաղաք </t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1062,24 +1062,24 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>100,000 + %</t>
+          <t>մինչև 200,000 ՀՀ դրամ</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Պահեստապետ</t>
+          <t>Վերահսկիչ</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Մեգա Շին ՍՊԸ</t>
+          <t>Երևան մոլ</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Մեգա Շին ՍՊԸ-ն փնտրում է պահեստապետ շինանյութի մեծածախ պահեստում։  Պարտականություններ  Ընդունել և հանձնել ապրանքը, կրելով նյութական պատասխանատվություն  Կատարել մեքենաների բարձումները համաձայն փաստաթղթերի  Պահպանել մաքրություն պահեստում  Ապահովել պահեստի աշխատակիցների արագ աշխատանքը  Կատարել գույքագրում յուրաքանչյուր 10 օրը մեկ անգամ   Պահանջներ  Շինանյութի ոլորտում 3 տարվա աշխատանքային փորձը պարտադիր է։   Համակարգչի իմացությունը ցանկալի է:  Հավելյալ նշումներ  Աշխ․ժամեր՝ Երկ․-Շաբաթ, ժ․9․00-18․00։  Պահեստի գտնվելու վայրը՝ ք․Երևան, Մալաթիա-Սեբաստիա համ․, Հաղթանակ թաղ․(4րդ գյուղ)                      </t>
+          <t xml:space="preserve"> Նկարագրություն Երևան մոլը փնտրում է  երիտասարդների իր թիմին միանալու համար Պարտականություններ Իրականացնել Երևան Մոլում տեղակայված մուտքերից ներս մտնող ընկերության աշխատակիցների, վարձակալող տարածքների/խանութների աշխատակիցների, հաճախորդների  ջերմաչափում,  Վերահսկել և կանխել առանց դիմակ հաճախորդների մուտքը մոլ Կատարել Երևան Մոլի միջանցքներում և վարձակալող տարածքներում/խանութներում անընդմեջ վերահսկողություն, որպեսզի հաճախորդները և աշխատակիցները կրեն դիմակներ: Կատարել կանխարգելիչ միջոցառումներին համապատասխան այլ գործառույթներ: Պահանջներ միջնակարգ, բարձրագույն աշխատանքային փորձը ցանկալի է  18-35 տարեկան  հաղորդակցման հմտություններ, պարտաճանաչ, ճկուն,Սթրեսային իրավիճակների կառավարման կարողություն,Պատասխանատվության զգացում և ուշադրություն Հավելյալ նշումներ Աշխատաժամանակ․ շաբաթական 6 օր, 6-ժամյա գրաֆիկ Պայմանագիր․ ծառայությունների մատուցման պայմանագիր Տևողություն․ ժամանակավոր Ցանկացողները կարող են ինքնակենսագրականներ ուղարկել (նկարով) նշված էլ. հասցեին: </t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1094,24 +1094,24 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>180,000</t>
+          <t>80,000</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Խորհրդատու Վաճառող</t>
+          <t>Hotel Receptionist</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Vape LLC</t>
+          <t>Дом Москвы</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  " Yerevan Vape " Վեյփ շոփը աշխատանքի է հրավիրում խորհրդատու-վաճառողների։  Պարտականություններ  Հմտորեն ներկայացնել  ապրանքատեսականին գնորդներին:  Օգնել գնորդին ապրանքի ընտրության հարցում:   խորհրդատվություն տալ խանութում վաճառվող ապրանքների տեսականու, դրանց սպառողական հատկանիշների և առանձնահատկությունների վերաբերյալ:  Պահանջներ  Անգլերեն և ռուսերեն լեզուների լավ իմացությունը պարտադիր է  Ճշտապահություն և պատասխանատվության զգացում  Սպասարկման ոլորտում աշխատանքային փորձը ցանկալի է   Վեյփինգի մասին իմացությունը կդիտվի որպես առավելություն  Հավելյալ նշումներ  Աշխատանքային օրեր՝ վեցօրյա աշխատանքային շաբաթ,11:00-16:00 կամ 16:00-21:00, մեկ օր հանգիստ ձեր ընտրությամբ:  Աշխատանքի դիմելիս խնդրում ենք պարտադիր ռեզյումեին կցել լուսանկար։  Դիմումների վերջնաժամկետն է հուլիսի 5-ը։                      </t>
+          <t xml:space="preserve"> Description Full-Time Basis – 4 or 5 days per week Benefits include paid holidays Required Qualifications:  University diploma or equivalent with at least one year of office experience; Proficient with electronic database systems and Microsoft Office Suite; Fluent knowledge of Russian, English and Armenian Professional appearance; Solid communication skills both written and verbal; Ability to be resourceful and proactive in dealing with issues that may arise; Ability to organize, multitask, prioritize and maintain poise in stressful situations. Excellent customer service required for this position. Candidate must be professional, courteous, detail-oriented, culturally competent and have strong organizational skills. Hotel Receptionist Duties and Responsibilities Greet and check-in hotel guests; Answer any questions or concerns of hotel guests Provide an outstanding guest experience Maintain an orderly front desk Operate computer programs and multi-line phone systems Maintain guest records and book reservations Complete basic cashier and bookkeeping responsibilities Contact necessary staff to solve problems when challenges arise, ensuring guest comfort TO APPLY: Submit a resume or CV and cover letter to the mentioned email. In your cover letter, provide three professional references with email addresses. This position is open until December 15, 2020. Position available starting December 1, 2020. </t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1121,29 +1121,29 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Part time</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>110,000 + %</t>
+          <t>100,000</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Գնումների Մասնագետ</t>
+          <t>Senior ASP.NET Web developer</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ԱԼՖԱ-ՖԱՐՄ ՓԲԸ</t>
+          <t>FlexAp (Flexible Applications CJSC)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «Ալֆա-Ֆարմ» Ընկերությունն աշխատանքի է հրավիրում գնումների մասնագետի, ով ապահովելու է Ընկերության ստորաբաժանումներին անհրաժեշտ ոչ կոմերցիոն (տնտեսական, գրասենյակային և այլն) ապրանքների գնման գործընթացը:  Պարտականություններ  Կազմակերպել Ընկերության աշխատանքների պատշաճ իրականացման համար անհրաժեշտ ապրանքների և ծառայությունների գնման գործընթացը,  Ստորաբաժանումներին ապահովել տնտեսական ապրանքներով, գույքով, համակարգչային տեխնիկայով,  Ղեկավարել գնումների գործընթացը` սկսած գնումների փաստաթղթերի նախապատրաստումից մինչև գործընթացի ավարտը և պայմանագրի ստորագրումը՝ համաձայն ՀՀ Գնումների մասին օրենքի,  Վերլուծել տարբեր ապրանքների և ծառայությունների շուկայական գները և ընտրել լավագույն տարբերակը,  Մշտապես ստուգել Ընկերության ապրանքային մնացորդը՝ անհրաժեշտության դեպքում այն համալրելու նպատակով,  Վարել բանակցություններ մատակարարների հետ, հետևել պատվիրված ապրանքների առաքման ժամկետների պահպանմանը,  Հաստատել և պահպանել կապեր գործընկերների հետ տեղական և միջազգային շուկայում, փնտրել նոր մատակարարներ,  Կատարված աշխատանքների հիման վրա ներկայացնել համապատասխան ֆինանսական հաշվետվություններ։  Պահանջներ  Բարձրագույն կրթություն տնտեսագիտության, ֆինանսների կամ հարակից այլ ոլորտում,  Գնումների ոլորտում աշխատանքային փորձը կդիտարկվի որպես առավելություն,  ՀՀ գնումների և հարկային օրենսդրության իմացություն,  Հաղորդակցության և միջանձնային շփումների, բանակցությունների վարման գերազանց կարողություններ,  Microsoft Office ծրագրերի իմացություն,  Հայերեն, ռուսերեն և անգլերեն լեզուների գերազանց իմացություն,  Կազմակերպչական հմտություններ՝ ժամանակի պլանավորման և վերջնաժամկետների պահպանման:  Հավելյալ նշումներ  Հետաքրքրված անձինք կարող են ուղարկել իրենց  ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Description Flexible Applications is looking for a  Senior ASP.NET Web developer. The candidate will work on different projects for our headquarter company located in USA ("AMGtime"). Highly competitive, based on the experience   Qualifications Higher education 5+ years of work experience in web development Strong understanding of object-oriented programming Expert knowledge of ASP.NET MVC, ASP.NET Core, C#, Entity Framework, .NET Framework, ADO.NET Expert knowledge of Ajax, JSON, JavaScript and/or jQuery, HTML/DOM/ CSS /Bootstrap  Knowledge of Database Technologies Knowledge of English is a plus Ability to continuously learn, work independently, and make decisions with minimal supervision Good communication and problem-solving skills   Additional information APPLICATION PROCEDURE: Interested candidates should send their resume (in Armenian or English) to the mentioned e-mail address. In the resume please include the desired wage. Only short-listed candidates will be contacted. No need to contact us by phone. </t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>7/25/2020</t>
+          <t>1/1/2021</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1165,17 +1165,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Հաշվետար Օպերատոր</t>
+          <t>Տնօրենի ռեֆերենտ</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>SOFT TRADE LLC</t>
+          <t>UKRGAZ</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  "Սոֆթ Թրեյդ" ՍՊԸ-ն աշխատանքի է հրավիրում հաշվետարի, նվազագույնը 1 տարվա աշխատանքային փորձով:  Պարտականություններ  Փաստաթղթերի հիման վրա հարկային հաշիվների էլեկտրոնային դուրսգրում  Ապրանքների տեղաշարժման փաստաթղթային վարումը պահեստների միջև   1C ծրագրի վարում՝ պատվերների գրանցում, ապրանքների մուտքագրում, դուրսգրում  Անմիջական ղեկավարի կողմից առաջադրված այլ հանձնարարությունների կատարում  Պահանջներ  Առնվազն 1 տարվա  աշխատանքային փորձ համանման բնագավառում  1 C ծրագրի  գերազանց տիրապետում  E-invoicing ծրագրի իմացություն  Համակարգչային գրագիտություն՝ Excel, Word ծրագրեր գերազանց տիրապետում  Պատասխանատվության զգացում  Մանրուքների նկատմամբ ուշադրություն  Հավելյալ նշումներ  Աշխատանքային օրեր՝ երկուշաբթի-շաբաթ, հանգստյան օր՝ կիրակի։  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Տնօրենի ռեֆերենտ Կազմակերպությունը աշխատանքի է հրավիրում 20-28 տարեկան բարետես արտաքինով իգական սեռի ներկայացուցչի։ Կազմակերպությունը գտնվում է Երևան քաղաքի Շենգավիթ համայնքում «Մետեքսիմ» մաքսային տերմինալի տարածքում: Ռեզյումեները պետք է պարունակեն ազատ ոճի 3-4 լուսանկար։ Պարտականություններ արտաքին կապերի կազմակերպում  հաշվետությունների կազմում կազմակերպության ներքին փաստաթղթաբանության կազմակերպում տնօրենի անմիջական հրահանգների կատարում  հաշիվների դուրսգրում դրամարկղի աշխատանքների կազմակերպում դրամական շարժի վերահսկում Պահանջներ բարձրագույն կրթություն աշխատանքային փորձը ցանկալի է հայերենի գերազանց իմացություն, անգլերերնի և ռուսերենի իմացություն , Word , Excel փայլուն իմացություն պարսկերենի և համակարգչային այլ ծրագրերի իմացությունը կդիտվի որպես առավելություն Հավելյալ նշումներ Աշխատանքային օրեր և ժամեր.  Երկուշաբթի - Ուրբաթ 09:00 -18:00 , Շաբաթ 10։00 - 15:00 Աշխատանքին դիմելու համար կարող եք Ձեր ինքնակենսագրականը (CV)  ուղարկել ընկերության էլեկտրոնային հասցեին։ </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1190,24 +1190,24 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>150,000-200,000</t>
+          <t>180000</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t>Գլխավոր հաշվապահ</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Շինարարական ՍՊԸ</t>
+          <t>Trans Alliance Ltd</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Շինարարական կազմակերպությանն անհրաժեշտ է շուկայի զարրգացման պատասխանատու 25 - 35 տարեկան։  Պարտականություններ  Կանոնավոր այցելություն վաճառակետեր,  Նոր վաճառակետերի ներգրավում,  Ապրանքատեսականու ներկայացում վաճառակետում,  Պատվերների գրանցում  Պահանջներ  Պարտադիր աշխատանքային փորձ,  Վարորդական իրավունքի առկայություն,  Աշխատանքային փորձը շինանյութի բնագավառում ցանկալի է:  Հավելյալ դրույթներ  Աշխատանքային գրաֆիկ՝ը 09։00 - 19։00, 6 օրյա աշխատանքային շաբաթ։  Աշխատավարձը՝ սկսած 250,000 - 350,000 դրամ։  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Նկարագրություն Ընկերությունը աշխատանքի է հրավիրում աշխատանքային փորձով գլխավոր հաշվապահի։ Պարտականություններ  Կառավարել ֆինանսական և ծախսերի հաշվառման գործընթացը  Ժամանակին ներկայացնել ամսական համախմբված ֆինանսական հաշվետվություններ  Պատրաստել և ներկայացնել հարկային և ֆինանսական հաշվետվություններ ՀՀ Հարկային տեսչությանը, ինչպես նաև պետական կամ տեղական ինքնակառավարման այլ մարմինների Ընկերության գործունեությանն առնչվող իր իրավասության մեջ մտնող այլ հանձնարարությունների կատարում Պահանջներ բարձրագույն կրթություն հաշվապահության, ֆինանսների,տնտեսագիտության կամ այլ հարակից ոլորտներում  նվազագույնը 3 տարվա աշխատանքային փորձ համապատասխան ոլորտում ՀԾ համակարգի իմացություն, MS Office- ի գերազանց իմացություն Ռուսերեն և անգլերեն լեզուների իմացություն ՀՀ ԿԲ վկայականի առկայություն Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1217,29 +1217,29 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>1/1/2021</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Սկսած 300,000 դրամից</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Ադմինիստրատոր</t>
+          <t>Դիսպետչեր</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Սմարտդենտ ՍՊԸ</t>
+          <t>Trans Alliance Ltd</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կենտրոն վարչական շրջանում գտնվող բարձրակարգ ստոմատոլոգիական կլինիկային անհրաժեշտ է բարձրագույն կրթությամբ, արագ կողմնորոշվող, պատասխանատու, բարեհամբյուր ադմինիստրատոր:   Պարտականություններ  պատասխանել հեռախոսազանգերին  կատարել պացիենտների գրանցում   կատարել գրասենյակային տարբեր աշխատանքներ  Պահանջներ  բարձրագույն կրթություն  աշխատանքային փորձը կդիտվի որպես առավելություն  պարտադիր հմտություններ․ համակարգչային գիտելիքներ /Microsoft Word, Excel/  ցանկալի հմտություններ․ ռուսերենի, անգլերենի իմացություն  Հավելյալ նշումներ  Աշխատանքային օրեր և ժամեր. ոչ լրիվ աշխատանքային գրաֆիկ:Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:  Խնդրում ենք ինքնակենսագրականի հետ ուղարկել նաև լուսանկար:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ընկերությունը աշխատանքի է հրավիրում առնվազն 1 տարվա աշխատանքային փորձ ունեցող դիսպետչերների՝ տերմինալում աշխատելու համար։ Պարտականություններ Իրականացնել դիսպետչեր/համակարգողի աշխատանքը Վերահսկել և կառավարել երթուղում գտնվող տրանսպորտային միջոցների շարժը Կազմել և ձևակերպել բեռնափոխադրման իրականացման համար անհրաժեշտ բոլոր փաստաթղթերը Պահանջներ Արական սեռ Բարձրագույն կրթություն Աշխատանքային փորձը պարտադիր է Արագ կողմնորոշվելու և ինքնուրույն որոշումներ կայացնելու ունակություն Թիմում աշխատելու ունակություն Պատասխանատու Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1249,7 +1249,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>7/25/2020</t>
+          <t>1/1/2021</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -1261,17 +1261,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Տնօրեն</t>
+          <t>Կառի վարորդ</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Jasmine Home</t>
+          <t>Trans Alliance Ltd</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Պահանջվում է տնօրեն` հանրախանութում աշխատելու համար:  Պարտականություններ  Սրահի դասավորվածության և խանութի ընդհանուր տեսքի վերահսկում   Խորհրդատու վաճառողուհիների , օպերատորների , գանձապահների և այլ աշխատակիցների աշխատանքի վերահսկում ,հարկ եղած դեպքում նոր աշխատակիցների ընդգրկում ,  հաճախորդների սպասարկման բարձր մակարդակի ապահովվում   Աշխատակիցների գրաֆիկների կազմում   Ընթացիկ այլ աշխատանքներ, կապված խանութի սպասարկման և ապրանքների հետ  Պահանջներ  աշխատանքային փորձը պարտադիր է   պարտադիր հմտությունները՝ անձնակազմի հետ ճիշտ շփման կարողություն   ցանկալի հմտությունները՝ լեզուների իմացություն   Հավելյալ նշումներ  Աշխատանքային օրեր և ժամեր․10:00-21:00․ շաբաթական 1 օր հանգիստ։  Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ընկերությունը աշխատանքի է հրավիրում առնվազն 1 տարվա աշխատանքային փորձով կառի վարորդների: Պարտականություններ Իրականացնել ավտոկառով բեռների տեղափոխում Պահանջներ Աշխատանքային փորձ Հաղորդակցվելու ունակություն Առնվազն միջնակարգ կրթություն ժամանակի կառավարման ունակություն Սթրեսային իրավիճակում աշխատելու ունակություն Հավելյալ նշումներ Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:   </t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1281,7 +1281,7 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>7/24/2020</t>
+          <t>1/1/2021</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -1293,17 +1293,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Վարորդ Առաքիչ</t>
+          <t>Բեռնատար կռունկավար (Крановщик)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>Trans Alliance Ltd</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Ընկերությունը  աշխատանքի է հրավիրում վարորդ-առաքիչների, ովքեր պատասխանատու են ընկերության Ford Transit և Mitsubishi Fuso մեքենայով ապրանքների ժամանակին վաճառակետեր առաքման համար:   Աշխատանքային պարտականություններ  Պահեստից ապրանքի ստացում, հաշվառում, մեքենայի մեջ տեղավորում  Նախատեսված վաճառակետեր առաքում  Պահանջվող որակավորում  Տարիքը 20-30 տարեկան      B C վարորդական կարգ  Աշխատանքային փորձը ցանկալի է:  Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ընկերությունը աշխատանքի է հրավիրում առնվազն 1 տարվա աշխատանքային փորձ ունեցող ավտոկռանի վարորդների Պարտականություններ Ապրանքների բեռնման-բեռնաթափման աշխատանքներ և փոխադրում  Վստահված սարքավորումների լավ վիճակի ապահովում  Պահանջներ Առնվազն միջնակարգ կրթություն աշխատանքային փորձ ժամանակի կառավարման ունակություն Սթրեսային իրավիճակում աշխատելու ունակություն Հավելյալ նշումներ Հետաքրքրված թեկնածուները կարող են դիմել` ուղարկելով ռեզյումե նշված էլ. հասցեին կամ դիմել նամակի միջոցով: </t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1313,29 +1313,29 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>1/1/2021</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>130,000 և ավել</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Պահպանության տեսուչ</t>
+          <t>Լոգիստ Մենեջեր</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>INECOBANK CJSC</t>
+          <t>ARMENIA AUTO IMPORT</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Հիմնական աշխատանքային պարտականություններ.   Բանկի գույքի, այդ թվում՝ դրամական միջոցների պահպանություն  Բանկի, այդ թվում նաև մասնաճյուղերի տարածքում տեղադրված սարքերի տեսաձայնագրման դիտարկում  Ներօբյեկտային և անցագրային ռեժիմի իրականացում  Արտակարգ իրավիճակներում համապատասխան գործողությունների իրականացում  Հաճախորդների հերթերի կարգավորման իրականացում   Պահանջվող որակավորում.     Կրթություն. Բարձրագույն կրթությունը ցանկալի է  Աշխատանքային փորձ. Առնվազն 1 տարվա համապատասխան աշխատանքային փորձը պարտադիր է     Գիտելիքների բնագավառներ.  ՀՀ քաղաքացիական և քրեական օրենսդրության իմացություն   Գործարար որակներ և անձնական հատկանիշներ.  Կոնֆլիկտային իրավիճակերի լուծման և կանխման ունակություն  Լսելու, բանավոր և գրավոր հաղորդակցվելու կարողություն  Առողջ դատելու ունակություն  Կոորդինացում և վերահսկողություն   Այլ հմտություններ.  Հայերեն լեզվի գերազանց, ռուսերեն լեզվի լավ  իմացություն   Դիմելու ընթացակարգ.  Հետաքրքրված անձինք դիմելու համար կարող են սեղմել «Լրացնել դիմում հայտ» կոճակը և լրացնել այն մինչև ս.թ. հուլիսի 24-ը:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունը աշխատանքի է հրավիրում լոգիստիկայի ոլորտում հետաքրքրված  անձանց:Եթե ցանկանում եք աշխատել մեր թիմում, ապա կարող եք համարձակորեն դիմել:Աշխատանքը նախատեսված է նաև ուսանողների համար, այնպես որ տարիքային սահմանափակումներ չկան: Եթե ցանկանում ես բացահայտել ամենաբազմազան ոլորտներից մեկը՝ Բեռնափոխադրումները/Լոգիստիկան, այն էլ ամերիկյան կազմակերպությունում, ապա աշխատանքի այս հրավերը հենց քեզ համար է... Փորձաշրջանի տևողությունն է 10  օրՓորձաշրջանի ավարտից հետո վարձատրությունը պայմանագրային է  Պարտականություններ Լոգիստիկ ընդհանուր գործառույթների կազմակերպում և վերահսկում Համագործակցող ընկերությունների հետ կապի պահպանում  Վարորդների հետ կապի պահպանում  Վաճառքի հետ կապված գործառույթներ Պատվերների բեռնափոխադրման գործընթացների կազմակերպում Նամակագրություն և հեռախոսային կապի հաստատում գործընկեր կազմակերպությունների հետ Պայմանագրերի և այլ անհրաժեշտ փաստաթղթերի պատրաստում Պահանջներ Աշխատանքային փորձը պարտադիր  չէ Համակարգչային գրագիտություն Անգլերեն և ռուսերեն լեզվուների վարժ հաղորդակցման մակարդակ Ակտիվ լսելու ունակություն Նախաձեռնություն վերցնելու և անկախ աշխատելու ունակություն Հավելյալ նշումներ Աշխատանքային ժամերն են․ երկուշաբթի- ուրբաթ  17:00-01:00։ </t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1345,29 +1345,29 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>7/24/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>150,000-650,000</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Մերչենդայզեր</t>
+          <t>Կահույքի դիզայներ</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cube Group LLC</t>
+          <t>՛ԿԱ ԸՆԴ ԿԱ՛ ՍՊԸ</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Աշխատանքն իրենից ներկայացնում է նախապես տրամադրված երթուղիներով շրջում, գործընկեր խանութներում առկա ապրանքների դասավորվածության ստուգում, խնդիրների բացահայտում և լուծում։   Աշխատանքի համար դիմողների սեռը՝  իգական  Տրանսպորտային միջոցի առկայությունը պարտադիր է։  Պարտականություններ  ապրանքի պահանջարկի, նպատակային սեգմենտը, սեզոնայնությունը և վաճառքի մակարդակի վրա ազդող այլ գործոնների ուսումնասիրություն   վաճառքի կետերի ձևավորում և պահպանում  վաճառքի կետերում ապրանքների մնացորդների կառավարում   վերլուծելով արտադրանքի մրցունակությունը և, հիմք ընդունելով կատարված եզրակացությունները, վաճառքների բարելավում  Վաճառքների արդյունքների վերաբերյալ հաշվետվությունների կազմում  Պահանջներ  առևտրի ոլորտը կարգավորող գործող օրենսդրության իմացություն  մարքեթինգի և կառավարման հիմնական սկզբունքների, գովազդի տեսակների և ապրանքների վաճառքների խթանման մեթոդների իմացություն   հոգեբանության և հաճախորդի վարքի առանձնահատկությունների իմացություն   վաճառվող ապրանքների հիմնական բնութագրերի և գների իմացություն   սոցիոլոգիայի, տնտեսագիտության, հոգեբանության և էթիկայի հիմունքների իմացություն   տրանսպորտային միջոցի առկայություն  Հավելյալ նշումներ  Լրիվ աշխատանքային օր:  Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն «ԿԱ ԸՆԴ ԿԱ» ՍՊԸ-ն աշխատանքի է հրավիրում կահույքի դիզայների: Պարտականություններ Իրականացնել կահույքի նախագծեր և հասցնել ավարտական տեսքի Մասնակցել տարբեր նախագծերի և ներկայացնել դիզայներական լուծումներ  Հասկանալ Նախագծերը և դրանց կոնցեպցիան  Օգտագործել տարբեր համակարգչային ծրագրեր (METRON, AutoCAD, 3D Max և այլն) մոդելներ, նախագծեր ստանալու համար  Ներկայացնել կրեատիվ գաղափարներ նախագծերը ավելի լավացնելու համար Իրականացնել թիմային աշխատանք նախագիծը վերջնական տեսքի բերելու համար Խորհրդատվություն Պահանջներ Բարձրագույն կրթություն METRON, AutoCAD, 3D MAX, ծրագրերի իմացություն Աշխատանքային փորձը պարտադիր չէ Հավելյալ նշումներ Աշխատանքային օրեր` երկ.-շաբ., Ժամեր`9:30-19:00 </t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1382,24 +1382,24 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Ֆիքսված և բոնուսային</t>
+          <t>Գործարքային</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1C Մասնագետ (8.3 ծրագիր)</t>
+          <t>Մարքեթինգի Մենեջեր</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Շինարարական ՍՊԸ</t>
+          <t>Ռայթ Ինվեստ ՍՊԸ</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Ընկերությունն աշխատանքի է հրավիրում կազմակերպված, պատասխանատու, ուշադիր  1C ծրագրի իմացությամբ մասնագետի:  Հասցե ՛ 1/ք. Երևան, Ջրվեժ,  պաշտպանության նախարարության մոտ :  Հասցե՝ 2/ ք. Երևան, Էրեբունի, Արցախի փող.:  Պարտականություններ  1C 8.3 ծրագրի վարում /ապրանքների մուտքագրում, դուրսգրում   Պատվիրված ապրանքների համակարգչային ծրագրերի միջոցով դուրսգրում ՝ վաճառք  Անհրաժեշտ փաստաթղթաշրջանառության վարում  1C 8.3 ծրագրի ծրագրավորողներին ծրագրային գործընթացի հստակ դիրքորոշման պահանջի ներկայացում   Աշխատանքային ժամերը 09:00-19:00 Վեցօրյա աշխատանքային գրաֆիկով  Աշխատավարձը` 220 000-250 000 AMD  Պահանջներ  Բարձրագույն կրթություն (ցանկալի է՝ տնտեսագիտության, ֆինանսների կամ հաշվապահության, տեղեկատվական տեխնոլոգիաների ոլորտներում)  1С 8.3 ծրագրի գերազանց իմացություն  Աշխատանքային փորձ  Համակարգչային գիտելիքներ՝ MS Office ծրագրային փաթեթի իմացություն (հատկապես՝ MS Excel)  e-Invoicing ծրագրի իմացություն  Նույնատիպ աշխատանքի առնվազն 3 տարվա փորձ  Կարգապահություն, ուշադրություն, պատասխանատվության բարձր զգացում  Թիմում աշխատելու ունակություն  Հավելյալ նշումներ  Դիմելու համար անհրաժեշտ է ուղարկել ռեզյումեն նշված էլ.հասցեին:                      </t>
+          <t xml:space="preserve"> «Մոշն Թայմ» գովազդային ընկերությունը փնտրում է փորձառու մարքեթինգի մենեջերի, ով պատասխանատու կլինի կազմակերպության մարքեթինգային գործունեության կազմակերպման, զարգացման համար՝ պոտենցիալ հաճախորդներին ներգրավելու և նրանց լոյալությունն ապահովելու նպատակով: Աշխատանքային պարտականություններ՝ Իրականացնել  մարքեթինգային հետազոտություններ և կազմակերպել վաճառքի խթանմանն ուղղված միջոցառումներ, Մշակել և ներդնել Ընկերության ծառայությունների առաջխաղացման ուղիներ, Ուսումնասիրել սպառողների նախասիրությունները, դրանց հիման վրա կատարել հետազոտություն, ինչպես նաև հավաքագրել և տրամադրել անհրաժեշտ տեղեկատվություն, Մասնակցել վաճառքների պլանավորման աշխատանքներին՝ վաճառքի բաժնի հետ համատեղ, ըստ հաճախորդների սեգմենտների, հիմնական ծառայությունների, Վարել բանակցություններ գովազդային ընկերությունների հետ, կազմակերպել գովազդային արշավներ, Հետևել ընկերության կայքի, սոցիալական ցանցերում ընկերության էջերի վարմանը, թարմացմանը, նպաստել դրանց առաջխաղացմանը, Մշակել և համակարգել է պրոմո-խորհրդատվությանն ուղղված գործառույթները: Պահանջվող որակավորում և հմտություններ` Բարձրագույն կրթություն մարքեթինգի ոլորտում ցանկալի է, Համապատասխան ոլորտում աշխատանքային փորձ, Սոցիալական կայք - էջերի վարման փորձառությունը, կայքի օպտիմիզացիան և առաջխաղացումը ցանկալի է, SEO գործիքների բազային իմացությունը, ինչպիսին են՝ Google Analytics, Google Adwords, Webmaster, HTML, CSS, ցանկալի է, Facebook, Twitter, Instagram, Tumblr, Youtube, Pinterest, Linkedin, Google + լավ իմացությունը ցանկալի է, Հաղորդակցության գերազանց հմտություններ, Թիմում աշխատելու հմտություններ, Հայերեն, անգլերեն և ռուսերեն լեզուների իմացությունը ցանկալի է, Microsoft Office ծրագրերի լավ իմացություն: «Մոշն Թայմ» գովազդային ընկերությունն իր աշխատակիցներին առաջարկում է՝ կայուն աշխատանք, մրցունակ աշխատավարձ հիմնված մասնագիտական գիտելիքների, փորձի և աշխատանքի կատարողականի արդյունքների վրա, մասնագիտական աճի (որակավորման բարձրացման դասընթացներ) և կարիերայի անընդհատ զարգացման հնարավորություններ: Աշխատավարձը պայմանագրային՝ կախված հմտություններից և փորձից: Համապատասխան թեկնածուները կարող են իրենց ինքնակենսագրականներն ուղարկել նշված էլ. հասցեին։ </t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1414,24 +1414,24 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>220 000-250 000</t>
+          <t>Պայմանագրային՝ կախված հմտություններից և փորձից</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Պահեստի Օպերատոր</t>
+          <t>Խոհարարի օգնական</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>Արտաշի մոտ</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Փնտրում ենք պահեստի օպերատորի, ով պատասխանատու կլինի  պատվիրված ապրանքները համակարգչային ծրագրերի միջոցով  պահեստից դուրսգրման և դրա հետ կապված  փաստաթղթաշրջանառության ապահովման համար:  Պարտականություններ  Վերադարձ արված ապրանքների մուտքագրում 1C ծրագիր, ​  Ժամկետնանց ապրանքների մուտքագրում 1C ծրագիր, ​   Պահեստի մնացորդի վերահսկում, ​  Պահեստի ելքի և մուտքի փաստաթղթավորման նկատմամբ  վերահսկողություն, ​  Հաշվետվությունների կազմում և ներկայացում համապատասխան բաժիններ,  Անմիջական ղեկավարի կողմից տրված այլ  հանձնարարությունների կատարում:  Հմտություններ  Բարձրագույն կրթություն, ​  Տարիքը` մինչև 35 տարեկան  Հայերեն և ռուսերեն լեզուների գերազանց իմացություն, ​  Համակարգչային գիտելիքներ /MS office/, ​  1C ծրագրի վարժ տիրապետում, ​  Նվազագույնը 3 ամսվա համանման աշխատանքային փորձ, ​  Լարված իրավիճակում աշխատելու, ինքնուրույն որոշումներ  կայացնելու ունակություն:   Հավելյալ նշումներ  Աշխատանքային օրերը՝  երկուշաբթի-շաբաթ, 09:00-18:00:  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Նկարագրություն Փնտրում ենք խոհարարկ օգնական "Արտաշի մոտ" ռեստորանի համար՝ արական սեռի։  Պարտականություններ Իրականացնել օրվա ընթացքում անհրաժեշտ քանակությամբ մթերքի նախնական մշակումը Իրականացնել ընթացիկ ընդունված պատվերի պատրաստումը, Կատարել խոհարարի այլ հանձնարարություններ    Պահանջներ 20-35 տարեկան ստեղծագերծական միտք Արագ կողմնորոշվելու ունակություն Հավելյալ նշումներ Հետաքրքրված թեկնածուները կարող են դիմել` ուղարկելով ռեզյումե նշված էլ. հասցեին կամ դիմել նամակի միջոցով: Եթե ռեզյումեի կամ էլ.փոստով դիմելու հնարավորություն չունեք, կարող եք զանգահարել կազմակերպության էջում նշված հեռախոսահամարով: ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար տարբերակներից: Հետևե՛ք հղմանը </t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1441,61 +1441,61 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/30/2020</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>100,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Շուկայի զարգացման պատասխանատու /ք. Գյումրի/</t>
+          <t>Բանվոր - Առաքիչ</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Premier Foods LLC</t>
+          <t>ՅՈՒՆԻՓՈՒԼ ՍՊԸ</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          “Պրեմիեր Ֆուդս” ընկերությունը փնտրում է ակտիվ և պատասխանատվության բարձր զգացումով շուկայի զարգացման պատասխանատուներ քաղաք Գյումրիում:  Պարտականություններ՝  Նոր հաճախորդների ներգրավում,  Վաճառակետերում ապրանքի ներկայացում և պատվերների ընդունում,  Հաճախորդների հետ գործարար հարաբերությունների հաստատում և պահպանում,  Վաճառակետերում ամբողջ տեսականու առկայության վերահսկում և ապրանքի դասավորվածության ապահովում,  Վաճառակետերում գովազդային նյութերի արդյունավետ օգտագործում,  Պատվերների մատակարարման արդյունավետ իրականացման վերահսկում:  Պահանջներ՝  Համապատասխան աշխատանքային փորձը և վաճառքի հմտությունների տիրապետումը ցանկալի է,  Հաղորդակցման գերազանց հմտություններ,  Արագ կոմնորոշվելու, հաշվարկներ կատարելու կարողություն,  Հաճախորդներ ներգրավելու, բանակցելու աշխատանքային փորձ,  Անձնական մեքենայի առկայությունը պարտադիր է:  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:   </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունն առաջարկում է բանվոր-առաքիչի աշխատանք` շինարարական ընկերության պահեստում և խանութ-սրահում: Պարտականություններ ապրանքների բեռնաթափում առաքում պահեստից խանութ առաքում պատվիրատուներին Պահանջներ տարիքը՝ 22-40 տարեկան  կրթությունը՝ միջնակարգ պարտադիր հմտությունները՝ մեքենայի վարում /B կարգ/ Հավելյալ նշումներ Աշխատանքային օրեր և ժամերը՝ երկուշաբթի-ուրբաթ 10:00-19:00, շաբաթ 10:00-18:00: Ուղարկել CV նշված էլ. փոստին:   ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար տարբերակներից: Հետևե՛ք հղմանը </t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Gyumri</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>7/22/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>130,000 ՀՀդրամ+պարգևատրում</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Անշարժ Գույքի Գործակալ</t>
+          <t>Բժշկական ներկայացուցիչ</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Alex-R</t>
+          <t>job.am Գործընկեր Կազմակերպություն</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Ալեքս-Ռ ընկերությունը աշխատանքի է հրավիրում անշարժ գույքի գործակալների։  Պարտականություններ  Անշարժ գույքի լուսանկարում, ինֆորմացիայի տրամադրում,  Անշարժ գույքի ցուցադրություններ,  Առուվաճառք և վարձակալություն,  Խորհրդատվություն անշարժ գույքի վերաբերյալ:  Պահանջներ  Մեքենա վարելու ունակություն,  Համակարգչից վարժ օգտվելու ունակություն,  Թիմային աշխատանքի հմտություններ,  Հաճախորդների հետ շփման, արագ կողմնորոշման ունակություն,  Բանակցային հմտություններ,  Աշխատասիրություն,  Բարձրագույն կրթությունը ցանկալի է։  Հավելյալ նշումներ  Աշխատավարձը՝ նախնական շրջանում աշխատավարձ + գործարքային %։  Դիմելու համար ուղարկե՛ք Ձեր CV-ն (լուսանկարով) նշված էլ․ փոստին:                         </t>
+          <t xml:space="preserve"> Դեմի Ֆարմ  ՍՊԸ փնտրում է բժշկական ներկայացուցիչ- պրոդուկտ մենեջեր, ով պատասխանատու կլինի բժիշկների և դեղատան աշխատակիցների շրջանում կազմակերպության դեղորայքի մասին իրազեկեկության բարձրացման համար: Պարտականություններ՝ Պարբերաբար այցելել բժիշկներին և դեղատան աշխատակիցներին Երևանում և մարզերում Իրականացնել մարքեթինգային տարբեր միջոցառումներ Որակավորում՝ Բարձրագույն կրթություն տվյալ ոլորտում Հայերեն, ռուսերոն լեզուների գերազանց իմացություն Անգլերենի իմացությունը խրախուսվում է Համակարգչային ծրագրերի իմացություն Ընդհանուր բժշկական գիտելիքներ Դիմել՝ Խնդրում ենք համապատասխան թեկնածուներին ուղարկել իրենց կենսագրականը և լուսանկարը նշված էլ հասցեին։     </t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1505,29 +1505,29 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/30/2020</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>140,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Վաճառքի պատասխանատու</t>
+          <t>Կահույքի չափագրող դիզայներ</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Արփի Սոլար ՍՊԸ</t>
+          <t>IMEX GROUP Co. LTD</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Արփի Սոլարը փնտրում է վաճառքի պատասխանատուներ՝ արևային համակարգերի վաճառքի թիմը համալրելու նպատակով.  Պարտականություններ  Ընկերության ապրանքների ու ծառայությունների ներկայացում հաճախորդներին  Պատվերների ընդունում և գրանցում  Հաճախորդների հետ հետադարձ կապի ապահովում  Նոր հաճախորդների ներգրավում  Պահանջներ  Պատասխանատու և պարտաճանաչ մոտեցում աշխատանքին  Հաղորդակցման և բանակցություններ վարելու բավարար հմտություններ  Վաճառքի ոլորտում փորձառություն (կդիտվի որպես առավելություն)  Արական սեռ  22-35 տարեկան  Առավելություններ  Անվճար ուսուցում և վերապատրաստում  Ձևակերպում ըստ աշխատանքային օրենսգրքի  Հարուստ աշխատանքային փորձ  Աշխատում ենք  5 օր, ժամը 09:00-18:00                      </t>
+          <t xml:space="preserve"> Նկարագրություն «Իմէքս Գրուպ» ՍՊԸ-ն իր պրոֆեսիոնալ թիմը համալրելու նպատակով փնտրում է մոտիվացված, եռանդուն  և  հետաքրքիր լուծումներ առաջարկող կահույքի չափագրող դիզայների։ Պարտականություններ Կահույքի չափագրում և  նախագծում համապատասխան ծրագրերով Կրեատիվ կոնցեպտների մշակում Նախահաշվի կազմում և ներկայացում արտադրության ղեկավարին Խորհրդատվության տրամադրում հաճախորդներին  ապրանքատեսականու և առաջարկվող ծառայությունների վերաբերյալ Պահանջներ Բարձրագույն մասնագիտական կրթություն (ճարտարապետություն, դիզայն եվ այլն) Առնվազն 1 տարվա համապատասխան փորձ Մասնագիտական ծրագրերի իմացություն ( AutoCad, ArchiCad, կահույքի նախագծման ծրագրեր) Ստեղծագործական մտածողություն և խնդիրներ լուծելու կարողություն Ժամանակի կառավարման հմտություն Վարորդական իրավունքի առկայություն Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1537,29 +1537,29 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/30/2020</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>250.000 դր</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Վաճառող</t>
+          <t>Կորպորատիվ Վաճառքի Մասնագետ</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Ստալկեր ՍՊԸ</t>
+          <t>GSS LLC</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Պահանջվում է վաճառող(ուհի)  "EIFFEL" ժամացույցների խանութ սրահում աշխատելու համար:  Պարտականություններ  Ապրանքների ներկայացում և խորհրդատվություն  Վաճառքի իրականացում   Սպասարկման հմտություններ  Պատասխանատու մոտեցում ժամացույցների և գումարների նկատմամբ  Պահանջներ  կրթություն՝ բարձրագույն  աշխատանքային փորձը ցանկալի է  պարտադիր հմտություններ՝ գրագիտություն և համբերատար մոտեցում հաճախորդներին  ցանկալի հմտություններ՝ լեզուների իմացություն, հատկապես Ռուսերենի և Անգլերենի  Հավելյալ նշումներ  Աշխատանքային գրաֆիկը՝ շաբաթական 6 օր, աշխատանքային ժամերը ՝10:00-20:00:Ինքնակենսագրականները (նկարով պարտադիր) ուղարկել նշված էլեկտրոնային հասցեին:                      </t>
+          <t xml:space="preserve"> "GSS" ԸՆԿԵՐՈՒԹՅՈՒՆԸ ԱՇԽԱՏԱՆՔԻ Է ՀՐԱՎԻՐՈՒՄ ԿՈՐՊՈՐԱՏԻՎ ՎԱՃԱՌՔԻ ՄԱՍՆԱԳԵՏԻ։  ԱՇԽԱՏԱՆՔԻ ՆԿԱՐԱԳՐՈՒԹՅՈՒՆ՝  Պոտենցիալ հաճախորդների հետ բանակցություններ Գործարար կապերի ստեղծում և զարգացում ներկա և պոտենցյալ հաճախորդների հետ  Հաճախորդների կարիքների, խնդիրների և հետաքրքրությունների ուսումնասիրում  ԱՆՀՐԱԺԵՇՏ ՀՄՏՈՒԹՅՈՒՆՆԵՐ`  Բարձրագույն մասնագիտական կրթություն Աշխատանքային փորձը` առնվազն 5 տարի  Գրագետ խոսք  Բիզնես գրագրություն  Մաթեմատիկական գիտելիքներ  Արդյունավետ բանակցելու և հաղորդակցվելու հմտություն  Թիմում աշխատելու ունակություն, պատասխանատվության բարձր զգացում MS Office ծրագրային փաթեթի գերազանց իմացություն (Word, Excel, Power point) Հայերենի գերազանց իմացություն  Ռուսերեն և անգլերեն լեզուների լավ իմացություն Տարբեր գադջետներից օգտվելու կարողություն Գործուղումների մեկնելու պատրաստակամություն  Մեքենայի առկայությունը պարտադիր է ԼՐԱՑՈՒՑԻՉ ՏԵՂԵԿՈՒԹՅՈՒՆ`  Աշխատանքը ծանրաբեռնված է, ուստի թեկնածուն պետք է ունենա ճնշման տակ աշխատելու  ունակություն: Աշխատանքային գրաֆիկը կանոնակարգված չէ:  Կարող են դիմել  25 տարեկանից բարձր կանայք և տղամարդիկ:  Առանց լուսանկարի CV-ները չեն դիտարկվում: Ազատ ոճի լուսանկարներով CV-ները ևս չեն դիտարկվում: Հետաքրքրված թեկնածուները կարող են դիմել մինչև դեկտեմբերի 31-ը: Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -1574,56 +1574,56 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Պայմանագրային</t>
+          <t>400.000դր և ավելի</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Full Stack JS Developer</t>
+          <t>Թվային հաստոցների սպասորկող</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Umath Ltd</t>
+          <t>ԱՌԴ Գլոբալ</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Description  We are thrilled to announce a full-time JavaScript Engineer position in Umath, a London-based startup operating in the Education Technology industry. The work is fully remote and there is some flexibility in working hours.   Responsibilities  Maintenance and ongoing development of features in a mobile application   Collaboration with the founder's team and the education team  Development of web applications and a lot of multitasking  Requirements  Deep understanding of core JavaScript  Experience with React Native, Node.js, React.js  Experience with MySQL and MongoDB  Familiarity with Latex related libraries is preferred, but not essential  AWS experience is preferred  English language proficiency is expected   Additional Notes  The applications are running on rolling bases, so please apply the earliest possible.                      </t>
+          <t xml:space="preserve"> Նկարագրություն ԱՌԴ Գլոբալին անխրաժեշտ են մասնագետ /մասնագետներներ, որոնք կսպասարկեն թվային կտրող, տպող սարքերը. Պարտականություններ Անհրաժեշտ է կատարել  սարքերի տեխնիկական սպասուրկում, խնդիրների դեպքում, հասկանալ անսարքության պատճառը և շտկել այն:Սարքավորումները հետևյալն են. Ֆրեզերային կտրող հաստոցներ,  լազերային կտրող հաստոց լազերային գունավոր պրինտեր լայնաֆորմատ պրինտերներ, կտրող գիլիոտինա և այլն Հավելյալ նշումներ Մասնագետը պետք է ներկայանան աշխատանքի ըստ նախապես հաստատված գրաֆիկի, ոչ ամեն օր: Նաև այն օրերին, երբ կառաջանան խնդիրներ:Կարող են դիմել նաև այս բնագավառում մասնագիտացված կազմակերպությունները: </t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>7/7/2020</t>
+          <t>12/29/2020</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>Fixible schedule</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Զանգերի կենտրոնի մասնագետ</t>
+          <t>Վաճառող Խորհրդատու</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Անի պլյուս առաքում</t>
+          <t>Sacvoyage store</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Առաջարկում ենք հեռախոսավարհուհու աշխատանք՝ զանգերի կենտրոնում:  Պարտականություններ   Պատվերների ընդունում և գրանցում համակարգում  Պահանջներ  բարձրագույն կրթություն  աշխատանքային փորձը կդիտվի առավելություն   պարտադիր հմտություններ՝ արագ  կողմնորոշվելու և քաղաքավարի հաղորդակցվելու ունակություն, պարտաճանաչություն,թիմային աշխատանքին արագ հարմարվելու ունակություն  Անգլերեն և ռուսերեն լեզուների բանավոր իմացություն   </t>
+          <t xml:space="preserve"> Սակվոյաժ խանութ-սրահին անհրաժեշտ է փորձառու Վաճառող-խորհրդատու, որը պատասխանատու կլինի պայուսակների և կաշվե աքսեսոաւրների ներկայացման և վաճառքի համար: Հիմնական պարտականությունները` Ներկայացնել և վաճառել ապրանքները հաճախորդներին Տրամադրել անհրաժեշտ խորհրդատվություն ապրանքների վերաբերյալ Ապահովել հաճախորդների բարձրակարգ սպասարկում Պահանջվող հմտությունները` Բարձրագույն կրթություն Աշխատանքային փորձի առկայություն (առնվազն 1 տարի) Հայերեն, ռուսերեն և անգլերեն լեզուների գերազանց իմացություն Հազորդակցվելու և թիմային աշխատանքի հմտություններ Դիմելու համար խնդրում ենք ուղարկել Ռեզյումեն և Նկարը նշված էլ. հասցեին: </t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1633,29 +1633,29 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/28/2020</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>100,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Հաշվապահի օգնական</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>"Մեհրաբյան և որդիներ" ՍՊԸ</t>
+          <t>Canapea Catering</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «Մեհրաբյան և որդիներ» ՍՊ ընկերությունն աշխատանքի է հրավիրում հաշվետարի` 1C ծրագրի պարտադիր իմացությամբ:  Պարտականություններ  Ապրանքների գների մուտքագրում և ելքագրում 1C և անհրաժեշտության դեպքում փոփոխություն,  Պահեստային մնացորդի ծրագրային վերահսկում,  Անհրաժեշտ փաստաթղթաշրջանառության վարում և հաշվետվությունների կազմում,  Անմիջական ղեկավարի կողմից այլ հանձնարարությունների կատարում:  Պահանջներ  Բարձրագույն կրթություն,  Առնվազն 1 տարվա աշխատանքային փորձ,  Հայերեն, ռուսերեն լեզուների իմացություն,  MS Office փաթեթ և 1C ծրագրերի իմացություն,  Պատասխանատվության զգացում,  Հաղորդակցման գերազանց հմտություններ:  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրականը (CV) էլ. հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ֆուրշետային կազմակերպությանը  անհրաժեշտ է հաշվապահի օգնական։ Պարտականություններ Հաշիվ ապրանքագրերի, ՀԴՄ կտրոնների և կանխիկ գնումների մուտքագրում ՀԾ   Արտադրանքի կոմպլեկտավորում Հաշիվ ապրանքագրերի դուրսգրում Հծ ծրագրով Բանկային և քարտային հաշիվ-քաղվածքների մուտքագրում ՀԾ Ամենամսյա գույքագրումներ Ամեօրյա գնումների ցուցակի հաստատում, անհրաժեշտ հումքի և ապրանքների պատվերների կատարում մատակարարներից Հաճախորդների պահանջներին համապատասխան գնային առաջարկների կազմում Ներքին հաշվետվությունների կազմում Այլ հանձնարարությունների կատարում Պահանջներ Բարձրագույն կրթություն հաշվապահություն, ֆինանսներ ուղությամբ Աշխատանքային փորձը ցանկալի է Вord, Еxcel և հայկական ծրագրերի բավարար իմացություն Հավելյալ նշումներ Աշխատանքային օրեր. Երկուշաբթիից-ուրբաթ, Ժամեր: 09:30-18:30: Շաբաթ 10:00-15:00: Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1665,29 +1665,29 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>7/19/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>120,000</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Վաճառքի Բաժնի Աշխատակից</t>
+          <t>Հաշվապահ</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>8778 Հայաստան Տեղեկատու</t>
+          <t>Ararat Cognac Factory LLC</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Աշխատանքի ենք հրավիրում վաճառքի մասնագետների:  Պարտականություններ.  1. Ծառայությունների ներկայացում տարբեր կազմակերպություններին` այցի և զանգերի միջոցով  2. Կազմակերպությունների ներգրավում տարբեր փաթեթներով  3. Պայմանագրերի կնքում  4. Տվյալների ճշտում  5. Կազմակերպության վաճառքի քանակը և որակը բարձրացնող այլ աշխատանքներ  8. Հաշվետվությունների կազմում ըստ ղեկավարի պահանջի  ՊԱՀԱՆՋՆԵՐ   բարձրագույն կրթություն (բակալավր)  թիմում աշխատելու ունակություն  ոչ կոնֆլիկտային բնավորություն  սթրեսակայուն   չեն հիասթափվում դժվարություններից  կարող են օրական 1-2 հանդիպում անցկացնել  քաղաքի տարբեր մասերում  նախաձեռնող են  և պրպտող  բարետես /դրեսս կոդի պահպանմամբ/  երիտասարդ / մեզ համար 40 տարեկանն էլ է երիտասարդ   վազվզող, ակտիվ   Վարձատրությունը` կախված վաճառքի տիրապետման հմտություններից` 88000-300000 ՀՀ դրամ։ Գոյություն ունեն աշխատանքային նորմեր:   Աշխատակիցները գրանցվում են, բոլոր հարկերը պահվում են:  Ռեզյումեները ուղարկել էլ. հասցեի՝ նկարով, վերնագրում նշելով աշխատատեղի անվանումը: Ուղարկել նաև անձնական ֆեյսբուքյան էջի հղումը։                       </t>
+          <t xml:space="preserve"> Նկարագրություն &lt;&lt;Արարատի Կոնյակի Գործարան&gt;&gt; ՍՊԸ-ն աշխատանքի է հրավիրում հաշվապահների` գրասենյակում աշխատելու համար: Պարտականություններ  Հաշվետվությունների հանձնում  էլեկտրոնային եղանակով հարկային հաշիվների և հաշվետվությունների դուրսգրում  աշխատավարձի և հարկերի հաշվարկում Պահանջներ բարձրագույն կրթություն ՀԾ 7 իմացություն 1C իմացություն Excel - ի իմացություն Աշխատանքային փորձը պարտադիր է  Հավելյալ նշումներ Երկուշաբթի-ուրբաթ 10:00-19:00, շաբաթ 11:00-19:00:   </t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1697,29 +1697,29 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/27/2020</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>88.000-300.000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t>Օֆիս Մենեջեր</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>"Մեհրաբյան և որդիներ" ՍՊԸ</t>
+          <t>Ararat Cognac Factory LLC</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          «Մեհրաբյան և որդիներ» ընկերությունը փնտրում է շուկայի զարգացման պատասխանատուի, ով ձգտում է գտնել ոչ ստանդարտ լուծումներ, ունի միջանձնային և հաղորդակցման զարգացած հմտություններ, թիմում աշխատելու կարողություն, պատասխանատվության բարձր զգացում:  Պարտականություններ  Ընդլայնել ընկերության արտադրանքի ներկայությունը շուկայում,   Իրականացնել հաճախորդների ներգրավվում և ակտիվ վաճառք,   Ապահովել վաճառքի կայուն աճ,   Պահպանել և ավելացնել ակտիվ վաճառակետերի քանակը,   Շուկայի ուսումնասիրություն,   Կազմակերպել և վերահսկել հաճախորդների հետ վաճառքի պայմանագրի կնքման գործընթացը,   Պատրաստել և ներկայացնել վաճառքի ամսական հաշվետվություններ,   Պատվերների հավաքագրում:   Անհրաժեշտ հմտություններ  Բարձրագույն կրթություն,  Անձնական մեքենայի առկայություն,  Աշխատանքային փորձը վաճառքի բնագավառում ցանկալի է,  Հաղորդակցվելու և ներկայացնելու ունակություն,  Իրավիճակը գնահատելու կարողություն:  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:   Հարցազրույցի կհրավիրվեն միայն նախնական ընտրությունն անցած անձինք:                       </t>
+          <t xml:space="preserve"> Նկարագրություն "Արարատի Կոնյակի Գործարան" ՍՊԸ-ն աշխատանքի է հրավիրում օֆիս-մենեջերի: Պարտականություններ պայմանագրերի կնքում նամակագրություն բանակցությունների վարում և այլ գրասենայակային աշխատանքներ Պահանջներ բարձրագույն կրթություն ռուսաց լեզվի գերազանց իմացություն համակարգչից օգտվելու հմտություններ: Հավելյալ նշումներ Երկուշաբթի-ուրբաթ 10:00-19:00 Շաբաթ 11:00-19:00 </t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -1729,7 +1729,7 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>7/18/2020</t>
+          <t>12/27/2020</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
@@ -1741,17 +1741,17 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>ASP.NET MVC C# Developer</t>
+          <t>Նախագծող Դիզայներ</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>JSoft</t>
+          <t>ԱՌԴ Գլոբալ</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          We are looking for experienced C# developers to work with us. If you dream of an active and enthusiastic team you are welcome to join us.  Job responsibilities  Work with the PM to understand release epics and timelines  Develop new features and evolve existing ones  Work with designers and Front end developers to achieve common goals  Ensure the best possible performance, quality, and responsiveness of the application,  Debug and resolve production issues as needed;   Required qualifications  Advanced knowledge of OOP, Design Patterns  Thorough understanding of http protocol  2+ years of .NET and C# development experience (must)  Experience with maintenance and support of web applications  Experience with MSSQL server (stored procedures, indexes, views)  Experience with LINQ and Entity Framework  Working knowledge of GIT  Experience with .Net Core 2+ would be a plus  Redis, ElasticSearch, RabbitMQ, AWS ecosystem knowledge/experience would be a plus  Perks  Competitive salary  Opportunity to work with Industry-leading experts  Team outings  Young and fun environment to work  </t>
+          <t xml:space="preserve"> ԱՌԴ Գլոբալն իր թիմը համալրելու նպատակով փնտրում է եռանդուն և ստեղծագործ մասնագետ, որը կկատարի գրաֆիկական ձևավորման և նախագծման աշխատանքներ, մասնավորապես՝ արտաքին գովազդի նախագծում ցուցահանդեսային և վաճառքի ստենդերի նախագծում կահույքի նախագծում ինտերյերի ձևավորում տպագրական նյութերի գրաֆիկական ձևավորում կորպորատիվ ոճի մշակում և այլն. Պահանջվող հմտություններ Ժամանակակից նախագծման և ձևավորման ծրագրերի իմացություն. /CorelDraw, Adobe Photoshop, Adobe Illustrator, 3D MAX, InDesign/ Մասնագիտական ստեղծարար և նորաոճ լուծումների առաջարկում Թիմում աշխատելու ունակություն Մի քանի նախագծերի վրա զուգահեռաբար աշխատելու ունակություն Ուշադրության կենտրոնացում մանրամասների վրա Անհրաժեշտութայն դեպքում առաջադրանքի իրականացում սեղմ ժամկետներում Պարտադիր պահանջերներ Թեկնածուն պետք է ունենա մասնագիտական բարձրագույն կրթություն (օրինակ լինի Գեղարվեստի Ակադեմիայի կամ Ճարտարապետաշինարարական համալսարանի արտադրական դիզայնի կամ ինտերյեր դիզայնի բաժնի շրջանավարտ): Տարիքը` 22-40 տարեկան: Աշխատանքային փորձը ցանկալի է: ԱՌԴ Գլոբալի աշխատանքային ժամերն են՝ երկուշաբթի-ուրբաթ 9.30-18.30, շաբաթ օրը՝ 9.30-16.00:   </t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -1761,7 +1761,7 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>7/19/2020</t>
+          <t>12/27/2020</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -1773,17 +1773,17 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Հեռախոսային վաճառքի մասնագետ</t>
+          <t>Գլխավոր Հաշվապահ</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Ayvazyan &amp; Partners</t>
+          <t>«Կրեդիտ կորպ ՈՒՎԿ» ՓԲԸ</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Ayvazyan &amp; Partners ընկերությունն աշխատանքի է հրավիրում հեռախոսային վաճառքի մասնագետի։  Պարտականություններ  Զանգերի իրականացում առկա հաճախորդներին՝ ծառայությունների վաճառքի նպատակով  Մուտքային զանգերի ընդունում և տեղեկատվության տրամադրում  Պարտադիր սառը զանգերի իրականացում  Գրանցումների հետևում և դասընթացներին մասնակցության ընթացքի ապահովում  Կատարված զանգերի օրական հաշվետվությունների կազմում և ներկայացում անմիջական ղեկավարին  Դասընթացների մասնակցության վճարման գործընթացների կազմարեպում և հետևում  Պոտենցիալ հաճախորդների բազայի հավաքագրում և թիրախավորում CRM համակարգում  Պահանջներ  Բարձրագույն կրթություն  Առնվազն 1 տարվա հեռախոսային վաճառքի և հաճախորդների սպասարկման աշխատանքային փորձ  Հաղորդակցման գերազանց հմտություններ (գրավոր և բանավոր)  Գրագետ խոսք, արագ կողմնորոշում  Հայերենի՝ գերազանց, անգլերնի՝ լավ իմացություն  MS Office փաթեթի իմացություն  CRM համակարգի իմացությունը կդիտվի որպես առավելություն  Անընդհատ սովորելու ցանկություն  Վերջնաժամկետներին հետևելու ունակություն  Թիմում և անհատապես աշխատելու կարողություն  Պատասխանատվության բարձր զգացում:  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Նկարագրություն  Կազմակերպությանը անհրաժեշտ է գլխավոր հաշվապահ: Պարտականություններ Կազմակերպության հաշվապահական հաշվառման վարում, Հարկային հաշվետվությունների պատրաստում և ներկայացում ՀՀ հարկային տեսչություն,  Հարկային վճարումների իրականացում ՀՀ օրենսդրությամբ նախատեսված կարգով, Աշխատավարձի և աշխատակազմի հետ կապված այլ ծախսերի հաշվարկում և ձևակերպում, Եկամուտների և ծախսերի ճշգրիտ վերլուծության ապահովում, ֆինանսական վերլուծությունների պատրաստում, Ղեկավարության կողմից տրված այլ հանձնարարությունների կատարում: Պահանջներ Բարձրագույն կրթություն համապատասխան ոլորոտւմ, Առնվազն 2 տարվա աշխատանքային փորձ ֆինանսական համակարգում, Գլխավոր հաշվապահի ՀՀ ԿԲ վկայականի առկայությունը կդիտվի որպես առավելություն ԼSoft ծրագրի և MS Office ծրագրերի իմացություն,  Հայերեն և ռուսերեն լեզուների իմացություն Պատասխանատվության բարձր զգացում, Թիմում աշխատելու և հաղորդակցվելու հմտություններ: Հավելյալ նշումներ Աշխատանքային օրեր. Երկուշաբթիից-ուրբաթ, Ժամեր: 09:00-18:00: Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե՝ հայերեն լեզվով, նշված էլ.հասցեին: </t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>7/19/2020</t>
+          <t>12/17/2020</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -1805,17 +1805,17 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Օպերատոր-անալիտիկ</t>
+          <t>Call Center Agent</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>"Մաքուր Տուն" ՍՊԸ</t>
+          <t>Armada LLC</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «Մաքուր Տուն» ընկերությանն անհրաժեշտ է ազնիվ, պատասխանատվության բարձ զգացումով Օպերատոր-անալիտիկ։  Պարտականություններ  Տվյալների վերլուծություն,  Հաշվետվությունների կազմում,  Կատեգորիայի բաժնի հետ առնչվող աշխատանքների վերաբերյալ պրեզենտացիաների ներկայացում,  Տվյալների ճշգրտում գործընկների հետ,  Պահանջներ  Բարձրագույն տնտեսագիտական կամ հարակից ոլորների կրթություն,  Առնվազն 1 տարվա աշխատանքային փորձ համապատասխան ոլորտում,  Հայերեն և ռուսերեն լեզուների գերազանց իմացություն,  Microsoft Office ծրագրային փաթեթի գերազանց իմացություն,  1C իմացություն,  Անալիտիկ մտածողություն։  Հավելյալ նշումներ  6 օրյա աշխատանքային շաբաթ՝ 09։00-18։00։                      </t>
+          <t xml:space="preserve"> Job Description: Armada LLC is currently looking for English Speaking Call Agents to enrich our team and promote them to build a successful career with us. We offer: One of the most important points to mention - HIGH salary  Office work We work in our favorite office, we almost live there, eat and drink tasty things often play the guitar Training with professionals in the field   Job Responsibilities Communicating with people over the phone Accomplishing monthly target related results  Updating job knowledge by attending training sessions  Maintaining positive business relationships to ensure future activities Required qualifications: Excellent speaking skills in English. We communicate in English, read English books &amp; prefer English tea Ability to work the night shift Excellent communication and negotiation skills Experience of living/working in an English speaking country will be considered as an advantage! Professional telephone manners Positive attitude   If the above points are about you, smile and get to work Additional Notes   LEASE NOTE THE WORKING HOURS: 19:00-03:30WORKING DAYS: Mon-FriTransportation costs will be covered by the company.    </t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -1825,7 +1825,7 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>7/19/2020</t>
+          <t>12/26/2020</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -1837,49 +1837,49 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Գնումների Մասնագետ</t>
+          <t>Օնլայն Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ARMENIAN TOBACCO COMPANY</t>
+          <t>''MED SPACE'' LLC</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Description  Ընկերության բնականոն գործունեության համար անհրաժեշտ ապրանքների և ծառայությունների գնման և լոգիստիկայի կազմակերպում:  Responsibilities  Ընկերության գործունեության համար անհրաժեշտ ապրանքների, ծառայությունների, արտադրական հումք-նյութերի մատակարարման գործընթացի կազմակերպում,  Տեղական և արտաքին շուկայի մատակարարների ուսումնասիրություն, լավագույն մատակարարների բացահայտում` ելնելով լավագույն գին, որակ, վճարման և մատակարարման պայմաններից,  Տեղական և արտասահմանյան շուկաների ուսումնասիրում, լավագույն առաջարկի ընտրություն,  Մատակարարման ամբողջ գործընթացի կազմակերպում և ուղեկցող փաստաթղթերի համապատասխանության ստուգում,  Ապրանքների գների և մատակարարման պայմանների պարբերական վերլուծում` ավելի մրցունակ գներով ու շահավետ պայմաններով գործարքներ կնքելու նպատակով,  Մատակարարների և գործընկերների հետ տարվող բանակցություններին մասնակցություն,  Մատակարարների հետ պայմանավորվածությունների ձեռքբերում, մատակարարման կազմակերպում, մատակարարների հետ վճարումների համապատասխանության ստուգում,  Ներմուծման և գնման գործընթացի հետ կապված փաստաթղթաշրջանառության կազմակերպում, կոորդինացում,  Արտասահմանյան ուղևորությունների կազմակերպման աջակցություն, ընկերության աշխատակիցների և հյուրերի տեղափոխման կազմակերպում:  Requirements  Բարձրագույն կրթություն  Առնվազն 1 տարի գնումների մասնագետի աշխատանքային փորձ  MS Office-ի լավ իմացություն  Անգլերեն և ռուսերեն լեզուների գերազանց իմացություն  Additional Notes  Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:  Ընկերության հասցեն է՝ ք․ Աբովյան, 2-րդ արդյունաբերական թաղամաս, 6 վարչական մասնաշենք։                      </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունը աշխատանքի է հրավիրում օնլայն վաճառքի մենեջերների՝ իգական սեռի: Աշխատանքը իրենից ներկայացնում  է օնլայն վաճառք: Պարտականություններ Հաճախորդների հետ հեռախոսային շփում խորհրդատվության իրականացում ապրանքների մասին ինֆորմացիայի տրամադրում հետադարձ կապի ապահովում Պահանջներ Հաճախորդների հետ շփման ունակություն Բարեհամբույր և գրագետ խոսելու կարողություն Թիմում աշխատելու ունակություն Հավելյալ նշումներ Կազմակերպությունը տրամադրում է ֆիքսված բարձր աշխատավարձ նաև կիրառում է բոնուսային համակարգ, որի շնորհիվ աշխատակցի  ամսական աշխատավարձը այսօրյա շուկայում ապահովում է մրցակցային սանդղակ: Աշխատանքը հերթափոխով է.  10։00-15։00 15։00-20։00 17:00-22:00 Գրասենյակը տեղակայված է Դալմա Գարդեն Մոլի հարևանությամբ գտնվող էլիտար շենքում։ Ինչպես նաև գործում է մասնաճյուղ Սայաթ Նովա փողոցում։ </t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Abovyan</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>7/18/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>Բարձր, մրցակցային</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t>1C Օպերատոր</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>VITE GROUP</t>
+          <t>Սիկոնե ՍՊԸ</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Աշխատանքի ոլորտը՝ շինանյութի և տնտեսական ապրանքների մեծածախ և մանրածախ վաճառք:  Պարտականություններ  Իրականացնել պատվերների հավաքագրում և վաճառք  Պահանջներ  23-35 տարեկան  սեփական մեքենայի առկայություն  բարձրագույն կրթությունը պարտադիր է   աշխատանքային փորձը տվյալ ոլորտում ՊԱՐՏԱԴԻՐ է                                                   աշխատավարձը ֆիքսված 100,000դր.+ վաճառքից տոկոսներ  Աշխատանքային օրերը՝ երկուշաբթի-շաբաթ, հանգստյան օր՝ կիրակի:  Դիմելու համար խնդրում ենք ուղարկել ռեզյումե նշված էլ.հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունը աշխատանքի է հրավիրում 1C օպերատորի: Պարտականություններ Բանկային քաղվածքների մուտքագրում Ճշգրտվող հաշիվների դուրս գրում Ապրանքների մուտքագրում Պատվերների մուտք-ելք ծրագիր Գնորդների պարտքերի վերահսկում Պահեստի մնացորդի վերահսկում Պաշտոնից բխող այլ գործառույթներ Պահանջներ Աշխատանքային փորձ Համակարգչային գիտելիքների`1C 7.7 9.2, ՀԾ, Word, Exel, PowerPoint, E-invoicing) Արագ կողմնորոշվելու ունակություն Թիմում արդյունավետ աշխատելու կարողություն Պատասխանատվության բարձր զգացում Հավելյալ նշումներ Աշխատանքային գրաֆիկ. 13:00  20:00 Դիմելու համար ուղարկել ինքնակենսագրություն նշված էլ. հասցեին :     </t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -1889,29 +1889,29 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/26/2020</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>100,000 + % վաճառքից</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Վարորդ Առաքիչ</t>
+          <t>Գրաֆիկ Դիզայներ</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AnyTime</t>
+          <t>Ռայթ Ինվեստ ՍՊԸ</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությունը աշխատանքի է հրավիրում վարորդ առաքիչների` սեփական ավտոմեքենայով, Anytime delivery առաքման ծառայությունում աշխատելու համար:  Առաքման ծառայությունները մատուցվում են նաև մոպեդով: Կարող են դիմել նաև մոպեդավարներ (մոպեդը տրամադրում է կազմակերպությունը):  Վառելիքի ծախսը հոգում է կազմակերպությունը:  Պարտականություններ  Տարատեսակ ապրանքների առաքում  Մատակարարում նշված վայրեր  Հաճախորդների բարեկիրթ սպասարկում  Պահանջներ  մինչև 40 տարեկան (արական և իգական սեռի)  սեփական մեքենայի առկայություն (ցանկալի է Operl Zafira կամ նմանատիպ)  Երևան քաղաքի փողոցների իմացություն  գրագետ հաղորդակցվլու ունակություն  թիմային աշխատանքի հմտություններ  բարդ իրավիճակներում արագ կողմնորոշ ունակություն  պատասխանատվություն  ճշտապահություն  Հավելյալ նշումներ  Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:  Եթե ռեզյումեի կամ էլ.փոստով դիմելու հնարավորություն չունեք, կարող եք զանգահարել կազմակերպության էջում նշված հեռախոսահամարով:                      </t>
+          <t xml:space="preserve"> «Մոշն Թայմ» գովազդային ընկերությունը փնտրում է մոտիվացված անհատի՝ ընկերության դիզայներական թիմին միանալու համար: ԱՇԽԱՏԱՆՔԱՅԻՆ ՊԱՐՏԱԿԱՆՈՒԹՅՈՒՆՆԵՐ Հասկանալ հաճախորդի բիզնես պահանջները և մշակել դրանց համապատասխան դիզայներական կոնցեպտներ Կատարել փոքր օնլայն հետազոտություններ և հավաքագրել համապատասխան նյութեր Ցուցաբարել ստեղծագործական մոտեցում ՝ նոր գաղափարներ կյանքի կոչելու համար Առաջարկել նորարարական օպտիմալ լուծումներ՝ հաշվի առնելով արժեքի և ժամանակի սահմանափակումները Հետաքրքրվել և մշտապես թարմացնել գիտելիքները նոր մեդիայի ոլորտում առկա և առաջ եկող գործիքների, մասնավորապես՝ դիզայնի ծրագրերի վերաբերալ, ինչպիսին են Corel Draw, Illustrator, Photoshop, 3ds Max Մշակել ինտերակտիվ դիզայներական լուծումներ Աշխատել թիմում՝ լուսանկարիչների, բովանդակություն գրողների, այլ դիզայներների, վեբ-ծրագրավորողների, հաճախորդների հետ կապ պահպանող մասնագետների և մարքեթինգի մասնագետների հետ ԱՆՀՐԱԺԵՇՏ ՈՐԱԿԱՎՈՐՈՒՄՆԵՐ Աշխատանքային փորձը պարտադիր է Կրեատիվ և հետաքրքիր մտածողություն Ֆանտազիայի առկայություն Adobe Photoshop, Adobe Illustrator/Corel Draw և 3ds Max-ի պարտադիր իմացություն Թիմում աշխատելու կարողություն և պատրաստակամություն Լարված իրավիճակներում աշխատելու կարողություն Հստակ վերջնաժամկետների պայմաններում աշխատելու կարողություն և պատասխանատվություն Համապատասխան անձինք կարող են ուղարկել ինքնակենսագրականը նշված էլ. հասցեին:   </t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -1921,7 +1921,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>7/17/2020</t>
+          <t>12/26/2020</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -1933,27 +1933,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Կահույքագործ</t>
+          <t>Մեքենայի բրենդավորման մասնագետ</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Designo Furniture</t>
+          <t>Ռայթ Ինվեստ ՍՊԸ</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Աշխատանքի ենք հրավիրում փորձառու կահույքագործների:  Աշխատանքի վայրը գտնվւմ է Էջմիածին քաղաքւմ:  Պարտականություններ  Կահույքի հավաքում գծագրերին համապատասխան  Կահույքի հավաքում, կոմպլեկտավորում, տեղադրում  Համապատասխան այլ աշխատանքների իրականացում  Պահանջներ  կրթությունը՝ միջին կամ բարձրագույյն  աշխատանքային փորձը՝ առնվազն մեկ տարի  պարտադիր հմտությունները՝ համապատասխան գործիքների կիրառում  ցանկալի հմտություն՝ փայտային աշխատանքների կատարում  Հավելյալ նշումներ  Աշխատանքային օրերը երկուշաբթի-շաբաթ, Ժամերը՝ 9:00-18:00:  Հետաքրքրված թեկնածուները կարող են դիմել` ուղարկելով ռեզյումե նշված էլ. հասցեին կամ դիմել նամակի միջոցով:                       </t>
+          <t xml:space="preserve"> Նկարագրություն «Մոշն Թայմ» ընկերությունը փնտրում է  Մեքենայի բրենդավորման մասնագետի աշխատանքային փորձով Պարտականություններ Ինքնակպչուն պաստառի հետ աշխատելու ունակություն մեքենայի բրենդավորում տպագրության փակցնում Պահանջներ աշխատանքային փորձ Հավելյալ նշումներ Նշված պահանջներին համապատասխանող անձինք կարող են իրենց ինքնակենսագրականները ուղարկել նշված էլ. հասցեին կամ զանգահարեն հետևյալ հեռախոսահամարով՝ 010-200-821 </t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Vagharshapat</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>7/17/2020</t>
+          <t>12/26/2020</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
@@ -1965,17 +1965,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Վաճառքի Մենեջեր</t>
+          <t>Արտադրական հոսքագծի օպերատոր</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ՄԲ Հոլդինգ ՍՊԸ</t>
+          <t>ՋԻ Պեպսի-Կոլա Բոթլեր ՍՊԸ</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությունը աշխատանքի է հրավիրում վաճառքի գծով մենեջերի:  Պարտականություններ  Հմտորեն ներկայացնել  ապրանքատեսականին  պոտենցիալ գնորդներին,  Նպաստել  ապրանքատեսականու  վաճառքի  ընդլայնմանը,  Դրսևորել  անհատական նախաձեռնություններ՝  մարքեթինգի ուղղությամբ,  Վաճառքի գործընթացի կազմակերպում և վերահսկում  Հաճախորդների հետ հետադարձ կապի պահպանում  Վաճառքի աճի նոր հնարավորությունների բացահայտում  Վաճառքի արդյունքների վերլուծություն  և հաշվետվությունների  ներկայացում տնօրինությանը  Պահանջներ  միջնակարգ կրթություն /բարձրագույնը ցանկալի է/  աշխատանքային փորձ վաճառքի ոլորտում պարտադիր է  սեփական մեքենայի առկայությունը ցանկալի է  աշխատասեր, կարգապահ  Ունակություններ  նախաձեռնողականություն  ճկունություն  թիմում աշխատելու ունակություն  բանակցելու ունակություն  արագ կողմնորոշվելու ունակություն  ժամանակի օպտիմալ կառավարում  սպասարկման և գրագետ հաղորդակցման հմտություններ  Հավելյալ նշումներ  Աշխատանքային գրաֆիկը՝ երկուշաբթիից-շաբաթ, ժամը 9.00-18.00:  Աշխատավարձը՝ 200 000 ՀՀ դրամ և վաճառքից տոկոս:  Դիմելու համար խնդրում եմ ուղարկել ինքնակենսագրականը էլեկտրոնային  հասցեին:  Հարցազրույցին կհրավիրվեն նախնական փուլում ընտրված թեկնածուները:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ջերմուկ Ինթերնեյշնլ Պեպսի-Կոլա Բոթլեր ընկերությունը փնտրում է արտադրական հոսքագծի օպերատորի, ով պատասխանատու կլինի ընկերության արտադրական սարքավորումների  բարձրակարգ շահագործման համար: Պարտականություններ Արտադրական պլանին համապատասխան շահագործել իրեն կցված արտադրական սարքավորումները՝ հետևելով հաստատված ընթացակարգերին և անվտանգության կանոններին, Կատարել իրեն կցված արտադրական սարքավորումների տեխնիկական զննումն ու պարզ տեխնիկական սպասարկումն՝ ըստ հաստատված ընթացակարգերի և ժամանակացույցի, Ապահովել իրեն կցված արտադրական սարքավորումների և աշխատանքային տարածքի մաքրությունը, Կանխել անորակ և ստանդարտներին չհամապատասխանող արտադրանքի արտադրումը, հումքի և նյութերի ոչ ռացիոնալ օգտագործումը, Հետևել տեխնոլոգիական հրահանգներին և սննդի անվտանգության կանոններին, Պահպանել աշխատանքի կազմակերպման անվտանգության կանոնները, Առաջարկել և իրականացնել իրեն կցված սարքավորումների աշխատանքի արդյունավետության բարձրացմանն ուղղված  միջոցառումներ։ Պահանջներ Բարձրագույն կրթություն (ցանկալի է ինժեներական ոլորտում), Համապասխան աշխատանքային փորձի առկայությունը կդիտվի որպես առավելություն, Լարված իրավիճակում աշխատելու ունակություն, Արագ սովորելու ունակություն, Ժամանակի արդյունավետ կառավարման հմտություն, Հայերենի և ռուսերենի լավ իմացություն: Հավելյալ նշումներ Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին: </t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -1985,34 +1985,34 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/26/2020</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>200 000 +%</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Կոորդինատային (CNC) հաստոցի օպերատոր</t>
+          <t>Ներմուծման մենեջեր</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>"Ամուլա" ՍՊԸ</t>
+          <t>Brand Leader</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կահույքի արտադրամասը փնտրում է Կոորդինատային (CNC) հաստոցի օպերատոր։  Աշխատանաքային գրաֆիկը՝  Երկուշաբթիից ուրբաթ՝ 09։00-18։00Շաբաթ՝ 09։00-16։00  Աշխատավարձը՝ սկսած 120,000 դրամից, աճող։  Աշխատանքի վայրը՝ ք․ Աբովյան (տրանսպորտի հարցը լուծում է ընկերությունը)  Աշխատանքային փորձը ցանկալի է։  Հավելյալ նշումներ  Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Բրենդ Լիդեր ընկերությանը անհրաժեշտ է ներմուծման մենեջեր: Պարտականություններ կապ դրսի գործընկերների հետ (պատվերների կազմում,բարձման վերահսկում)  պատասխանել հեռախոսազանգերին նամակագրության վարում թղթավարություն, թարգմանություններ, ղեկավարի կարգադրությամբ կատարել աշխատանքի հետ կապված այլ պարտականություններ: Պահանջներ MS Word, MS Excel շփման ունակություն, պարտաճանաչություն  հայերեն, ռուսերեն, անգլերեն լեզուների գերազանց տիրապետում Հավելյալ նշումներ Աշխատաժամեր` 09:00-18:00, երկուշաբթիից-շաբաթ: Կիրակի օրը՝ հանգիստ: </t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Abovyan</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2029,27 +2029,27 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ֆայլեր պատրաստող մասնագետ</t>
+          <t>Վարպետ Պանրագործ</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>GAT Cutting LLC</t>
+          <t>Mega Food LLC</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «Ջի Էյ Թի Քաթինգ» կազմակերպությանը անհրաժեշտ է CNC հաստոցի համար ֆայլ պատրաստող մասնագետ:  Պարտականությունները՝   Կտրման և փորագրման անհրաժեշտ ֆայլերի պատրաստում   Նոր գաղափարների ու ծրագրերի ներկայացում   Պաշտոնից բխող այլ պահանջների կատարում  Պահանջները՝  Corel Draw, ArtCAM ծրագրերի պարտադիր իմացություն  Մասնագիտական աշխատանքային փորձը ցանկալի է  Սուղ ժամկետներում արագ կողմնորոշվելու ունակություն  Թիմում աշխատելու ունակություն և պատրաստակամություն  Ինֆորմացիան արագ ընկալելու կարողություն  Պատասխանատվության բարձր զգացում  Եթե ձեր գիտելիքները, մասնագիտական փորձը և որակավորումները համապատասխանում են վերը նշված հաստիքի պահանջներին, խնդրում ենք Ձեր ինքնակենսագրականը ուղարկել նշված  էլ.փոստի հասցեին:                      </t>
+          <t xml:space="preserve"> Պարտականություններ Նախագծում ու վերահսկում է կաթի մթերումից մինչ պատրաստի արտադրանք ամբողջ տեխնոլոգիական շղթան: Պահանջներ Բարձրագույն կամ միջին մասնագիտական կրթություն համապատասխան ոլորտում Առնվազն 3 տարվա աշխատանքային փորձ տվյալ ոլորտում Պրակտիկ գիտելիքներ կաթնամթերքի արտադրության բնագավառում Պատասխանատվության զգացում Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար տարբերակներից: Հետևե՛ք հղմանը </t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Gyumri</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>7/17/2020</t>
+          <t>12/26/2020</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
@@ -2061,17 +2061,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Վարորդ Առաքիչ</t>
+          <t>Պրեսելլեր / Շուկայի զարգացման պատասխանատու</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>«Արաքս Թռչնաֆաբրիկա» ՓԲԸ</t>
+          <t>Mega Food LLC</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «ԱՐԱՔՍ ԹՌՉՆԱՖԱԲՐԻԿԱ» ՓԲԸ-ն աշխատանքի է հրավիրում փորձառու վարորդ-առաքիչների:   Պարտականություններ  Ընկերությունն աշխատանքի է հրավիրում անձնական մեքենաներով վարորդ-առաքիչների՝ թռչնամսի, ձվի և կիսաֆաբրիկատների առաքման ցանցը ընդլայնելու նպատակով:   Պահանջներ  Հաղորդակցման հմտություններ, մարդկանց ներգրավելու և փոխազդելու ունակություն   Աշխատանքային փորձ առաքման ոլորտում   Տարիքային սահմանափակում մինչեւ 50   Անձնական մեքենայի առկայություն /վարորդական իրավունք/   Կարգապահություն, պատասխանատվության զգացում   Սեղմ ժամկետներում աշխատելու ունակություն   Թիմային և անհատական աշխատելու ունակություն  Հավելյալ նշումներ  Աշխատանքային 6օրյա գրաֆիկ:  Աշխատավարձը՝ մրցունակ:  Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Շուկայի զարգացման պարտականությունների ստանձնում Պարտականություններ Շուկայի զարգացման պարտականությունների ստանձնում Շուկայի և մրցակցային միջավայրի ուսումնասիրություն՝ առևտրային  կետերի ճիշտ գնահատում Պահանջարկի բացահայտում Հաճախորդների հետ բանակցությունների վարում Հաճախորդի պատվերի պատշաճ ձևավորում Մերչանդայզինգի իրականացում Գովազդային ակցիաների իրականացման աջակցում Վաճառքի ծավալների ավելացում Կցված տարածքների արդյունավետ ծածկույթի ապահովում Հաճախորդների բազայի վարում և թարմեցում Պահանջներ Բարձրագույն կրթություն Վաճառքի հմտություններ Աշխատանքային փորձը վաճառքի  ոլորտում  Ուղղվածություն դեպի հաճախորդ Ներկայացման հմտություններ Պատասխանատվության զգացում Թիմում աշխատելու ունակություն Արդյունավետ հաղորդակցման և բանակցային հմտություններ Կոնֆլիկտների կառավարման և խնդիրների լուծման հմտություններ Լավ զարգացած ներանձնային և կազմակերպչական հմտություններ Հայերենի և ռուսերենի գերազանց իմացություն Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -2081,29 +2081,29 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/26/2020</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Մրցակցային</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Վաճառքի տարածքային մենեջեր</t>
+          <t>Վարորդ</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ԱԼՖԱ-ՖԱՐՄ ՓԲԸ</t>
+          <t>Brand Leader</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «Ալֆա-Ֆարմ» Ընկերությունն աշխատանքի է հրավիրում վաճառքի փորձառու մենեջերի, ով պատասխանատու է լինելու տվյալ տարածքի դեղատների վաճառքների պատշաճ կազմակերպման համար:  Պարտականություններ  Կազմակերպել, համակարգել և վերահսկել իր վերահսկողության տակ գտնվող դեղատների արդյունավետ աշխատանքը,   Ձեռնարկել բոլոր միջոցները իր վերահսկողության տակ գտնվող դեղատների վաճառքի և շահութաբերության ցուցանիշները բարձրացնելու ուղղությամբ,  Վերահսկել և ապահովել դեղագործական կանոնների պահպանումը` համաձայն ՀՀ կառավարության կողմից ընդունված կարգի,   Վերահսկել և ապահովել դրամարկղային գործառույթների կանոնների պահպանումը,  Հետևել դեղատների ապրանքային մնացորդին և տեսականու առկայությանը, ներկայացվածությանը, դասավորվածությանը,  Հետևել դեղատների պարբերական գույքագրման անցկացմանը՝ ըստ նախատեսված ժամանակացույցի,  Վերահսկել և պահպանել դեղատների միասնական կորպորատիվ ոճը՝ հաստատված կարգի համաձայն,  Ապահովել դեղատան աշխատակիցների վաճառքի և հաճախորդների սպասարկման կանոնների պահպանումը,  Պարբերաբար հանդիպել դեղատան աշխատակիցների հետ, քննարկել հաճախորդների պահանջները և առաջարկները,  Վերահսկել դեղատների տնտեսական ծախսերը,  Վերահսկել և հետևել դեղատներում վաճառվող ապրանքների ժամկետներին:  Պահանջներ  Բարձրագույն կրթություն /ցանկալի է դեղագործական/,  Առաջնորդելու և ղեկավարելու փորձ,  Ընդգծված կազմակերպչական հմտություններ և բարձր պատասխանատվություն,  Վաճառքների կազմակերպման և խթանման հմտություններ ու գիտելիքներ,  Տարբեր իրավիճակներում արագ կողմնորոշվելու ունակություն,  Մեծաքանակ տեղեկատվության հետ աշխատելու ունակություն,  Պլանավորման, վերահսկման և ծրագրերի ղեկավարման կայուն հմտություններ,  Թիմային աշխատանքի ունակություն,  Ավտոմեքենայի առկայություն:  Հավելյալ նշումներ  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Նկարագիր Բրենդ Լիդեր ընկերությանը անհրաժեշտ է փորձառու վարորդ: Աշխատանքային օրեր և ժամեր`երկուշաբթի-շաբաթ՝  08:30-18:00, կիրակի՝ հանգիստ: Պահանջներ Երևան քաղաքի փողոցների գերազանց իմացություն Տարիքը 40-50 տարեկան Ճշտապահություն Պատասխանատվության զգացում Բեռնատար մեքենա վարելու առնվազն 3 տարվա փորձ BC կարգի վարորդական իրավունքի առկայություն Պարտականություններ Մեքենան վարել խնամքով Ճանաչել քաղաքը և կարողանալ օգտվել նավիգատորից Պահպանել մեքենան սարքին վիճակում, իսկ անսարքությունների առաջացման դեպքում ժամանակին հայտնել դրա մասին։ Հասցե՝ Ներքին Շենգավիթ, 11 փ. , 1 շին. Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով: ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար օրինակներից: Հետևե՛ք հղմանը </t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -2113,29 +2113,29 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>7/17/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>80000</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Country sales manager assistant</t>
+          <t>Մարքեթոլոգ</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>Elitar LLC</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Description  We are looking for a responsible and highly motivated assistant for maintaining a full range of business assistant duties for the country sales manager.  Responsibilities  Preparation of various daily and monthly reports,       Being a key point of contact with employees of all divisions of the distributor and the brand, distributing tasks and controlling their timely execution,  Researches and analyses a variety of marketing information, including market trends, pricing schedules, competitor offerings, product specifications, and demographic data,  Plan and organize events and meetings of various kinds,  Prepare presentations and coordinate operational tasks of various kinds.  Requirements  Higher education,  At least 1 year of working experience in relevant roles,  Fluency in Armenian and English languages, good knowledge of the Russian language is a plus,  Excellent knowledge of MS Office (MS Excel in particular),  Analytical mindset, good math skills with the ability to create and analyze reports, spreadsheets and sales statistics,  Good organizational and multi-tasking ability,  Good communication and interpersonal skills.  Additional Notes  Interested and matching candidates are requested to send their CVs to the mentioned email.                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ընկերությանն անհրաժեշտ  է  փորձառու, համապատասխան կրթությամբ  մարքեթոլոգ: Պարտականություններ Իրականացնել շուկայի ուսումնասիրություն և վերլուծություն Մարկետինգային ռազմավարության մշակում և իրականացում  Մշակել մատուցվող ծառայությունների առաջարկ Նամակագրության միջոցով բոլոր հաճախորդներին միշտ տեղեկացնել մատուցվող նոր ծառայությունների մասին Գովազդային արշավների կազմակերպում  Մրցակիցների ուսումնասիրություն Հաշվետվությունների կազմում և ներկայացում Վաճառքի մենեջերների խմբի հետ աշխատանքներ Պահանջներ Բարձրագույն կրթություն Աշխատանքային փորձ գովազդային կամ վաճառքի ոլորտում Պոտենցիալ գործընկերների (հաճախորդների) փնտրման և հարաբերությունների կարգավորման փորձ Լարված իրավիճակում աշխատելու և արագ կողմնորոշվելու ունակություն Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>7/16/2020</t>
+          <t>12/25/2020</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2157,17 +2157,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Գլխավոր Ինժեներ</t>
+          <t>Պրոեկտների ղեկավար</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>M-Group LLC</t>
+          <t>Նոր Փրոջեքթս ՍՊԸ</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն   «Մ-Գրուպ» ընկերությանն անհրաժեշտ է գլխավոր ինժեներ ստորև ներկայացված պահանջներին համապատասխան:  Պարտականություններ  համակարգել ԱՏ բաժնի աշխատանքը  վարել տեխնիկական փաստաթղթերը  վերահսկել նախագծերի ժամանակին կատարումը  պլանավորել և կառավարել շինարարական  պրոցեսները  կազմել շինարարական աշխատանքների ժամանակացույցը  ապահովել սահմանված ժամկետներում աշխատանքների իրականացումը  բանակցել պատվիրատուների հետ  Պահանջներ  Տեխնիկական բարձրագույն կրթություն  Առնվազն 3 տարվա աշխատանքային փորձ  Auto Cad ծրագրի պարտադիր իմացություն  Ռուսերեն և անգլերեն լեզուների պարտադիր իմացություն  Թիմում աշխատելու, թիմը ղեկավարելու հմտություններ  Կոնֆլիկտների կառավարման հմտություններ  Հավելյալ նշումներ  Դիմելու համար կարող եք ուղարկել ռեզյումե նշված էլ. հասցեին:                      </t>
+          <t xml:space="preserve"> "Նոր Փրոջեքթս" ՍՊ Ընկերությունը հանդիսանալով "Նոր Տուն" խանութների ցանցի կահույքի արտադրության և արտահանման կազմակերպություն  փնտրում է "Պրոեկտների ղեկավար" Պարտականություններ` Նախագծերի արտադրական փուլերի պլանավորման և կազմակերպման աշխատանքների իրականացում ; Աշխատանքների կատարման ժամկետների պլանավորում; Նախագծերի իրականացման ընթացքի վերահսկողություն; Նախագծերի իրականացման ժամանակ առաջացած խնդիրների   լուծումներով՝ համագործակցելով համապատասխան բաժնի կամ ղեկավարի հետ; Անմիջական ղեկավարի հանձնարարությամբ իրականացնում է իր պաշտոնից և մասնագիտությունից բխող այլ գործառույթներ; Պահանջներ` Բարձրագույն կրթություն Կահույքի արտադրման մեջ փորձը պարտադիր չէ Սթրեսադիմացկունություն և էմոցիոնալ ինքնատիրապետում Վերլուծողական մտածողություն, Անձնակազմի/նախագծերի ղեկավարման փորձը պարտադիր է Ժամանակի կառավարման հմտություններ Պատասխանատվության բարձր զգացում "Նոր Փրոջեքթս" ընկերությունը հանդիսանում է մի շարք միջազգային բրենդների (Carpisa, Geox, Henderson) պաշտոնական մատակարար Եվրոպայում և ԱՊՀ երկրներում: Ընկերությունը արտադրում և արտահանում է կահույքի մեծ տեսականի։ Կազմակերպության մասին կարող եք ծանոթանալ անցնելով հետևյալ հղումներով՝ Պաշտոնական կայք էջ՝ https://norprojects.com/ Ֆեյսբուքյան էջ՝ https://www.facebook.com/search/top/?q=nor%20projects Կատալոգ՝ https://cloud.mail.ru/public/2Tao/4EqPNViib Առաջարկներ՝ https://cloud.mail.ru/public/23ZY/2qPwV3Kut Վիդեո ծանոթություններ՝ https://cloud.mail.ru/public/215i/2CEruFiPT </t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2177,29 +2177,29 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>7/15/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>Բարձր, մրցակցային</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Call Center Agent</t>
+          <t>Գովազդի բաժնի ղեկավար</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Armada LLC</t>
+          <t>Շինարարական ՍՊԸ</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Description  Armada LLC is currently looking for English Speaking Call Agents to enrich our team and promote them to build a successful career with us.  We offer:  Competitive salary and bonuses;Great working conditions and a friendly office atmosphere in the center of Yerevan;Training with professionals in the field.  Responsibilities  Communicating with people over the phone  Accomplishing monthly target related results  Updating job knowledge by attending training sessions  Maintaining positive business relationships to ensure future activities  Requirements  Excellent speaking skills in English  Excellent communication and negotiation skills  Professional telephone manner  Capacity to work under time pressure  Positive attitude  Flexible  Additional Notes  WORKING HOURS: 19:00-03:30WORKING DAYS: Mon-FriTransportation costs will be covered by the company.  Interested and matching candidates are requested to send their CVs to the mentioned email.                      </t>
+          <t xml:space="preserve"> Նկարագրություն Մշակում և իրականացում է ընկերության մարքեթինգային եւ հաղորդակցման ռազմավարությունները`  հավաստիանալով, որ այն ծառայում է ընկերության ընդհանուր ռազմավարությանը և ներքին մշակույթին. Պարտականություններ Իրականացնում է ընթացիկ շուկայական հետազոտություններ և վերլուծություններ, հանդես է գալիս ընկերության շուկայական մասնաբաժինը ընդլայնելու առաջարկություններով. Պատրաստում է ապրանքների զեղչման հատուկ միջոցառումներ, կապված տոների կամ այլ իրադարձությունների հետ. Վաճառքի բաժնի հետ համատեղ կատարում է վաճառքների վերլուծություն և հայտնաբերում է ապրանքների վաճառքների անկման պատճառները. Կատարում է ապրանքների պորտֆելի վերլուծություն և հանդես է գալիս պորտֆելի շրջանառության և շահութաբերության բարձրացման առաջարկություններով. Կազմակերպում և իրականացնում է կազմակերպության արտադրանքի և ներմուծված ապրանքանիշերի գովազդը, ապահովում է այդ ապրանքանիշերի և ընկերության  ճանաչելիությունը. Կազմակերպում և վերահսկում է սոցիալական կայքերում ընկերության առաջարկների գովազդը. Պահանջներ բարձրագույն տնտեսագիտական կրթություն նվազագույնը  3 տարվա աշխատանքային փորձ պարտադիր արական սեռի համակարգչային գերազանց հմտություններ Հավելյալ նշումներ Աշխատանքային օրեր՝ վեցօրյա  Ժամեր՝ 09:00-ից 18:00: </t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -2209,29 +2209,29 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>7/15/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>մինչև 250,000 ՀՀ դրամ</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Full Stack Developer</t>
+          <t>Ավագ Հաշվապահ</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Analysed</t>
+          <t>Exterior Group LLC</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          RESPONSIBILITIES:  Deliver high-quality output using the latest software technologies,  A thorough understanding of available technology and tools,  Identify design or technical problems and offer solutions,  Clearly understand requirements and translate them into codes,  Optimize components for maximum performance across different devices and browsers,  Transform designs and wireframes to a high-quality code  Build reusable code and libraries for future use  Collaborate with other team members and stakeholders  Build and maintain Restful APIs.  Staying abreast of developments in web applications and programming languages.  REQUIREMENTS:  BS or MS degree in Computer Science or a related degree,  Strong organizational and project management skills,  Proficiency in JavaScript frameworks such as Angular JS, Node JS, React, and Amber.  Familiarity with database technology such as MySQL, Oracle, and MongoDB,  Familiarity with server-side languages such as Python, Ruby, Java, PHP, and .Net will be plus,  Ability to work independently and as a part of a team,  Experience with developing large customer-facing websites,  Experience in custom coding as well as in pertinent extensions,  Organized, responsible and high attention to details,  Analytical and time management skills.  ADDITIONAL INFORMATION:  Interested individuals are requested to the mentioned email. Only shortlisted candidates will be considered․ Thanks.                      </t>
+          <t xml:space="preserve"> Նկարագրություն «Էքստերիեր Գրուպ» ՍՊԸ-ն աշխատանքի է հրավիրում փորձառու հաշվապահների, ով կկարողանա վարել ընկերություն հաշվապահությունը :  Պարտականություններ Ընթացիկ հաշվապահական հաշվառում Ներմուծման գործարքների հաշվառում (ԵԱՏՄ և 3-րդ երկրներ) Քաղվածքների հաշվառում Վաճառքների ծրագրային հաշվառում Ընթացիկ դրամական հոսքերի վերահսկողություն Ներքին ֆինանսական հաշվետվությունների կազմում և փաստաթղթաշրջանառության վարում Տվյալների մուտքագրում ՀԾ ծրագիր Պահեստի շարժի վերահսկում Հաշվետվությունների կազմում Պահանջներ Բարձրագույն կրթություն՝ տնտեսագիտության կամ հաշվապահության ոլորտում ՀՀ հարկային օրենսդրության և հաշվապահական հաշվառման ստանդարտների իմացություն Համակարգչային գիտելիքներ, մասնավորապես MS Excel-ի լավ իմացություն ՀԾ ծրագրերի լավ իմացությունը պարտադիր է 1C ծրագրի իմացություն Խնդիրների արագ և արդյունավետ լուծման կարողություններ Պարտաճանաչություն Մեծ ծավալի տեղեկատվության հետ աշխատելու ունակություն Աշխատանքային փորձ որպես հաշվապահ նվազագույնը 3 տարի Հավելյալ նշումներ Աշխատանքային գրաֆիկը երկուշաբթիից ուրբաթ ժամը 10:00-18:00: </t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -2241,7 +2241,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>7/15/2020</t>
+          <t>12/24/2020</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -2253,17 +2253,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ԱՁ Քնարիկ Ղարիբյան</t>
+          <t>ԷՍԴԻԷՄ</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությանը  անհարժեշտ է գործավարուհի` լեզուների վարժ իմացությամբ, գրասենյակում աշխատելու համար:  Պարտականություններ  Գրասենյակի առօրյա աշխատանքներիկազմակերպում,  Հեռախոսազանգերի, Էլեկտրոնային փոստիկառավարում,  Ընկերության ստորաբաժանումների միջևհաղորդակցության և էֆեկտիվ աշխատանքիկազմակերպում,  Հանդիպումների գրաֆիկի կառավարում ևկազմակերպում,  Հյուրերի և այցելուների հյուրասիրությանկազմակերպում,  Ժողովների և խորհրդակցությունների գրաֆիկիկառավարում և կազմակերպում,  Հյուրասիրությունների համար գնումների, գրասենյակային տեխնիկայի և պարագաներիձեռքբերման և սպասարկման կազմակերպում,  Տնօրինության ուղղակի հանձնարարություններիկատարում և կազմակերպում։   Պահանջներ  Բարձրագույն կամ մասնագիտական կրթություն,  Գրասենյակային կամ հարակից աշխատանքայինփորձառություն,  Հայերեն, ռուսերեն և անգլերենի վարժտիրապետում  Համակարգչային գիտելիքներ (Office, Web, Mail),  Ժամանակի կառավարման հմտություն, պատասխանատվության բարձր զգացում,  Հաղորդակցման հմտություններ  Գրագետ խոսք  Պարտաճանաչություն, արագագործություն ևմարդկանց հետ շփման կարողություն՝ ինչպեսանձամբ, այնպես էլ հեռախոսով/նամակագրությամբ,  Աշխատանքային կարգուկանոնի և կորպորատիվվարվելակերպի զգացում։  Հավելյալ նշումներ  Աշխատանքային օրերը երկուշաբթի-ուրբաթ՝ 10:00-19:00, շաբաթ՝ 10:00-13:00:Ցանկացողներն իրենց CV-ները (նկարով) կարող են ուղարկել նշված հասցեին                      </t>
+          <t xml:space="preserve"> ԷսԴիԷմ ՍՊԸ-ին անհրաժեշտ է վաճառքի մենեջեր:Աշխատանքային պարտականություններ. Շուկայի զարգացում Առկա վաճառքի պատվերների ընդունում և պոտենցիալ վաճառակետերի բացահայտում Պայմանավորվածությունների ձեռքբերում վաճառակետերի հետ  Վաճառակետերում ապրանքի ու դարակաշարերի արտաքին տեսքի պահպանում Պահանջներ. Բարձրագույն կրթություն Աշխատանքային փորձը տվյալ ոլորտում պարտադիր է Մեքենայի առկայությունը պարտադիր է Հավելյալ նշումներ. Աշխատանքային ժամեր՝ երկուշաբթիից ուրբաթ, 09:00-18:00, շաբաթ՝ 09:00-13:00: CV-ները խնդրում ենք ուղարկել միայն վերոհիշյալ պայմաններին համապատասխանելու դեպքում:  </t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -2273,29 +2273,29 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/24/2020</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>135,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Վաճառքի մենեջեր</t>
+          <t>Վաճառող Խորհրդատու</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>M-Group LLC</t>
+          <t>GEOX Italian brand store</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Ընկերությանն անհրաժեշտ են աշխատանքային փորձով վաճառքի բարձրակարգ մենեջերներ արդյունաբերության (էներգետիկ)  ոլորտում  ։  Պարտականություններ  Ուսումնասիրել շուկան, մշակել  և վարել վաճառքի  ռազմավարություն  Կազմել կոմերցիոն առաջարկներ  Նախաձեռնել  հանդիպումներ,  ձեռք բերել պայմանավորվածություններ  Ներկայացնել ապրանքը շուկայում՝ վաճառքի խթանման նպատակով   Վարել հաճախորդների տվյալների բազան  Կապ հաստատել առկա և պոտենցիալ գործընկերների հետ՝ ՀՀ-ում և արտերկրում   Ներգրավել  և վարել բանակցություններ նոր հաճախորդների հետ  Իրականացնել վաճառքի պրոցեսը՝ խորհրդատվությունից մինչև ձևակերպում   Հաճախորդներին տրամադրել անհրաժեշտ տեղեկատվություն   Ներկայացնել հաճախորդներին վաճառվող տեսականին և ապրանքի առանձնահատկությունները   Պատշաճ կերպով ընտրել հաճախորդի պահանջին համապատասխանող ապրանքները և պարագաները   Խորհրդատվություն տրամադրել հաճախորդին ապրանքների վաճառքի, պատվիրման, առաքման և վճարումների կարգերի վերաբերյալ   Թիմային աշխատանքի հմտություններ  Վաճառքի հետ կապված այլ պարտականություններ  Պահանջներ  Բարձրագույն կրթություն  Աշխատանքային փորձը արդյունաբերության ոլորտում և CRM համակարգով աշխատելու ունակությունը կդիտվի որպես առավելություն   Ռուսերենի և անգլերենի իմացություն   Համակարգչային գրագիտություն   Բանակցություններ վարելու հմտություն   Հաղորդակցման հմտություններ   Որոշումներ կայացնելու ունակություն   Պատասխանատվության բարձր զգացում  Շփման ճկունություն   Ներկայացման ունակություն   Հավելյալ նշումներ  Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:                      </t>
+          <t xml:space="preserve"> "GEOX" խանութների ցանցը հրավիրում է աշխատանքի վաճառող խորհրդատուների: Աշխատանքի պարտականություններ` Օգնել գնորդին ապրանքի ընտրության հարցում, խորհրդատվություն տալ խանութում վաճառվող ապրանքների տեսականու, դրանց սպառողական հատկանիշների և առանձնահատկությունների վերաբերյալ։  Հետևել ապրանքների պահանջվող քանակի առկայությանը։  Մասնակցել ապրանքների վաճառքի խթանմանը՝ ներկայացնելով նաև գովազդվող ապրանքները, տեղեկացնելով գործող զեղչային համակարգերի և ակցիաների մասին։  Պատրաստել ապրանքները վաճառքի համար՝ բացում, հավաքում, կոմպլեկտավորում, տեղադրում։  Հետևել գնապիտակների առկայությանը, նրանց ճիշտ դասավորվածությանը։  Մասնակցել ընկերության կողմից կազմակերպված ուսուցողական դասընթացներին և ատեստացիաներին։ Պահանջվող պայմաններ՝ Վաճառքի ոլորտում աշխատանքային փորձ (ցանկալի է)  Բարձրագույն կամ թերի-բարձրագույն կրթություն  Ռուսերենի և անգլերենի իմացություն  Մինչև 45 տարեկան Լրացուցիչ տեղեկություններ` Աշխատանքի վայր` Dalma Garden Mall, Հյուսիսային Պողոտա Դիմելու համար կարող եք ուղարկել ռեզյումե նշված էլ. հասցեին:   </t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -2305,29 +2305,29 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>7/12/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>100,000 + %</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Ներմուծման (արտաքին կապերի) մենեջեր</t>
+          <t>Կայքի ադմինիստրատոր</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>"Սլադո ֆուդ" ՍՊԸ</t>
+          <t>Roberto Piraloff</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Համագործակցություն առկա արտասահմանյան գործընկերների հետՓնտրել և գտնել նոր արտադրող կազմակերպություններ։Խմբավորել և տրամադրել անհրաժեշտ տեղեկատվությունըԱնհրաժեշտ ապրանքատեսականու ներմուծման գործընթացի կազմակերպում, ամբողջ թղթաշրջանառության վերահսկում և կառավարում  Պարտականություններ  Ելնելով օպտիմալ գնի, մատակարարման գրաֆիկների և որակի տեսանկյունից, իրականացնել հետազոտություններ՝ որոշելու համար լավագույն ապրանքներն ու մատակարարներին   Որոշել պոտենցիալ մատակարարներին, վարել բանակցություններ և կնքել պայմանագրեր, հաստատել լավ հարաբերություններ համագործակցող կազմակերպությունների հետ   Հետևել ներկրմանը վերաբերվող ինֆորմացիայի ամբողջականությանը և ճշգրտությանը  Պահանջներ  1.Համապատասխան աշխատանքային փորձ  2.Լեզվաբանական բարձրագույն կրթություն  3.Անգլերեն և ռուսերեն լեզուների գերազանց իմացություն  4. Համակարգչի գերազանց իմացություն  Հավելյալ նշումներ  Աշխատանքային օրեր և ժամեր.  1.Աշխատանքային օրերը՝ երկուշաբթիից շաբաթ2.Աշխատանքային ժամերը՝ 09:00-18:003.Աշխատավարձը՝ 150.000 դրամ նաև պարգևավճարներ4.Տարիքը՝ 20-40տարեկան  Բոլոր համապատասխան անձինք կարող են ուղարկել իրենց ինքնակենսագրականները վերոնշյալ  էլ. հասցեին։                      </t>
+          <t xml:space="preserve"> Նկարագրություն Փիրալյան ՍՊԸ-ին անհրաժեշտ է պատասխանատու, բանիմաց և արագ ընկալող Կայքի ադմինիստրատոր: Պարտականություններ կայքի կոնտենտի հավաքագրում, մշակում և մուտքագրում, կայքի անխափան աշխատանքի ապահովում, անհրաժեշտ տեղեկատվության տրամադրում Պահանջվող հմտությունները` բարձրագույն կրթություն, աշխատանքային փորձը նշված ոլորտում պարտադիր է, Magendo ծրագրի գերազանց իմացություն, Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:   </t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -2342,24 +2342,24 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>150,000</t>
+          <t>150 000 - 200 000 դրամ</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Խորհրդատու վաճառող</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>«Արաքս Թռչնաֆաբրիկա» ՓԲԸ</t>
+          <t>QWERTY LLC</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Ընկերությանն անհրաժեշտ է հաշվապահ:  Պարտականություններ  Աշխատավարձի հաշվառում, անաշխատունակության թերթիկների, գործուղումների ձևակերպում,                                                           Կազմակերպության ձեռք բերված ապրանքանյութական պաշարների, հիմնական միջոցների և ծառայությունների   համապատասխան ձևակերպումներ, պահեստի մուտքերի և ելքերի հաշվառման կազմակերպում և հսկողություն, ծախսային հոդվածներին ապրանքանյութական արժեքների և ստացված ծառայությունների դուրսգրում,  Կազմակերպությունում արտադրված պաշարների հաշվառման և փաստաթղթավորման իրականացում, պահման վայրերում պաշարների մնացորդների վերահսկում,  Ղեկավարության կողմից տրված այլ հանձնարարությունների կատարում:  Պահանջներ  Բարձրագույն կրթություն հաշվապահական, ֆինանսների կամ հարակից այլ ոլորտներում   Առնվազն 3 տարվա աշխատանքային փորձ,   1C 7.7, 8.2  և MS Office ծրագրերի գերազանց իմացություն,   Հաշվապահական ստանդարտների, հարկային օրենսդրության իմացություն  Պատասխանատության բարձր զգացում,  Թիմում աշխատելու և հաղորդակցվելու բարձր հմտություններ  Հավելյալ նշումներ  Աշխատանքի վայրը՝ ք.Երևան, Շիրակի 43:  Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն «ENDS» Վեյփ Շոփն աշխատանքի է հրավիրում խորհրդատու-վաճառողների: Պարտականություններ Հաճախորդին ներկայացնել Ընկերության կողմից վաճառվող ապրանքները և ծառայությունները՝ օգտնելով գտնել լավագույն տարբերակը, Իրականացնել ապրանքի վաճառք: Պահանջներ Համապատասխան աշխատանքային փորձը ցանկալի է, Վեյփինգի մասին իմացությունը կդիտվի որպես առավելություն, Համակարգչի գերազանց իմացություն, Հայերենի վարժ իմացություն, ռուսերենի և անգլերենի գերազանց իմացություն, Բանավոր հաղորդակցման գերազանց հմտություններ, Ճկունություն և թիմում աշխատելու ունակություն, Լարված իրավիճակներում աշխատելու և նման իրավիճակները կառավարելու ունակություն: Հավելյալ նշումներ Աշխատանքային օրեր՝ Երկուշաբթի-Ուրբաթ՝ 10:00-19:00, Շաբաթ՝ 11:00-15:00: Աշխատանքի դիմելիս խնդրում ենք պարտադիր ռեզյումեին կցել լուսանկար:Աշխատավարձը՝ պայմանագրային: Կայք՝ www.ends.am </t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2374,24 +2374,24 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>230,000</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Դեղագետ - օպերատոր</t>
+          <t>Android App (Java) Developer</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ԱԼՖԱ-ՖԱՐՄ ՓԲԸ</t>
+          <t>Pay&amp;Go</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «Ալֆա-Ֆարմ» Ընկերությունն աշխատանքի է հրավիրում դեղագետ/դեղագործ մասնագիտությամբ օպերատորի՝ առցանց դեղատանն աշխատելու նպատակով։  Պարտականություններ  Պատասխանել հեռախոսազանգերին,  Իրականացնել պատվերների ընդունում, ճշտում և գրանցում,  Հեռախոսային և առցանց վաճառքների դեպքում հավաքված պատվերները պատշաճ հանձնել վարորդ-առաքիչին,  Պարզաբանել հաճախորդների խնդիրները և լուծումներ առաջարկել դրանց վերացման ուղղությամբ,  Իրականացնել դեղատնային գործառույթների պատշաճ կատարում համաձայն ընկերության կողմից հաստատած չափանիշների և ընթացակարգերի՝ հետևելով ՀՀ Կառավարության կողմից ընդունված կարգին և պահպանելով դեղագործական կանոնները,  Ապահովել Ընկերության կողմից հաստատած դեղատան վաճառքի ցուցանիշները,  Հետևել Ընկերության կողմից հաստատված վաճառքի և հաճախորդների հետ շփման կանոնների կատարմանը,  Մշտապես մասնակցել Ընկերության կողմից կազմակերպված ուսուցման և վերապատրաստման դասընթացներին, մասնագիտական ունակությունների համապատասխանության գնահատման միջոցառումներին,  Կատարել անմիջական ղեկավարի այլ հանձնարարություններ:  Պահանջներ  Դեղագիտական կամ դեղագործական մասնագիտական կրթություն,  Համապատասխան ոլորտում աշխատանքային փորձի առկայությունը ցանկալի է,  Համակարգչային ծրագրերի լավ իմացություն (MS Office),  Հայերենի գերազանց իմացություն, ռուսերեն և անգլերեն լեզուների իմացություն,  Մարդկանց հետ բարեհամբույր շփվելու կարողություն,  Ներկայացման ու հաղորդակցության հմտություններ,  Սթրեսային իրավիճակներում աշխատելու ունակություն,  Մեծաքանակ տեղեկատվության հետ աշխատելու ունակություն։  Հավելյալ նշումներ  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> We are looking for an Android Developer who possesses a passion for pushing mobile technologies to the limits. This Android app developer will work with our team of talented engineers to design and build the new application on the android platform. He/she will work closely with internal and external technical teams. Responsibilities Design and build advanced applications for the Android platform Collaborate with cross-functional teams to define, design, and ship new features Work with outside data sources and APIs Unit-test code for robustness, including edge cases, usability, and general reliability Work on bug fixing and improving application performance Continuously discover, evaluate, and implement new technologies to maximize development efficiency Requirements Proven software development experience (at least 4 years ) Proven working experience in Android app development  Experience with Android SDK Experience working with remote data via REST and JSON Experience with third-party libraries and APIs Experience working with hardware SDKs Working knowledge of the general mobile landscape, architectures, trends, and emerging technologies Solid understanding of the full mobile development life cycle. BS/MS degree in Computer Science, Engineering or a related subject </t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -2401,7 +2401,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>7/11/2020</t>
+          <t>12/23/2020</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2413,17 +2413,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Վաճառքի խմբի ղեկավար / Թիմ լիդեր</t>
+          <t>Մեխանիկ</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Սիկոնե ՍՊԸ</t>
+          <t>"Մեհրաբյան և որդիներ" ՍՊԸ</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Սննդամթերքի ներմուծմամբ և մանրածախ վաճառքով զբաղվող կազմակերպությանը անհրաժեշտ են Վաճառքի խմբի ղեկավարներ (Թիմ լիդեր):  Պահանջներ  Աշխատանքային փորձը առնվազը 5 տարի  Սեփական ավտոմեքենա  Բարձրագույն կրթություն   Գրագետ խոսք և այն առավելագույնս կիրառելու ունակություն  Մարդկանց հետ անկաշկանդ հաղորդակցվելու ունակություն  Սթրեսակայունություն  Արագ կողմնորոշվելու ունակություն  Պարտականություններ  Շուկայի ուսումնասիրություն  Նոր գործընկերների որոնում և աշխատանքային կապերի հաստատում  Հին գործընկերների հետ լոյալ հարաբերությունների պահպանում  Ապրանքանիշի վաճառքի խթանում  Խանութներում ապրանքների առկայության հետևողականություն և տեսանելիության ապահովում  Հավելյալ նշումներ  Աշխատանքային ժամերը` 9:30 - 19:00, 6 օրյա:  Հետաքրքրված թեկնածուները կարող են ուղարկել CV նշված էլ. հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն ՙՙՄեհրաբյան և որդիներՙՙ ընկերությունը փնտրում է մեխանիկի, ով կիրականացնի արտադրական հաստոցների, հոսքագծերի, սարքավորումների տեխնիկական սպասարկման աշխատանքները: Պարտականություններ Արտադրական հաստոցների, հոսքագծերի, սարքավորումների անխափան աշխատանքի ապահովում,  Խնդիրների կանխարգելմանն ուղղված միջոցառումների իրականացում,  Հաստոցների նորոգում և պարբերական տեխսպասարկման աշխատանքների իրականացում,  Ձեռքբերման ենթակա պահեստամասերի և նյութերի անվանացանկի պատրաստում,  Անհրաժեշտության դեպքում փոխարինվող սարքավորումների կամ առանձին դետալների նախագծում և պատվիրում: Պահանջներ Բարձրագույն տեխնիկական կրթություն,  3 տարվա համապատասխան աշխատանքային փորձ, Արտադրական սարքավորումների նորոգման գերազանց հմտություն, Համակարգված աշխատելու ունակություն,  Պլանավորման ունակություն: Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար տարբերակներից: Հետևե՛ք հղմանը </t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -2433,29 +2433,29 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/20/2020</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>350.000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Շուկայի Զարգացման Պատասխանատու</t>
+          <t>Իրավաբան</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Սիկոնե ՍՊԸ</t>
+          <t>"ՌԱՖԷԼԳՐԻԳ" ՓԲԸ</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագիր  Սննդամթերքի ներմուծմամբ և մանրածախ վաճառքով զբաղվող կազմակերպությանը անհրաժեշտ  են Շուկայի զարգացման պատասխանատուներ` Երեւանում  և  մարզերում։  Պայմաններ  Աշխատավարձը սկսած 250,000դր-ից:  Պահանջներ  Աշխատանքային փորձ համապատասխան ոլորտում (պարտադիր 1-3 տարի)  Սեփական ավտոմեքենայի առկայություն  Բարձրագույն կրթությունը (ցանկալի է)  Գրագետ խոսք և այն առավելագույնս կիրառելու ունակություն  Մարդկանց հետ անկաշկանդ հաղորդակցվելու ունակություն  Սթրեսակայունություն, արագ կողմնորոշվելու ունակություն  Լեզուների իմացությունը կդիտվի որպես առավելություն  Պարտականություններ  Ապահովել ներկայացված ապրանքների ԱՌԱՋԱՏԱՐ ԴԻՐՔԵՐԸ  Ներկայացնել և վաճառել ներկայացվող ապրանքները  Պահպանել հին գործընկերների լոյալությունը,  Ուսումնասիրել շուկան, գտնել նոր գործընկերներ,  Հետևել խանութներում ապրանքների տեսակների առկայությանը, (դասավորվածությանը, գնապիտակների առկայուրյունն ու ճշտությանը), տեսանելիությանը  Հավելյալ նշումներ  Դիտարկվելու են բացառապես պահանջներին համապատասխանող CV-ները:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունը աշխատանքի է հրավիրում իրավաբանի։ Պարտականություններ Աշխատանքային փորձը իրավաբանական ոլորտում և լեզուների իմացությունը կդիտվի որպես առավելություն Քաղաքացիաիրավական և վարչաիրավական հարաբերություններում ծագած վեճերի վերաբերյալ գործերով դատական ներկայացուցչություն Պայմանագրերի, հանձնարարագրերի, տեղեկանքների, նամակաների և այլ փաստաթղթերի կազմում Գործընկերների և պայմանագրի կողմերի հետ հաճախորդի բանակցություննեի վարում և/կամ իրավաբանական ուղեկցություն Ձեռնարկությունների փաստաթղթաշրջանառության իրավական վերլուծություն Առևտրային գործընթացների և գործարքների իրավաբանական ուղեկցում և իրավական ռիսկերի գնահատում Հարկման, հարկային պլանավորման և օպտիմալացման հարցերով խորհրդատվություն, Ներկայացուցչություն պետական և տեղական ինքնակառավարման մարմիններում, ֆիզիկական և իրավաբանական անձանց հետ հարաբերություններում Դատական գործի հնարավոր ելքի և ընթացքի հեռանկարային գնահատում, վեճերի լուծմանն ուղղված բանակցությունների վարում։ Փաստաթղթերի իրավական վերլուծություն և իրավաբանական եզրակացությունների ու հանձնարարականների նախապատրաստում Իրավական հարցերով խորհրդատվություն Փաստաբանի արտոնագրի առկայությունը կդիտվի որպես առավելություն։ Մրցույթին մասնակցելու համար  նշված պայմաններին համապատասխանող թեկնածուները կարող են ուղարկել իրենց ինքնակենսագրությունը կազմակերպության էլ. հասցեին Պահանջներ Բարձրագույն իրավաբանական կրթություն (նաև բակալավրի աստիճան) Բանավոր և գրավոր հաղորդակցման հմտություններ Համակարգչից վարժ օգտվելու կարողություն, այդ թվում՝ MS Office (MS Word, Excel, Outlook) փաթեթի գերազանց իմացություն Կազմակերպչական հմտություններ և պատասխանատվության բարձր զգացում Վերլուծական մտածողություն, ճկունություն, մի քանի առաջադրանք միաժամանակ կատարելու, ժամանակի կառավարման հմտություններ և ուշադրություն մանրուքների նկատմամբ Թիմում աշխատելու ունակություն, պլանավորման ունակություն, պետական գնումների ոլորտում բողոքարկման ունակություն, ձեռնարկության փաստաթղթաշրջանառության իրավական վերլուծություն Առաջադրանքները ճիշտ և ժամանակին կատարելու, հատկապես՝ վերջնաժամկետների պահպանման ունակություն  Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:    </t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2470,24 +2470,24 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>250,000</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Եռակցող (չժանգոտվող պողպատի արգոնով)</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ՋԻ Պեպսի-Կոլա Բոթլեր ՍՊԸ</t>
+          <t>Medtechservice LLC</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Ջերմուկ Ինթերնեյշնլ Պեպսի-Կոլա Բոթլեր ընկերությունը փնտրում է չժանգոտվող պողպատի արգոնով եռակցողի, ով պատասխանատու կլինի ընկերությունում եռակցման աշխատանքների բարձր որակով իրականացման, ինչպես նաև փականագործական աշխատանքների և սարքավորումների տեխնիկական սպասարկման համար  Պարտականություններ  Իրականացնել չժանգոտող պողպատի արգոնով եռակցում՝ սննդի արտադրությանը համապատասխան բարձր ստանդարտներով,  Իրականացնել էլեկտրական եռակցման այլ աշխատանքներ,  Իրականացնել փականագործական աշխատանքներ,  Իրականացնել հոսքային գծերի, համակարգերի և սարքավորումների պլանային և ոչ պլանային տեխնիկական սպասարկում,   Ապահովվել կաթսայատան, ճնշակների տեղամասի, CO տեղամասի և այլ օժանդակ համակարգերի անխափան աշխատանքը,  Աշխատատեղը, պատասխանատվության վայրը և գործիքները պահել մաքուր վիճակում:  Պահանջներ  Միջնակարգ կրթություն, բարձրագույն տեխնիկական կրթությունը կդիտվի որպես առավելություն,   3+ տարվա համապատասխան աշխատանքային փորձ,  Հայերեն և Ռուսերեն լեզուների լավ իմացություն,  Տեխնիկական գրականություն, փաստաթղթեր և գծագրեր կարդալու և ընկալելու ունակություն։  Աշխատանքային ժամեր  Երկուշաբթի-ուրբաթ, ժ․ 9։00 - 18։00:  Դիմելու համար կարող եք ուղարկել ռեզյումե կամ դիմել նամակի միջոցով:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Հիմնարկությանը անհրաժեշտ է բարետես արտաքինով երիտասարդ աղջիկ`  բարձրագույն կրթությունը ցանկալի է, ժամանակակից, աշխատասեր, նախաձեռնող: Պարտականություններ վաճառքի գործընթացի կազմակերպում և վերահսկում պոտենցիալ հաճախորդների մասին ինֆորմացիայի հավաքագրում գնառաջարկներ կազմելու ունակություն բանակցությունների վարում հանդիպումների կազմակերպում հաճախորդների հետ հետադարձ կապի պահպանում Պահանջներ բարձրագույն կրթություն  հայերեն գրագետ բանավոր և գրավոր խոսք, ռուսերենի և անգլերենի գերազանց իմացություն համակարգչային գիտելիքներ - ՀԾ (Հայկական Ծրագրեր), Microsoft Office, Microsoft Excel, Power Point մեծ ծավալի տեղեկատվության հետ աշխատելու ունակություն պատասխանատվության բարձր զգացում թիմում աշխատելու ունակություն հաղորդակցվելու գերազանց  ունակություն ինքնակատարելագուրծվելու ցանկություն Հավելյալ նշումներ Աշխատանքային օրեր և ժամեր՝ 10։00-19։00, շաբաթ՝ 10։00-17։00,  կիրակի՝ ազատ: Դիմելու համար խնդրում ենք ուղարկել ռեզյումե նշված էլ. հասցեին: ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար օրինակներից: Հետևե՛ք հղմանը     </t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -2497,7 +2497,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>7/11/2020</t>
+          <t>12/20/2020</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
@@ -2509,17 +2509,17 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Գործավարուհի</t>
+          <t>1 C օպերատոր</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ՄԻՊ ԻՀԿ</t>
+          <t>C&amp;F Co LLC</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությանը անհրաժեշտ է գործավարուհի` գրասենյակում աշխատելու համար:  Պարտականություններ  Գրասենյակի առօրյա աշխատանքների կազմակերպում,  Հեռախոսազանգերի, էլ. փոստերի կառավարում,  Հանդւպումների գրաֆիկի կառավարում և կազմակերպում,  Տնօրինության ուղղակի հանձնարարությունների կատարում և կազմակերպում:  Պահանջներ  Բարձրագույն կամ մասնագիտական կրթություն  Աշխատանքային փորձը ցանկալի է  Համակարգչային գիտելիքները (office, web, mail...) պարտադիր են  Աշխատանքային կարգուկանոնի և կորպորատիվ վարվելակերպի զգացում  Հավելյալ նշումներ  Աշխատանքային օրերը և ժամերը՝ երկուշաբթի-ուրբաթ՝ 9:00-18:00:  CV-ները՝ նկարով, կարող եք ուղարկել նշված էլ. հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն «Սի Ընդ Էֆ Քո» ՍՊ ընկերությունն աշխատանքի է հրավիրում 1 C օպերատորի: Պարտականություններ Պատվիրված ապրանքների համակարգչային ծրագրերի միջոցով պահեստից դուրսգրում, Վերադարձ արված ապրանքների մուտքագրում 1C ծրագիր, ​ Անհրաժեշտ փաստաթղթաշրջանառության վարում,  Պարբերական հաշվետվությունների կազմում ու ժամանակին ներկայացում: Պահանջներ Բարձրագույն կրթություն MS Office, 1 C ծրագրերի իմացությունը ցանկալի է, Ռուսերեն լեզվի գերազանց իմացություն, Սեռը՝ իգական Պատասխանատվության զգացում Հաղորդակցման գերազանց հմտություններ: Հավելյալ նշումներ Աշխատանքային օրերը՝  երկուշաբթի-շաբաթ, 09:00-18:00: Գրասենյակը գտնվում է Չարբախում (Շարուրի 43): ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար օրինակներից: Հետևե՛ք հղմանը     </t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -2529,29 +2529,29 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/20/2020</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>80,000 նախնական</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Ռեստորանի Մենեջեր</t>
+          <t>Logistics coordinator (dispatcher)</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ProReCa</t>
+          <t>TriStar Transit INC</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «Ֆլագման» ռեստորանն աշխատանքի է հրավիրում պարտադիր աշխատանքային փորձով իգական սեռի պատասխանատու մենեջերի:  Պարտականություններ   Կազմակերպել և վերահսկել ռեստորանի աշխատանքը   Կազմել աշխատանքային գրաֆիկները   Ապահովել դրական և մոտիվացված մթնոլորտ աշխատակիցների շրջանում  Պահանջներ  Աշխատանքային փորձը տվյալ ոլորտում և հաստիքում պարտադիր է  Կազմակերպվածության և պատասխանատվության բարձր մակարդակ  Սեղմ ժամկետներում որոշումների կայացման ունակություն  Ղեկավարման ունակություններ  Հավելյալ նշումներ  Դիմելու համար ուղարկել CV էլ. փոստի հասցեին:                      </t>
+          <t xml:space="preserve"> Description Tristar logistic company (with new MC) is looking for Logistics coordinator (dispatcher) for an office job.Training will be provided. Responsibilities • Sales with either your own or company’s carriers,• Developing relationships with freight brokers and carriersoperating in the US and arranging freight transportation to meet their needs,• Account Management and development,• Manage multiple pick-ups and deliveries,• Track and update shipment status to freight brokers,• Tactful and intelligent negotiation of rates and services,• Carrier sourcing; acquisition,• Provide excellent customer service to both brokers and carriers.• Training will be provided Requirements • Fluent English,• Ability to work with a team,• Self-motivated, enthusiastic team player who excels in a fast-paced environment,• Excellent and effective communication skills (both verbal and written),• Strong customer service orientation and excellent work ethic,• Ability to quickly process information and make decisions,• Effective negotiation and problem-solving skills, and the ability to handle conflict,• General computer skills- proficiency with MS Office,• Higher Education is preferable but not mandatory. Additional notes Location is Yerevan,Avan Working hours - night shift, 17:00 - 01:00Interested candidates are welcome to send their resumes  </t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2561,7 +2561,7 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>7/6/2020</t>
+          <t>12/19/2020</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
@@ -2573,49 +2573,49 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ավտոմատ համակարգերի շահագործման մասնագետ/ էլեկտրոնշիկ</t>
+          <t>Ոսկերչական CAD դիզայներ</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ARMENIAN TOBACCO COMPANY</t>
+          <t>Jewelrycad.pro</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Էլեկտրական սարքավորումների շահագործման և դրանց անխափան աշխատանքի ապահովում:  Պարտականություններ  Արտադրական և օժանդակ  էլեկտրոնային  սարքավորումների, ավոմատացված կառավարման համակարգերի շահագոծում և անխափան աշխատանքների ապահովում,  Էլեկտրոնային սարքավորումների սպասարկում և վերանորոգում, տեխնիկական սպասարկման աշխատանքների ժամանակցույցի սահմանում, պահեստամասերի պահանջների ձևավորում,  Արտադրական սարքավորումների արդիականացում/ավտոմատացում, հաստոցների և սարքավորումների միկրոսխեմաների վերանորոգում,  Արտադրական սարքավորումների աշխատանքային ռեժիմների ստուգում, զննում և դիագնոստիկա` խնդիրների կանխատեսման և կանխարգելման նպատակով,  Տեխնիկական փաստաթղթերի ուսումնասիրում, կազմում և մեկնաբանում,  Համակարգերի էլեկտրական մոնտաժ, տեղադրված էլեկտրական համակարգերի աշխատանքների վերահսկում, թերությունների վերացում,  Արտադրական հաստոցների աշխատանքի համար անհրաժեշտ էլեկտրամատակարարման ապահովում և հսկողություն,  Էլեկտրական միացումների, անջատումների և փոխանջատումների համար անհրաժեշտ գործողությունների կատարում:  Պահանջներ  Բարձրագույն տեխնիկական կրթություն /Համապատասխան մասնագիտությամբ կրթություն,  Արտադրական հաստոցների հետ, հաճախականության փոխարկերպիչների և վերահսկիչների հետ աշխատանքի փորձ,  էլեկտրոնիկայի ինժեների առնվազն 1 տարվա աշխատանքային փորձ:  Հավելյալ նշումներ  Ընկերության հասցեն է՝ ք․ Աբովյան, 2-րդ արդյունաբերական թաղամաս, 6 վարչական մասնաշենք։                      </t>
+          <t xml:space="preserve"> Նկարագրություն JewelryCAD.pro թիմը  փնտրում է եռանդուն և ստեղծագործ 3D մոդելավորման մասնագետի՝ ոսկերչական մոդելավորման փորձով: Պարտականություններ Կառուցել ոսկերչական զարդերի եռաչափ մոդելներ, Ձևափոխել մոդելը ըստ արտադրական պահանջների, Կատարել փոփոխություններ ըստ հաճախորդների պահանջների։ Պահանջներ Rhinoceros և Matrix ծրագրերի լավ իմացություն, Ապացուցված աշխատանքային փորձը առնվազն 1 տարվա համապատասխան ոլորտում պարտադիր է, Կարողանալ վերարտադրել հաճախորդների առաջարկած 2D պատկերները, 3D արտադրության համար պատրաստ եռաչափ մոդելների, Մի քանի նախագծերի վրա զուգահեռաբար աշխատելու ունակություն, Թիմում աշխատելու ունակություն, Անհրաժեշտութայն դեպքում առաջադրանքի իրականացում սեղմ ժամկետներում, Z-Brush և V-Ray ծրագրերի իմացությունը ցանկալի է։ Հավելյալ նշումներ Աշխատանքային օրերը՝ երկուշաբթիից-շաբաթ, ժամերը 10։00-19։00Հետաքրքրված թեկնածուները կարող են դիմել` ուղարկելով CV և պորտֆոլիո նշված էլ. հասցեին:   </t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Abovyan</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>7/9/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>$700</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Վաճառողուհի Խորհրդատու</t>
+          <t>Ինտերիեր Դիզայներ</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Designo Furniture</t>
+          <t>Armesa by Hani</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Դիզայնո.....՛՛ խանութ-սրահին անհրաժեշտ է վաճառողուհի խորհրդատու:  Պարտականություններ  Հաճախորդների սպասարկում և վաճառքի իրականացում  Վաճառվող տեսականու վերաբերյալ խորհրդատվության տրամադրում հաճախորդներին  Օգնել կողմնորոշվել, խթանել վաճառքը  Բարեհամբույր սպասարկում  Պահանջներ   Բարձրագույն կրթությունը ցանկալի է  Սպասարկման ոլորտում աշխատանքային փորձը ցանկալի է  Համակարգչային բազային գիտելիքներ  Հաղորդակցման և թիմային աշխատանքի հմտություններ  Ճշտապահություն և պատասխանատվության զգացում  Նոր գիտելիքների և հմտությունների ձեռքբերելու ցանկություն  Աշխատանքային օրեր, ժամեր. ամեն շաբաթը մեկ օր հանգիստ, աշխատանքային ժամերը ՝ 11:00 - 20:00:  Համապատասխան թեկնածուները կարող են ուղարկել իրենց CV- ն և լուսանկարը նշված էլեկտրոնային հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Հաճախորդների բարձր գոհունակությունը պահելու նպատակով "Արմեսա բայ Հանի" դիզայն ստուդիան շտապ փնտրում է աշխատանքային փորձով կրեատիվ և ԱՐԱԳԱՇԱՐԺ ինտերիերի դիզայներների! Պահանջներ՝ աշխատանքային փորձ շինարարական նյութերի իմացություն նախագծի իրականացման վերահսկողության փորձ 3ds Max,Autocad (ArchiCad), Photoshop ծրագրերի իմացություն գրաֆիկական դիզայնի հմտությունները կդիտվեն որպես առավելություն բարձր պատասխանատվության զգացում  Ցանկացողները ուղարկեն CV՝ պարտադիր կցելով PORTFOLIO: </t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2625,61 +2625,61 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>7/9/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Սուպերվայզեր</t>
+          <t>Լոգիստ դիսպետչեր</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Brand Leader</t>
+          <t>Sempre Primima ltd</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  &lt;&lt;ԲրենդԼիդեր&gt;&gt; ՀՁ ՍՊ ընկերությունը փնտրում է թեկնածուների` Սուպերվայզերի թափուր հաստիքը համալրեու համար:  Պարտականություններ  Վաճառքի վերահսկում  Աշխատակազմի գործունեության կազմակերպում և վերահսկում   Պահանջներ  Բարձարագույն կրթություն  Պատասխանատվություն  Հավասարակշռվածություն  Առևտրի ոլորտում պարտադիր աշխատանքային փորձով  Ակտիվ և վերլուծական մտածողություն  Բարդ իրավիճակներում օպտիմալ որոշումների կայացման ունակություն  Սթրեսակայուն, օբյեկտիվ   Հավելյալ նշումներ  Աշխատաժամեր` 08:30-18:00 երկուշաբթիից-շաբաթ: Կիրակի՝ հանգիստ:  Մրցույթին մասնակցելու համար անհրաժեշտ է ուղարկել ինքնակենսագրականը(ռեզյումե) նշված Էլ. հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագիր Կազմակերպությունը աշխատանքի է հրավիրում լոգիստ դիսպետչերների: Աշխատանքը գրասենյակային է: Գրասենյակը գտնվում է Աբովյան քաղաքի կենտրոնում, իսկ գլխամասը ՝ ԱՄՆ ում: Կազմակերպությունը ապահովում է անհրաժեշտ ուսուցում: Պահանջներ Անգլերեն լեզվի անթերի տիրապետում (գրավոր և բանավոր ազատ մակարդակի) Համակարգչային մինիմալ գիտելիքներ Արագ կողմնորոշվելու ունակություն Թիմում աշխատելու ունակություն Հավելյալ նշումներ Աշխատանքային ժամերն են 16:00-02:00: Ներկայացված պահանջներին համապատասխանող թեկնածուները կարող են ուղարկել իրենց ռեզյումեները նշված էլ. հասցեին։  </t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Yerevan</t>
+          <t>Abovyan</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/18/2020</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>240,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Ֆինանսիստ</t>
+          <t>Վաճառքի Բաժնի Ղեկավար</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>M-Group LLC</t>
+          <t>8778 Հայաստան Տեղեկատու</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությանն անհրաժեշտ է պատասխանատվության բարձր զգացումով ֆինանսիստ:Մանրամասները ներկայացված են ստորև՝  Պարտականություններ  Ամսական ֆինանսական հաշվետվությունների կազմում  Տարեկան Ֆինանսական հաշվետվությունների կազմում  Ֆինանսական ձևակերպումներ  Ծախսերի  վերահսկում  Ֆինանսական  այլ գործառույթներ :  Պահանջներ  Բարձրագույն կրթություն  Հարկային օրենսգրքի իմացություն  1C,  Excel ծրագրերի գերազանց իմացություն  Հաշվապահական բազային գիտելիքներ  Անալիտիկ մտածողություն, բարդ իրավիճակներում արագ և հիմնավորված լուծումներ գտնելու և գործելու հմտություն,  Կազմակերպչական հմտություններ և կենտրոնացված ուշադրություն` նույնիսկ մանրուքների նկատմամբ,  Անգլերեն և ռուսոերեն լեզվուների բավարար  իմացություն:  Հավելյալ նշումներ  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Վաճառքի առարկան` ՏԵՂԵԿԱՏՎԱԿԱՆ ԵՎ ԳՈՎԱԶԴԱՅԻՆ ԾԱՌԱՅՈՒԹՅՈՒՆՆԵՐ ՊԱՐՏԱԿՈՒԹՅՈՒՆՆԵՐ  Վաճառքի բաժնի կառավարում Բանակցությունների վարում, պայմանագրերի կնքում և գործարքների վարում Վաճառքի բաժնի աշխատակիցների ընտրություն,  ուսուցում և կառավարում Վաժառքների բարձրացումը խթանող աշխատանքներ Շտեմարանի կառավարում և բաշխում աշխատակիցների մեջ Կազմակերպության ներկայացում տարբեր միջոցառումների Համագործակցող ռիսկային կազմակերպությունների հետ բանակցություններ Նոր հաճախորդների ներգրավում, հին հաճախորդների ետ բերում  Հաշվետվությունների կազմում և ներկայացում Վաճառքի պլանների կատարում Այլ աշխատանքներ վաճառքի արդյունավետությունը բարձրացնելու համար ՊԱՀԱՆՋՆԵՐ  Բարձրագույն մասնագիտական կրթություն Վաճառքի թրեյնինգների մասնակցություն Մարդկանց հետ աշխատելու և շփվելու ունակություն  Բանակցություններ վարելու ունակություն Աշխատասիրություն և  բարձր պատասխանատվության զգացում Նոր գիտելիքներ և հմտություններ ձեռք բերելու մշտական ցանկություն Վաճառքի հմտությունների և դրանք դասավանդելու ունակություն Ճկուն և թիմում աշխատելու ունակություն ՊԱՅՄԱՆՆԵՐ  Ընտրվելու են 3 թեկնածու, ովքեր 2 ամիս աշխատելու են որպես վաճառքի աշխատակից։ Հետագայում ընտրվելու է 1 աշխատակից։   Ազատ գրաֆիկ և այլ աշխատանքների հետ համատեղումը բացառվում է։  Պետական գրանցում՝ հարկերը պահվում են։ Նմանատիպ աշխատանքային փորձը ցանկալի է: Աշխատանքային գրաֆիկը՝  երկուշաբթի-շաբաթ, ժ 9:30-18:30: Ռեզյումեները ուղարկել նշված էլ․ հասցեին: </t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2689,29 +2689,29 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>7/9/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>150․000-350․000</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Ավիատոմսերի վաճառքի մենեջեր</t>
+          <t>Վաճառքի Բաժնի Աշխատակից</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Davinchi LLC</t>
+          <t>8778 Հայաստան Տեղեկատու</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Աշխատանքային հիմնական պարտականություններն են՝ օգնել հաճախորդներին ուղղության ընտրության հարցում, անցկացնել խորհրդատվություն, համապատասխան առաջարկ կատարել, ամրագրել տոմսերը (ավիատոմսեր, գնացքի կամ այլ տրանսպորտի տոմս), հյուրանոցը, էքսկուրսիաները եվ այլ անհրաժեշտ ծառայությունները։  Պարտականություններ  Վարել բանավոր եվ գրավոր հաղորդակցություն հաճախորդների և գործընկերների հետ։  Հավաքագրել, մշակել, վերլուծել հաճախորդների պահանջները թռիչքների ամրագրումների վերաբերյալ։  Իրականացնել հաճախորդների խորհրդատվություն` Տրամադրելով անհրաժեշտ տեղեկատվություն։  Հետևել վճարումների ընթացքին։  Պահանջներ  կրթություն Բարձրագույն կրթություն  աշխատանքային փորձ Որտում պարտադիր աշխատանքային փորձ  Անգլերենի գերազանց իմացություն, այլ օտար լեզուների իմացությունը ցանկալի է         Հաղորդակցվելու գերազանց հմտություններ  Ճկունություն, պարտաճանաչություն, արագ կողմնորոշվելու, սովորելու կարողություն  Մեծ ծավալներով տեղեկատվության հետ աշխատելու կարողություն  Հաճախորդների հետ բարեհամբույր շփվելու ունակություն  Համակարգչային և ամրագրման ծրագրերի իմացություն (MS office, Amadeus)  Հավելյալ նշումներ  Աշխատանքային օրեր և ժամեր երկ-շբ     10։00-19։00                      </t>
+          <t xml:space="preserve"> Աշխատանքի ենք հրավիրում վաճառքի մասնագետների: Պարտականություններ. 1. Ծառայությունների ներկայացում տարբեր կազմակերպություններին` այցի և զանգերի միջոցով 2. Կազմակերպությունների ներգրավում տարբեր փաթեթներով 3. Պայմանագրերի կնքում 4. Տվյալների ճշտում 5. Կազմակերպության վաճառքի քանակը և որակը բարձրացնող այլ աշխատանքներ 8. Հաշվետվությունների կազմում ըստ ղեկավարի պահանջի ՊԱՀԱՆՋՆԵՐ  բարձրագույն կրթություն (բակալավր) թիմում աշխատելու ունակություն ոչ կոնֆլիկտային բնավորություն սթրեսակայուն  չեն հիասթափվում դժվարություններից կարող են օրական 1-2 հանդիպում անցկացնել  քաղաքի տարբեր մասերում նախաձեռնող են  և պրպտող բարետես /դրեսս կոդի պահպանմամբ/ երիտասարդ / մեզ համար 40 տարեկանն էլ է երիտասարդ  վազվզող, ակտիվ  Վարձատրությունը` կախված վաճառքի տիրապետման հմտություններից` 88000-300000 ՀՀ դրամ։ Գոյություն ունեն աշխատանքային նորմեր:  Աշխատակիցները գրանցվում են, բոլոր հարկերը պահվում են: Ռեզյումեները ուղարկել էլ. հասցեի՝ նկարով, վերնագրում նշելով աշխատատեղի անվանումը: Ուղարկել նաև անձնական ֆեյսբուքյան էջի հղումը։  </t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -2721,39 +2721,39 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>7/8/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>88.000-300.000</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Վարորդ Առաքիչ /ք. Սևան/</t>
+          <t>Խանութի Գլխավոր Մենեջեր /ք․ Կապան/</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Բայազետ 1 ՍՊԸ</t>
+          <t>Domus</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությունը աշխատանքի է հրավիրում վարորդ առաքիչների:  Պարտականություններ  Ապրանքի ընդունում պահեստից` համաձայն փաստաթղթերի   Ապրանքի հանձնում` համապատասխան հաճախորդներին՝ կատարելով բեռի հետ կապված փաստաթղթավորում   Մեքենայի հնարավոր անսարքություններին հետևողական մոտեցում և ճիշտ ժամանակին հայտնում   Պահանջներ  մինչև 40 տարեկան  աշխատանքային փորձը պարտադիր է տվյալ ոլորտում (1-2 տարի)  պատասխանատու  գրագետ խոսք  ճշտապահ  Հավելյալ նշումներ  Մեքենան տրամադրվում է կազմակերպության կողմից:Աշխատանքային օրեր, ժամեր. երկուշաբթի – շաբաթ, 09:00 – 18:00:  Հետաքրքրված թեկնածուները կարող են դիմել` ուղարկելով ռեզյումե նշված էլ. հասցեին կամ դիմել նամակի միջոցով:                      </t>
+          <t xml:space="preserve"> Դեկորա Գրուպ ՍՊԸ-ն ներկայացնում է Decora, Domus, Duson, Bardi, Kitchen shop խանութների ցանցը։ Խանութը աշխատում է ամեն օր։ Աշխատանքային գրաֆիկը 6 օրյա աշխատանքային շաբաթ։  Պահանջվող որակավորումները Բարձրագույն կրթություն Հայերեն, անգլերեն և ռուսերեն լեզուների իմացություն Կառավարման առնվազն 2 տարվա փորձը կդիտվի որպես առավելություն Համակարգչային գիտելիքներ՝ Microsoft Office փաթեթի ծրագրերի գերազանց իմացություն և 1C-ի իմացությունը կդիտվի որպես առավելություն Ակտիվ վաճառքի հմտություններ՝ կոնտակտ, ակտիվ լսողություն, աշխատանք առարկությունների հետ և այլն։ Բազային մաթեմատիկական և երկրաչափական գիտելիքներ /վաճառվող ապրանքի հաշվարկներում աշխատակիցներին ուղղորդելու նպատակով/ Կոնֆլիկտների կառավարման հմտություն Թիմ ղեկավարելու և կառուցելու հմտություն, թիմի առաջ նպատակներ դնելու հմտություն Թիմը մոտիվացնելու հմտություն, թիմային աշխատանքի խրախուսման մեխանիզմների իմացություն Անալիտիկ մտածողություն Ժամանակի կառավարման հմտություն Աշխատանքի կազմակերպման հմտություն Պատվիրակելու և հանձնարարությունները ճիշտ տալու, վերահսկելու և խրախուսելու հմտություն Աշխատակազմի աշխատանքը ուղղորդելու և սովորեցնելու հմտություն Լիդերություն Խնդիր լուծելու կողմնորոշում Բարձր հուզական ինտելեկտ Սթրեսակայունություն Հաղորդակցման հմտություն Ճկունություն, արագ կողմնորոշվելու ունակություն Պատասխանատվության զգացում Բարեվարքություն /integrity/ Աշխատանքային պարտականությունները Կազմակերպել վաճառքի կետի ամենօրյա բնականոն աշխատանքը Կազմակերպել ապրանքատեսականու պատշաճ ցուցադրությունը Հետևել և կազմակերպել ծրագրային (1C) բոլոր գործողությունները Հետևել աշխատանքային կարգուկանոնին, աշխատակիցների կարգապահությանը, արտաքին տեսքին Հետևել սպասարկման բարձր որակի ապահովմանը Լինել հաճախորդների հետ անմիջական շփման մեջ, բացահայտելով նրանց կարիքները Նպաստել յուրաքանչյուր աշխատակցի արդյունավետության բարձրացմանը և մասնագիտական հատկանիշների բարելավմանը Նպաստել վաճառքի կետի արդյունավետ աշխատանքին Կազմակերպել ինվենտարիզացիա Հետևել խանութի գույքի պատշաճ շահագործմանը և մաքրությանը  Հետևել ընթացիկ օգտագործվող ապրանքների և նյութերի խնայողաբար օգտագործմանը Դիմելու ընթացակարգը Բոլոր հետաքրքրված և պահանջներին համապատասխանող թեկնածուները խրախուսվում են ուղարկել իրենց ինքնակենսագրականը (CV)։ CV-ի ֆայլը անվանեք ձեր անուն և ազգանունով CV-ն ընդունելի է միայն Word կամ PDF ձևաչափով Միայն Unicode ֆոնտով հավաքված CV-ները կընդունվեն, օրինակ Sylfaen ֆոնտով Կխնդրեինք չմոռանալ ուղեկցող նամակը (ոչ մոտիվացիոն)։ </t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Sevan</t>
+          <t>Kapan</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>7/8/2020</t>
+          <t>12/18/2020</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
@@ -2765,27 +2765,27 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Հաշվետար</t>
+          <t>Վաճառքի մենեջեր</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Բայազետ 1 ՍՊԸ</t>
+          <t>FIREFLY</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությունը փնտրում է արտադրության հաշվետար՝ ՀԾ իմացությամբ  Պարտականություններ  Արտադրության փաստաթղթերի կազմում (պահեստի մուտք, ներքին տեղաշարժ, կոմպլեկտավորում, ապակոմպլեկտավորում),   Ապրանքահումքային շարժի վերահսկողություն,   Արտադրության փաստաթղթերի ծրագրային ձևակերպում,   Վերադասի հանձնարարությամբ այլ հաշվապահական գործառույթներ։  Պահանջներ  բարձրագույն կրթություն (տնտեսագիտական կամ հաշվապահական)  աշխատանքային փորձ, (ցանկալի է արտադրության ոլորտում)  ցանկալի հմտություններ՝ ՀԾ , Excel,  աշխատասիրություն, աշխատանքի նկատմամբ պատասխանատվություն, թիմում աշխատելու ունակություն  Հավելյալ նշումներ  Աշխատանքային գրաֆիկը երկուշաբթիից շաբաթ ժամը 09:00-18:00                      </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունը աշխատանքի է հրավիրում վաճառքի գծով մենեջերի: Պարտականություններ Հմտորեն ներկայացնել  ապրանքատեսականին  պոտենցիալ գնորդներին, Նպաստել  ապրանքատեսականու  վաճառքի  ընդլայնմանը, Դրսևորել  անհատական նախաձեռնություններ՝  մարքեթինգի ուղղությամբ, Վաճառքի գործընթացի կազմակերպում ևվերահսկում Հաճախորդների հետ հետադարձ կապիպահպանում Վաճառքի աճի նոր հնարավորություններիբացահայտում Վաճառքի արդյունքների վերլուծություն  ևհաշվետվությունների  ներկայացումտնօրինությանը Պահանջներ Ցանկալի է՝  մասնագիտական  համապատասխան կրթությամբ, Վաճառքի մենեջերի  աշխատանքային փորձը  պարտադիր է, Փնտրվող  մասնագետները  պետք  է  ունենան  գրագետ, կիրթ խոսելու ունակություն, կիրթպահվածք, ցանկալի է,  որ  հայերենից  բացի, տիրապետեն ռուսերեն, անգլերեն լեզուների: Պահանջվող հատկությունները՝  պարտաճանաչություն, կարգապահություն, նախաձեռնողականություն՝ մարքետինգի  ռազմավարություն մշակելու  և իրականացնելու  համար՝  ընկերության  կարգուկանոնիսահմաններում: Հավելյալ նշումներ Աշխատանքային օրեր և ժամերը՝  երկուշաբթի-ուրբատ 10:00 -18:00։ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Աբովյան, գ. Արամուս</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>7/6/2020</t>
+          <t>12/18/2020</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
@@ -2797,17 +2797,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Վաճառողուհի Խորհրդատու</t>
+          <t>Որակի Վերահսկման Մասնագետ</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Լեվադենտ ՍՊԸ</t>
+          <t>Mr. GYROS</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Խանութ-սրահին անհրաժեշտ է վաճառողուհի-խորհրդատու (մինչև 25 տարեկան):   Պարտականություններ  Հաճախորդների սպասարկում և վաճառքի իրականացում  Վաճառվող տեսականու վերաբերյալ խորհրդատվության տրամադրում հաճախորդներին  Օգնել կողմնորոշվել, խթանել վաճառքը  Բարեհամբույր սպասարկում  Պահանջներ  Դեղագործի մասնագիտությունը ցանկալի է  Սպասարկման ոլորտում աշխատանքային փորձը ցանկալի է  Հաղորդակցման և թիմային աշխատանքի հմտություններ  Ճշտապահություն և պատասխանատվության զգացում  Նոր գիտելիքների և հմտությունների ձեռքբերելու ցանկություն  Հավելյալ նշումներ  Աշխատանքային օրեր: երկուշաբթի-ուրբաթ ժամը 10.00-18.00, շաբաթ ժամը 10.00-16.00:  Համապատասխան թեկնածուները կարող են ուղարկել իրենց CV- ն և լուսանկարը նշված էլեկտրոնային հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպության ընդլայնման հետ կապված Մր. Գիրոս ընկերությունը  հրավիրում է որակի վերահսկման մասնագետի: Աշխատանքային պարտականություններ Ստացվող հումքի, արտադրված մթերքի ամենօրյա ստուգում՝ օրգանոլեպտիկ և մանրէաբանական Հումքի և արտադրանքի համար նորմատիվային ակտերի կազմում, տեխնոլոգիական վերլուծությունների իրականացում, Արտադրական գործընթացների վերահսկողություն, խոտան ապրանքների և/կամ արտադրանքի վերահսկողություն, համապատասխան հաշվետվությունների վարում Արտադրական գործընթացների օպտիմալացմանն ուղղված սխեմաների մշակում, օգտագործվող հումքի որակական հատկանիշների ստուգում, վերամշակման մեխանիզմների մշակում և ներդրում Նոր արտադրատեսակների տեխնոլոգիական գործընթացների կազմակերպում, վերահսկողական մեթոդների մշակում և իրականացում Անձնակազմին սննդի որակի վերահսկման մեթոդների, մեխանիզմների և սխեմաների մասին թրեյնինգների տրամադրում Գործառույթներից բխող ուսումնասիրությունների իրականացում, հաշվետվությունների կազմում և ներկայացում Անմիջական ղեկավարի կողմից տրվող այլ հանձնարարություններ Պահանջվող որակավորումներ Բարձրագույն կրթություն (սննդի ոլորտի տեխնոլոգ) Աշխատանքային փորձ սննդի արտադրության ոլորտում Պլանավորման և կազմակերպչական հմտություններ, Ղեկավարման հմտություններ Վերլուծական մտածելակերպ, ներկայացման հմտություններ, Համակարգչային գիտելիքներ Հայերեն, ռուսերեն, անգլերեն  լեզուների իմացություն Դիմելու ընթացակարգը: Համապատասխան թեկնածուները կարող են ուղարկել ինքնակենսագրականը և ուղեկցող նամակը  էլ. հասցեին: </t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -2817,39 +2817,39 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/17/2020</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>100,000 դրամ</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Տնօրենի օգնական</t>
+          <t>Վաճառքի Խորհրդատու</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Բայազետ 1 ՍՊԸ</t>
+          <t>Exterior Group LLC</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Փնտրում ենք իգական սեռի տնօրենի օգնական, ով առօրյա աշխատանքում կաջակցի Ընկերության տնօրենին` ժամանակի արդյունավետ կառավարման հարցում:   Պարտականություններ  տնօրենի տարաբնույթ պարտականությունների, ծրագրերի և նախաձեռնությունների ադմինիստրատիվ աջակցության իրականացում   հեռախոսազանգերի և հաղորդագրությունների ընդունում, համակարգում   կատարում է գրավոր և բանավոր թարգմանություններ ռուսերենից, անգլերենից հայերեն և հակառակը    հանդիպումների, միջոցառումների օրակարգերի ու ծրագրերի կազմում  տեղեկատվության հավաքարագրում, տվյլաների բազայի համակարգում և թարմեցում  փաստաթղթաշրջանառության կառավարում, արդյունավետության վերահսկում  նամակարգրության վարում և փաստաթղթերի կազմում  վարում է Ընկերության Մուտքային և Ելքային փաստաթղթերի գրանցամատյանը, իրականացնում է փաստաթղթավորումը;  պատասխանատու է Ընկերության էլեկտոնային փոստի մուտքային նամակների հասցեկան ուղղորդման, դրանց պատասխանելու համար;  Պահանջներ  Իգական սեռ  Բարձրագույն կրթություն  Առնվազն 3 տարվա աշխատանքային փորձ  SMM հմտություններ ունենալը կդիտարկվի որպես առավելություն  Կազմակերպչական և հաղորդակցման գերազանց հմտություններ  Հայերենի, անգլերենի և ռուսերենի գերազանց իմացություն  Համագործակցության հմտություններ  Համակարգչից օգտվելու գերազանց հմտություններ  Բանակցելու հմտություններ  Պատասխանատվություն  Թիմային աշխատանքի հմտություններ  Գաղտնի տեղեկատվության հետ աշխատելու ունակություն  Հավելյալ նշումներ  Աշխատանքային օրեր և ժամեր. Երկուշաբթիից-շաբաթ, ժամը 09:00-18:00:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Էքստերիեր Գրուպը ընդլայնում է իր թիմը. եթե դու նպատակասլաց ես, աշխատասեր և խելացի, ապա բաց մի թող հնարավորությունը աշխատել շինանյութի շուկայի առաջատարներից մեկի` Էքստերիերի պրոֆեսիոնալ թիմում, որտեղ կլինես հարգված և գնահատված աշխատակից: Պարտականություններ Հաճախորդների սպասարկում, Ապրանքների ներկայացում և խորհրդատվություն, Ապրանքների  վերաբերյալ անհրաժեշտ և ամբողջական տեղեկատվության ապահովում, Հետևել ապրանքների դասավորվածությանը  Ժամանակին համալրել ապրանքների քանակը ցուցասրահում Վերահսկել ապրանքային մնացորդը Պահանջներ Բարձրագույն կրթություն Օտար լեզուների իմացություն /մասնավորապես հայերեն և ռուսերեն/ Սահուն և գրագետ խոսք Արագ սովորելու ունակություն Մասնագիտական դասընթացներ անցնելու,նոր գիտելիքների և հմտությունների ձեռք բերելու  ցանկություն, Վաճառքի և հաղորդակցման հմտություններ, Թիմային և ծանրաբեռնված աշխատելու ունակություն, Աշխատասիրության և պատասխանատվության բարձր զգացում, Հավասարակշռվածություն և կարգապահություն Առաջնահերթությունը կտրվի այն թեկնածուներին, ովքեր ունեն աշխատանքային փորձ այս ոլորտում: Հավելյալ նշումներ 6-օրյա աշխատանքային գրաֆիկ, ժամը 9:00-19:00: Ընդմիջումն ապահովում է ընկերությունը: Ընկերությունն ապահովում է բարեխիղճ և պարտաճանաչ աշխատակիցների կարիերային աճը: </t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Աբովյան, գ. Արամուս</t>
+          <t>Yerevan</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>7/5/2020</t>
+          <t>12/17/2020</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
@@ -2861,17 +2861,17 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Բժշկական ներկայացուցիչ</t>
+          <t>Խորհրդատու Վաճառող(ուհի)</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Medtechservice LLC</t>
+          <t>MILAZZO STORE</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  ՄԵԴՏԵԽՍԵՐՎԻՍ ընկերությունը հրավիրում է աշխատանքի բժշկական ներկայացուցչի թափուր հաստիքում, ով անմիջականորեն աշխատելու է հանրահայտ ճանաչում վայելող բժշկական սարքավորումներ արտադրող խոշորագույն ընկերությունների հետ՝ հանդիսանալով կարևորագույն օղակ մեր հաճախորդների և այդ կազմակերպությունների միջև, ցուցաբերելով բարձր աստիճանի պատասխանատվության զգացում, բարձր պրոֆեսիոնալիզմ մեր կորպորատիվ հաճախորդների հետ հաղորդակցման համար:   Պարտականություններ  Մեծ ծավալի ինֆորմացիայի հետ աշխատելու ունակություն, անընդհատ նոր ինֆորմացիա սովորելու և այն կիրառելու պատրաստակամություն  Օտարերկրյա գործընկերներիր հետ մշտական կապի պահպանում, պարտաճանաչություն, կազմակերպչական և տարբեր իրավիճակներում արագ կողմնորոշվելու ունակություն:  Պահանջներ  Բարձրագույն կրթություն Բժշկական/դեղագործական/ստոմատոլոգիական/կենսաբանական/բժշկական ինժեներական (կարող են դիմել նաև վերոնշյալ մասնագիտության բուհերի ավարտական կուրսի ուսանողներ)  Անգլերեն, ռուսերեն լեզուների իմացություն  Մեծ ծավալի ինֆորմացիայի հետ աշխատելու ունակություն, անընդհատ նոր ինֆորմացիա սովորելու և այն կիրառելու պատրաստակամություն  Համակարգչային ծրագրերի վարժ իմացություն՝ Word, Power Point, Excel  Մարկետինգային մտածելակերպ, բիզնես ընկալունակություն  Կրեատիվություն, նոր լուծումներ առաջարկելու ունակություն  Աշխատանքին նվիրվածություն  Առնվազն 1 տարվա աշխատանքային փորձը գնահատվելու է որպես առավելություն  Աշխատանքայն գրաֆիկը՝ մասնակի զբաղվածութամբ  Հավելյալ նշումներ  Բոլոր ցանկացողներին խնդրում ենք ուղարկել ինքնակենսագրականը (CV)՝ պարտադիր նշելով LinkedIn-ի, ինչպես նաև որևէ այլ սոցիալական հարթակի ձեր պրոֆիլի հասցեն (Facebook, Twitter):                      </t>
+          <t xml:space="preserve"> Նկարագրություն MILAZZO STORE -ին անհրաժեշտ են Խորհրդատու-վաճառող(ուհի): Պարտականություններ Իրականացնել վաճառք Հաճախորդին տալ տեղեկատվություն բրենդների և ապրանքների մասին Հետևել սրահի դասավորությանը Պահանջներ աշխատանքային փորձ վաճառքի ոլորտում բրենդերի մասին ինֆորմացիա ապրանքատեսականու գեղեցիկ ներկայացում սոց. ցանցերում  Անգլերեն և ռուսերեն լեզուների իմացություն Հավելյալ նշումներ Համապատասխան անձինք կարող են իրենց ինքնակենսագրականը ուղարկել նշված էլեկտրոնային հասցեին: </t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -2881,29 +2881,29 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>7/5/2020</t>
+          <t>12/17/2020</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Part time</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Ինժեներ Շինարար</t>
+          <t>Գլխավոր հաշվապահ</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>M-Group LLC</t>
+          <t>X-Group</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությանը անհրաժեշտ է ինժեներ-շինարար:  Պարտականություններ   Շինարարության համակարգում   Շին. տեղամասերից ինֆորմացիայի հավաքագրում   Շինարարական աշխատանքների պլանավորում   Համագործակցություն ծրագրի ղեկավարների հետ  Պահանջներ  ինժեներական կրթություն   աշխատանքային փորձ շինարարության ոլորտում  արագ կողմնորոշվելու ունակություն  համակարգչային գիտելիքներ  Հավելյալ նշումներ  Դիմելու համար կարող եք ուղարկել ռեզյումե նշված էլ. հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ընկերությանն անհրաժեշտ է արտադրական ոլորտում աշխատանքային փորձ ունեցող գլխավոր հաշվապահ: Պարտականություններ Ապահովել հաշվապահական հաշվառման վարումը, հաշվետվությունների ժամանակին կազմումն ու համապատասխան մարմիններին ներկայացումը, Ապահովել ձեռք բերված ապրանքանյութական արժեքների ընդունման, պահեստավորման, պահեստավորված միջոցների շարժի հաշվառման աշխատանքները, Ապահովել կնքված պայմանագրերի շրջանակներում կատարված աշխատանքների, մատուցված ծառայությունների և մատակարարված ապրանքների գծով ստացված վճարային փաստաթղթերի ճշտության ստուգումը և հաշվառումը, Ապահովել գործուղման նպատակով տրված առհաշիվ գումարների ծախսման մասին հաշվետվությունների ընդունումը, Ապահովել հիմնական միջոցների, արագամաշ առարկաների հաշվառումը, իրականացնել ակտիվների մոնիթորինգ՝ ժամանակին և պատշաճ գույքագրման տեսակետից, Ապահովել առանձին ծախսային ծրագրերի գծով դեբիտորական և կրեդիտորական պարտքերի հաշվառումը, Հարկային և ֆինանսական հաշվետվությունների պատրաստում և ներկայացում ՀՀ հարկային տեսչություն, ինչպես նաև այլ պետական կամ տեղական ինքնակառավարման մարմիններ,  Հարկային և այլ պարտադիր վճարումների իրականացում ` ՀՀ օրենսդրությամբ նախատեսված ժամկետներում և կարգով Մասնակցություն Ընկերության բյուջեի պլանավորմանը և բյուջեի կատարման ընթացքի վերահսկմանը Ընկերության գործունեությանն առնչվող իր իրավասության մեջ մտնող այլ հանձնարարությունների կատարում Պահանջներ Բարձրագուն կրթություն` տնտեսագիտության և հաշվապահության ոլորտում,  1C ծրագրի գերազանց տիրապետում, ՀՀ և միջազգային հաշվապահական հաշվառման ստանդարտների իմացություն, ACCA հաշվապահական որակավորման համապատասխան աստիճանի առկայությունն կդիտվի որպես առավելություն, Առնվազն 3 տարի աշխատանքային փորձ արտադրական ոլորտում: Հավելյալ նշումներ Հասցե՝ ք.Երևան, Շիրակի 43: 6-օրյա աշխատանքային գրաֆիկ: Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -2913,7 +2913,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>7/5/2020</t>
+          <t>12/16/2020</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
@@ -2925,17 +2925,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Մենեջեր</t>
+          <t>Օնլայն Խաղերի Դիլեր</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>«Տիգրան Մեծ» հրատարակչություն ՓԲԸ</t>
+          <t>Exsol LLC</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  «Տիգրան Մեծ» հրատարակչություն  ՓԲ  ընկերությունն աշխատանքի է հրավիրում մինչև 35 տարեկան տղաների մենեջերի հաստիքում աշխատելու համար:  Պարտականություններ  Պատվերների ընդունում,   Պատվերների հանձնում  Մրցույթների փաթեթների մշակում  Պահանջներ  Բարձրագույն կրթություն  համակարգչային ծրագրերի իմացություն  հայերեն, ռուսերեն, անգլերեն լեզուների իմացություն  աշխատանքային փորձը տպագրության ոլորտում ցանկալի է  Հավելյալ նշումներ  Հնգօրյա` ժ.9:00-18:00                      </t>
+          <t xml:space="preserve"> Նկարագրություն Exsol LLC-ին փնտրում է պոզիտիվ, աշխույժ, ճարպիկ, բարետես արտաքինով, պատասխանատու աղջիկ դիլերների:  Աշխատանքային պայմաններ 8 ժամյա գրաֆիկ Պարտականություններ Օնլայն խաղերի վարում Պահանջներ Աշխատանքային փորձը ցանկալի է Անգլերենի բավարար, խոսակցական մակարդակի իմացություն Ուշադրություն Պունկտուալություն Հավելյալ նշումներ Դիմելու համար ինքնակենսագրականները՝ լուսանկարով, կարող եք ուղարկել նշված էլ. հասցեին: </t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -2945,7 +2945,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>7/5/2020</t>
+          <t>12/16/2020</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -2957,17 +2957,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Գրասենյակային Աշխատակից</t>
+          <t>Ապառիկ վաճառքի վերահսկման մասնագետ</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Ռեֆորս Գրուպ ՍՊԸ</t>
+          <t>ՋԻ Պեպսի-Կոլա Բոթլեր ՍՊԸ</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  ՌԵՖՈՐՍ ԳՐՈՒՊ ՍՊ Ընկերությունը աշխատանքի է հրավիրում 22-32 տարեկան աղջիկների:Աշխ. Գրաֆիկ ՝ Երկուշաբթիից-ուրբաթ 9:00 - 18:00  Պահանջվող որակավորում  1.Բարձրագույն կրթություն2.Պարտադիր պահանջն է` հայերեն, ռուսերեն լեզուների վարժ իմացությունը (անգլերենի իմացությունը ցանկալի է)3.Համակարգչային գիտելիքներ՝ MS Office փաթեթի տիրապետում4.Պատասխանատվության բարձր զգացում5.Արդյունքամետ և ճկուն անձնային որակների առկայություն  Աշխատանքային պարտականություններ  1.Ապահովել փաստաթղթաշրջանառության անխափան ընթացքը2.Կազմել տարատեսակ հաշվետվություններ3.Լրացնել փաստաթղթերի համապատասխան ձևաչափեր4.Իրականացնել ադմինիստրատիվ բնույթի այլ գործառույթներ5.Մատակարարների և պատվիրատուների հետ շփում և աշխատանք  Դիմելու համար ուղարկել CV նշված էլ. հասցեին:Հասցե՝ ք. Երևան, Գ. Լուսավորիչ 7/1                      </t>
+          <t xml:space="preserve"> Նկարագրություն ՋԻ Պեպսի-Կոլա Բոթլեր Ընկերությունը փնտրում է փորձառու, մոտիվացված Ապառիկ վաճառքի վերահսկման մասնագետի, որը պատասխանատու է Ընկերության ապառիկ վաճառքների հաշվառման, հաճախորդներին տրվող զեղչերի վերահսկողության և հաշվետվությունների կազմման համար: Պարտականություններ Կատարել գնագոյացման, զեղչերի վերահսկողություն` կազմակերպության գնային քաղաքականությանը համապատասխան: Կատարել ապառիկ վաճառքից գոյացած պարտքերի ժամանակագրական հաշվառում: Հաճախորդների հետ պարբերաբար իրականացնել պարտքի ստուգում: Լինել հետևողական բոլոր ժամկետանց պարտքերի նկատմամբ: Վերահսկել հաճախորդներին տրված առևտրային պայմանների պատշաճ իրականացման գործընթացը: Բանկային փոխանցմամբ ստացված վճարները մուտքագրել համակարգ: Վերահսկել ավել փոխանցված գումարները և պարզել պատճառները: Կազմել հաշվետվություններ հաճախորդներին տրվող զեղչերի վերաբերյալ: Պահանջներ Բարձրագույն կրթություն (ֆինանսական կամ տնտեսագիտական ոլորտում), Նվազագույնը 1 տարվա աշխատանքային փորձ ֆինանսական ոլորտում, Ռուսերենի և անգլերենի լավ իմացություն, Microsoft Excel ծրագրի գերազանց իմացություն, ՀԾ4 ծրագրի իմացությունը կդիտվի որպես առավելություն, Գրավոր և բանավոր հաղորդակցվելու գերազանց հմտություն, Վերլուծական մտածողություն։ Հավելյալ նշումներ Հետաքրքրված անձիք կարող են ուղարկել իրենց ինքնակենսագրականը նշված էլ. հասցեին՝ վերնագրում նշելով հաստիքի անունը: </t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -2977,29 +2977,29 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/16/2020</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>70,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Քիմիկ Տեխնոլոգ</t>
+          <t>Վաճառքի մասնագետ</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ՄԲ Հոլդինգ ՍՊԸ</t>
+          <t>VITE GROUP</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Քիմիկ տեխնոլոգ՝ կենցաղային քիմիայի և ալկոգելի արտադրության համար  Պարտականություններ  Հետևել լաբառատորիայի ընթացիկ աշխատանքներին  Ստուգել անհրաժեշտ նյութերի որակը  Իրականացնել նոր արտադրանքի ստեղծում  Տեխնոլոգիական հաշվարկների իրականացում  Տեխնոլոգիական փաստաթղթերին համապատասխան արտադրական գործընթացի ապահովում եվ վերահսկում  Տեխնիկական կորուստների հաշվառում  Ղեկավարության կողմից նմանատիպ այլ աշխատանքների կատարում  Պահանջներ  Բարձրագույն տեխնիկական կրթություն  Համանման աշխատանքային փորձի առկայություն պարտադիր է  Համակարգչային ծրագրերի իմացություն, մասնավորապես՝ MS Office, Excel  Հավելյալ նշումներ  Վայրը՝ ք.Երևան, Ծարավ Աղբյուրի 14:  Աշխատանքի տեսակը՝ մշտական:  Աշխատանքային գրաֆիկը՝ շաբաթական 6 օր՝ 9.00-18.00, հանգստյան օրը՝ կիրակի:  Աշխատավարձը պայմանագրային՝ կախված հմտությունից և աշխատանքային փորձից:  Դիմելու համար խնդրում եմ ուղարկել ինքնակենսագրականը էլեկտրոնային  հասցեին:  Հարցազրույցին կհրավիրվեն նախնական փուլում ընտրված թեկնածուները:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունը աշխատանքի է հրավիրում շինանյութի վաճառքի մասնագետի՝ կորպորատիվ սեգմենտի հետ աշխատելու համար: Պարտականություններ Իրականացնել շինանյութի վաճառք  Նպաստել  ապրանքատեսականու  վաճառքի  ընդլայնմանը, Դրսևորել  անհատական նախաձեռնություններ՝  մարքեթինգի ուղղությամբ Վաճառքի գործընթացի կազմակերպում և վերահսկում Հաճախորդների հետ հետադարձ կապի պահպանում Վաճառքի աճի նոր հնարավորությունների բացահայտում Վաճառքի արդյունքների վերլուծություն  և հաշվետվությունների  ներկայացում տնօրինությանը Պահանջներ Տարիքը` 23 և բարձր, Բարձրագույն մասնագիտական  համապատասխան կրթությամբ, Աշխատանքային փորձը  պարտադիր է Փնտրվող  մասնագետը  պետք  է  ունենա  գրագետ, կիրթ խոսելու ունակություն, կիրթ պահվածք, ցանկալի է,  որ  հայերենից  բացի, տիրապետեն ռուսերեն, անգլերեն լեզուների Պահանջվող հատկությունները՝ պարտաճանաչություն, կարգապահություն, նախաձեռնողականություն՝ մարքետինգի  ռազմավարություն մշակելու  և իրականացնելու  համար՝  ընկերության  կարգուկանոնի սահմաններում Հավելյալ նշումներ Աշխատավարձը՝ ֆիքսված + տոկոսներ Աշխատանքային գրաֆիկը՝ երկուշաբթիից շաբաթ -9.30-19.00 Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>7/4/2020</t>
+          <t>12/14/2020</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3021,17 +3021,17 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Հաշվապահ</t>
+          <t>Վաճառքի Մենեջեր</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>C&amp;F Co LLC</t>
+          <t>NewPlast CJSC</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Սի Ընդ Էֆ Քո ՍՊԸ-ին անհրաժեշտ է ազնիվ, պատասխանատվության բարձր զգացումով հաշվապահ (իգական սեռի) :  Հիմնական պարտականությունները  Հաշվապահական փաստաթղթերի կազմում և փաստաթղթաշրջանառության վարում  Հաշիվ-ապրանքագրերի ներմուծում համակարգչային ծրագիր, համակարգում և արխիվացում  E-invoicing ծրագրով հարկային հաշիվների դուրսգրում  Այլ հաշվապահական պարտականությունների իրականացում  Պահանջվող հմտություններ  Բարձրագույն կրթություն՝ տնտեսագիտության, ֆինանսների կամ հաշվապահության ոլորտներում  ՀԾ-Հաշվապահ ծրագրի, 1C, e-invoicing ծրագրերի իմացությունը կդիտվի որպես առավելություն  Համակարգչային ծրագրերի գերազանց իմացություն (MS office)  Հայերենի և ռուսերենի լավ իմացություն  Պատասխանատու և պարտաճանաչ մոտեցում աշխատանքին  Պլանավորման և ժամանակի կառավարման հմտություններ  Հետաքրքրված թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ընկերությանն անհրաժեշտ է Վաճառքի գծով ներկայացուցիչ (մենեջեր, պրեսելեր) շուկան զարգացնելու նպատակով:  Պարտականություններ Շուկայում ապրանքի ներկայացում, վաճառքի խթանում  Հանդիպումների նախաձեռնում, պայմանավորվածությունների ձեռք բերում  Ստուգայցերի կազմակերպում  Տվյալների գրանցում  Վաճառքի հետ կապված այլ պարտականություններ  Պահանջներ Բարձրագույն կրթություն  Վաճառքի հմտությունների տիրապետում  Արական սեռի ներկայացուցիչ  Վարորդական վկայականի ու մեքենայի առկայությունը պարտադիր է  Հայերեն և ռուսերեն լեզուների իմացություն  Համակարգչային գիտելիքներ /Excel, Word/  Բարձր ինտելեկտի առկայություն, գրագիտություն  Ճշտապահություն և ազնվություն Վաճառքի աշխատանքային պարտադիր փորձ  Շինանյութի բնագավառում փորձը կդիտվի որպես առավելություն  Հավելյալ նշումներ · CV-ն պետք է լինի Word կամ PDF ֆորմատով· Միայն Unicod ֆոնտով հավաքված տեքստը կընդունվի, оրինակ Sylfaen· CV-ի ֆայլը անվանեք ձեր անուն և ազգանունով Բոլոր ցանկացողները կարող են ուղարկել իրենց ռեզյումեները:  </t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>7/3/2020</t>
+          <t>12/13/2020</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
@@ -3053,17 +3053,17 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>IT ստորաբաժանման աշխատակից</t>
+          <t>Ներմուծման մենեջեր</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>BARSIS LLC</t>
+          <t>Շինարարական ՍՊԸ</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          «ԲԱՐՍԻՍ» ՍՊԸ -ն հրավիրում է  աշխատանքի ինֆորմացիոն տեխնոլոգիաների ստորաբաժանման աշխատակցի:  Աշխատանքային պարտականություններ՝  Համակարգչային տեխնիկայի ծրագրային ապահովում՝ բեռնում, վերականգնում  Հեռախոսային ցանցի և համակարգչային ցանցի վերահսկողություն, տեխնիկական խնդիրների լուծում  Ցանցային կապուղիների միացման անհրաժեշտ աշխատանքների իրականացում  Աշխատակցի գործառույթերից բխող օնլայն աջակցության տրամադրում սպասարկման ներքո գտնվող ստրաբաժանումների և կազմակերպությունների աշխատակիցներին  Ապահովել նոր տեխնիկական սարքավորումների տեղադրում և վերահսկել նրանց անխափան աշխատանքը  Ապահովել հեռահաղորդակցության համակարգի անխափան աշխատանքը  Անհրաժեշտ հմտություններ՝  Բարձրագույն տեխնիկական կրթություն  / պարտադիր /  ՏՏ բնագավառի աշխատանքային փորձ   / նախընտրելի /  B կարգի վարորդական վկայականի առկայություն  /նախընտրելի/  Ռուսերեն և անգլերեն լեզվի իմացություն  / նախընտրելի /  MS Windows 7/8/10; TCP/IP, DNS, DHCP, FTP, Linux Skills (Ubuntu, CentOS)իմացություն /  նախընտրելի /   Դիմելու համար կարող եք ուղարկել ռեզյումե նշված էլ. հասցեին:                         </t>
+          <t xml:space="preserve"> Նկարագրություն Ներմուծման և լոգիստիկայի գործառույթներ և պարտականություններ Պարտականություններ Պահանջվող ապրանքատեսականու գծով Ընկերության որակական և գնային չափանիշների համաձայն արտաքին շուկայի մշտական ուսումնասիրություն Նոր գործընկերների ներգրավում և գործարար բանակցությունների վարում Հարցումների կազմում և պատվերների ձևակերպում Մատակարարվող ապրանքների գների, ժամկետների, պայմանագրի այլ կետերի շուրջ բանակցային գործընթացների իրականացում և վերահսկում Լավագույն գնային և ապրանքային առաջարկներ ներկայացնող ընկերությունների համեմատական վերլուծություն Բեռնափոխադրող ընկերությունների մրցակցային առաջարկների մշտական ուսումնասիրություն, բեռնափոխադրման գործընթացի կազմակերպում Ճանապարհատրանսպորտային փաստաթղթերի պատրաստում Ներմուծման ողջ գործընթացի կազմակերպում և վերահսկում Անհրաժեշտ հաշվետվությունների կազմում և ներկայացում  Պահանջներ Բարձրագույն տնտեսագիտական/տեխնիկական կրթություն Ներմուծման, արտաքին կապերի և լոգիստիկայի ոլորտի աշխատանքային փորձ նվազագույնը 3 տարի Միջազգային առևտրի կանոնների, մաքսազերծման գործընթացի վերաբերյալ գիտելիքների առկայություն Համակարգչային գիտելիքներ (պարտադիր` MS Excel) Հայերեն, ռուսերեն, անգլերեն լեզուների գրավոր և բանավոր հաղորդակցման գերազանց ունակություն Գործարար հաղորդակցման և բանակցային հմտություններ Վերլուծական մտածելակերպ, որոշումներ կայացնելու ընդունակություն Պահանջվում է պարտադիր իգական սեռի թեկնածուՀավելյալ նշումներ Աշխատանքային օրեր՝ վեցօրյա երկուշաբթիից-ուրբաթ ժամը 9:00-ից 18:00 շաբաթ՝ 9:00-ից 14:00 Խնդրում ենք դիմել միայն համապատասխան պահանջներ ունեցող թեկնածուները: </t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3078,24 +3078,24 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>120 000</t>
+          <t>250.000</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Պրեսելեր Մերչնդայզեր</t>
+          <t>Փականագործ</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>«ԱյԹի Սերվիս» ՍՊԸ</t>
+          <t>ՋԻ Պեպսի-Կոլա Բոթլեր ՍՊԸ</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Կազմակերպությունը աշխատանքի է հրավիրում պրեսելեր մերչնդայզերի:  Պարտականություններ  Կատարել մարքեթինգային ուսումնասիրություններ  Ապահովել ընկերության ապրանքատեսականու ճիշտ դասավորությունը վաճառակետերում, հետևել գնապիտակների առկայությանն ու ճշտությանը:  Ղեկավարի կողմից տրված այլ հանձնարարություններ  Պահանջներ  Բարձրագույն կրթություն մարքեթինգի, տնտեսագիտության կամ նմանատիպ բնագավառներում  Վարորդական իրավունք, սեփական մեքենայի առկայություն  Տվյալ ոլորտում աշխատանքային փորձը կդիտվի առավելություն  Հավելյալ նշումներ  Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:                       </t>
+          <t xml:space="preserve"> Նկարագրություն ՋԻ Պեպսի-Կոլա Բոթլեր ընկերությունը փնտրում է փականագործ փականագործական աշխատանքների և սարքավորումների տեխնիկական սպասարկման համար: Պարտականություններ Իրականացնել փականագործական աշխատանքներ: Իրականացնել հոսքային գծերի, համակարգերի և սարքավորումների պլանային և ոչ պլանային տեխնիկական սպասարկում: Ապահովվել կաթսայատան, ճնշակների տեղամասի, CO տեղամասի և այլ օժանդակ համակարգերի անխափան աշխատանքը: Աշխատատեղը, պատասխանատվության վայրը և գործիքները պահել մաքուր վիճակում: Պահանջներ Միջնակարգ կրթություն, բարձրագույն տեխնիկական կրթությունը կդիտվի որպես առավելություն, 3+ տարվա համապատասխան աշխատանքային փորձ, Հայերեն և Ռուսերեն լեզուների լավ իմացություն, Տեխնիկական գրականություն, փաստաթղթեր և գծագրեր կարդալու և ընկալելու ունակություն: Հավելյալ նշումներ Հետաքրքրված և համապատասխան թեկնածուները կարող են ուղարկել ռեզյումե նշված էլ.հասցեին: ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար տարբերակներից: Հետևե՛ք հղմանը </t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>7/3/2020</t>
+          <t>12/13/2020</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
@@ -3117,17 +3117,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Լոգիստ Մենեջեր</t>
+          <t>Առաքիչ</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Դան Տրանս</t>
+          <t>Brand Leader</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Պահանջվում է լոգիստ մենեջեր 25 –ից 40 տարեկան (ար/իգ) բեռնափոխադրման ընկերությունում աշխատելու համար:  Պարտականություններ                                     Լոգիստիկ ընդհանուր գործառույթների կազմակերպում և վերահսկում              Համագործակցող ընկերությունների հետ կապի պահպանում,                   Վարորդների հետ կապի պահպանում   Վաճառքի հետ կապված գործառույթներ  Պատվերների բեռնափոխադրման գործընթացների կազմակերպում  Նամակագրություն և հեռախոսային կապի հաստատում գործընկեր կազմակերպությունների հետ  Պայմանագրերի և այլ անհրաժեշտ փաստաթղթերի պատրաստում:  Պահանջներ  Բարձրագույն կրթություն                                                                      Աշխատանքային փորձ                                                                         Ռուսերենի գերազանց իմացություն, անգլերեն լեզվի իմացությունը կդիտվի որպես առավելություն  Համակարգչի իմացություն:  Հավելյալ նշումներ  Աշխ. ժամեր երկուշաբթի-ուրբաթ 10:00 – 19:00.  Շաբաթ` 10:00-15:00, կիրակի` հանգիստ:                      </t>
+          <t xml:space="preserve"> Նկարագրություն «ԲրենդԼիդեր» ՀՁ ՍՊ Ընկերությունը փնտրում է երիտասարդ աշխատակիցների առաքիչի թափուր հաստիքը համալրելու նպատակով: Պարտականություններ Բեռնել ավտոմեքենան համաձայն օրվա պատվերների բեռնաաթափել առաքող մեքենան վաճառակետում՝ համաձայն պատվերի ստանալ գումար վաճառակետերից ստուգել հաշիվ-ապրանքագրի վրա ստորագրության և կնիքի առկայությունը Ապահով տեղափոխել ապրանքը Պահանջներ ցանկալի է աշխատանքային փորձ  թիմում աշխատելու ունակություն պարտաճանաչ մոտեցում աշխատանքին պատասխանատվության զգացում Հավելյալ նշումներ Աշխատանքային ժամեր` 8:30-18:00 (երկուշաբթի-շաբաթ) :Կիրակի օրը՝ հանգիստ: Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) էլ. հասցեին:  </t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3137,29 +3137,29 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>7/2/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>սկսած 140,000</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Ավագ PHP ծրագրավորող</t>
+          <t>Բժիշկ Գինեկոլոգ</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Հայաստանի ազգային ագրարային համալսարան</t>
+          <t>Վլադիմիր Ավագյանի անվան բժշկական կենտրոն ՍՊԸ</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  ՀԱԱՀ-ի ՏՏ կենտրոնի գործունեությունը նպատակաուղղված է տեղեկատվական տեխնոլոգիաների ուսումնասիրությանը և առավել արդյունավետ կիրառմանն ուսումնական գործընթացում։ Այժմ ընկերությունը փնտրում է մոտիվացված, թիմային աշխատանքի հմտությանը տիրապետող PHP ծրագրավորողի։ Ցանկանո՞ւմ ես միանակ մեր երիտասարդ թիմին, ուրեմն շտապիր դիմել։  Պարտականություններ  Ծրագրավորել (PHP, JavaScript), նախագծել կայքեր, փորձարկել և փաստաթղթավորել գործընթացները,  կիսել փորձառությունը ամբողջ թիմի հետ,  ուսումնասիրել արդի տեխնոլոգիաները և դրանց կիրառման վերաբերյալ տրամադրել խորհրդատվություններ,  սահմանել, փաստաթղթավորել և կիրառել չափորոշիչները,  ուսումնասիրել, հասկանալ և փոփոխել գրված կոդերը,  մասնակցել ծրագրի նախագծման քննարկումներին։  Պահանջներ  PHP ծրագրավորման լեզվի գերազանց իմացություն և առնվազն երեք տարվա աշխատանքային փորձ,  PHP Framework-ի (Laravel) գերազանց իմացություն և առնվազն երկու տարվա աշխատանքային փորձ,  Javascript-ի լավ իմացություն,  MVC, OOP-ի հիմունքների իմացություն ,  Git-ի իմացություն,  MySQL տվյալների բազայի ձևավորում և ծրագրավորում,  Տվյալների բազայի նախագծման սկզբունքների իմացություն,  Առաջացած խնդիրների արագ հայտնաբերման և լուծման հմտություններ,  Բարձրագույն կրթություն,  Jira-ի իմացությունը կդիտվի որպես առավելություն  Հավելյալ նշումներ  Ընկերությունը շնորհակալություն է հայտնում բոլոր հետաքրքրված դիմորդներին, բայց հարցազրույցի համար կընտրվեն բացառապես նշված հմտությունները և որակավորումներն ունեցող ծրագրավորողները։                      </t>
+          <t xml:space="preserve"> Նկարագրություն ՙՙՎլադիմիր Ավագյանի անվան բժշկական կենտրոն՚՚ ՍՊԸ-ին անհրաժեշտ է փորձառու գինեկոլոգ: Պարտականություններ Հիվանդների ամբուլատոր ընդունելություն և բուժումների նշանակում Բուժ-ախտորոշիչ մանիպուլացիաների իրականացում Կոլպոսկոպիա Էլեկտրոնային հիվանդության պատմագրի վարում Բժշկական փաստաթղթի լրացում Պահանջներ Բարձրագույն բժշկական կրթություն Աշխատանքանյին փորձ Համակարգչի լավ իմացություն Թիմային աշխատանքի ունակություն Հավելյալ նշումներ Երկուշաբթիից - ուրբաթ՝  09:00-18:00 Շաբաթ՝ ըստ անհրաժեշտության։ </t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -3169,29 +3169,29 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>7/2/2020</t>
+          <t>Full time</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>Պայմանագրային</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Audit Assistant</t>
+          <t>Վարորդ (ուղևորաբեռնատար մեքենայով)</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>KPMG Armenia</t>
+          <t>Ucom</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          TITLE: Audit Assistant  OPEN TO/ELIGIBILITY CRITERIA: All interested candidates  LOCATION: Yerevan, Armenia  JOB DESCRIPTION: Work to perform includes but is not limited to:  Examination of the results of previous audits in order to understand the processes that are specific for the particular client;  Reconciliation of account balances per client records to those per confirmation letters;  Confirmation of an accurate and complete list of vendors;  Study of methods of accounting for inventories used by the client;  Conducting an existence test of inventories/fixed assets/cash as of the year end;  Testing of existing processes and controls of the particular client;  Assisting team leader in the performance of other tasks relevant to audit assistant’s grade.  REQUIREMENTS:  University degree in Accounting/Finance/Economics (honors diploma, MBA, MA desirable);  Fluent in Armenian, English, and Russian;  Readiness for intensive work and learning;  Be able to take business trips;  Ability to work full time;  Have the skills to work in a team;  Have the skills of analytical work;  Willingness to develop professionally (ACCA);  Computer skills – good knowledge of office software.  ABOUT COMPANY: KPMG International is a global network of professional firms providing Audit,  Tax and Advisory services. We operate in 147 countries with over 219,000 people working in member firms around the world.                      </t>
+          <t xml:space="preserve"> Նկարագրություն Ucom ընկերությունը փնտրում է մոտիվացված և եռանդուն վարորդի՝ սեփական ուղևորաբեռնատար մեքենայով Երևանում աշխատելու համար: Պարտականություններ Տրանսպորտային միջոցի վարում, Համապատասխան հաշվետվությունների ներկայացում՝ ընկերությունում հաստատված ներքին իրավական ակտերի համաձայն: Պահանջներ Միջնակարգ կրթություն, Աշխատանքային փորձ, Հայերեն և ռուսերեն լեզուների իմացություն, Ամրագրված տրանսպորտային միջոցի վարման վարորդական իրավունք՝ համապատասխան կարգերով ( BC կարգ ): Հետաքրքրված թեկնածուները կարող են դիմել` ուղարկելով ռեզյումե նշված էլ. հասցեին կամ դիմել նամակի միջոցով: </t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -3201,7 +3201,7 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>7/2/2020</t>
+          <t>12/11/2020</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
@@ -3213,17 +3213,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Ինտերիեր Դիզայներ</t>
+          <t>React Front End Developer</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Armesa by Hani</t>
+          <t>Intellcores LLC</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Հաճախորդների բարձր գոհունակությունը պահելու նպատակով "Արմեսա բայ Հանի" դիզայն ստուդիան շտապ փնտրում է աշխատանքային փորձով կրեատիվ և ԱՐԱԳԱՇԱՐԺ ինտերիերի դիզայներների!  Պահանջներ՝  աշխատանքային փորձ  շինարարական նյութերի իմացություն  նախագծի իրականացման վերահսկողության փորձ  3ds Max և Autocad (ArchiCad) ծրագրերի իմացություն  գրաֆիկական դիզայնի հմտությունները կդիտվեն որպես առավելություն  բարձր պատասխանատվության զգացում  Բարձր աշխատավարձը երաշխավորվում է։  Ցանկացողները ուղարկեն CV՝ պարտադիր կցելով PORTFOLIO:                      </t>
+          <t xml:space="preserve"> Industry:                      IT/Software Development Organization:               Hylink LLC Description:                  We are looking for a React Front-end Developer to deliver a rich front-end and user experience through clear and refined interfaces, functionality that empowers our customers. The ideal candidate has hands-on experience with React, willing to work in a fast-paced, innovative environment, and collaborate within teams to drive the technology of our platform forward. Job responsibilities:          Understand business requirements, functionality, and customer needs to create an intuitive, feature-rich, and user-friendly experience with new applications and updating existing code Ensure high quality of web front-end component development, including adherence to UX/UI best practices; Participate in all cycles of software design and development; Ensure deliverables meet requirements and specifications for functionality, performance and reliability; Required qualifications:    BS/MS in Information Systems/ Software Engineering/ Computer Science or a related field; Skilled with common front-end technologies such as HTML, CSS, JS, TypeScript, and other front-end related languages    2+ years of professional front end development; Experience of working in a team; Good in English writing is a plus; Working knowledge of HTML, CSS, JS, AngularJS; Interested and matching candidates are requested to send their CVs to the mentioned email. </t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -3233,29 +3233,29 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/12/2020</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>350,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Նախագծերի Ֆինանսավորման վարկավորման բաժնի վերլուծաբան</t>
+          <t>Quality Assurance Engineer</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ARMSWISSBANK CJSC</t>
+          <t>Intellcores LLC</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Արմսվիսբանկ ՓԲ ընկերության Վարկավորման դեպարտամենտի Նախագծերի Ֆինանսավորման բաժնին անհրաժեշտ է համապատասխան աշխատանքային փորձով վարկային վերլուծաբան:   Պարտականություններ  Գործող և պոտենցիալ հաճախորդների հետ հանդիպումների իրականացում, գործարքի կամ համագործակցության պայմանների, բանկի հետ համագործակցության զարգացման հեռանկարների քննարկում,  Այցելությունների կատարում հաճախորդների գործունեության և/կամ գրավի առարկայի վայր,  Վարկային կոմիտե ներկայացվող նյութերի պատրաստում, մասնագիտական եզրակացության կազմում,  Վարկի պայմանները վերանայելու դիմում ներկայացնելու դեպքում կամ մոնիթորինգի նպատակով վարկառուի ֆինանսական վիճակի վերլուծության իրականացում, Վարկային կոմիտե ներկայացնելու համար եզրակացության պատրաստում,  CRM համակարգում անհրաժեշտ գրանցումների կատարում,  Անհրաժեշտ փաստաթղթերի հավաքագրում,  Համապատասխանության եզրակացության կազմում, ներկայացում Վարկային կոմիտե, փաստաթղթերի ամփոփում և փոխանցում Ձևակերպումների բաժին,  ՎԿ արձանագրության համապատասխանության, պատրաստվող պայմանագրերի համապատասխանության ստուգում ՎԿ որոշումներին, հաճախորդի կողմից նախապայմանների կատարման ստուգում, գրավների պատշաճ ձևակերպում և գրանցում, ստորագրող կողմերի ինքնության բացահայտում, կեղծ կամ թերի փաստաթղթերի բացառում և այլն,  Հաճախորդներին խորհրդատվությունների տրամադրում,  Բաժնի հետ առնչվող աշխատանքների վերաբերյալ հաշվետվությունների, պրեզենտացիաների կազմում,  Գործընկեր միջազգային կառույցների հետ նամակագրության իրականացում   Պահանջներ  Բարձրագույն տնտեսագիտական կրթություն,  Առնվազն 1 տարվա աշխատանքային փորձ Բանկային/ֆինանսական ոլորտում,  Կորպորատիվ վարկային հաճախորդների հետ աշխատանքային փորձը ցանկալի է,  ֆինանսական վերլուծության հիմունքների իմացություն,  Նախաձեռնող, ճկուն և վճռական,  Պատասխանատվության բարձր աստիճան,  Հաղորդակցման և կազմակերպչական գերազանց հմտություններ,  Հայերեն և անգլերեն լեզուների գերազանց իմացություն,  Microsoft Office ծրագրային փաթեթի գերազանց իմացություն,   Arm Soft Bank իմացությունը ցանալի է                         </t>
+          <t xml:space="preserve"> Industry:                          IT/Software Development Organization:                   Hylink LLC Description:                     Quality Assurance (QA) engineer to develop and execute exploratory and automated tests to ensure product quality. Job responsibilities:          Create detailed, comprehensive and well-structured test plans and test  cases; Design, develop and execute automation scripts using open source tools; Perform thorough regression testing when bugs are resolved;using test automation frameworks investigating problems in software as a result of testing working with QA analysts and software developers to find solutions  Required qualifications:    BS/MS in Information Systems/ Software Engineering/ Computer Science or a related field; Create and execute test plans including manual and automated test case; Strong knowledge of software QA methodologies, tools and processes; Experience in writing clear, concise and comprehensive test plans and test cases; Hands-on experience with automated testing tools Experience with automated tools (e.g., Selenium, Protractor, Mocha); Experience working in an Agile/Scrum development process; Proven work experience in software quality assurance; Experience with performance and/or security testing is a plus;              2+ years of QA engineer experience; Interested and matching candidates are requested to send their CVs to the mentioned email. </t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>7/1/2020</t>
+          <t>12/12/2020</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3277,17 +3277,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Call Centre Agent</t>
+          <t>Կոնստրուկտոր</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AG Trans Corporation</t>
+          <t>"Սոգլասիե-Արմենիա" ՍՊԸ</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          AG Corporation is looking for Call Centre Agents.  The position is permanent, full time and with a fixed salary of 250,000 AMD monthly.  Requirements:  1. Knowledge of English, Russian (fluent)2. Microsoft office, outlook, google map.3. Availability to work night shifts. Working hours are Mon.-Fri. 22:00-06:00.  Responsibilities:  Coordinating.  Scheduling.  Paperwork.  Receiving, responding, and following up the emails.  Personal assistant duties.  Booking appointments.  Preparing reports.  If you are interested in this position start the application process by sending your resume to our email.                      </t>
+          <t xml:space="preserve"> Նկարագրություն Կազմակերպությունը աշխատանքի է հրավիրում փորձառու կոնստրուկտորի: Պարտականություններ Մշակել կոնստրուկտիվ լուծումներ և օպտիմալ կոնստրուկտիվ սխեմաներ կառույցների համար Իրականացնել կոնստրուկցիաների աշխատանքների նախագծեր Կատարել կոնստրուկցիաների դինամիկ հաշվարկներ համապատասխան հաշվարկային ծրագրերով Հսկել շինարարական աշխատանքների ընթացքը և իրականացնել հեղինակային հսկողություն կառույցների կոնստրուկցիաների համար Պահանջներ բարձրագույն մասնագիտական կրթություն արտոնագրված մասնագետ առնվազն 5 տարվա աշխատանքային փորձ AutoCad և հաշվարկային ծրագրերի պարտադիր իմացություն մասնակցություն նախագծման աշխատանքների իրականացման շինարարության տեխնոլոգիաների հիմնական դրույթների իմացություն աշխատանքների պորտֆոլիոյի առկայությունը ցանկալի էկոնֆլիկտային իրավիճակների կառավարման հմտություններ նպատակամետություն թիմում աշխատելու և ինքնուրույն որոշումներ կայացնելու ունակություն հաղորդակցվելու հմտություններ և սթրեսսակայունություն  Հայերեն և ռուսերեն լեզուների վարժ տիրապետում, ցանկալի է անգլերենի իմացություն Հավելյալ նշումներ Աշխատաժամեր` երկուշաբթիից-ուրբաթ 09:00-17:00, շաբաթ օրը 09:00-15:00: Կիրակի՝ հանգիստ: Դիմելու համար կարող եք ուղարկել ռեզյումե նշված էլ. հասցեին: ՆՇՈՒՄ. Այն դիմորդները, որոնք չունեն ռեզյումե, կարող են օգտվել job.am կայքի կողմից առաջարկված ռեզյումեի անվճար տարբերակներից: Հետևե՛ք հղմանը </t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3297,29 +3297,29 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/12/2020</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>250,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SEO Content Writer</t>
+          <t>Ճարտարապետ</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Web One Studio</t>
+          <t>"Սոգլասիե-Արմենիա" ՍՊԸ</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Web One Studio is looking for an experienced SEO content writer.  The main duties include:  Writing search engine optimized copy  Optimizing current copy on a client's website (page titles, Meta descriptions, h1s, alts, anchor, text, etc.)  Blog writing and posting  Backlinking  Keyword research  Rank analysis  Content marketing strategy analysis  Content writing for different WebSites  The main skills that an SEO content writer should possess include:  Verbal and written communication skills.   Knowledge of SEO and how it applies to content marketing  Basic knowledge of HTML  Knowledge of analytics tools like Google and Bing analytics.                          </t>
+          <t xml:space="preserve"> Նկարագրություն Շինարարական կազմակերպությունը աշխատանքի է հրավիրում փորձառու ճարտարապետի: Պարտականություններ Ճարտարապետական և դիզայներական աշխատանքների իրականացում Աշխատանքային գծագրերի կատարում Եռաչափ մոդելավորում Հատակագծերի մշակում Չափագրություն Պահանջներ Բարձրագույն կրթություն ճարտարապետության ոլորտում Արտոնագրված մասնագետ Աշխատանքային փորձը համապատասխան պաշտոնում ցանկալի է Աշխատանքների պորտֆոլիոյի առկայությունը ցանկալի է Կոնֆլիկտային իրավիճակների կառավարման հմտություններ Նպատակամետություն Թիմում աշխատելու և ինքնուրույն որոշումներ կայացնելու ունակություն Հաղորդակցվելու հմտություններ և սթրեսսակայունություն Համակարգչային գերազանց գիտելիքներ` MS Office, ArchiCad, AutoCad և 3ds Max ծրագրերի իմացություն Հայերեն և ռուսերեն լեզուների վարժ տիրապետում, ցանկալի է անգլերենի իմացություն Առնվազն 5 տարվա աշխատանքային փորձ Հավելյալ նշումներ Աշխատաժամեր` երկուշաբթիից-ուրբաթ 09:00-17:00, շաբաթ օրը 09:00-15:00: Կիրակի՝ հանգիստ: Կարող եք ուղարկել ձեր CV-ն և ցանկալի է պորտֆոլիոն նշված էլ․ հասցեին։ </t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -3329,7 +3329,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>7/1/2020</t>
+          <t>12/12/2020</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3341,17 +3341,17 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Օպերատոր Հաշվետար</t>
+          <t>Менеджер по работе с клиентами</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Exterior Group LLC</t>
+          <t>Nairi Call</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  Էքստերիերը աշխատանքի է հրավիրում օպերատոր-հաշվետարի:   Պարտականություններ  Պատվերների ձևակերպում 1C ծրագրով  Ապրանքների մուտքեր, ելքեր, տեղափոխություններ 1C ծրագրով  Հաշիվ-ապրանքագրերի կազմում   Պահանջներ  Կրթություն` տնտեսագիտական  Առնվազն 2 տարվա աշխատանքային փորձ որպես օպերատոր  1C ծրագրի պարտադիր լավ իմացություն  ՀԾ-ի իմացությունը ցանկալի է  կազմակերպվածություն, բարձր պատասխանատվություն աշխատանքի նկատմամբ  սեռը` արական  տարիքը` 25-35 տարեկան  Հավելյալ նշումներ  Աշխատանքային օրերը` երկուշաբթիից շաբաթ ժամը 9:00-18:00:                       </t>
+          <t xml:space="preserve"> Описание Крупный call-center в Армении,который является официальным представителем самого популярного онлайн банка в России, обьявляет набор в г.Ереване на вакансию менеджера по работе с клиентами. Требования русскоязычные девушки (сотрудник обязан говорить без акцента) речевая и письменная грамотность,  инициативность и способность к самостоятельной работе владение ПК на уровне пользователя Обязанности работа на входящем потоке заявок, консультирование, составление просчетов на продукцию работа на исходящих звонках по определенной базе клиентов,  оформление необходимых документов,  Другие условия Перед поступлением на работу кандидаты обязаны пройти бесплатное обучение у специалистов компании. Заинтересованным и подходящим кандидатам предлагается отправить свои резюме на указанный адрес электронной почты.     </t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -3361,29 +3361,29 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/11/2020</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>180,000</t>
+          <t>Full time</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Վաճառողուհի / Կայքի սպասարկող</t>
+          <t>Ճարտարագետ /չափագրող ինժեներ/</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>OBD.am</t>
+          <t>ASEDL LLC</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t xml:space="preserve">                          Նկարագրություն  OBD.am ավտոաքսեսուարների խանութում պահանջվում է վաճառողուհի, կայքի սպասարկող:  Պարտականություններ  Հմտորեն ներկայացնել ապրանքատեսականին հաճախորդներին  Նպաստել  ապրանքատեսականու վաճառքի ընդլայնմանը  Դրսևորել  անհատական նախաձեռնություններ՝  մարքեթինգի ուղղությամբ  Առցանց կայքի սպասարկում  Պատվերների առցանց ընդունում   Պահանջներ  Ցանկալի է՝ տեխնիկական կրթություն և աշխատանքային փորձ նմանատիպ ոլորտում  Փնտրվող  մասնագետները  պետք  է  ունենան  գրագետ, կիրթ խոսելու ունակություն, կիրթ պահվածք, պարտադիր (բացի հայերենից) ռուսերեն լեզվի, նաև  անգլերենի բավարար իմացություն  Համակարգչային ծրագրերի իմացություն (MS office, WEB, ցանկալի է նաև Photoshop)  Հաճախորդների հետ շփվելու ունակություն  Տարիքը` 20 և բարձր  Հավելյալ նշումներ  Աշխատանքային գրաֆիկը՝ շաբաթական 6 օր, աշխատանքային ժամերը՝ 10։00-19:30:Ինքնակենսագրականները ուղարկել նշված էլեկտրոնային հասցեին, պարտադիր կցելով լուսանկար:                      </t>
+          <t xml:space="preserve"> Նկարագրություն Իրականացնում է նախագծի պլանավորման,չափագրման, գծագրման աշխատանքներ; Նախագծի տվյալները(գծագրերի, տեխնիկական տվյալների միջոցով) տրամադրում է արտադրության բաժնին; Պլանավորում է աշխատանքների կատարման ժամկետները; Հետևում է պրոեկտի իրականացման ընթացքին՝ չափագրումից մինչև հանձնում-ընդունում; Հետևողական է արտադրության աշխատանքների՝ նշված ժամանակահատվածում կատարմանը, շինհրապարակում (աշխատանքների կատարման վայր) աշխատանքների ճիշտ ընթացքին և կազմակերպմանը; Հետևողական է լինում, որպեսզի նախագծի իրականացման ընթացքում խնդիրներ չառաջանան; Ապահովում է հաճախորհդների հետ կապը՝նախագծի իրականացման ժամանակ առաջացած խնդիրներին առաջարկում ինժիներական լուծումներ; Արտադրության վաճառքի բաժնի հաճախորհդներին տալիս է  հստակ ինֆորմացիա պրոեկտի առավելությունների և առաջացող թերությունների վերաբերյալ; Պահանջներ Ճարտարագետի բարձրագույն  կրթություն; Ճարտարագետի աշխատանքային փորձ; Ադմինիստրատիվ  աշխատանքներ կատարելու փորձ; MS Office, AutoCade ծրագրերի իմացություն; Թիմային աշխատանքի հմտություն;  Տվյալների բազայի հետ աշխատանքի հմտություն. Հավելյալ նշումներ Ընկերությունը աշխատում է 6-օրյա աշխատանքային գրաֆիկով: </t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -3393,12 +3393,268 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Full time</t>
+          <t>12/10/2020</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>70000դրամ+տոկոսներ վաճառքից,նախնական մոտ 90000դրամ</t>
+          <t>Full time</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Վարորդ Առաքիչ</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Ice House</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Նկարագրություն "DILI" կաթնամթերքի առաքում  Պարտականություններ ապրանքների առաքում` ըստ նշված կետերի, ապրանքի տեսքի, որակի պահպանման ապահովում  իր մոտ գտնվելու ընթացքում, սերտ կապի ապահովում մենեջերի հետ, ապրանքի ընդունման-հանձնման, վաճառքի կետի հետ կապված որևէ հարցի կամ ցանկացած այլ պարագայում: Պահանջներ կրթությունը` միջնակարգ / բարձրագույն, աշխատանքային փորձը ցանկալի է, վարորդական իրավունք: Հավելյալ նշումներ Աշխատանքային օրերը՝ ոչ լրիվ աշխատանքային է, կախված է տարածքի բաշխումից, իսկ ժամերը տվյալ տարածքի առևտրային կետերի ապրանքների լիարժեք մատակարարումից: </t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Գործարքային</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Հաշվապահ</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Նարսան ՍՊԸ</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Նկարագրություն Նարսան ՍՊ ընկրությանը շտապ անհրաժեշտ են հաշվապահներ: Պարտականություններ Հաշվապահի ընդհանուր պարտականությունների իրականացում  Բանկային հաշիվների կառավարում  Հաշվետվությունների կազմում, հաշիվ/ապրանքագրերի դուրս գրում, ՀԾ ծրագիր ներմուծում, ձևակերպում  Ներմուծված ապրանքների փաստաթղթերի մուտքագրում և ձևակերպում ՀԾ ծրագիր  Հաշվապահությանն առնչվող փաստաթղթերի վարում  Գլխավոր հաշվապահի այլ հանձնարարությունների կատարում   Պահանջներ Բարձրագույն տեխնիկական կամ տնտեսագիտական կրթություն  Աշխատանքային փորձը պարտադիր է  Համակարգչային գրագիտություն և էլեկտրոնային դիմումների հետ աշխատելու փորձ  Գրավոր և բանավոր հաղորդակցվելու, առաջնորդելու և թիմային աշխատանք կազմակերպելու ունակությունները ցանկալի են  Սեղմ ժամկետների շրջանակներում աշխատելու, կառավարելու, կազմակերպելու և որոշումներ կայացնելու, ինչպես նաև ինքնուրույն աշխատելու ունակություն  Հայկական հաշվապահական ծրագրերի հմուտ իմացություն, համակարգչային MS office(Excel) ծրագրերի փաթեթի տիրապետում Հավելյալ նշումներ Վեցօրյա աշխատանքային գրաֆիկ։ Կիրակի օրերը և ամսեկան 1 կամ 2 շաբաթ օր հանգիստ։ Ժամերը 9:00-18:00:   </t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Մրցակցային, բարձր</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Բնակարանային վաճառքի մասնագետ</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Zeytun LLC</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Նկարագրություն Պահանջվում է բնակարանային վաճառք իրականացնող մասնագետ: Պարտականություններ  Հաճախորդների հետ կապերի ստեղծում  Բանակցությունների վարում  Հեռախոսազանգերի վերահսկում  Փաստաթղթերի հետ աշխատանքի վարում Պահանջներ Բարձրագույն կրթություն Աշխատանքային փորձը ցանկալի է Համակարգչային հմտություններ Հաճախորդների հետ շփման բարձր ունակություն Ռուսերեի իմացություն Հավելյալ նշումներ Աշխատանքային օրեր և ժամեր ՝ երկուշաբթիից ուրբաթ՝ 10:00-18:00, շաբաթ 10:00-16:00 </t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>12/9/2020</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Գործավար</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>ԱԼՖԱ-ՖԱՐՄ ՓԲԸ</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Նկարագրություն «Ալֆա-Ֆարմ» ընկերությունն աշխատանքի է հրավիրում գործավարի։ Պարտականություններ Ուսումնասիրել ապրանքների ձեռքբերման պայմանագրերի կոմերցիոն պայմանները, հետևել դրանց կատարման ընթացքին,  Կազմել համապատասխան հաշվետվություններ, հետևել պարգևատրումների ստացման ժամանակացույցին,  Ապահովել փորձագիտական կենտրոնի ներկայացրած եզրակացության համապատասխան ներդիրների ժամանակին փոխանցումը լոգիստիկ բաժին, ներդիրների փոփոխության վերաբերյալ ակտերի կազմումն ու Առողջապահության Նախարարություն ուղարկումը, Հաշվառել մատակարարների հայտարարած ակցիաները, ավարտից հետո պատրաստել ու տրամադրել հաշվետվություններ,  Պատրաստել մատակարարների ներկայացուցիչների հետ ներդիրների փոփոխության պայմանագրեր և  դրանց հիման վրա վերահսկել կատարվող վճարումները, Վերահսկել պայմանագրերի գործունեության ժամկետները ու տեղեկատվություն տրամադրել գնումների մասնագետներին, Պահանջվող պարբերականությամբ 1С ծրագրից արտահանել և  տրամադրել վաճառքների ու մնացորդների վերաբերյալ տարբեր չափորոշիչներով հաշվետվություններ, Պատրաստել հայերեն մակնշում պահանջող ներմուծված ապրանքների համար հայերեն ստիկերների տեքստերը, Գրանցել և արխիվացնել արտաքին կապերի բաժնի աշխատանքային բոլոր փաստաթղթերը, Կատարել բաժնի ղեկավարի այլ հանձնարարություններ: Պահանջներ Բարձրագույն կրթություն, Առնվազն երեք տարվա համապատասխան աշխատանքային փորձ, Գործնական բանակցություններ վարելու ունակություն, Ընդգծված կազմակերպչական հմտություններ և բարձր պատասխանատվություն, Համակարգչային ծրագրերի լավ իմացություն (MS Office), Հայերենի  գերազանց իմացություն,  անգլերենի և ռուսերենի իմացություն, Թիմային աշխատանքի պատրաստակամություն, Սթրեսային իրավիճակներում աշխատելու ունակություն: Հավելյալ նշումներ Հետաքրքրված անձինք կարող են ուղարկել իրենց ինքնակենսագրությունը (CV) նշված էլ. հասցեին։ </t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>12/13/2020</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Մարքեթինգի Տնօրեն</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>ASEDL LLC</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Նկարագրություն Ընկերությունը փնտրում է Մարքեթինգի տնօրենի, ով պատասխանատու է լինելու կազմակերպության մարքեթինգային քաղաքականության մշակման, իրականացման համար: Պարտականություններ Մշակում և իրականացում է ընկերության մարքեթինգային եւ հաղորդակցման ռազմավարությունները`  հավաստիանալով, որ այն ծառայում է ընկերության ընդհանուր ռազմավարությանը և ներքին մշակույթին; Իրականացնում է ընթացիկ շուկայական հետազոտություններ և վերլուծություններ, հանդես է գալիս ընկերության շուկայական մասնաբաժինը ընդլայնելու առաջարկություններով; Մշակում է ընկերության տարեկան և սեզոնային գնային ռազմավարությունը ըստ ապրանքատեսակի և գնորդների սեգմենտների; Պատրաստում է ապրանքների զեղչման հատուկ միջոցառումներ, կապված տոների կամ այլ իրադարձությունների հետ; Վաճառքի բաժնի հետ համատեղ կատարում է վաճառքների վերլուծություն և հայտնաբերում է ապրանքների վաճառքների անկման պատճառները;  Կատարում է ապրանքների պորտֆելի վերլուծություն և հանդես է գալիս պորտֆելի շրջանառության և շահութաբերության բարձրացման առաջարկություններով; Ապահովում է մարքեթինգի բաժնի ֆինանսական միջոցների արդյունավետ օգտագործումը տարվա համար սահմանված մարքեթինգային նպատակներին հասնելու համար; Կազմակերպում և իրականացնում է կազմակերպության արտադրանքի և ներմուծված ապրանքանիշերի գովազդը, ապահովում է այդ ապրանքանիշերի և ընկերության  ճանաչելիությունը; Կազմակերպում և վերահսկում է սոցիալական կայքերում ընկերության առաջարկների գովազդը; Մշակում է մարքեթինգի բաժնի ընթացակարգերը;Ներկայացնում է հաշվետվություններ Մարքեթինգային ծախսերի վերաբերյալ; Ներկայացնում է հաշվետվություններ կատարողականի վերաբերյալ; Պահանջներ Համապատասխան ոլորտի բարձրագույն կրթություն; 3-5 տարվա աշխատանքային մասնագիտական փորձ; Գրավոր և բանավոր հաղորդակցման հմտություններ; Անգլերեն և ռուսերեն լեզուների գերազանց իմացություն; Պլանավորման ունակություն; Ֆինանսական վերլուծություն կատարելու ունակություն; Թիմում աշխատելու կարողություն; Հավելյալ նշումներ Ընկերությունը աշխատում է 6 օրյա աշխատանքային ռեժիմով: </t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>12/12/2020</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Հացթուխ</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Brand Leader</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Բոնուս սուպերմարկետների ցանցի  ք․ Երևանի Նոր Նորքի 9-րդ զանգվածի, Վիլնյուսի 67/2 հասցեում գտնվող սուպերմարկետի հացի փռին անհրաժեշտ է հացթուխ։ Պահանջներ Աշխատասիրություն, մաքրասիրություն Ժամանակի արդյունավետ տնօրինման հմտություն  Պատասխանատվության զգացում Թիմում աշխատելու ունակություն Տարածքի բնակիչ ԲԱՐՁՐ ԱՇԽԱՏԱՎԱՐՁԸ ԵՐԱՇԽԱՎՈՐՎՈՒՄ Է։ Հասցե՝  Աշխատանքը Նոր Նորքի 9-րդ զանգվածում է, Վիլնյուսի 67/2 հասցեում,  ցանկալի է դիմեն նշված տարածքին մոտ բնակվող անձիք։ Աշխատանքային ժամեր` 05:00-17:00 Դիմելու համար կարող եք ուղարկել ինքնակենսագրական կամ դիմել նամակի միջոցով: Եթե ռեզյումեի կամ էլ.փոստով դիմելու հնարավորություն չունեք, կարող եք զանգահարել կազմակերպության էջում նշված հեռախոսահամարով՝ 099-846-777 : </t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Գործարքային</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>IT Project Manager</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Adrack LLC</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Նկարագրություն: Adrack is looking for an Agile Software Development Project Manager (Scrum Master), responsible for providing technical project planning, management, and oversight of key initiatives and implementation projects, ensuring that the projects are completed on-time, within scope and budget, and business requirements.   Job Responsibilities: Serve as a gateway between business, stakeholders, and the development team. Manage day-to-day operational aspects of multiple projects including maintaining artifacts for planning, execution, and close-out of key initiatives. Ensures that the Minimum Viable Product (MVP) is clear and understood by all project or delivery teams. Conduct business analysis, market research, time estimation for project stages. Develop roadmaps, interactive Gantt charts to make processes more efficient. Track and assure that projects are completed according to schedule.  Conduct regular project planning and review meetings.  Clarify and communicate project objectives and success criteria to the team. Manage scope changes, manage a risk register as well as follow-up on action items to ensure high quality and on-time initiatives by escalating issues in a timely fashion. Effectively apply best practice methodology, inspect, adapt and enforce standards. Remove barriers, communicate and escalate as required. Hold Teams accountable to make and meet commitments. Be able to understand when to focus on deadlines and when to focus on quality.     Job Requirements: Strong leadership qualities. Strong project management skills. Scrum certification. Professional written and communication skills in English. Multi-tasking under stress to meet deadlines. Experience with project management tools such as JIRA, MS project. Solid understanding of SDLC and working in an Agile/Scrum development environment.   Experience and Certifications: Technical Project Management: 5 years  (Required) Agile: 3 years (Required) Software Developer: 2 years (Preferred) PMP Certification (Preferred) Scrum Master Certification (Preferred) </t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>12/9/2020</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Full time</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Senior React.js Developer</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Adrack LLC</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> About: Adrack is looking for a skilled React.js Developer to join our front-end development team. In this role, you will be responsible for developing and implementing user interface components using React.js concepts and workflows such as Redux, Flux, and Webpack. You will also be responsible for profiling and improving front-end performance and documenting our front-end codebase. To ensure success as a React.js Developer, you should have in-depth knowledge of JavaScript and React concepts, excellent front-end coding skills, and a good understanding of progressive web applications. Ultimately, a top-class React.js Developer should be able to design and build modern user interface components to enhance application performance. The Company uses Microsoft based technologies (Azure, C#, SQL Server) and employ an Agile practice with consistent reviews from the project and development manager. If you’re also familiar with Agile methodologies, we’d like to meet you.   Responsibilities:   Developing and implementing front-end architecture to support user interface concepts using React concepts. Provides story or business requirements breakdown planning and estimation, reviews and evaluates the team's estimates Ability to understand business requirements and translate them into technical requirements Identifying web-based user interactions and improvements of applications like improving response time and compatibility with different browsers. Troubleshooting interface software and debugging application codes. Monitoring and improving front-end performance. Documenting application changes and developing updates. Meeting with the development team to discuss user interface ideas and applications.  Requirements: Bachelor’s degree in Computer Science, Information Technology, or a similar field. 5+ years of JavaScript front-end development 5+ years consuming RESTful web services Previous experience working as a React.js Developer. In-depth knowledge of JavaScript, ReactJS, TypeScript, CSS, HTML  Understanding of JavaScript Design patterns, transpilers, and module bundlers. Knowledge of REACT tools including React.js, Webpack, Enzyme, Redux, and Flux. Experience with various UI toolkits and interaction models including responsive design Understanding of MVC / MVVM / MVP structure and development patterns Unit Testing, Puppeteer, Automated Testing, Cross Browser Testing, Cross-Device Testing Knowledge of performance testing frameworks including Mocha and Jest. Ability to work closely with backend engineers specific to the implementation of back&lt;-&gt;front business logic Experience with browser-based debugging and performance testing software. </t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Yerevan</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>12/9/2020</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Full time</t>
         </is>
       </c>
     </row>
